--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T496"/>
+  <dimension ref="A1:T500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E430" t="n">
         <v>5</v>
@@ -34755,29 +34755,29 @@
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M430" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="N430" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O430" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P430" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R430" t="inlineStr">
@@ -34786,10 +34786,10 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>875</v>
+        <v>1200</v>
       </c>
       <c r="T430" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="431">
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E431" t="n">
         <v>5</v>
@@ -34835,7 +34835,7 @@
       </c>
       <c r="K431" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L431" t="inlineStr">
@@ -34844,20 +34844,20 @@
         </is>
       </c>
       <c r="M431" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="N431" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O431" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P431" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R431" t="inlineStr">
@@ -34866,10 +34866,10 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="T431" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="432">
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E432" t="n">
         <v>5</v>
@@ -34915,41 +34915,41 @@
       </c>
       <c r="K432" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M432" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="N432" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O432" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P432" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R432" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S432" t="n">
-        <v>625</v>
+        <v>1133</v>
       </c>
       <c r="T432" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="433">
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E433" t="n">
         <v>5</v>
@@ -34995,16 +34995,16 @@
       </c>
       <c r="K433" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M433" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N433" t="n">
         <v>14000</v>
@@ -35017,19 +35017,19 @@
       </c>
       <c r="Q433" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R433" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S433" t="n">
-        <v>875</v>
+        <v>933</v>
       </c>
       <c r="T433" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="434">
@@ -35075,25 +35075,25 @@
       </c>
       <c r="K434" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M434" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="N434" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O434" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P434" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
@@ -35106,7 +35106,7 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T434" t="n">
         <v>16</v>
@@ -35155,7 +35155,7 @@
       </c>
       <c r="K435" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L435" t="inlineStr">
@@ -35164,7 +35164,7 @@
         </is>
       </c>
       <c r="M435" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N435" t="n">
         <v>12000</v>
@@ -35235,7 +35235,7 @@
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L436" t="inlineStr">
@@ -35244,7 +35244,7 @@
         </is>
       </c>
       <c r="M436" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N436" t="n">
         <v>10000</v>
@@ -35315,7 +35315,7 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L437" t="inlineStr">
@@ -35324,16 +35324,16 @@
         </is>
       </c>
       <c r="M437" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N437" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O437" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P437" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
@@ -35342,11 +35342,11 @@
       </c>
       <c r="R437" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S437" t="n">
-        <v>812</v>
+        <v>875</v>
       </c>
       <c r="T437" t="n">
         <v>16</v>
@@ -35395,25 +35395,25 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M438" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N438" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O438" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P438" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
@@ -35422,11 +35422,11 @@
       </c>
       <c r="R438" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S438" t="n">
-        <v>750</v>
+        <v>938</v>
       </c>
       <c r="T438" t="n">
         <v>16</v>
@@ -35475,25 +35475,25 @@
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M439" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N439" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O439" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P439" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
@@ -35502,11 +35502,11 @@
       </c>
       <c r="R439" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S439" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T439" t="n">
         <v>16</v>
@@ -35527,7 +35527,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44168</v>
+        <v>44246</v>
       </c>
       <c r="E440" t="n">
         <v>5</v>
@@ -35555,16 +35555,16 @@
       </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M440" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N440" t="n">
         <v>10000</v>
@@ -35607,7 +35607,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44168</v>
+        <v>44246</v>
       </c>
       <c r="E441" t="n">
         <v>5</v>
@@ -35635,25 +35635,25 @@
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M441" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N441" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O441" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P441" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
@@ -35662,11 +35662,11 @@
       </c>
       <c r="R441" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S441" t="n">
-        <v>562</v>
+        <v>812</v>
       </c>
       <c r="T441" t="n">
         <v>16</v>
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44168</v>
+        <v>44246</v>
       </c>
       <c r="E442" t="n">
         <v>5</v>
@@ -35715,25 +35715,25 @@
       </c>
       <c r="K442" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M442" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N442" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O442" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P442" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
@@ -35742,11 +35742,11 @@
       </c>
       <c r="R442" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S442" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T442" t="n">
         <v>16</v>
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44168</v>
+        <v>44246</v>
       </c>
       <c r="E443" t="n">
         <v>5</v>
@@ -35795,25 +35795,25 @@
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M443" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N443" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O443" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P443" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T443" t="n">
         <v>16</v>
@@ -35875,25 +35875,25 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M444" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N444" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O444" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P444" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
@@ -35902,11 +35902,11 @@
       </c>
       <c r="R444" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S444" t="n">
-        <v>812</v>
+        <v>625</v>
       </c>
       <c r="T444" t="n">
         <v>16</v>
@@ -35955,25 +35955,25 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M445" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N445" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O445" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P445" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
@@ -35982,11 +35982,11 @@
       </c>
       <c r="R445" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S445" t="n">
-        <v>750</v>
+        <v>562</v>
       </c>
       <c r="T445" t="n">
         <v>16</v>
@@ -36035,25 +36035,25 @@
       </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>Springtime</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M446" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N446" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O446" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P446" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36062,11 +36062,11 @@
       </c>
       <c r="R446" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S446" t="n">
-        <v>812</v>
+        <v>500</v>
       </c>
       <c r="T446" t="n">
         <v>16</v>
@@ -36115,25 +36115,25 @@
       </c>
       <c r="K447" t="inlineStr">
         <is>
-          <t>Springtime</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M447" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="N447" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O447" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P447" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T447" t="n">
         <v>16</v>
@@ -36195,25 +36195,25 @@
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>Springtime</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M448" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N448" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O448" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P448" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>625</v>
+        <v>812</v>
       </c>
       <c r="T448" t="n">
         <v>16</v>
@@ -36247,7 +36247,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E449" t="n">
         <v>5</v>
@@ -36275,25 +36275,25 @@
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M449" t="n">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="N449" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O449" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P449" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T449" t="n">
         <v>16</v>
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E450" t="n">
         <v>5</v>
@@ -36355,25 +36355,25 @@
       </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Springtime</t>
         </is>
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M450" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N450" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O450" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P450" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
@@ -36386,7 +36386,7 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>1125</v>
+        <v>812</v>
       </c>
       <c r="T450" t="n">
         <v>16</v>
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E451" t="n">
         <v>5</v>
@@ -36435,7 +36435,7 @@
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Springtime</t>
         </is>
       </c>
       <c r="L451" t="inlineStr">
@@ -36444,16 +36444,16 @@
         </is>
       </c>
       <c r="M451" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N451" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O451" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P451" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
@@ -36466,7 +36466,7 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T451" t="n">
         <v>16</v>
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E452" t="n">
         <v>5</v>
@@ -36515,7 +36515,7 @@
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Springtime</t>
         </is>
       </c>
       <c r="L452" t="inlineStr">
@@ -36524,16 +36524,16 @@
         </is>
       </c>
       <c r="M452" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="N452" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O452" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P452" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36546,7 +36546,7 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T452" t="n">
         <v>16</v>
@@ -36595,7 +36595,7 @@
       </c>
       <c r="K453" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L453" t="inlineStr">
@@ -36604,16 +36604,16 @@
         </is>
       </c>
       <c r="M453" t="n">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="N453" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O453" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P453" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T453" t="n">
         <v>16</v>
@@ -36675,25 +36675,25 @@
       </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M454" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N454" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O454" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P454" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
@@ -36706,7 +36706,7 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>625</v>
+        <v>1125</v>
       </c>
       <c r="T454" t="n">
         <v>16</v>
@@ -36755,25 +36755,25 @@
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M455" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N455" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O455" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P455" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>562</v>
+        <v>875</v>
       </c>
       <c r="T455" t="n">
         <v>16</v>
@@ -36807,7 +36807,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44181</v>
+        <v>44175</v>
       </c>
       <c r="E456" t="n">
         <v>5</v>
@@ -36835,16 +36835,16 @@
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M456" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N456" t="n">
         <v>12000</v>
@@ -36862,7 +36862,7 @@
       </c>
       <c r="R456" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S456" t="n">
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44181</v>
+        <v>44175</v>
       </c>
       <c r="E457" t="n">
         <v>5</v>
@@ -36915,25 +36915,25 @@
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M457" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N457" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O457" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P457" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
@@ -36942,11 +36942,11 @@
       </c>
       <c r="R457" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S457" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T457" t="n">
         <v>16</v>
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44181</v>
+        <v>44175</v>
       </c>
       <c r="E458" t="n">
         <v>5</v>
@@ -36995,25 +36995,25 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M458" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="N458" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O458" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P458" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
@@ -37022,11 +37022,11 @@
       </c>
       <c r="R458" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S458" t="n">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="T458" t="n">
         <v>16</v>
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44181</v>
+        <v>44175</v>
       </c>
       <c r="E459" t="n">
         <v>5</v>
@@ -37075,25 +37075,25 @@
       </c>
       <c r="K459" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M459" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N459" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="O459" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="P459" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
@@ -37102,11 +37102,11 @@
       </c>
       <c r="R459" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S459" t="n">
-        <v>1062</v>
+        <v>562</v>
       </c>
       <c r="T459" t="n">
         <v>16</v>
@@ -37155,25 +37155,25 @@
       </c>
       <c r="K460" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M460" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="N460" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O460" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P460" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T460" t="n">
         <v>16</v>
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44270</v>
+        <v>44181</v>
       </c>
       <c r="E461" t="n">
         <v>5</v>
@@ -37235,25 +37235,25 @@
       </c>
       <c r="K461" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M461" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N461" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O461" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P461" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
@@ -37262,11 +37262,11 @@
       </c>
       <c r="R461" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S461" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T461" t="n">
         <v>16</v>
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44270</v>
+        <v>44181</v>
       </c>
       <c r="E462" t="n">
         <v>5</v>
@@ -37315,25 +37315,25 @@
       </c>
       <c r="K462" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M462" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N462" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O462" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P462" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37342,11 +37342,11 @@
       </c>
       <c r="R462" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S462" t="n">
-        <v>1000</v>
+        <v>562</v>
       </c>
       <c r="T462" t="n">
         <v>16</v>
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44270</v>
+        <v>44181</v>
       </c>
       <c r="E463" t="n">
         <v>5</v>
@@ -37395,25 +37395,25 @@
       </c>
       <c r="K463" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M463" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N463" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O463" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P463" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37422,11 +37422,11 @@
       </c>
       <c r="R463" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S463" t="n">
-        <v>750</v>
+        <v>1062</v>
       </c>
       <c r="T463" t="n">
         <v>16</v>
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44270</v>
+        <v>44181</v>
       </c>
       <c r="E464" t="n">
         <v>5</v>
@@ -37475,25 +37475,25 @@
       </c>
       <c r="K464" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M464" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="N464" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O464" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P464" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37502,11 +37502,11 @@
       </c>
       <c r="R464" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S464" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T464" t="n">
         <v>16</v>
@@ -37555,7 +37555,7 @@
       </c>
       <c r="K465" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L465" t="inlineStr">
@@ -37564,7 +37564,7 @@
         </is>
       </c>
       <c r="M465" t="n">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="N465" t="n">
         <v>14000</v>
@@ -37635,7 +37635,7 @@
       </c>
       <c r="K466" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L466" t="inlineStr">
@@ -37644,7 +37644,7 @@
         </is>
       </c>
       <c r="M466" t="n">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="N466" t="n">
         <v>16000</v>
@@ -37715,7 +37715,7 @@
       </c>
       <c r="K467" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L467" t="inlineStr">
@@ -37724,7 +37724,7 @@
         </is>
       </c>
       <c r="M467" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N467" t="n">
         <v>12000</v>
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E468" t="n">
         <v>5</v>
@@ -37795,25 +37795,25 @@
       </c>
       <c r="K468" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M468" t="n">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="N468" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O468" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P468" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37822,11 +37822,11 @@
       </c>
       <c r="R468" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S468" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T468" t="n">
         <v>16</v>
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E469" t="n">
         <v>5</v>
@@ -37875,25 +37875,25 @@
       </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M469" t="n">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="N469" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O469" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P469" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37902,11 +37902,11 @@
       </c>
       <c r="R469" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S469" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T469" t="n">
         <v>16</v>
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E470" t="n">
         <v>5</v>
@@ -37955,25 +37955,25 @@
       </c>
       <c r="K470" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M470" t="n">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="N470" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O470" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P470" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37982,11 +37982,11 @@
       </c>
       <c r="R470" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S470" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T470" t="n">
         <v>16</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E471" t="n">
         <v>5</v>
@@ -38035,25 +38035,25 @@
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M471" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N471" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O471" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P471" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38062,11 +38062,11 @@
       </c>
       <c r="R471" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S471" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T471" t="n">
         <v>16</v>
@@ -38115,7 +38115,7 @@
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L472" t="inlineStr">
@@ -38124,16 +38124,16 @@
         </is>
       </c>
       <c r="M472" t="n">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="N472" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O472" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P472" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         </is>
       </c>
       <c r="S472" t="n">
-        <v>812</v>
+        <v>875</v>
       </c>
       <c r="T472" t="n">
         <v>16</v>
@@ -38195,25 +38195,25 @@
       </c>
       <c r="K473" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M473" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="N473" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O473" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P473" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>750</v>
+        <v>938</v>
       </c>
       <c r="T473" t="n">
         <v>16</v>
@@ -38275,25 +38275,25 @@
       </c>
       <c r="K474" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M474" t="n">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="N474" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O474" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P474" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T474" t="n">
         <v>16</v>
@@ -38355,25 +38355,25 @@
       </c>
       <c r="K475" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L475" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M475" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="N475" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O475" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P475" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>812</v>
+        <v>625</v>
       </c>
       <c r="T475" t="n">
         <v>16</v>
@@ -38435,25 +38435,25 @@
       </c>
       <c r="K476" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L476" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M476" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="N476" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O476" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P476" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38466,7 +38466,7 @@
         </is>
       </c>
       <c r="S476" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T476" t="n">
         <v>16</v>
@@ -38515,25 +38515,25 @@
       </c>
       <c r="K477" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L477" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M477" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N477" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O477" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P477" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T477" t="n">
         <v>16</v>
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E478" t="n">
         <v>5</v>
@@ -38595,25 +38595,25 @@
       </c>
       <c r="K478" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M478" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N478" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O478" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P478" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T478" t="n">
         <v>16</v>
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E479" t="n">
         <v>5</v>
@@ -38675,25 +38675,25 @@
       </c>
       <c r="K479" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L479" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M479" t="n">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="N479" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O479" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P479" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         </is>
       </c>
       <c r="S479" t="n">
-        <v>938</v>
+        <v>812</v>
       </c>
       <c r="T479" t="n">
         <v>16</v>
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E480" t="n">
         <v>5</v>
@@ -38755,7 +38755,7 @@
       </c>
       <c r="K480" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L480" t="inlineStr">
@@ -38764,7 +38764,7 @@
         </is>
       </c>
       <c r="M480" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N480" t="n">
         <v>12000</v>
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E481" t="n">
         <v>5</v>
@@ -38835,25 +38835,25 @@
       </c>
       <c r="K481" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M481" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N481" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O481" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P481" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T481" t="n">
         <v>16</v>
@@ -38915,25 +38915,25 @@
       </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M482" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="N482" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O482" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P482" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         </is>
       </c>
       <c r="S482" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T482" t="n">
         <v>16</v>
@@ -38995,25 +38995,25 @@
       </c>
       <c r="K483" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M483" t="n">
         <v>85</v>
       </c>
       <c r="N483" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O483" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P483" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         </is>
       </c>
       <c r="S483" t="n">
-        <v>750</v>
+        <v>938</v>
       </c>
       <c r="T483" t="n">
         <v>16</v>
@@ -39075,25 +39075,25 @@
       </c>
       <c r="K484" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L484" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M484" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N484" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O484" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P484" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         </is>
       </c>
       <c r="S484" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T484" t="n">
         <v>16</v>
@@ -39155,7 +39155,7 @@
       </c>
       <c r="K485" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L485" t="inlineStr">
@@ -39164,16 +39164,16 @@
         </is>
       </c>
       <c r="M485" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="N485" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O485" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P485" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39182,11 +39182,11 @@
       </c>
       <c r="R485" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S485" t="n">
-        <v>812</v>
+        <v>875</v>
       </c>
       <c r="T485" t="n">
         <v>16</v>
@@ -39235,25 +39235,25 @@
       </c>
       <c r="K486" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M486" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="N486" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O486" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P486" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39262,11 +39262,11 @@
       </c>
       <c r="R486" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S486" t="n">
-        <v>750</v>
+        <v>938</v>
       </c>
       <c r="T486" t="n">
         <v>16</v>
@@ -39315,25 +39315,25 @@
       </c>
       <c r="K487" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M487" t="n">
         <v>85</v>
       </c>
       <c r="N487" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O487" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P487" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39342,11 +39342,11 @@
       </c>
       <c r="R487" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S487" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T487" t="n">
         <v>16</v>
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E488" t="n">
         <v>5</v>
@@ -39400,20 +39400,20 @@
       </c>
       <c r="L488" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M488" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="N488" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O488" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P488" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
@@ -39422,11 +39422,11 @@
       </c>
       <c r="R488" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S488" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T488" t="n">
         <v>16</v>
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E489" t="n">
         <v>5</v>
@@ -39475,25 +39475,25 @@
       </c>
       <c r="K489" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M489" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N489" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O489" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P489" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         </is>
       </c>
       <c r="S489" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T489" t="n">
         <v>16</v>
@@ -39527,7 +39527,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E490" t="n">
         <v>5</v>
@@ -39555,25 +39555,25 @@
       </c>
       <c r="K490" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M490" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N490" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O490" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P490" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         </is>
       </c>
       <c r="S490" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T490" t="n">
         <v>16</v>
@@ -39607,7 +39607,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E491" t="n">
         <v>5</v>
@@ -39635,25 +39635,25 @@
       </c>
       <c r="K491" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M491" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N491" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O491" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P491" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39666,7 +39666,7 @@
         </is>
       </c>
       <c r="S491" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T491" t="n">
         <v>16</v>
@@ -39715,25 +39715,25 @@
       </c>
       <c r="K492" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M492" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="N492" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O492" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P492" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         </is>
       </c>
       <c r="S492" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T492" t="n">
         <v>16</v>
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E493" t="n">
         <v>5</v>
@@ -39795,25 +39795,25 @@
       </c>
       <c r="K493" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M493" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N493" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O493" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P493" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39822,11 +39822,11 @@
       </c>
       <c r="R493" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S493" t="n">
-        <v>938</v>
+        <v>750</v>
       </c>
       <c r="T493" t="n">
         <v>16</v>
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E494" t="n">
         <v>5</v>
@@ -39875,25 +39875,25 @@
       </c>
       <c r="K494" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M494" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N494" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O494" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P494" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39902,11 +39902,11 @@
       </c>
       <c r="R494" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S494" t="n">
-        <v>1062</v>
+        <v>625</v>
       </c>
       <c r="T494" t="n">
         <v>16</v>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E495" t="n">
         <v>5</v>
@@ -39955,25 +39955,25 @@
       </c>
       <c r="K495" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L495" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M495" t="n">
         <v>80</v>
       </c>
       <c r="N495" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O495" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P495" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39982,11 +39982,11 @@
       </c>
       <c r="R495" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S495" t="n">
-        <v>812</v>
+        <v>875</v>
       </c>
       <c r="T495" t="n">
         <v>16</v>
@@ -40007,68 +40007,388 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
+        <v>44273</v>
+      </c>
+      <c r="E496" t="n">
+        <v>5</v>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G496" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I496" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J496" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>September Sweet</t>
+        </is>
+      </c>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M496" t="n">
+        <v>75</v>
+      </c>
+      <c r="N496" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O496" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P496" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q496" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R496" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S496" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T496" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>3</v>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D497" s="2" t="n">
         <v>44179</v>
       </c>
-      <c r="E496" t="n">
-        <v>5</v>
-      </c>
-      <c r="F496" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G496" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I496" t="n">
-        <v>100103004</v>
-      </c>
-      <c r="J496" t="inlineStr">
-        <is>
-          <t>Durazno</t>
-        </is>
-      </c>
-      <c r="K496" t="inlineStr">
+      <c r="E497" t="n">
+        <v>5</v>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G497" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I497" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J497" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K497" t="inlineStr">
         <is>
           <t>Kurakata</t>
         </is>
       </c>
-      <c r="L496" t="inlineStr">
+      <c r="L497" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M497" t="n">
+        <v>80</v>
+      </c>
+      <c r="N497" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O497" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P497" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q497" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R497" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S497" t="n">
+        <v>938</v>
+      </c>
+      <c r="T497" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>3</v>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D498" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E498" t="n">
+        <v>5</v>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G498" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I498" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J498" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>Kurakata</t>
+        </is>
+      </c>
+      <c r="L498" t="inlineStr">
+        <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M498" t="n">
+        <v>75</v>
+      </c>
+      <c r="N498" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O498" t="n">
+        <v>17000</v>
+      </c>
+      <c r="P498" t="n">
+        <v>17000</v>
+      </c>
+      <c r="Q498" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R498" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S498" t="n">
+        <v>1062</v>
+      </c>
+      <c r="T498" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>3</v>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D499" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E499" t="n">
+        <v>5</v>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G499" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I499" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J499" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>Kurakata</t>
+        </is>
+      </c>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M499" t="n">
+        <v>80</v>
+      </c>
+      <c r="N499" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O499" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P499" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q499" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R499" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S499" t="n">
+        <v>812</v>
+      </c>
+      <c r="T499" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>3</v>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D500" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E500" t="n">
+        <v>5</v>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G500" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I500" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J500" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>Kurakata</t>
+        </is>
+      </c>
+      <c r="L500" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M496" t="n">
+      <c r="M500" t="n">
         <v>67</v>
       </c>
-      <c r="N496" t="n">
+      <c r="N500" t="n">
         <v>11000</v>
       </c>
-      <c r="O496" t="n">
+      <c r="O500" t="n">
         <v>11000</v>
       </c>
-      <c r="P496" t="n">
+      <c r="P500" t="n">
         <v>11000</v>
       </c>
-      <c r="Q496" t="inlineStr">
-        <is>
-          <t>$/caja 16 kilos empedrada</t>
-        </is>
-      </c>
-      <c r="R496" t="inlineStr">
+      <c r="Q500" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R500" t="inlineStr">
         <is>
           <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
-      <c r="S496" t="n">
+      <c r="S500" t="n">
         <v>688</v>
       </c>
-      <c r="T496" t="n">
+      <c r="T500" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T500"/>
+  <dimension ref="A1:T505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44229</v>
+        <v>44490</v>
       </c>
       <c r="E344" t="n">
         <v>5</v>
@@ -27875,41 +27875,41 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M344" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="N344" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="O344" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="P344" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R344" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S344" t="n">
-        <v>875</v>
+        <v>1333</v>
       </c>
       <c r="T344" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="345">
@@ -27960,20 +27960,20 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M345" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N345" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O345" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P345" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>812</v>
+        <v>875</v>
       </c>
       <c r="T345" t="n">
         <v>16</v>
@@ -28040,20 +28040,20 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M346" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N346" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O346" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P346" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T346" t="n">
         <v>16</v>
@@ -28115,25 +28115,25 @@
       </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M347" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="N347" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O347" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P347" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T347" t="n">
         <v>16</v>
@@ -28200,20 +28200,20 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M348" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N348" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O348" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P348" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>812</v>
+        <v>875</v>
       </c>
       <c r="T348" t="n">
         <v>16</v>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44242</v>
+        <v>44229</v>
       </c>
       <c r="E349" t="n">
         <v>5</v>
@@ -28275,25 +28275,25 @@
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M349" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N349" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O349" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P349" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>875</v>
+        <v>812</v>
       </c>
       <c r="T349" t="n">
         <v>16</v>
@@ -28360,20 +28360,20 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M350" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N350" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O350" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P350" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T350" t="n">
         <v>16</v>
@@ -28440,20 +28440,20 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M351" t="n">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="N351" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O351" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P351" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T351" t="n">
         <v>16</v>
@@ -28520,20 +28520,20 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M352" t="n">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="N352" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O352" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P352" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T352" t="n">
         <v>16</v>
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44279</v>
+        <v>44242</v>
       </c>
       <c r="E353" t="n">
         <v>5</v>
@@ -28595,25 +28595,25 @@
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M353" t="n">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="N353" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O353" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P353" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28622,11 +28622,11 @@
       </c>
       <c r="R353" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S353" t="n">
-        <v>938</v>
+        <v>625</v>
       </c>
       <c r="T353" t="n">
         <v>16</v>
@@ -28680,20 +28680,20 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M354" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="N354" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O354" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P354" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>812</v>
+        <v>938</v>
       </c>
       <c r="T354" t="n">
         <v>16</v>
@@ -28760,20 +28760,20 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M355" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N355" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O355" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P355" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>688</v>
+        <v>812</v>
       </c>
       <c r="T355" t="n">
         <v>16</v>
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="E356" t="n">
         <v>5</v>
@@ -28840,20 +28840,20 @@
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M356" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N356" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O356" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P356" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>875</v>
+        <v>688</v>
       </c>
       <c r="T356" t="n">
         <v>16</v>
@@ -28920,20 +28920,20 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M357" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N357" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O357" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P357" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T357" t="n">
         <v>16</v>
@@ -29000,20 +29000,20 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M358" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N358" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O358" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P358" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T358" t="n">
         <v>16</v>
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44201</v>
+        <v>44280</v>
       </c>
       <c r="E359" t="n">
         <v>5</v>
@@ -29075,25 +29075,25 @@
       </c>
       <c r="K359" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M359" t="n">
         <v>70</v>
       </c>
       <c r="N359" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O359" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P359" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29102,11 +29102,11 @@
       </c>
       <c r="R359" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S359" t="n">
-        <v>938</v>
+        <v>750</v>
       </c>
       <c r="T359" t="n">
         <v>16</v>
@@ -29160,20 +29160,20 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M360" t="n">
         <v>70</v>
       </c>
       <c r="N360" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O360" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P360" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T360" t="n">
         <v>16</v>
@@ -29240,20 +29240,20 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M361" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N361" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O361" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P361" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T361" t="n">
         <v>16</v>
@@ -29320,20 +29320,20 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M362" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N362" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O362" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P362" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T362" t="n">
         <v>16</v>
@@ -29395,25 +29395,25 @@
       </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M363" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N363" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O363" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P363" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29422,11 +29422,11 @@
       </c>
       <c r="R363" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S363" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T363" t="n">
         <v>16</v>
@@ -29480,20 +29480,20 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M364" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N364" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O364" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P364" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T364" t="n">
         <v>16</v>
@@ -29560,20 +29560,20 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M365" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N365" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O365" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P365" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T365" t="n">
         <v>16</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44204</v>
+        <v>44201</v>
       </c>
       <c r="E366" t="n">
         <v>5</v>
@@ -29635,25 +29635,25 @@
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M366" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N366" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O366" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P366" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
@@ -29662,11 +29662,11 @@
       </c>
       <c r="R366" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S366" t="n">
-        <v>938</v>
+        <v>625</v>
       </c>
       <c r="T366" t="n">
         <v>16</v>
@@ -29720,20 +29720,20 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M367" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N367" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O367" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P367" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T367" t="n">
         <v>16</v>
@@ -29800,20 +29800,20 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M368" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N368" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O368" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P368" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T368" t="n">
         <v>16</v>
@@ -29880,20 +29880,20 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M369" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N369" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O369" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P369" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T369" t="n">
         <v>16</v>
@@ -29955,29 +29955,29 @@
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M370" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="N370" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O370" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P370" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R370" t="inlineStr">
@@ -29986,10 +29986,10 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>733</v>
+        <v>750</v>
       </c>
       <c r="T370" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="371">
@@ -30040,20 +30040,20 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M371" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N371" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O371" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P371" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>600</v>
+        <v>733</v>
       </c>
       <c r="T371" t="n">
         <v>15</v>
@@ -30115,41 +30115,41 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>Zee Lady</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M372" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="N372" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O372" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P372" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R372" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S372" t="n">
-        <v>938</v>
+        <v>600</v>
       </c>
       <c r="T372" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="373">
@@ -30200,20 +30200,20 @@
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M373" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N373" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O373" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P373" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T373" t="n">
         <v>16</v>
@@ -30280,20 +30280,20 @@
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M374" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="N374" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O374" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P374" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T374" t="n">
         <v>16</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44277</v>
+        <v>44204</v>
       </c>
       <c r="E375" t="n">
         <v>5</v>
@@ -30355,25 +30355,25 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Zee Lady</t>
         </is>
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M375" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="N375" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O375" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P375" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>938</v>
+        <v>750</v>
       </c>
       <c r="T375" t="n">
         <v>16</v>
@@ -30440,20 +30440,20 @@
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M376" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N376" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O376" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P376" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T376" t="n">
         <v>16</v>
@@ -30520,20 +30520,20 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M377" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N377" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O377" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P377" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>812</v>
+        <v>1000</v>
       </c>
       <c r="T377" t="n">
         <v>16</v>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44218</v>
+        <v>44277</v>
       </c>
       <c r="E378" t="n">
         <v>5</v>
@@ -30595,25 +30595,25 @@
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M378" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N378" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O378" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P378" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
@@ -30622,11 +30622,11 @@
       </c>
       <c r="R378" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S378" t="n">
-        <v>875</v>
+        <v>812</v>
       </c>
       <c r="T378" t="n">
         <v>16</v>
@@ -30680,20 +30680,20 @@
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M379" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N379" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O379" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P379" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T379" t="n">
         <v>16</v>
@@ -30760,20 +30760,20 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M380" t="n">
         <v>80</v>
       </c>
       <c r="N380" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O380" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P380" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T380" t="n">
         <v>16</v>
@@ -30835,25 +30835,25 @@
       </c>
       <c r="K381" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M381" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N381" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O381" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P381" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>812</v>
+        <v>625</v>
       </c>
       <c r="T381" t="n">
         <v>16</v>
@@ -30920,20 +30920,20 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M382" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N382" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O382" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P382" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T382" t="n">
         <v>16</v>
@@ -31000,20 +31000,20 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M383" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="N383" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O383" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P383" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T383" t="n">
         <v>16</v>
@@ -31075,25 +31075,25 @@
       </c>
       <c r="K384" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M384" t="n">
         <v>68</v>
       </c>
       <c r="N384" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O384" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P384" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31102,11 +31102,11 @@
       </c>
       <c r="R384" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S384" t="n">
-        <v>812</v>
+        <v>625</v>
       </c>
       <c r="T384" t="n">
         <v>16</v>
@@ -31160,20 +31160,20 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M385" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N385" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O385" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P385" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T385" t="n">
         <v>16</v>
@@ -31240,20 +31240,20 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M386" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N386" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O386" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P386" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T386" t="n">
         <v>16</v>
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44221</v>
+        <v>44218</v>
       </c>
       <c r="E387" t="n">
         <v>5</v>
@@ -31315,25 +31315,25 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M387" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N387" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O387" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P387" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
@@ -31342,11 +31342,11 @@
       </c>
       <c r="R387" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S387" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T387" t="n">
         <v>16</v>
@@ -31400,20 +31400,20 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M388" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N388" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O388" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P388" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T388" t="n">
         <v>16</v>
@@ -31480,20 +31480,20 @@
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M389" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N389" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O389" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P389" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>750</v>
+        <v>938</v>
       </c>
       <c r="T389" t="n">
         <v>16</v>
@@ -31560,20 +31560,20 @@
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M390" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N390" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O390" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P390" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
@@ -31586,7 +31586,7 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T390" t="n">
         <v>16</v>
@@ -31635,25 +31635,25 @@
       </c>
       <c r="K391" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M391" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N391" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O391" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P391" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>812</v>
+        <v>625</v>
       </c>
       <c r="T391" t="n">
         <v>16</v>
@@ -31720,20 +31720,20 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M392" t="n">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="N392" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O392" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P392" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T392" t="n">
         <v>16</v>
@@ -31800,20 +31800,20 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M393" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="N393" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O393" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P393" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T393" t="n">
         <v>16</v>
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44166</v>
+        <v>44221</v>
       </c>
       <c r="E394" t="n">
         <v>5</v>
@@ -31875,25 +31875,25 @@
       </c>
       <c r="K394" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M394" t="n">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="N394" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O394" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P394" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="T394" t="n">
         <v>16</v>
@@ -31960,20 +31960,20 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M395" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="N395" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O395" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P395" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="T395" t="n">
         <v>16</v>
@@ -32040,20 +32040,20 @@
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M396" t="n">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="N396" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O396" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P396" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
@@ -32066,7 +32066,7 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T396" t="n">
         <v>16</v>
@@ -32115,25 +32115,25 @@
       </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M397" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N397" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O397" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="P397" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
@@ -32146,7 +32146,7 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>812</v>
+        <v>438</v>
       </c>
       <c r="T397" t="n">
         <v>16</v>
@@ -32200,20 +32200,20 @@
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M398" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N398" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O398" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P398" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T398" t="n">
         <v>16</v>
@@ -32280,20 +32280,20 @@
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M399" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="N399" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O399" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P399" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         </is>
       </c>
       <c r="S399" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T399" t="n">
         <v>16</v>
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44211</v>
+        <v>44166</v>
       </c>
       <c r="E400" t="n">
         <v>5</v>
@@ -32355,25 +32355,25 @@
       </c>
       <c r="K400" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M400" t="n">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="N400" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O400" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P400" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
@@ -32386,7 +32386,7 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>938</v>
+        <v>625</v>
       </c>
       <c r="T400" t="n">
         <v>16</v>
@@ -32440,20 +32440,20 @@
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M401" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="N401" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O401" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P401" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T401" t="n">
         <v>16</v>
@@ -32520,20 +32520,20 @@
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M402" t="n">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="N402" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O402" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P402" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T402" t="n">
         <v>16</v>
@@ -32600,20 +32600,20 @@
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M403" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="N403" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O403" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P403" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T403" t="n">
         <v>16</v>
@@ -32675,25 +32675,25 @@
       </c>
       <c r="K404" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M404" t="n">
         <v>70</v>
       </c>
       <c r="N404" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O404" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P404" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>938</v>
+        <v>750</v>
       </c>
       <c r="T404" t="n">
         <v>16</v>
@@ -32760,20 +32760,20 @@
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M405" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="N405" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O405" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P405" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T405" t="n">
         <v>16</v>
@@ -32840,20 +32840,20 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M406" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="N406" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O406" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P406" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T406" t="n">
         <v>16</v>
@@ -32915,25 +32915,25 @@
       </c>
       <c r="K407" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M407" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="N407" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O407" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P407" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32942,11 +32942,11 @@
       </c>
       <c r="R407" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S407" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T407" t="n">
         <v>16</v>
@@ -33000,20 +33000,20 @@
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M408" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="N408" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O408" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P408" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T408" t="n">
         <v>16</v>
@@ -33080,20 +33080,20 @@
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M409" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="N409" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O409" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P409" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T409" t="n">
         <v>16</v>
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E410" t="n">
         <v>5</v>
@@ -33155,25 +33155,25 @@
       </c>
       <c r="K410" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L410" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M410" t="n">
         <v>60</v>
       </c>
       <c r="N410" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O410" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P410" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33182,11 +33182,11 @@
       </c>
       <c r="R410" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S410" t="n">
-        <v>938</v>
+        <v>625</v>
       </c>
       <c r="T410" t="n">
         <v>16</v>
@@ -33240,20 +33240,20 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M411" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N411" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O411" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P411" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T411" t="n">
         <v>16</v>
@@ -33320,20 +33320,20 @@
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M412" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="N412" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O412" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P412" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T412" t="n">
         <v>16</v>
@@ -33400,20 +33400,20 @@
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M413" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N413" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O413" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P413" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T413" t="n">
         <v>16</v>
@@ -33475,25 +33475,25 @@
       </c>
       <c r="K414" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M414" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N414" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O414" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P414" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>938</v>
+        <v>750</v>
       </c>
       <c r="T414" t="n">
         <v>16</v>
@@ -33560,20 +33560,20 @@
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M415" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N415" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O415" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P415" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T415" t="n">
         <v>16</v>
@@ -33640,20 +33640,20 @@
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M416" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N416" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O416" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P416" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T416" t="n">
         <v>16</v>
@@ -33715,16 +33715,16 @@
       </c>
       <c r="K417" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M417" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="N417" t="n">
         <v>12000</v>
@@ -33742,7 +33742,7 @@
       </c>
       <c r="R417" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S417" t="n">
@@ -33800,20 +33800,20 @@
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M418" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N418" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O418" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P418" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T418" t="n">
         <v>16</v>
@@ -33880,20 +33880,20 @@
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M419" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N419" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O419" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P419" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="T419" t="n">
         <v>16</v>
@@ -33955,25 +33955,25 @@
       </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M420" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N420" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O420" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P420" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>812</v>
+        <v>562</v>
       </c>
       <c r="T420" t="n">
         <v>16</v>
@@ -34040,20 +34040,20 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M421" t="n">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="N421" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O421" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P421" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T421" t="n">
         <v>16</v>
@@ -34120,20 +34120,20 @@
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M422" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N422" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O422" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P422" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T422" t="n">
         <v>16</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E423" t="n">
         <v>5</v>
@@ -34195,25 +34195,25 @@
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M423" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N423" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O423" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P423" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34222,11 +34222,11 @@
       </c>
       <c r="R423" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S423" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T423" t="n">
         <v>16</v>
@@ -34280,20 +34280,20 @@
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M424" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N424" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O424" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P424" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T424" t="n">
         <v>16</v>
@@ -34360,20 +34360,20 @@
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M425" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="N425" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O425" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P425" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="T425" t="n">
         <v>16</v>
@@ -34435,25 +34435,25 @@
       </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M426" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="N426" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O426" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P426" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
@@ -34466,7 +34466,7 @@
         </is>
       </c>
       <c r="S426" t="n">
-        <v>1000</v>
+        <v>562</v>
       </c>
       <c r="T426" t="n">
         <v>16</v>
@@ -34520,20 +34520,20 @@
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M427" t="n">
         <v>68</v>
       </c>
       <c r="N427" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O427" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P427" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>1062</v>
+        <v>1000</v>
       </c>
       <c r="T427" t="n">
         <v>16</v>
@@ -34600,20 +34600,20 @@
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M428" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N428" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O428" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P428" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>875</v>
+        <v>1062</v>
       </c>
       <c r="T428" t="n">
         <v>16</v>
@@ -34680,20 +34680,20 @@
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M429" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N429" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O429" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P429" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T429" t="n">
         <v>16</v>
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E430" t="n">
         <v>5</v>
@@ -34755,7 +34755,7 @@
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L430" t="inlineStr">
@@ -34777,7 +34777,7 @@
       </c>
       <c r="Q430" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R430" t="inlineStr">
@@ -34786,10 +34786,10 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>1200</v>
+        <v>750</v>
       </c>
       <c r="T430" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="431">
@@ -34835,29 +34835,29 @@
       </c>
       <c r="K431" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M431" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="N431" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O431" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P431" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R431" t="inlineStr">
@@ -34866,7 +34866,7 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="T431" t="n">
         <v>10</v>
@@ -34924,32 +34924,32 @@
         </is>
       </c>
       <c r="M432" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="N432" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O432" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P432" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R432" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S432" t="n">
-        <v>1133</v>
+        <v>1300</v>
       </c>
       <c r="T432" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="433">
@@ -35000,20 +35000,20 @@
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M433" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N433" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O433" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P433" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>933</v>
+        <v>1133</v>
       </c>
       <c r="T433" t="n">
         <v>15</v>
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E434" t="n">
         <v>5</v>
@@ -35075,16 +35075,16 @@
       </c>
       <c r="K434" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M434" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="N434" t="n">
         <v>14000</v>
@@ -35097,19 +35097,19 @@
       </c>
       <c r="Q434" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R434" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S434" t="n">
-        <v>875</v>
+        <v>933</v>
       </c>
       <c r="T434" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="435">
@@ -35160,20 +35160,20 @@
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M435" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="N435" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O435" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P435" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
@@ -35186,7 +35186,7 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T435" t="n">
         <v>16</v>
@@ -35240,20 +35240,20 @@
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M436" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N436" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O436" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P436" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T436" t="n">
         <v>16</v>
@@ -35315,25 +35315,25 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M437" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N437" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O437" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P437" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
@@ -35346,7 +35346,7 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T437" t="n">
         <v>16</v>
@@ -35400,20 +35400,20 @@
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M438" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N438" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O438" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P438" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
@@ -35426,7 +35426,7 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T438" t="n">
         <v>16</v>
@@ -35480,20 +35480,20 @@
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M439" t="n">
         <v>70</v>
       </c>
       <c r="N439" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O439" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P439" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>750</v>
+        <v>938</v>
       </c>
       <c r="T439" t="n">
         <v>16</v>
@@ -35560,20 +35560,20 @@
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M440" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N440" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O440" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P440" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T440" t="n">
         <v>16</v>
@@ -35635,25 +35635,25 @@
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M441" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N441" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O441" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P441" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
@@ -35662,11 +35662,11 @@
       </c>
       <c r="R441" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S441" t="n">
-        <v>812</v>
+        <v>625</v>
       </c>
       <c r="T441" t="n">
         <v>16</v>
@@ -35720,20 +35720,20 @@
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M442" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="N442" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O442" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P442" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
@@ -35746,7 +35746,7 @@
         </is>
       </c>
       <c r="S442" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T442" t="n">
         <v>16</v>
@@ -35800,20 +35800,20 @@
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M443" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N443" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O443" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P443" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T443" t="n">
         <v>16</v>
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44168</v>
+        <v>44246</v>
       </c>
       <c r="E444" t="n">
         <v>5</v>
@@ -35875,16 +35875,16 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M444" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N444" t="n">
         <v>10000</v>
@@ -35902,7 +35902,7 @@
       </c>
       <c r="R444" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S444" t="n">
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44168</v>
+        <v>44505</v>
       </c>
       <c r="E445" t="n">
         <v>5</v>
@@ -35964,20 +35964,20 @@
         </is>
       </c>
       <c r="M445" t="n">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="N445" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O445" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P445" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R445" t="inlineStr">
@@ -35986,10 +35986,10 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>562</v>
+        <v>1300</v>
       </c>
       <c r="T445" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="446">
@@ -36007,7 +36007,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44168</v>
+        <v>44505</v>
       </c>
       <c r="E446" t="n">
         <v>5</v>
@@ -36035,29 +36035,29 @@
       </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Río Copiapó</t>
         </is>
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M446" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="N446" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O446" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P446" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R446" t="inlineStr">
@@ -36066,10 +36066,10 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="T446" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="447">
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44168</v>
+        <v>44505</v>
       </c>
       <c r="E447" t="n">
         <v>5</v>
@@ -36115,41 +36115,41 @@
       </c>
       <c r="K447" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Río Copiapó</t>
         </is>
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M447" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N447" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O447" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P447" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R447" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S447" t="n">
-        <v>875</v>
+        <v>1200</v>
       </c>
       <c r="T447" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="448">
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44168</v>
+        <v>44487</v>
       </c>
       <c r="E448" t="n">
         <v>5</v>
@@ -36195,7 +36195,7 @@
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L448" t="inlineStr">
@@ -36204,32 +36204,32 @@
         </is>
       </c>
       <c r="M448" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N448" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="O448" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="P448" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R448" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S448" t="n">
-        <v>812</v>
+        <v>1333</v>
       </c>
       <c r="T448" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="449">
@@ -36275,25 +36275,25 @@
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M449" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N449" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O449" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P449" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
@@ -36302,11 +36302,11 @@
       </c>
       <c r="R449" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S449" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T449" t="n">
         <v>16</v>
@@ -36355,25 +36355,25 @@
       </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>Springtime</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M450" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N450" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O450" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P450" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
@@ -36382,11 +36382,11 @@
       </c>
       <c r="R450" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S450" t="n">
-        <v>812</v>
+        <v>562</v>
       </c>
       <c r="T450" t="n">
         <v>16</v>
@@ -36435,25 +36435,25 @@
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>Springtime</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M451" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N451" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O451" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P451" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
@@ -36462,11 +36462,11 @@
       </c>
       <c r="R451" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S451" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="T451" t="n">
         <v>16</v>
@@ -36515,25 +36515,25 @@
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>Springtime</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M452" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="N452" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O452" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P452" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36546,7 +36546,7 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T452" t="n">
         <v>16</v>
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E453" t="n">
         <v>5</v>
@@ -36595,25 +36595,25 @@
       </c>
       <c r="K453" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M453" t="n">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="N453" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O453" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P453" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>1000</v>
+        <v>812</v>
       </c>
       <c r="T453" t="n">
         <v>16</v>
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E454" t="n">
         <v>5</v>
@@ -36675,25 +36675,25 @@
       </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M454" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N454" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O454" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P454" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
@@ -36706,7 +36706,7 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>1125</v>
+        <v>750</v>
       </c>
       <c r="T454" t="n">
         <v>16</v>
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E455" t="n">
         <v>5</v>
@@ -36755,25 +36755,25 @@
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Springtime</t>
         </is>
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M455" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="N455" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O455" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P455" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>875</v>
+        <v>812</v>
       </c>
       <c r="T455" t="n">
         <v>16</v>
@@ -36807,7 +36807,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E456" t="n">
         <v>5</v>
@@ -36835,16 +36835,16 @@
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Springtime</t>
         </is>
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M456" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="N456" t="n">
         <v>12000</v>
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E457" t="n">
         <v>5</v>
@@ -36915,25 +36915,25 @@
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Springtime</t>
         </is>
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M457" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N457" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O457" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P457" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
@@ -36946,7 +36946,7 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T457" t="n">
         <v>16</v>
@@ -36995,25 +36995,25 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M458" t="n">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="N458" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O458" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P458" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
@@ -37026,7 +37026,7 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T458" t="n">
         <v>16</v>
@@ -37075,25 +37075,25 @@
       </c>
       <c r="K459" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M459" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N459" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="O459" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="P459" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>562</v>
+        <v>1125</v>
       </c>
       <c r="T459" t="n">
         <v>16</v>
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44181</v>
+        <v>44175</v>
       </c>
       <c r="E460" t="n">
         <v>5</v>
@@ -37155,25 +37155,25 @@
       </c>
       <c r="K460" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M460" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="N460" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O460" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P460" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37182,11 +37182,11 @@
       </c>
       <c r="R460" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S460" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T460" t="n">
         <v>16</v>
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44181</v>
+        <v>44175</v>
       </c>
       <c r="E461" t="n">
         <v>5</v>
@@ -37235,25 +37235,25 @@
       </c>
       <c r="K461" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M461" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N461" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O461" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P461" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
@@ -37262,11 +37262,11 @@
       </c>
       <c r="R461" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S461" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T461" t="n">
         <v>16</v>
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44181</v>
+        <v>44175</v>
       </c>
       <c r="E462" t="n">
         <v>5</v>
@@ -37315,25 +37315,25 @@
       </c>
       <c r="K462" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M462" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N462" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O462" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P462" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37342,11 +37342,11 @@
       </c>
       <c r="R462" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S462" t="n">
-        <v>562</v>
+        <v>750</v>
       </c>
       <c r="T462" t="n">
         <v>16</v>
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44181</v>
+        <v>44175</v>
       </c>
       <c r="E463" t="n">
         <v>5</v>
@@ -37395,25 +37395,25 @@
       </c>
       <c r="K463" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M463" t="n">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="N463" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O463" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P463" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37422,11 +37422,11 @@
       </c>
       <c r="R463" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S463" t="n">
-        <v>1062</v>
+        <v>625</v>
       </c>
       <c r="T463" t="n">
         <v>16</v>
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44181</v>
+        <v>44175</v>
       </c>
       <c r="E464" t="n">
         <v>5</v>
@@ -37475,25 +37475,25 @@
       </c>
       <c r="K464" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M464" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="N464" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O464" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P464" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37502,11 +37502,11 @@
       </c>
       <c r="R464" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S464" t="n">
-        <v>1000</v>
+        <v>562</v>
       </c>
       <c r="T464" t="n">
         <v>16</v>
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44270</v>
+        <v>44181</v>
       </c>
       <c r="E465" t="n">
         <v>5</v>
@@ -37555,7 +37555,7 @@
       </c>
       <c r="K465" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L465" t="inlineStr">
@@ -37564,16 +37564,16 @@
         </is>
       </c>
       <c r="M465" t="n">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="N465" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O465" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P465" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37582,11 +37582,11 @@
       </c>
       <c r="R465" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S465" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T465" t="n">
         <v>16</v>
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44270</v>
+        <v>44181</v>
       </c>
       <c r="E466" t="n">
         <v>5</v>
@@ -37635,25 +37635,25 @@
       </c>
       <c r="K466" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L466" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M466" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N466" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O466" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P466" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37662,11 +37662,11 @@
       </c>
       <c r="R466" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S466" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T466" t="n">
         <v>16</v>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44270</v>
+        <v>44181</v>
       </c>
       <c r="E467" t="n">
         <v>5</v>
@@ -37715,25 +37715,25 @@
       </c>
       <c r="K467" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M467" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N467" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O467" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P467" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37742,11 +37742,11 @@
       </c>
       <c r="R467" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S467" t="n">
-        <v>750</v>
+        <v>562</v>
       </c>
       <c r="T467" t="n">
         <v>16</v>
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44270</v>
+        <v>44181</v>
       </c>
       <c r="E468" t="n">
         <v>5</v>
@@ -37795,25 +37795,25 @@
       </c>
       <c r="K468" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M468" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N468" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O468" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P468" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37822,11 +37822,11 @@
       </c>
       <c r="R468" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S468" t="n">
-        <v>625</v>
+        <v>1062</v>
       </c>
       <c r="T468" t="n">
         <v>16</v>
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44270</v>
+        <v>44181</v>
       </c>
       <c r="E469" t="n">
         <v>5</v>
@@ -37875,25 +37875,25 @@
       </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M469" t="n">
         <v>68</v>
       </c>
       <c r="N469" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O469" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P469" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37902,11 +37902,11 @@
       </c>
       <c r="R469" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S469" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T469" t="n">
         <v>16</v>
@@ -37955,25 +37955,25 @@
       </c>
       <c r="K470" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M470" t="n">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="N470" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O470" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P470" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T470" t="n">
         <v>16</v>
@@ -38035,25 +38035,25 @@
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M471" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N471" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O471" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P471" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T471" t="n">
         <v>16</v>
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E472" t="n">
         <v>5</v>
@@ -38115,25 +38115,25 @@
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M472" t="n">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="N472" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O472" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P472" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38142,11 +38142,11 @@
       </c>
       <c r="R472" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S472" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T472" t="n">
         <v>16</v>
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E473" t="n">
         <v>5</v>
@@ -38195,25 +38195,25 @@
       </c>
       <c r="K473" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M473" t="n">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="N473" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O473" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P473" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38222,11 +38222,11 @@
       </c>
       <c r="R473" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S473" t="n">
-        <v>938</v>
+        <v>625</v>
       </c>
       <c r="T473" t="n">
         <v>16</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E474" t="n">
         <v>5</v>
@@ -38275,25 +38275,25 @@
       </c>
       <c r="K474" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M474" t="n">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="N474" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O474" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P474" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38302,11 +38302,11 @@
       </c>
       <c r="R474" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S474" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T474" t="n">
         <v>16</v>
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E475" t="n">
         <v>5</v>
@@ -38355,25 +38355,25 @@
       </c>
       <c r="K475" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L475" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M475" t="n">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="N475" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O475" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P475" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38382,11 +38382,11 @@
       </c>
       <c r="R475" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S475" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T475" t="n">
         <v>16</v>
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E476" t="n">
         <v>5</v>
@@ -38435,25 +38435,25 @@
       </c>
       <c r="K476" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L476" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M476" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N476" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O476" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P476" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38462,11 +38462,11 @@
       </c>
       <c r="R476" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S476" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T476" t="n">
         <v>16</v>
@@ -38515,25 +38515,25 @@
       </c>
       <c r="K477" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L477" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M477" t="n">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="N477" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O477" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P477" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T477" t="n">
         <v>16</v>
@@ -38595,25 +38595,25 @@
       </c>
       <c r="K478" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M478" t="n">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="N478" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O478" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P478" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T478" t="n">
         <v>16</v>
@@ -38675,25 +38675,25 @@
       </c>
       <c r="K479" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L479" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M479" t="n">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="N479" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O479" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P479" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         </is>
       </c>
       <c r="S479" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T479" t="n">
         <v>16</v>
@@ -38755,25 +38755,25 @@
       </c>
       <c r="K480" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M480" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N480" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O480" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P480" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         </is>
       </c>
       <c r="S480" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T480" t="n">
         <v>16</v>
@@ -38835,25 +38835,25 @@
       </c>
       <c r="K481" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M481" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="N481" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O481" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P481" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>625</v>
+        <v>812</v>
       </c>
       <c r="T481" t="n">
         <v>16</v>
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E482" t="n">
         <v>5</v>
@@ -38915,25 +38915,25 @@
       </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M482" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="N482" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O482" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P482" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         </is>
       </c>
       <c r="S482" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T482" t="n">
         <v>16</v>
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E483" t="n">
         <v>5</v>
@@ -38995,25 +38995,25 @@
       </c>
       <c r="K483" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M483" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="N483" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O483" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P483" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         </is>
       </c>
       <c r="S483" t="n">
-        <v>938</v>
+        <v>625</v>
       </c>
       <c r="T483" t="n">
         <v>16</v>
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E484" t="n">
         <v>5</v>
@@ -39075,25 +39075,25 @@
       </c>
       <c r="K484" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L484" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M484" t="n">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="N484" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O484" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P484" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         </is>
       </c>
       <c r="S484" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T484" t="n">
         <v>16</v>
@@ -39127,7 +39127,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E485" t="n">
         <v>5</v>
@@ -39155,25 +39155,25 @@
       </c>
       <c r="K485" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L485" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M485" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N485" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O485" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P485" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39186,7 +39186,7 @@
         </is>
       </c>
       <c r="S485" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T485" t="n">
         <v>16</v>
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E486" t="n">
         <v>5</v>
@@ -39235,25 +39235,25 @@
       </c>
       <c r="K486" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M486" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N486" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O486" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P486" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         </is>
       </c>
       <c r="S486" t="n">
-        <v>938</v>
+        <v>625</v>
       </c>
       <c r="T486" t="n">
         <v>16</v>
@@ -39315,25 +39315,25 @@
       </c>
       <c r="K487" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M487" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="N487" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O487" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P487" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39346,7 +39346,7 @@
         </is>
       </c>
       <c r="S487" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T487" t="n">
         <v>16</v>
@@ -39395,25 +39395,25 @@
       </c>
       <c r="K488" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L488" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M488" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N488" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O488" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P488" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         </is>
       </c>
       <c r="S488" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T488" t="n">
         <v>16</v>
@@ -39475,25 +39475,25 @@
       </c>
       <c r="K489" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M489" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N489" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O489" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P489" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39502,11 +39502,11 @@
       </c>
       <c r="R489" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S489" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T489" t="n">
         <v>16</v>
@@ -39555,25 +39555,25 @@
       </c>
       <c r="K490" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M490" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="N490" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O490" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P490" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39582,11 +39582,11 @@
       </c>
       <c r="R490" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S490" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T490" t="n">
         <v>16</v>
@@ -39635,25 +39635,25 @@
       </c>
       <c r="K491" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M491" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N491" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O491" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P491" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39662,11 +39662,11 @@
       </c>
       <c r="R491" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S491" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T491" t="n">
         <v>16</v>
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E492" t="n">
         <v>5</v>
@@ -39720,20 +39720,20 @@
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M492" t="n">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="N492" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O492" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P492" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39742,11 +39742,11 @@
       </c>
       <c r="R492" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S492" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T492" t="n">
         <v>16</v>
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E493" t="n">
         <v>5</v>
@@ -39800,20 +39800,20 @@
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M493" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N493" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O493" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P493" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39822,11 +39822,11 @@
       </c>
       <c r="R493" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S493" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T493" t="n">
         <v>16</v>
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E494" t="n">
         <v>5</v>
@@ -39875,25 +39875,25 @@
       </c>
       <c r="K494" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M494" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N494" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O494" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P494" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39906,7 +39906,7 @@
         </is>
       </c>
       <c r="S494" t="n">
-        <v>625</v>
+        <v>812</v>
       </c>
       <c r="T494" t="n">
         <v>16</v>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E495" t="n">
         <v>5</v>
@@ -39955,25 +39955,25 @@
       </c>
       <c r="K495" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L495" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M495" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N495" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O495" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P495" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39986,7 +39986,7 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T495" t="n">
         <v>16</v>
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E496" t="n">
         <v>5</v>
@@ -40035,25 +40035,25 @@
       </c>
       <c r="K496" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M496" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N496" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O496" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P496" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
@@ -40066,7 +40066,7 @@
         </is>
       </c>
       <c r="S496" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T496" t="n">
         <v>16</v>
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E497" t="n">
         <v>5</v>
@@ -40115,7 +40115,7 @@
       </c>
       <c r="K497" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L497" t="inlineStr">
@@ -40124,16 +40124,16 @@
         </is>
       </c>
       <c r="M497" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="N497" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O497" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P497" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
@@ -40142,11 +40142,11 @@
       </c>
       <c r="R497" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S497" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T497" t="n">
         <v>16</v>
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E498" t="n">
         <v>5</v>
@@ -40195,25 +40195,25 @@
       </c>
       <c r="K498" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M498" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N498" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O498" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P498" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40222,11 +40222,11 @@
       </c>
       <c r="R498" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S498" t="n">
-        <v>1062</v>
+        <v>750</v>
       </c>
       <c r="T498" t="n">
         <v>16</v>
@@ -40247,7 +40247,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E499" t="n">
         <v>5</v>
@@ -40275,25 +40275,25 @@
       </c>
       <c r="K499" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L499" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M499" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N499" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O499" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P499" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40302,11 +40302,11 @@
       </c>
       <c r="R499" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S499" t="n">
-        <v>812</v>
+        <v>625</v>
       </c>
       <c r="T499" t="n">
         <v>16</v>
@@ -40327,68 +40327,468 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
+        <v>44273</v>
+      </c>
+      <c r="E500" t="n">
+        <v>5</v>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G500" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I500" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J500" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>September Sweet</t>
+        </is>
+      </c>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M500" t="n">
+        <v>80</v>
+      </c>
+      <c r="N500" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O500" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P500" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q500" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R500" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S500" t="n">
+        <v>875</v>
+      </c>
+      <c r="T500" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>3</v>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D501" s="2" t="n">
+        <v>44273</v>
+      </c>
+      <c r="E501" t="n">
+        <v>5</v>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G501" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I501" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J501" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>September Sweet</t>
+        </is>
+      </c>
+      <c r="L501" t="inlineStr">
+        <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M501" t="n">
+        <v>75</v>
+      </c>
+      <c r="N501" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O501" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P501" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q501" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R501" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S501" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T501" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>3</v>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D502" s="2" t="n">
         <v>44179</v>
       </c>
-      <c r="E500" t="n">
-        <v>5</v>
-      </c>
-      <c r="F500" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G500" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I500" t="n">
-        <v>100103004</v>
-      </c>
-      <c r="J500" t="inlineStr">
-        <is>
-          <t>Durazno</t>
-        </is>
-      </c>
-      <c r="K500" t="inlineStr">
+      <c r="E502" t="n">
+        <v>5</v>
+      </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G502" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I502" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J502" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K502" t="inlineStr">
         <is>
           <t>Kurakata</t>
         </is>
       </c>
-      <c r="L500" t="inlineStr">
+      <c r="L502" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M502" t="n">
+        <v>80</v>
+      </c>
+      <c r="N502" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O502" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P502" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q502" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R502" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S502" t="n">
+        <v>938</v>
+      </c>
+      <c r="T502" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>3</v>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D503" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E503" t="n">
+        <v>5</v>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G503" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I503" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J503" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>Kurakata</t>
+        </is>
+      </c>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M503" t="n">
+        <v>75</v>
+      </c>
+      <c r="N503" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O503" t="n">
+        <v>17000</v>
+      </c>
+      <c r="P503" t="n">
+        <v>17000</v>
+      </c>
+      <c r="Q503" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R503" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S503" t="n">
+        <v>1062</v>
+      </c>
+      <c r="T503" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>3</v>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D504" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E504" t="n">
+        <v>5</v>
+      </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G504" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I504" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J504" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>Kurakata</t>
+        </is>
+      </c>
+      <c r="L504" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M504" t="n">
+        <v>80</v>
+      </c>
+      <c r="N504" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O504" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P504" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q504" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R504" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S504" t="n">
+        <v>812</v>
+      </c>
+      <c r="T504" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>3</v>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D505" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E505" t="n">
+        <v>5</v>
+      </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G505" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I505" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J505" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>Kurakata</t>
+        </is>
+      </c>
+      <c r="L505" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M500" t="n">
+      <c r="M505" t="n">
         <v>67</v>
       </c>
-      <c r="N500" t="n">
+      <c r="N505" t="n">
         <v>11000</v>
       </c>
-      <c r="O500" t="n">
+      <c r="O505" t="n">
         <v>11000</v>
       </c>
-      <c r="P500" t="n">
+      <c r="P505" t="n">
         <v>11000</v>
       </c>
-      <c r="Q500" t="inlineStr">
-        <is>
-          <t>$/caja 16 kilos empedrada</t>
-        </is>
-      </c>
-      <c r="R500" t="inlineStr">
+      <c r="Q505" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R505" t="inlineStr">
         <is>
           <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
-      <c r="S500" t="n">
+      <c r="S505" t="n">
         <v>688</v>
       </c>
-      <c r="T500" t="n">
+      <c r="T505" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T505"/>
+  <dimension ref="A1:T509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44211</v>
+        <v>44508</v>
       </c>
       <c r="E401" t="n">
         <v>5</v>
@@ -32435,29 +32435,29 @@
       </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M401" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N401" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O401" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P401" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R401" t="inlineStr">
@@ -32466,10 +32466,10 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>938</v>
+        <v>1100</v>
       </c>
       <c r="T401" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="402">
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44211</v>
+        <v>44508</v>
       </c>
       <c r="E402" t="n">
         <v>5</v>
@@ -32515,41 +32515,41 @@
       </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M402" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="N402" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O402" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P402" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R402" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S402" t="n">
-        <v>1000</v>
+        <v>1333</v>
       </c>
       <c r="T402" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="403">
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44211</v>
+        <v>44508</v>
       </c>
       <c r="E403" t="n">
         <v>5</v>
@@ -32595,7 +32595,7 @@
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L403" t="inlineStr">
@@ -32604,32 +32604,32 @@
         </is>
       </c>
       <c r="M403" t="n">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="N403" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O403" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P403" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R403" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S403" t="n">
-        <v>875</v>
+        <v>1200</v>
       </c>
       <c r="T403" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="404">
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44211</v>
+        <v>44508</v>
       </c>
       <c r="E404" t="n">
         <v>5</v>
@@ -32675,7 +32675,7 @@
       </c>
       <c r="K404" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L404" t="inlineStr">
@@ -32684,32 +32684,32 @@
         </is>
       </c>
       <c r="M404" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N404" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O404" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P404" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R404" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S404" t="n">
-        <v>750</v>
+        <v>933</v>
       </c>
       <c r="T404" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="405">
@@ -32755,7 +32755,7 @@
       </c>
       <c r="K405" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L405" t="inlineStr">
@@ -32764,7 +32764,7 @@
         </is>
       </c>
       <c r="M405" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N405" t="n">
         <v>15000</v>
@@ -32835,25 +32835,25 @@
       </c>
       <c r="K406" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M406" t="n">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="N406" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O406" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P406" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T406" t="n">
         <v>16</v>
@@ -32915,25 +32915,25 @@
       </c>
       <c r="K407" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M407" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="N407" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O407" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P407" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T407" t="n">
         <v>16</v>
@@ -32995,25 +32995,25 @@
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M408" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="N408" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O408" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P408" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33022,11 +33022,11 @@
       </c>
       <c r="R408" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S408" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T408" t="n">
         <v>16</v>
@@ -33075,25 +33075,25 @@
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M409" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N409" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O409" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P409" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
@@ -33102,11 +33102,11 @@
       </c>
       <c r="R409" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S409" t="n">
-        <v>750</v>
+        <v>938</v>
       </c>
       <c r="T409" t="n">
         <v>16</v>
@@ -33155,25 +33155,25 @@
       </c>
       <c r="K410" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L410" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M410" t="n">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="N410" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O410" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P410" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33182,11 +33182,11 @@
       </c>
       <c r="R410" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S410" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T410" t="n">
         <v>16</v>
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E411" t="n">
         <v>5</v>
@@ -33235,25 +33235,25 @@
       </c>
       <c r="K411" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M411" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="N411" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O411" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P411" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>938</v>
+        <v>750</v>
       </c>
       <c r="T411" t="n">
         <v>16</v>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E412" t="n">
         <v>5</v>
@@ -33315,25 +33315,25 @@
       </c>
       <c r="K412" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M412" t="n">
         <v>56</v>
       </c>
       <c r="N412" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O412" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P412" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33342,11 +33342,11 @@
       </c>
       <c r="R412" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S412" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T412" t="n">
         <v>16</v>
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E413" t="n">
         <v>5</v>
@@ -33395,7 +33395,7 @@
       </c>
       <c r="K413" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L413" t="inlineStr">
@@ -33404,16 +33404,16 @@
         </is>
       </c>
       <c r="M413" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N413" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O413" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P413" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33422,11 +33422,11 @@
       </c>
       <c r="R413" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S413" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T413" t="n">
         <v>16</v>
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E414" t="n">
         <v>5</v>
@@ -33475,7 +33475,7 @@
       </c>
       <c r="K414" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L414" t="inlineStr">
@@ -33487,13 +33487,13 @@
         <v>60</v>
       </c>
       <c r="N414" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O414" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P414" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33502,11 +33502,11 @@
       </c>
       <c r="R414" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S414" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T414" t="n">
         <v>16</v>
@@ -33555,7 +33555,7 @@
       </c>
       <c r="K415" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L415" t="inlineStr">
@@ -33564,7 +33564,7 @@
         </is>
       </c>
       <c r="M415" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N415" t="n">
         <v>15000</v>
@@ -33635,25 +33635,25 @@
       </c>
       <c r="K416" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M416" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="N416" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O416" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P416" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T416" t="n">
         <v>16</v>
@@ -33715,25 +33715,25 @@
       </c>
       <c r="K417" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M417" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N417" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O417" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P417" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T417" t="n">
         <v>16</v>
@@ -33795,16 +33795,16 @@
       </c>
       <c r="K418" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M418" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N418" t="n">
         <v>12000</v>
@@ -33822,7 +33822,7 @@
       </c>
       <c r="R418" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S418" t="n">
@@ -33875,25 +33875,25 @@
       </c>
       <c r="K419" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M419" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N419" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O419" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P419" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33902,11 +33902,11 @@
       </c>
       <c r="R419" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S419" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T419" t="n">
         <v>16</v>
@@ -33955,25 +33955,25 @@
       </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M420" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="N420" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O420" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P420" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33982,11 +33982,11 @@
       </c>
       <c r="R420" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S420" t="n">
-        <v>562</v>
+        <v>875</v>
       </c>
       <c r="T420" t="n">
         <v>16</v>
@@ -34035,25 +34035,25 @@
       </c>
       <c r="K421" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M421" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="N421" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O421" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P421" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34062,11 +34062,11 @@
       </c>
       <c r="R421" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S421" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T421" t="n">
         <v>16</v>
@@ -34115,16 +34115,16 @@
       </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M422" t="n">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N422" t="n">
         <v>12000</v>
@@ -34195,12 +34195,12 @@
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M423" t="n">
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E424" t="n">
         <v>5</v>
@@ -34275,25 +34275,25 @@
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M424" t="n">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="N424" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O424" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P424" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34302,11 +34302,11 @@
       </c>
       <c r="R424" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S424" t="n">
-        <v>750</v>
+        <v>562</v>
       </c>
       <c r="T424" t="n">
         <v>16</v>
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E425" t="n">
         <v>5</v>
@@ -34355,25 +34355,25 @@
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M425" t="n">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="N425" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O425" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P425" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
@@ -34382,11 +34382,11 @@
       </c>
       <c r="R425" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S425" t="n">
-        <v>625</v>
+        <v>812</v>
       </c>
       <c r="T425" t="n">
         <v>16</v>
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E426" t="n">
         <v>5</v>
@@ -34435,25 +34435,25 @@
       </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M426" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N426" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O426" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P426" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
@@ -34462,11 +34462,11 @@
       </c>
       <c r="R426" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S426" t="n">
-        <v>562</v>
+        <v>750</v>
       </c>
       <c r="T426" t="n">
         <v>16</v>
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E427" t="n">
         <v>5</v>
@@ -34515,25 +34515,25 @@
       </c>
       <c r="K427" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M427" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N427" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O427" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P427" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
@@ -34542,11 +34542,11 @@
       </c>
       <c r="R427" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S427" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T427" t="n">
         <v>16</v>
@@ -34595,25 +34595,25 @@
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M428" t="n">
         <v>68</v>
       </c>
       <c r="N428" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O428" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P428" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>1062</v>
+        <v>750</v>
       </c>
       <c r="T428" t="n">
         <v>16</v>
@@ -34675,7 +34675,7 @@
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L429" t="inlineStr">
@@ -34684,16 +34684,16 @@
         </is>
       </c>
       <c r="M429" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="N429" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O429" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P429" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T429" t="n">
         <v>16</v>
@@ -34755,7 +34755,7 @@
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L430" t="inlineStr">
@@ -34764,16 +34764,16 @@
         </is>
       </c>
       <c r="M430" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N430" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O430" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P430" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>750</v>
+        <v>562</v>
       </c>
       <c r="T430" t="n">
         <v>16</v>
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E431" t="n">
         <v>5</v>
@@ -34835,29 +34835,29 @@
       </c>
       <c r="K431" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M431" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N431" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O431" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P431" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R431" t="inlineStr">
@@ -34866,10 +34866,10 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T431" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="432">
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E432" t="n">
         <v>5</v>
@@ -34915,29 +34915,29 @@
       </c>
       <c r="K432" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M432" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="N432" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O432" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P432" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R432" t="inlineStr">
@@ -34946,10 +34946,10 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>1300</v>
+        <v>1062</v>
       </c>
       <c r="T432" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="433">
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E433" t="n">
         <v>5</v>
@@ -34995,7 +34995,7 @@
       </c>
       <c r="K433" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L433" t="inlineStr">
@@ -35004,32 +35004,32 @@
         </is>
       </c>
       <c r="M433" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="N433" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O433" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P433" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R433" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S433" t="n">
-        <v>1133</v>
+        <v>875</v>
       </c>
       <c r="T433" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="434">
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E434" t="n">
         <v>5</v>
@@ -35075,7 +35075,7 @@
       </c>
       <c r="K434" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L434" t="inlineStr">
@@ -35084,32 +35084,32 @@
         </is>
       </c>
       <c r="M434" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N434" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O434" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P434" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R434" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S434" t="n">
-        <v>933</v>
+        <v>750</v>
       </c>
       <c r="T434" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="435">
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E435" t="n">
         <v>5</v>
@@ -35155,29 +35155,29 @@
       </c>
       <c r="K435" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M435" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="N435" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O435" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P435" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R435" t="inlineStr">
@@ -35186,10 +35186,10 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>875</v>
+        <v>1200</v>
       </c>
       <c r="T435" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="436">
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E436" t="n">
         <v>5</v>
@@ -35235,7 +35235,7 @@
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L436" t="inlineStr">
@@ -35244,20 +35244,20 @@
         </is>
       </c>
       <c r="M436" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="N436" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O436" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P436" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R436" t="inlineStr">
@@ -35266,10 +35266,10 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="T436" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="437">
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E437" t="n">
         <v>5</v>
@@ -35315,41 +35315,41 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M437" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="N437" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O437" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P437" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R437" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S437" t="n">
-        <v>625</v>
+        <v>1133</v>
       </c>
       <c r="T437" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="438">
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E438" t="n">
         <v>5</v>
@@ -35395,16 +35395,16 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M438" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N438" t="n">
         <v>14000</v>
@@ -35417,19 +35417,19 @@
       </c>
       <c r="Q438" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R438" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S438" t="n">
-        <v>875</v>
+        <v>933</v>
       </c>
       <c r="T438" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="439">
@@ -35475,25 +35475,25 @@
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M439" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="N439" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O439" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P439" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T439" t="n">
         <v>16</v>
@@ -35555,7 +35555,7 @@
       </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L440" t="inlineStr">
@@ -35564,7 +35564,7 @@
         </is>
       </c>
       <c r="M440" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N440" t="n">
         <v>12000</v>
@@ -35635,7 +35635,7 @@
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L441" t="inlineStr">
@@ -35644,7 +35644,7 @@
         </is>
       </c>
       <c r="M441" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N441" t="n">
         <v>10000</v>
@@ -35715,7 +35715,7 @@
       </c>
       <c r="K442" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L442" t="inlineStr">
@@ -35724,16 +35724,16 @@
         </is>
       </c>
       <c r="M442" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N442" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O442" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P442" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
@@ -35742,11 +35742,11 @@
       </c>
       <c r="R442" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S442" t="n">
-        <v>812</v>
+        <v>875</v>
       </c>
       <c r="T442" t="n">
         <v>16</v>
@@ -35795,25 +35795,25 @@
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M443" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N443" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O443" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P443" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35822,11 +35822,11 @@
       </c>
       <c r="R443" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S443" t="n">
-        <v>750</v>
+        <v>938</v>
       </c>
       <c r="T443" t="n">
         <v>16</v>
@@ -35875,25 +35875,25 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M444" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N444" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O444" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P444" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
@@ -35902,11 +35902,11 @@
       </c>
       <c r="R444" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S444" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T444" t="n">
         <v>16</v>
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E445" t="n">
         <v>5</v>
@@ -35955,29 +35955,29 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M445" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="N445" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O445" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P445" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R445" t="inlineStr">
@@ -35986,10 +35986,10 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>1300</v>
+        <v>625</v>
       </c>
       <c r="T445" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="446">
@@ -36007,7 +36007,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E446" t="n">
         <v>5</v>
@@ -36035,16 +36035,16 @@
       </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>Río Copiapó</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M446" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="N446" t="n">
         <v>13000</v>
@@ -36057,19 +36057,19 @@
       </c>
       <c r="Q446" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R446" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S446" t="n">
-        <v>1300</v>
+        <v>812</v>
       </c>
       <c r="T446" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="447">
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E447" t="n">
         <v>5</v>
@@ -36115,16 +36115,16 @@
       </c>
       <c r="K447" t="inlineStr">
         <is>
-          <t>Río Copiapó</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M447" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N447" t="n">
         <v>12000</v>
@@ -36137,19 +36137,19 @@
       </c>
       <c r="Q447" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R447" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S447" t="n">
-        <v>1200</v>
+        <v>750</v>
       </c>
       <c r="T447" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="448">
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E448" t="n">
         <v>5</v>
@@ -36195,41 +36195,41 @@
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M448" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N448" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="O448" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="P448" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R448" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S448" t="n">
-        <v>1333</v>
+        <v>625</v>
       </c>
       <c r="T448" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="449">
@@ -36247,7 +36247,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44168</v>
+        <v>44505</v>
       </c>
       <c r="E449" t="n">
         <v>5</v>
@@ -36280,24 +36280,24 @@
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M449" t="n">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="N449" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O449" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P449" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R449" t="inlineStr">
@@ -36306,10 +36306,10 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>625</v>
+        <v>1300</v>
       </c>
       <c r="T449" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="450">
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44168</v>
+        <v>44505</v>
       </c>
       <c r="E450" t="n">
         <v>5</v>
@@ -36355,7 +36355,7 @@
       </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Río Copiapó</t>
         </is>
       </c>
       <c r="L450" t="inlineStr">
@@ -36364,20 +36364,20 @@
         </is>
       </c>
       <c r="M450" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="N450" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O450" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P450" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R450" t="inlineStr">
@@ -36386,10 +36386,10 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>562</v>
+        <v>1300</v>
       </c>
       <c r="T450" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="451">
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44168</v>
+        <v>44505</v>
       </c>
       <c r="E451" t="n">
         <v>5</v>
@@ -36435,7 +36435,7 @@
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Río Copiapó</t>
         </is>
       </c>
       <c r="L451" t="inlineStr">
@@ -36444,20 +36444,20 @@
         </is>
       </c>
       <c r="M451" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="N451" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O451" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P451" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R451" t="inlineStr">
@@ -36466,10 +36466,10 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="T451" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="452">
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44168</v>
+        <v>44487</v>
       </c>
       <c r="E452" t="n">
         <v>5</v>
@@ -36515,41 +36515,41 @@
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M452" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N452" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="O452" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="P452" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R452" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S452" t="n">
-        <v>875</v>
+        <v>1333</v>
       </c>
       <c r="T452" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="453">
@@ -36595,25 +36595,25 @@
       </c>
       <c r="K453" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M453" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N453" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O453" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P453" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
@@ -36622,11 +36622,11 @@
       </c>
       <c r="R453" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S453" t="n">
-        <v>812</v>
+        <v>625</v>
       </c>
       <c r="T453" t="n">
         <v>16</v>
@@ -36675,25 +36675,25 @@
       </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M454" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N454" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O454" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P454" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
@@ -36702,11 +36702,11 @@
       </c>
       <c r="R454" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S454" t="n">
-        <v>750</v>
+        <v>562</v>
       </c>
       <c r="T454" t="n">
         <v>16</v>
@@ -36755,25 +36755,25 @@
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>Springtime</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M455" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N455" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O455" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P455" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36782,11 +36782,11 @@
       </c>
       <c r="R455" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S455" t="n">
-        <v>812</v>
+        <v>500</v>
       </c>
       <c r="T455" t="n">
         <v>16</v>
@@ -36835,25 +36835,25 @@
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>Springtime</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M456" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="N456" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O456" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P456" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         </is>
       </c>
       <c r="S456" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T456" t="n">
         <v>16</v>
@@ -36915,25 +36915,25 @@
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>Springtime</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M457" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N457" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O457" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P457" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
@@ -36946,7 +36946,7 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>625</v>
+        <v>812</v>
       </c>
       <c r="T457" t="n">
         <v>16</v>
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E458" t="n">
         <v>5</v>
@@ -36995,25 +36995,25 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M458" t="n">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="N458" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O458" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P458" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
@@ -37026,7 +37026,7 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T458" t="n">
         <v>16</v>
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E459" t="n">
         <v>5</v>
@@ -37075,25 +37075,25 @@
       </c>
       <c r="K459" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Springtime</t>
         </is>
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M459" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N459" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O459" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P459" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>1125</v>
+        <v>812</v>
       </c>
       <c r="T459" t="n">
         <v>16</v>
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E460" t="n">
         <v>5</v>
@@ -37155,7 +37155,7 @@
       </c>
       <c r="K460" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Springtime</t>
         </is>
       </c>
       <c r="L460" t="inlineStr">
@@ -37164,16 +37164,16 @@
         </is>
       </c>
       <c r="M460" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N460" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O460" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P460" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T460" t="n">
         <v>16</v>
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E461" t="n">
         <v>5</v>
@@ -37235,7 +37235,7 @@
       </c>
       <c r="K461" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Springtime</t>
         </is>
       </c>
       <c r="L461" t="inlineStr">
@@ -37244,16 +37244,16 @@
         </is>
       </c>
       <c r="M461" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="N461" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O461" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P461" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         </is>
       </c>
       <c r="S461" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T461" t="n">
         <v>16</v>
@@ -37315,7 +37315,7 @@
       </c>
       <c r="K462" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L462" t="inlineStr">
@@ -37324,16 +37324,16 @@
         </is>
       </c>
       <c r="M462" t="n">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="N462" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O462" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P462" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T462" t="n">
         <v>16</v>
@@ -37395,25 +37395,25 @@
       </c>
       <c r="K463" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M463" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N463" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O463" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P463" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>625</v>
+        <v>1125</v>
       </c>
       <c r="T463" t="n">
         <v>16</v>
@@ -37475,25 +37475,25 @@
       </c>
       <c r="K464" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M464" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N464" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O464" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P464" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>562</v>
+        <v>875</v>
       </c>
       <c r="T464" t="n">
         <v>16</v>
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44181</v>
+        <v>44175</v>
       </c>
       <c r="E465" t="n">
         <v>5</v>
@@ -37555,16 +37555,16 @@
       </c>
       <c r="K465" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L465" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M465" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N465" t="n">
         <v>12000</v>
@@ -37582,7 +37582,7 @@
       </c>
       <c r="R465" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S465" t="n">
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44181</v>
+        <v>44175</v>
       </c>
       <c r="E466" t="n">
         <v>5</v>
@@ -37635,25 +37635,25 @@
       </c>
       <c r="K466" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L466" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M466" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N466" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O466" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P466" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37662,11 +37662,11 @@
       </c>
       <c r="R466" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S466" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T466" t="n">
         <v>16</v>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44181</v>
+        <v>44175</v>
       </c>
       <c r="E467" t="n">
         <v>5</v>
@@ -37715,25 +37715,25 @@
       </c>
       <c r="K467" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M467" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="N467" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O467" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P467" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37742,11 +37742,11 @@
       </c>
       <c r="R467" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S467" t="n">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="T467" t="n">
         <v>16</v>
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44181</v>
+        <v>44175</v>
       </c>
       <c r="E468" t="n">
         <v>5</v>
@@ -37795,25 +37795,25 @@
       </c>
       <c r="K468" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M468" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N468" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="O468" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="P468" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37822,11 +37822,11 @@
       </c>
       <c r="R468" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S468" t="n">
-        <v>1062</v>
+        <v>562</v>
       </c>
       <c r="T468" t="n">
         <v>16</v>
@@ -37875,25 +37875,25 @@
       </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M469" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="N469" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O469" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P469" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T469" t="n">
         <v>16</v>
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44270</v>
+        <v>44181</v>
       </c>
       <c r="E470" t="n">
         <v>5</v>
@@ -37955,25 +37955,25 @@
       </c>
       <c r="K470" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M470" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N470" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O470" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P470" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37982,11 +37982,11 @@
       </c>
       <c r="R470" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S470" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T470" t="n">
         <v>16</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44270</v>
+        <v>44181</v>
       </c>
       <c r="E471" t="n">
         <v>5</v>
@@ -38035,25 +38035,25 @@
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M471" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N471" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O471" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P471" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38062,11 +38062,11 @@
       </c>
       <c r="R471" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S471" t="n">
-        <v>1000</v>
+        <v>562</v>
       </c>
       <c r="T471" t="n">
         <v>16</v>
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44270</v>
+        <v>44181</v>
       </c>
       <c r="E472" t="n">
         <v>5</v>
@@ -38115,25 +38115,25 @@
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M472" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N472" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O472" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P472" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38142,11 +38142,11 @@
       </c>
       <c r="R472" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S472" t="n">
-        <v>750</v>
+        <v>1062</v>
       </c>
       <c r="T472" t="n">
         <v>16</v>
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44270</v>
+        <v>44181</v>
       </c>
       <c r="E473" t="n">
         <v>5</v>
@@ -38195,25 +38195,25 @@
       </c>
       <c r="K473" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M473" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="N473" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O473" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P473" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38222,11 +38222,11 @@
       </c>
       <c r="R473" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S473" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T473" t="n">
         <v>16</v>
@@ -38275,7 +38275,7 @@
       </c>
       <c r="K474" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L474" t="inlineStr">
@@ -38284,7 +38284,7 @@
         </is>
       </c>
       <c r="M474" t="n">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="N474" t="n">
         <v>14000</v>
@@ -38355,7 +38355,7 @@
       </c>
       <c r="K475" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L475" t="inlineStr">
@@ -38364,7 +38364,7 @@
         </is>
       </c>
       <c r="M475" t="n">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="N475" t="n">
         <v>16000</v>
@@ -38435,7 +38435,7 @@
       </c>
       <c r="K476" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L476" t="inlineStr">
@@ -38444,7 +38444,7 @@
         </is>
       </c>
       <c r="M476" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N476" t="n">
         <v>12000</v>
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E477" t="n">
         <v>5</v>
@@ -38515,25 +38515,25 @@
       </c>
       <c r="K477" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L477" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M477" t="n">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="N477" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O477" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P477" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38542,11 +38542,11 @@
       </c>
       <c r="R477" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S477" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T477" t="n">
         <v>16</v>
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E478" t="n">
         <v>5</v>
@@ -38595,25 +38595,25 @@
       </c>
       <c r="K478" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M478" t="n">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="N478" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O478" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P478" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38622,11 +38622,11 @@
       </c>
       <c r="R478" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S478" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T478" t="n">
         <v>16</v>
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E479" t="n">
         <v>5</v>
@@ -38675,25 +38675,25 @@
       </c>
       <c r="K479" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L479" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M479" t="n">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="N479" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O479" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P479" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38702,11 +38702,11 @@
       </c>
       <c r="R479" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S479" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T479" t="n">
         <v>16</v>
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E480" t="n">
         <v>5</v>
@@ -38755,25 +38755,25 @@
       </c>
       <c r="K480" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M480" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N480" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O480" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P480" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38782,11 +38782,11 @@
       </c>
       <c r="R480" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S480" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T480" t="n">
         <v>16</v>
@@ -38835,7 +38835,7 @@
       </c>
       <c r="K481" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L481" t="inlineStr">
@@ -38844,16 +38844,16 @@
         </is>
       </c>
       <c r="M481" t="n">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="N481" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O481" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P481" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>812</v>
+        <v>875</v>
       </c>
       <c r="T481" t="n">
         <v>16</v>
@@ -38915,25 +38915,25 @@
       </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M482" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="N482" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O482" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P482" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         </is>
       </c>
       <c r="S482" t="n">
-        <v>750</v>
+        <v>938</v>
       </c>
       <c r="T482" t="n">
         <v>16</v>
@@ -38995,25 +38995,25 @@
       </c>
       <c r="K483" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M483" t="n">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="N483" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O483" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P483" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         </is>
       </c>
       <c r="S483" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T483" t="n">
         <v>16</v>
@@ -39075,25 +39075,25 @@
       </c>
       <c r="K484" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L484" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M484" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="N484" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O484" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P484" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         </is>
       </c>
       <c r="S484" t="n">
-        <v>812</v>
+        <v>625</v>
       </c>
       <c r="T484" t="n">
         <v>16</v>
@@ -39155,25 +39155,25 @@
       </c>
       <c r="K485" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L485" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M485" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="N485" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O485" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P485" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39186,7 +39186,7 @@
         </is>
       </c>
       <c r="S485" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T485" t="n">
         <v>16</v>
@@ -39235,25 +39235,25 @@
       </c>
       <c r="K486" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M486" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N486" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O486" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P486" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         </is>
       </c>
       <c r="S486" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T486" t="n">
         <v>16</v>
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E487" t="n">
         <v>5</v>
@@ -39315,25 +39315,25 @@
       </c>
       <c r="K487" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M487" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N487" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O487" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P487" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39346,7 +39346,7 @@
         </is>
       </c>
       <c r="S487" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T487" t="n">
         <v>16</v>
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E488" t="n">
         <v>5</v>
@@ -39395,25 +39395,25 @@
       </c>
       <c r="K488" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L488" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M488" t="n">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="N488" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O488" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P488" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         </is>
       </c>
       <c r="S488" t="n">
-        <v>938</v>
+        <v>812</v>
       </c>
       <c r="T488" t="n">
         <v>16</v>
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E489" t="n">
         <v>5</v>
@@ -39475,7 +39475,7 @@
       </c>
       <c r="K489" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L489" t="inlineStr">
@@ -39484,7 +39484,7 @@
         </is>
       </c>
       <c r="M489" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N489" t="n">
         <v>12000</v>
@@ -39527,7 +39527,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E490" t="n">
         <v>5</v>
@@ -39555,25 +39555,25 @@
       </c>
       <c r="K490" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M490" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N490" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O490" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P490" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         </is>
       </c>
       <c r="S490" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T490" t="n">
         <v>16</v>
@@ -39635,25 +39635,25 @@
       </c>
       <c r="K491" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M491" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="N491" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O491" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P491" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39666,7 +39666,7 @@
         </is>
       </c>
       <c r="S491" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T491" t="n">
         <v>16</v>
@@ -39715,25 +39715,25 @@
       </c>
       <c r="K492" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M492" t="n">
         <v>85</v>
       </c>
       <c r="N492" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O492" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P492" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         </is>
       </c>
       <c r="S492" t="n">
-        <v>750</v>
+        <v>938</v>
       </c>
       <c r="T492" t="n">
         <v>16</v>
@@ -39795,25 +39795,25 @@
       </c>
       <c r="K493" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M493" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N493" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O493" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P493" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         </is>
       </c>
       <c r="S493" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T493" t="n">
         <v>16</v>
@@ -39875,7 +39875,7 @@
       </c>
       <c r="K494" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L494" t="inlineStr">
@@ -39884,16 +39884,16 @@
         </is>
       </c>
       <c r="M494" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="N494" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O494" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P494" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39902,11 +39902,11 @@
       </c>
       <c r="R494" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S494" t="n">
-        <v>812</v>
+        <v>875</v>
       </c>
       <c r="T494" t="n">
         <v>16</v>
@@ -39955,25 +39955,25 @@
       </c>
       <c r="K495" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L495" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M495" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="N495" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O495" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P495" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39982,11 +39982,11 @@
       </c>
       <c r="R495" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S495" t="n">
-        <v>750</v>
+        <v>938</v>
       </c>
       <c r="T495" t="n">
         <v>16</v>
@@ -40035,25 +40035,25 @@
       </c>
       <c r="K496" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M496" t="n">
         <v>85</v>
       </c>
       <c r="N496" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O496" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P496" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
@@ -40062,11 +40062,11 @@
       </c>
       <c r="R496" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S496" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T496" t="n">
         <v>16</v>
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E497" t="n">
         <v>5</v>
@@ -40120,20 +40120,20 @@
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M497" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="N497" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O497" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P497" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
@@ -40142,11 +40142,11 @@
       </c>
       <c r="R497" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S497" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T497" t="n">
         <v>16</v>
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E498" t="n">
         <v>5</v>
@@ -40195,25 +40195,25 @@
       </c>
       <c r="K498" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M498" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N498" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O498" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P498" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40226,7 +40226,7 @@
         </is>
       </c>
       <c r="S498" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T498" t="n">
         <v>16</v>
@@ -40247,7 +40247,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E499" t="n">
         <v>5</v>
@@ -40275,25 +40275,25 @@
       </c>
       <c r="K499" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L499" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M499" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N499" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O499" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P499" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         </is>
       </c>
       <c r="S499" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T499" t="n">
         <v>16</v>
@@ -40327,7 +40327,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E500" t="n">
         <v>5</v>
@@ -40355,25 +40355,25 @@
       </c>
       <c r="K500" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L500" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M500" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N500" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O500" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P500" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40386,7 +40386,7 @@
         </is>
       </c>
       <c r="S500" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T500" t="n">
         <v>16</v>
@@ -40435,25 +40435,25 @@
       </c>
       <c r="K501" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L501" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M501" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="N501" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O501" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P501" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40466,7 +40466,7 @@
         </is>
       </c>
       <c r="S501" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T501" t="n">
         <v>16</v>
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E502" t="n">
         <v>5</v>
@@ -40515,25 +40515,25 @@
       </c>
       <c r="K502" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M502" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N502" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O502" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P502" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40542,11 +40542,11 @@
       </c>
       <c r="R502" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S502" t="n">
-        <v>938</v>
+        <v>750</v>
       </c>
       <c r="T502" t="n">
         <v>16</v>
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E503" t="n">
         <v>5</v>
@@ -40595,25 +40595,25 @@
       </c>
       <c r="K503" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L503" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M503" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N503" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O503" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P503" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40622,11 +40622,11 @@
       </c>
       <c r="R503" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S503" t="n">
-        <v>1062</v>
+        <v>625</v>
       </c>
       <c r="T503" t="n">
         <v>16</v>
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E504" t="n">
         <v>5</v>
@@ -40675,25 +40675,25 @@
       </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M504" t="n">
         <v>80</v>
       </c>
       <c r="N504" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O504" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P504" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40702,11 +40702,11 @@
       </c>
       <c r="R504" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S504" t="n">
-        <v>812</v>
+        <v>875</v>
       </c>
       <c r="T504" t="n">
         <v>16</v>
@@ -40727,68 +40727,388 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
+        <v>44273</v>
+      </c>
+      <c r="E505" t="n">
+        <v>5</v>
+      </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G505" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I505" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J505" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>September Sweet</t>
+        </is>
+      </c>
+      <c r="L505" t="inlineStr">
+        <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M505" t="n">
+        <v>75</v>
+      </c>
+      <c r="N505" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O505" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P505" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q505" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R505" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S505" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T505" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>3</v>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D506" s="2" t="n">
         <v>44179</v>
       </c>
-      <c r="E505" t="n">
-        <v>5</v>
-      </c>
-      <c r="F505" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G505" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I505" t="n">
-        <v>100103004</v>
-      </c>
-      <c r="J505" t="inlineStr">
-        <is>
-          <t>Durazno</t>
-        </is>
-      </c>
-      <c r="K505" t="inlineStr">
+      <c r="E506" t="n">
+        <v>5</v>
+      </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G506" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H506" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I506" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J506" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K506" t="inlineStr">
         <is>
           <t>Kurakata</t>
         </is>
       </c>
-      <c r="L505" t="inlineStr">
+      <c r="L506" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M506" t="n">
+        <v>80</v>
+      </c>
+      <c r="N506" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O506" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P506" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q506" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R506" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S506" t="n">
+        <v>938</v>
+      </c>
+      <c r="T506" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>3</v>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D507" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E507" t="n">
+        <v>5</v>
+      </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G507" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H507" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I507" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J507" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>Kurakata</t>
+        </is>
+      </c>
+      <c r="L507" t="inlineStr">
+        <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M507" t="n">
+        <v>75</v>
+      </c>
+      <c r="N507" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O507" t="n">
+        <v>17000</v>
+      </c>
+      <c r="P507" t="n">
+        <v>17000</v>
+      </c>
+      <c r="Q507" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R507" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S507" t="n">
+        <v>1062</v>
+      </c>
+      <c r="T507" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>3</v>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D508" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E508" t="n">
+        <v>5</v>
+      </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G508" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H508" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I508" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J508" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>Kurakata</t>
+        </is>
+      </c>
+      <c r="L508" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M508" t="n">
+        <v>80</v>
+      </c>
+      <c r="N508" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O508" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P508" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q508" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R508" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S508" t="n">
+        <v>812</v>
+      </c>
+      <c r="T508" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>3</v>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D509" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E509" t="n">
+        <v>5</v>
+      </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G509" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I509" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J509" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>Kurakata</t>
+        </is>
+      </c>
+      <c r="L509" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M505" t="n">
+      <c r="M509" t="n">
         <v>67</v>
       </c>
-      <c r="N505" t="n">
+      <c r="N509" t="n">
         <v>11000</v>
       </c>
-      <c r="O505" t="n">
+      <c r="O509" t="n">
         <v>11000</v>
       </c>
-      <c r="P505" t="n">
+      <c r="P509" t="n">
         <v>11000</v>
       </c>
-      <c r="Q505" t="inlineStr">
-        <is>
-          <t>$/caja 16 kilos empedrada</t>
-        </is>
-      </c>
-      <c r="R505" t="inlineStr">
+      <c r="Q509" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R509" t="inlineStr">
         <is>
           <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
-      <c r="S505" t="n">
+      <c r="S509" t="n">
         <v>688</v>
       </c>
-      <c r="T505" t="n">
+      <c r="T509" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T509"/>
+  <dimension ref="A1:T511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39607,7 +39607,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44244</v>
+        <v>44509</v>
       </c>
       <c r="E491" t="n">
         <v>5</v>
@@ -39635,29 +39635,29 @@
       </c>
       <c r="K491" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M491" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N491" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O491" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P491" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R491" t="inlineStr">
@@ -39666,10 +39666,10 @@
         </is>
       </c>
       <c r="S491" t="n">
-        <v>875</v>
+        <v>1300</v>
       </c>
       <c r="T491" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="492">
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44244</v>
+        <v>44509</v>
       </c>
       <c r="E492" t="n">
         <v>5</v>
@@ -39715,29 +39715,29 @@
       </c>
       <c r="K492" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M492" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="N492" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O492" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P492" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R492" t="inlineStr">
@@ -39746,10 +39746,10 @@
         </is>
       </c>
       <c r="S492" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T492" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="493">
@@ -39800,20 +39800,20 @@
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M493" t="n">
         <v>100</v>
       </c>
       <c r="N493" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O493" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P493" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         </is>
       </c>
       <c r="S493" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T493" t="n">
         <v>16</v>
@@ -39875,25 +39875,25 @@
       </c>
       <c r="K494" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M494" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N494" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O494" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P494" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39906,7 +39906,7 @@
         </is>
       </c>
       <c r="S494" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T494" t="n">
         <v>16</v>
@@ -39955,25 +39955,25 @@
       </c>
       <c r="K495" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L495" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M495" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="N495" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O495" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P495" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39986,7 +39986,7 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>938</v>
+        <v>750</v>
       </c>
       <c r="T495" t="n">
         <v>16</v>
@@ -40040,20 +40040,20 @@
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M496" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N496" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O496" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P496" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
@@ -40066,7 +40066,7 @@
         </is>
       </c>
       <c r="S496" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T496" t="n">
         <v>16</v>
@@ -40120,20 +40120,20 @@
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M497" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="N497" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O497" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P497" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
@@ -40146,7 +40146,7 @@
         </is>
       </c>
       <c r="S497" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T497" t="n">
         <v>16</v>
@@ -40195,25 +40195,25 @@
       </c>
       <c r="K498" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M498" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N498" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O498" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P498" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40222,11 +40222,11 @@
       </c>
       <c r="R498" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S498" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T498" t="n">
         <v>16</v>
@@ -40275,25 +40275,25 @@
       </c>
       <c r="K499" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L499" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M499" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N499" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O499" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P499" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40302,11 +40302,11 @@
       </c>
       <c r="R499" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S499" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T499" t="n">
         <v>16</v>
@@ -40360,20 +40360,20 @@
       </c>
       <c r="L500" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M500" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N500" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O500" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P500" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40386,7 +40386,7 @@
         </is>
       </c>
       <c r="S500" t="n">
-        <v>625</v>
+        <v>812</v>
       </c>
       <c r="T500" t="n">
         <v>16</v>
@@ -40407,7 +40407,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E501" t="n">
         <v>5</v>
@@ -40435,25 +40435,25 @@
       </c>
       <c r="K501" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L501" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M501" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="N501" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O501" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P501" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40466,7 +40466,7 @@
         </is>
       </c>
       <c r="S501" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T501" t="n">
         <v>16</v>
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E502" t="n">
         <v>5</v>
@@ -40515,25 +40515,25 @@
       </c>
       <c r="K502" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M502" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N502" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O502" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P502" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         </is>
       </c>
       <c r="S502" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T502" t="n">
         <v>16</v>
@@ -40600,20 +40600,20 @@
       </c>
       <c r="L503" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M503" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N503" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O503" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P503" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40626,7 +40626,7 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T503" t="n">
         <v>16</v>
@@ -40675,25 +40675,25 @@
       </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M504" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N504" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O504" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P504" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T504" t="n">
         <v>16</v>
@@ -40755,25 +40755,25 @@
       </c>
       <c r="K505" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M505" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N505" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O505" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P505" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40786,7 +40786,7 @@
         </is>
       </c>
       <c r="S505" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T505" t="n">
         <v>16</v>
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E506" t="n">
         <v>5</v>
@@ -40835,7 +40835,7 @@
       </c>
       <c r="K506" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L506" t="inlineStr">
@@ -40847,13 +40847,13 @@
         <v>80</v>
       </c>
       <c r="N506" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O506" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P506" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40862,11 +40862,11 @@
       </c>
       <c r="R506" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S506" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T506" t="n">
         <v>16</v>
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E507" t="n">
         <v>5</v>
@@ -40915,7 +40915,7 @@
       </c>
       <c r="K507" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L507" t="inlineStr">
@@ -40927,13 +40927,13 @@
         <v>75</v>
       </c>
       <c r="N507" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O507" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P507" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40942,11 +40942,11 @@
       </c>
       <c r="R507" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S507" t="n">
-        <v>1062</v>
+        <v>1000</v>
       </c>
       <c r="T507" t="n">
         <v>16</v>
@@ -41000,20 +41000,20 @@
       </c>
       <c r="L508" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M508" t="n">
         <v>80</v>
       </c>
       <c r="N508" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O508" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P508" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>812</v>
+        <v>938</v>
       </c>
       <c r="T508" t="n">
         <v>16</v>
@@ -41080,35 +41080,195 @@
       </c>
       <c r="L509" t="inlineStr">
         <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M509" t="n">
+        <v>75</v>
+      </c>
+      <c r="N509" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O509" t="n">
+        <v>17000</v>
+      </c>
+      <c r="P509" t="n">
+        <v>17000</v>
+      </c>
+      <c r="Q509" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R509" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S509" t="n">
+        <v>1062</v>
+      </c>
+      <c r="T509" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>3</v>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D510" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E510" t="n">
+        <v>5</v>
+      </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G510" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H510" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I510" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J510" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>Kurakata</t>
+        </is>
+      </c>
+      <c r="L510" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M510" t="n">
+        <v>80</v>
+      </c>
+      <c r="N510" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O510" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P510" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q510" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R510" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S510" t="n">
+        <v>812</v>
+      </c>
+      <c r="T510" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>3</v>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D511" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E511" t="n">
+        <v>5</v>
+      </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G511" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H511" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I511" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J511" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>Kurakata</t>
+        </is>
+      </c>
+      <c r="L511" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M509" t="n">
+      <c r="M511" t="n">
         <v>67</v>
       </c>
-      <c r="N509" t="n">
+      <c r="N511" t="n">
         <v>11000</v>
       </c>
-      <c r="O509" t="n">
+      <c r="O511" t="n">
         <v>11000</v>
       </c>
-      <c r="P509" t="n">
+      <c r="P511" t="n">
         <v>11000</v>
       </c>
-      <c r="Q509" t="inlineStr">
-        <is>
-          <t>$/caja 16 kilos empedrada</t>
-        </is>
-      </c>
-      <c r="R509" t="inlineStr">
+      <c r="Q511" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R511" t="inlineStr">
         <is>
           <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
-      <c r="S509" t="n">
+      <c r="S511" t="n">
         <v>688</v>
       </c>
-      <c r="T509" t="n">
+      <c r="T511" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T511"/>
+  <dimension ref="A1:T515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44229</v>
+        <v>44510</v>
       </c>
       <c r="E345" t="n">
         <v>5</v>
@@ -27955,29 +27955,29 @@
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M345" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N345" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O345" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P345" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R345" t="inlineStr">
@@ -27986,10 +27986,10 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>875</v>
+        <v>1200</v>
       </c>
       <c r="T345" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="346">
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44229</v>
+        <v>44510</v>
       </c>
       <c r="E346" t="n">
         <v>5</v>
@@ -28035,7 +28035,7 @@
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L346" t="inlineStr">
@@ -28047,29 +28047,29 @@
         <v>50</v>
       </c>
       <c r="N346" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O346" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P346" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R346" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S346" t="n">
-        <v>812</v>
+        <v>1133</v>
       </c>
       <c r="T346" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="347">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44229</v>
+        <v>44510</v>
       </c>
       <c r="E347" t="n">
         <v>5</v>
@@ -28115,7 +28115,7 @@
       </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L347" t="inlineStr">
@@ -28124,20 +28124,20 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N347" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O347" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P347" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R347" t="inlineStr">
@@ -28146,10 +28146,10 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T347" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="348">
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44229</v>
+        <v>44510</v>
       </c>
       <c r="E348" t="n">
         <v>5</v>
@@ -28195,41 +28195,41 @@
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M348" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N348" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O348" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P348" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R348" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S348" t="n">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="T348" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="349">
@@ -28275,25 +28275,25 @@
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M349" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N349" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O349" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P349" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>812</v>
+        <v>875</v>
       </c>
       <c r="T349" t="n">
         <v>16</v>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44242</v>
+        <v>44229</v>
       </c>
       <c r="E350" t="n">
         <v>5</v>
@@ -28355,25 +28355,25 @@
       </c>
       <c r="K350" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M350" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N350" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O350" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P350" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>875</v>
+        <v>812</v>
       </c>
       <c r="T350" t="n">
         <v>16</v>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44242</v>
+        <v>44229</v>
       </c>
       <c r="E351" t="n">
         <v>5</v>
@@ -28435,25 +28435,25 @@
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M351" t="n">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="N351" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O351" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P351" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T351" t="n">
         <v>16</v>
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44242</v>
+        <v>44229</v>
       </c>
       <c r="E352" t="n">
         <v>5</v>
@@ -28515,25 +28515,25 @@
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M352" t="n">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="N352" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O352" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P352" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T352" t="n">
         <v>16</v>
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44242</v>
+        <v>44229</v>
       </c>
       <c r="E353" t="n">
         <v>5</v>
@@ -28595,25 +28595,25 @@
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M353" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="N353" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O353" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P353" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>625</v>
+        <v>812</v>
       </c>
       <c r="T353" t="n">
         <v>16</v>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44279</v>
+        <v>44242</v>
       </c>
       <c r="E354" t="n">
         <v>5</v>
@@ -28675,7 +28675,7 @@
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L354" t="inlineStr">
@@ -28684,16 +28684,16 @@
         </is>
       </c>
       <c r="M354" t="n">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="N354" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O354" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P354" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
@@ -28702,11 +28702,11 @@
       </c>
       <c r="R354" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S354" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T354" t="n">
         <v>16</v>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44279</v>
+        <v>44242</v>
       </c>
       <c r="E355" t="n">
         <v>5</v>
@@ -28755,25 +28755,25 @@
       </c>
       <c r="K355" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M355" t="n">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="N355" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O355" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P355" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28782,11 +28782,11 @@
       </c>
       <c r="R355" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S355" t="n">
-        <v>812</v>
+        <v>1000</v>
       </c>
       <c r="T355" t="n">
         <v>16</v>
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44279</v>
+        <v>44242</v>
       </c>
       <c r="E356" t="n">
         <v>5</v>
@@ -28835,25 +28835,25 @@
       </c>
       <c r="K356" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M356" t="n">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="N356" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O356" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P356" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28862,11 +28862,11 @@
       </c>
       <c r="R356" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S356" t="n">
-        <v>688</v>
+        <v>750</v>
       </c>
       <c r="T356" t="n">
         <v>16</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44280</v>
+        <v>44242</v>
       </c>
       <c r="E357" t="n">
         <v>5</v>
@@ -28915,25 +28915,25 @@
       </c>
       <c r="K357" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M357" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N357" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O357" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P357" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28942,11 +28942,11 @@
       </c>
       <c r="R357" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S357" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T357" t="n">
         <v>16</v>
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="E358" t="n">
         <v>5</v>
@@ -29000,20 +29000,20 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M358" t="n">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N358" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O358" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P358" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T358" t="n">
         <v>16</v>
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="E359" t="n">
         <v>5</v>
@@ -29084,16 +29084,16 @@
         </is>
       </c>
       <c r="M359" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N359" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O359" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P359" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T359" t="n">
         <v>16</v>
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44201</v>
+        <v>44279</v>
       </c>
       <c r="E360" t="n">
         <v>5</v>
@@ -29155,25 +29155,25 @@
       </c>
       <c r="K360" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M360" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N360" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O360" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P360" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29182,11 +29182,11 @@
       </c>
       <c r="R360" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S360" t="n">
-        <v>938</v>
+        <v>688</v>
       </c>
       <c r="T360" t="n">
         <v>16</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44201</v>
+        <v>44280</v>
       </c>
       <c r="E361" t="n">
         <v>5</v>
@@ -29235,25 +29235,25 @@
       </c>
       <c r="K361" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M361" t="n">
         <v>70</v>
       </c>
       <c r="N361" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O361" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P361" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
@@ -29262,11 +29262,11 @@
       </c>
       <c r="R361" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S361" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T361" t="n">
         <v>16</v>
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44201</v>
+        <v>44280</v>
       </c>
       <c r="E362" t="n">
         <v>5</v>
@@ -29315,25 +29315,25 @@
       </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M362" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N362" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O362" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P362" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
@@ -29342,11 +29342,11 @@
       </c>
       <c r="R362" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S362" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T362" t="n">
         <v>16</v>
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44201</v>
+        <v>44280</v>
       </c>
       <c r="E363" t="n">
         <v>5</v>
@@ -29395,16 +29395,16 @@
       </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M363" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N363" t="n">
         <v>12000</v>
@@ -29422,7 +29422,7 @@
       </c>
       <c r="R363" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S363" t="n">
@@ -29475,7 +29475,7 @@
       </c>
       <c r="K364" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L364" t="inlineStr">
@@ -29484,16 +29484,16 @@
         </is>
       </c>
       <c r="M364" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N364" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O364" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P364" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29502,11 +29502,11 @@
       </c>
       <c r="R364" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S364" t="n">
-        <v>812</v>
+        <v>938</v>
       </c>
       <c r="T364" t="n">
         <v>16</v>
@@ -29555,25 +29555,25 @@
       </c>
       <c r="K365" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M365" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N365" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O365" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P365" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29582,11 +29582,11 @@
       </c>
       <c r="R365" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S365" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T365" t="n">
         <v>16</v>
@@ -29635,25 +29635,25 @@
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M366" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N366" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O366" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P366" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
@@ -29662,11 +29662,11 @@
       </c>
       <c r="R366" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S366" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T366" t="n">
         <v>16</v>
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44204</v>
+        <v>44201</v>
       </c>
       <c r="E367" t="n">
         <v>5</v>
@@ -29715,25 +29715,25 @@
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M367" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N367" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O367" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P367" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>938</v>
+        <v>750</v>
       </c>
       <c r="T367" t="n">
         <v>16</v>
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44204</v>
+        <v>44201</v>
       </c>
       <c r="E368" t="n">
         <v>5</v>
@@ -29795,25 +29795,25 @@
       </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M368" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N368" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O368" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P368" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29822,11 +29822,11 @@
       </c>
       <c r="R368" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S368" t="n">
-        <v>1000</v>
+        <v>812</v>
       </c>
       <c r="T368" t="n">
         <v>16</v>
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44204</v>
+        <v>44201</v>
       </c>
       <c r="E369" t="n">
         <v>5</v>
@@ -29875,7 +29875,7 @@
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L369" t="inlineStr">
@@ -29884,16 +29884,16 @@
         </is>
       </c>
       <c r="M369" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="N369" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O369" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P369" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29902,11 +29902,11 @@
       </c>
       <c r="R369" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S369" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T369" t="n">
         <v>16</v>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44204</v>
+        <v>44201</v>
       </c>
       <c r="E370" t="n">
         <v>5</v>
@@ -29955,7 +29955,7 @@
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L370" t="inlineStr">
@@ -29964,16 +29964,16 @@
         </is>
       </c>
       <c r="M370" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N370" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O370" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P370" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29982,11 +29982,11 @@
       </c>
       <c r="R370" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S370" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T370" t="n">
         <v>16</v>
@@ -30035,29 +30035,29 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M371" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="N371" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O371" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P371" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R371" t="inlineStr">
@@ -30066,10 +30066,10 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>733</v>
+        <v>938</v>
       </c>
       <c r="T371" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="372">
@@ -30115,29 +30115,29 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M372" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="N372" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="O372" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="P372" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R372" t="inlineStr">
@@ -30146,10 +30146,10 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T372" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="373">
@@ -30195,25 +30195,25 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>Zee Lady</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M373" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="N373" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O373" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P373" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30222,11 +30222,11 @@
       </c>
       <c r="R373" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S373" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T373" t="n">
         <v>16</v>
@@ -30275,25 +30275,25 @@
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t>Zee Lady</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M374" t="n">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="N374" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O374" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P374" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30302,11 +30302,11 @@
       </c>
       <c r="R374" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S374" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T374" t="n">
         <v>16</v>
@@ -30355,41 +30355,41 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>Zee Lady</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M375" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N375" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O375" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P375" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R375" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S375" t="n">
-        <v>750</v>
+        <v>733</v>
       </c>
       <c r="T375" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="376">
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44277</v>
+        <v>44204</v>
       </c>
       <c r="E376" t="n">
         <v>5</v>
@@ -30435,41 +30435,41 @@
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M376" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N376" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O376" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P376" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R376" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S376" t="n">
-        <v>938</v>
+        <v>600</v>
       </c>
       <c r="T376" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="377">
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44277</v>
+        <v>44204</v>
       </c>
       <c r="E377" t="n">
         <v>5</v>
@@ -30515,25 +30515,25 @@
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Zee Lady</t>
         </is>
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M377" t="n">
         <v>65</v>
       </c>
       <c r="N377" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O377" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P377" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T377" t="n">
         <v>16</v>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44277</v>
+        <v>44204</v>
       </c>
       <c r="E378" t="n">
         <v>5</v>
@@ -30595,7 +30595,7 @@
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Zee Lady</t>
         </is>
       </c>
       <c r="L378" t="inlineStr">
@@ -30604,16 +30604,16 @@
         </is>
       </c>
       <c r="M378" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N378" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O378" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P378" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>812</v>
+        <v>875</v>
       </c>
       <c r="T378" t="n">
         <v>16</v>
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44218</v>
+        <v>44204</v>
       </c>
       <c r="E379" t="n">
         <v>5</v>
@@ -30675,25 +30675,25 @@
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Zee Lady</t>
         </is>
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M379" t="n">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="N379" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O379" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P379" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30702,11 +30702,11 @@
       </c>
       <c r="R379" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S379" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T379" t="n">
         <v>16</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44218</v>
+        <v>44277</v>
       </c>
       <c r="E380" t="n">
         <v>5</v>
@@ -30755,25 +30755,25 @@
       </c>
       <c r="K380" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M380" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N380" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O380" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P380" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30782,11 +30782,11 @@
       </c>
       <c r="R380" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S380" t="n">
-        <v>750</v>
+        <v>938</v>
       </c>
       <c r="T380" t="n">
         <v>16</v>
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44218</v>
+        <v>44277</v>
       </c>
       <c r="E381" t="n">
         <v>5</v>
@@ -30835,25 +30835,25 @@
       </c>
       <c r="K381" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M381" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N381" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O381" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P381" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30862,11 +30862,11 @@
       </c>
       <c r="R381" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S381" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T381" t="n">
         <v>16</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44218</v>
+        <v>44277</v>
       </c>
       <c r="E382" t="n">
         <v>5</v>
@@ -30915,16 +30915,16 @@
       </c>
       <c r="K382" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M382" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N382" t="n">
         <v>13000</v>
@@ -30942,7 +30942,7 @@
       </c>
       <c r="R382" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S382" t="n">
@@ -30995,25 +30995,25 @@
       </c>
       <c r="K383" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M383" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N383" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O383" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P383" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T383" t="n">
         <v>16</v>
@@ -31075,25 +31075,25 @@
       </c>
       <c r="K384" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M384" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="N384" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O384" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P384" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T384" t="n">
         <v>16</v>
@@ -31155,25 +31155,25 @@
       </c>
       <c r="K385" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M385" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="N385" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O385" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P385" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
@@ -31182,11 +31182,11 @@
       </c>
       <c r="R385" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S385" t="n">
-        <v>812</v>
+        <v>625</v>
       </c>
       <c r="T385" t="n">
         <v>16</v>
@@ -31235,25 +31235,25 @@
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M386" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N386" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O386" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P386" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
@@ -31262,11 +31262,11 @@
       </c>
       <c r="R386" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S386" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T386" t="n">
         <v>16</v>
@@ -31315,25 +31315,25 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M387" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N387" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O387" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P387" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
@@ -31342,11 +31342,11 @@
       </c>
       <c r="R387" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S387" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T387" t="n">
         <v>16</v>
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44221</v>
+        <v>44218</v>
       </c>
       <c r="E388" t="n">
         <v>5</v>
@@ -31395,25 +31395,25 @@
       </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M388" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="N388" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O388" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P388" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T388" t="n">
         <v>16</v>
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44221</v>
+        <v>44218</v>
       </c>
       <c r="E389" t="n">
         <v>5</v>
@@ -31475,25 +31475,25 @@
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M389" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N389" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O389" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P389" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
@@ -31502,11 +31502,11 @@
       </c>
       <c r="R389" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S389" t="n">
-        <v>938</v>
+        <v>812</v>
       </c>
       <c r="T389" t="n">
         <v>16</v>
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44221</v>
+        <v>44218</v>
       </c>
       <c r="E390" t="n">
         <v>5</v>
@@ -31555,7 +31555,7 @@
       </c>
       <c r="K390" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L390" t="inlineStr">
@@ -31564,7 +31564,7 @@
         </is>
       </c>
       <c r="M390" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="N390" t="n">
         <v>12000</v>
@@ -31582,7 +31582,7 @@
       </c>
       <c r="R390" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S390" t="n">
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44221</v>
+        <v>44218</v>
       </c>
       <c r="E391" t="n">
         <v>5</v>
@@ -31635,7 +31635,7 @@
       </c>
       <c r="K391" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L391" t="inlineStr">
@@ -31644,7 +31644,7 @@
         </is>
       </c>
       <c r="M391" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N391" t="n">
         <v>10000</v>
@@ -31662,7 +31662,7 @@
       </c>
       <c r="R391" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S391" t="n">
@@ -31715,7 +31715,7 @@
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L392" t="inlineStr">
@@ -31724,16 +31724,16 @@
         </is>
       </c>
       <c r="M392" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N392" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O392" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P392" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>812</v>
+        <v>875</v>
       </c>
       <c r="T392" t="n">
         <v>16</v>
@@ -31795,25 +31795,25 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M393" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N393" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O393" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P393" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>750</v>
+        <v>938</v>
       </c>
       <c r="T393" t="n">
         <v>16</v>
@@ -31875,25 +31875,25 @@
       </c>
       <c r="K394" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M394" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N394" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O394" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P394" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T394" t="n">
         <v>16</v>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44166</v>
+        <v>44221</v>
       </c>
       <c r="E395" t="n">
         <v>5</v>
@@ -31955,25 +31955,25 @@
       </c>
       <c r="K395" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M395" t="n">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="N395" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O395" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P395" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="T395" t="n">
         <v>16</v>
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44166</v>
+        <v>44221</v>
       </c>
       <c r="E396" t="n">
         <v>5</v>
@@ -32035,25 +32035,25 @@
       </c>
       <c r="K396" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M396" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N396" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O396" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P396" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
@@ -32066,7 +32066,7 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>500</v>
+        <v>812</v>
       </c>
       <c r="T396" t="n">
         <v>16</v>
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44166</v>
+        <v>44221</v>
       </c>
       <c r="E397" t="n">
         <v>5</v>
@@ -32115,25 +32115,25 @@
       </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M397" t="n">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="N397" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O397" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P397" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
@@ -32146,7 +32146,7 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>438</v>
+        <v>750</v>
       </c>
       <c r="T397" t="n">
         <v>16</v>
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44166</v>
+        <v>44221</v>
       </c>
       <c r="E398" t="n">
         <v>5</v>
@@ -32195,25 +32195,25 @@
       </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M398" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N398" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O398" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P398" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>812</v>
+        <v>625</v>
       </c>
       <c r="T398" t="n">
         <v>16</v>
@@ -32275,25 +32275,25 @@
       </c>
       <c r="K399" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M399" t="n">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="N399" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O399" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P399" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         </is>
       </c>
       <c r="S399" t="n">
-        <v>750</v>
+        <v>562</v>
       </c>
       <c r="T399" t="n">
         <v>16</v>
@@ -32355,25 +32355,25 @@
       </c>
       <c r="K400" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M400" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N400" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O400" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P400" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
@@ -32386,7 +32386,7 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T400" t="n">
         <v>16</v>
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44508</v>
+        <v>44166</v>
       </c>
       <c r="E401" t="n">
         <v>5</v>
@@ -32435,7 +32435,7 @@
       </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L401" t="inlineStr">
@@ -32444,20 +32444,20 @@
         </is>
       </c>
       <c r="M401" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N401" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O401" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P401" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R401" t="inlineStr">
@@ -32466,10 +32466,10 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>1100</v>
+        <v>438</v>
       </c>
       <c r="T401" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="402">
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44508</v>
+        <v>44166</v>
       </c>
       <c r="E402" t="n">
         <v>5</v>
@@ -32515,7 +32515,7 @@
       </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L402" t="inlineStr">
@@ -32524,32 +32524,32 @@
         </is>
       </c>
       <c r="M402" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N402" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O402" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P402" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R402" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S402" t="n">
-        <v>1333</v>
+        <v>812</v>
       </c>
       <c r="T402" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="403">
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44508</v>
+        <v>44166</v>
       </c>
       <c r="E403" t="n">
         <v>5</v>
@@ -32595,7 +32595,7 @@
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L403" t="inlineStr">
@@ -32604,32 +32604,32 @@
         </is>
       </c>
       <c r="M403" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N403" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O403" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P403" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R403" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S403" t="n">
-        <v>1200</v>
+        <v>750</v>
       </c>
       <c r="T403" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="404">
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44508</v>
+        <v>44166</v>
       </c>
       <c r="E404" t="n">
         <v>5</v>
@@ -32675,7 +32675,7 @@
       </c>
       <c r="K404" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L404" t="inlineStr">
@@ -32684,32 +32684,32 @@
         </is>
       </c>
       <c r="M404" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="N404" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O404" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P404" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R404" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S404" t="n">
-        <v>933</v>
+        <v>625</v>
       </c>
       <c r="T404" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="405">
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44211</v>
+        <v>44508</v>
       </c>
       <c r="E405" t="n">
         <v>5</v>
@@ -32755,29 +32755,29 @@
       </c>
       <c r="K405" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M405" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N405" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O405" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P405" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R405" t="inlineStr">
@@ -32786,10 +32786,10 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>938</v>
+        <v>1100</v>
       </c>
       <c r="T405" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="406">
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44211</v>
+        <v>44508</v>
       </c>
       <c r="E406" t="n">
         <v>5</v>
@@ -32835,41 +32835,41 @@
       </c>
       <c r="K406" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M406" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="N406" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O406" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P406" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R406" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S406" t="n">
-        <v>1000</v>
+        <v>1333</v>
       </c>
       <c r="T406" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="407">
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44211</v>
+        <v>44508</v>
       </c>
       <c r="E407" t="n">
         <v>5</v>
@@ -32915,7 +32915,7 @@
       </c>
       <c r="K407" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L407" t="inlineStr">
@@ -32924,32 +32924,32 @@
         </is>
       </c>
       <c r="M407" t="n">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="N407" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O407" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P407" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R407" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S407" t="n">
-        <v>875</v>
+        <v>1200</v>
       </c>
       <c r="T407" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="408">
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44211</v>
+        <v>44508</v>
       </c>
       <c r="E408" t="n">
         <v>5</v>
@@ -32995,7 +32995,7 @@
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L408" t="inlineStr">
@@ -33004,32 +33004,32 @@
         </is>
       </c>
       <c r="M408" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N408" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O408" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P408" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R408" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S408" t="n">
-        <v>750</v>
+        <v>933</v>
       </c>
       <c r="T408" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="409">
@@ -33075,7 +33075,7 @@
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L409" t="inlineStr">
@@ -33084,7 +33084,7 @@
         </is>
       </c>
       <c r="M409" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N409" t="n">
         <v>15000</v>
@@ -33155,25 +33155,25 @@
       </c>
       <c r="K410" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L410" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M410" t="n">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="N410" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O410" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P410" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T410" t="n">
         <v>16</v>
@@ -33235,25 +33235,25 @@
       </c>
       <c r="K411" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M411" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="N411" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O411" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P411" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T411" t="n">
         <v>16</v>
@@ -33315,25 +33315,25 @@
       </c>
       <c r="K412" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M412" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="N412" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O412" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P412" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33342,11 +33342,11 @@
       </c>
       <c r="R412" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S412" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T412" t="n">
         <v>16</v>
@@ -33395,25 +33395,25 @@
       </c>
       <c r="K413" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M413" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N413" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O413" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P413" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33422,11 +33422,11 @@
       </c>
       <c r="R413" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S413" t="n">
-        <v>750</v>
+        <v>938</v>
       </c>
       <c r="T413" t="n">
         <v>16</v>
@@ -33475,25 +33475,25 @@
       </c>
       <c r="K414" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M414" t="n">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="N414" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O414" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P414" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33502,11 +33502,11 @@
       </c>
       <c r="R414" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S414" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T414" t="n">
         <v>16</v>
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E415" t="n">
         <v>5</v>
@@ -33555,25 +33555,25 @@
       </c>
       <c r="K415" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M415" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="N415" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O415" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P415" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>938</v>
+        <v>750</v>
       </c>
       <c r="T415" t="n">
         <v>16</v>
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E416" t="n">
         <v>5</v>
@@ -33635,25 +33635,25 @@
       </c>
       <c r="K416" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M416" t="n">
         <v>56</v>
       </c>
       <c r="N416" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O416" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P416" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33662,11 +33662,11 @@
       </c>
       <c r="R416" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S416" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T416" t="n">
         <v>16</v>
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E417" t="n">
         <v>5</v>
@@ -33715,7 +33715,7 @@
       </c>
       <c r="K417" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L417" t="inlineStr">
@@ -33724,16 +33724,16 @@
         </is>
       </c>
       <c r="M417" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N417" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O417" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P417" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33742,11 +33742,11 @@
       </c>
       <c r="R417" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S417" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T417" t="n">
         <v>16</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E418" t="n">
         <v>5</v>
@@ -33795,7 +33795,7 @@
       </c>
       <c r="K418" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L418" t="inlineStr">
@@ -33807,13 +33807,13 @@
         <v>60</v>
       </c>
       <c r="N418" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O418" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P418" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33822,11 +33822,11 @@
       </c>
       <c r="R418" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S418" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T418" t="n">
         <v>16</v>
@@ -33875,7 +33875,7 @@
       </c>
       <c r="K419" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L419" t="inlineStr">
@@ -33884,7 +33884,7 @@
         </is>
       </c>
       <c r="M419" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N419" t="n">
         <v>15000</v>
@@ -33955,25 +33955,25 @@
       </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M420" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="N420" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O420" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P420" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T420" t="n">
         <v>16</v>
@@ -34035,25 +34035,25 @@
       </c>
       <c r="K421" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M421" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N421" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O421" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P421" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T421" t="n">
         <v>16</v>
@@ -34115,16 +34115,16 @@
       </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M422" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N422" t="n">
         <v>12000</v>
@@ -34142,7 +34142,7 @@
       </c>
       <c r="R422" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S422" t="n">
@@ -34195,25 +34195,25 @@
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M423" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N423" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O423" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P423" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34222,11 +34222,11 @@
       </c>
       <c r="R423" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S423" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T423" t="n">
         <v>16</v>
@@ -34275,25 +34275,25 @@
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M424" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="N424" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O424" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P424" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34302,11 +34302,11 @@
       </c>
       <c r="R424" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S424" t="n">
-        <v>562</v>
+        <v>875</v>
       </c>
       <c r="T424" t="n">
         <v>16</v>
@@ -34355,25 +34355,25 @@
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M425" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="N425" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O425" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P425" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
@@ -34382,11 +34382,11 @@
       </c>
       <c r="R425" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S425" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T425" t="n">
         <v>16</v>
@@ -34435,16 +34435,16 @@
       </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M426" t="n">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N426" t="n">
         <v>12000</v>
@@ -34515,12 +34515,12 @@
       </c>
       <c r="K427" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M427" t="n">
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E428" t="n">
         <v>5</v>
@@ -34595,25 +34595,25 @@
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M428" t="n">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="N428" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O428" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P428" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34622,11 +34622,11 @@
       </c>
       <c r="R428" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S428" t="n">
-        <v>750</v>
+        <v>562</v>
       </c>
       <c r="T428" t="n">
         <v>16</v>
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E429" t="n">
         <v>5</v>
@@ -34675,25 +34675,25 @@
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M429" t="n">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="N429" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O429" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P429" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34702,11 +34702,11 @@
       </c>
       <c r="R429" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S429" t="n">
-        <v>625</v>
+        <v>812</v>
       </c>
       <c r="T429" t="n">
         <v>16</v>
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E430" t="n">
         <v>5</v>
@@ -34755,25 +34755,25 @@
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M430" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N430" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O430" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P430" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34782,11 +34782,11 @@
       </c>
       <c r="R430" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S430" t="n">
-        <v>562</v>
+        <v>750</v>
       </c>
       <c r="T430" t="n">
         <v>16</v>
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E431" t="n">
         <v>5</v>
@@ -34835,25 +34835,25 @@
       </c>
       <c r="K431" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M431" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N431" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O431" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P431" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
@@ -34862,11 +34862,11 @@
       </c>
       <c r="R431" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S431" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T431" t="n">
         <v>16</v>
@@ -34915,25 +34915,25 @@
       </c>
       <c r="K432" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M432" t="n">
         <v>68</v>
       </c>
       <c r="N432" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O432" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P432" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>1062</v>
+        <v>750</v>
       </c>
       <c r="T432" t="n">
         <v>16</v>
@@ -34995,7 +34995,7 @@
       </c>
       <c r="K433" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L433" t="inlineStr">
@@ -35004,16 +35004,16 @@
         </is>
       </c>
       <c r="M433" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="N433" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O433" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P433" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T433" t="n">
         <v>16</v>
@@ -35075,7 +35075,7 @@
       </c>
       <c r="K434" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L434" t="inlineStr">
@@ -35084,16 +35084,16 @@
         </is>
       </c>
       <c r="M434" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N434" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O434" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P434" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
@@ -35106,7 +35106,7 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>750</v>
+        <v>562</v>
       </c>
       <c r="T434" t="n">
         <v>16</v>
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E435" t="n">
         <v>5</v>
@@ -35155,29 +35155,29 @@
       </c>
       <c r="K435" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M435" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N435" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O435" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P435" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R435" t="inlineStr">
@@ -35186,10 +35186,10 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T435" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="436">
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E436" t="n">
         <v>5</v>
@@ -35235,29 +35235,29 @@
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M436" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="N436" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O436" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P436" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R436" t="inlineStr">
@@ -35266,10 +35266,10 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>1300</v>
+        <v>1062</v>
       </c>
       <c r="T436" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="437">
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E437" t="n">
         <v>5</v>
@@ -35315,7 +35315,7 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L437" t="inlineStr">
@@ -35324,32 +35324,32 @@
         </is>
       </c>
       <c r="M437" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="N437" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O437" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P437" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R437" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S437" t="n">
-        <v>1133</v>
+        <v>875</v>
       </c>
       <c r="T437" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="438">
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E438" t="n">
         <v>5</v>
@@ -35395,7 +35395,7 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
@@ -35404,32 +35404,32 @@
         </is>
       </c>
       <c r="M438" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N438" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O438" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P438" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R438" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S438" t="n">
-        <v>933</v>
+        <v>750</v>
       </c>
       <c r="T438" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="439">
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E439" t="n">
         <v>5</v>
@@ -35475,29 +35475,29 @@
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M439" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="N439" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O439" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P439" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R439" t="inlineStr">
@@ -35506,10 +35506,10 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>875</v>
+        <v>1200</v>
       </c>
       <c r="T439" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="440">
@@ -35527,7 +35527,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E440" t="n">
         <v>5</v>
@@ -35555,7 +35555,7 @@
       </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L440" t="inlineStr">
@@ -35564,20 +35564,20 @@
         </is>
       </c>
       <c r="M440" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="N440" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O440" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P440" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R440" t="inlineStr">
@@ -35586,10 +35586,10 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="T440" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="441">
@@ -35607,7 +35607,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E441" t="n">
         <v>5</v>
@@ -35635,41 +35635,41 @@
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M441" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="N441" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O441" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P441" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R441" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S441" t="n">
-        <v>625</v>
+        <v>1133</v>
       </c>
       <c r="T441" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="442">
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E442" t="n">
         <v>5</v>
@@ -35715,16 +35715,16 @@
       </c>
       <c r="K442" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M442" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N442" t="n">
         <v>14000</v>
@@ -35737,19 +35737,19 @@
       </c>
       <c r="Q442" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R442" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S442" t="n">
-        <v>875</v>
+        <v>933</v>
       </c>
       <c r="T442" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="443">
@@ -35795,25 +35795,25 @@
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M443" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="N443" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O443" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P443" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T443" t="n">
         <v>16</v>
@@ -35875,7 +35875,7 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
@@ -35884,7 +35884,7 @@
         </is>
       </c>
       <c r="M444" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N444" t="n">
         <v>12000</v>
@@ -35955,7 +35955,7 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L445" t="inlineStr">
@@ -35964,7 +35964,7 @@
         </is>
       </c>
       <c r="M445" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N445" t="n">
         <v>10000</v>
@@ -36035,7 +36035,7 @@
       </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L446" t="inlineStr">
@@ -36044,16 +36044,16 @@
         </is>
       </c>
       <c r="M446" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N446" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O446" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P446" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36062,11 +36062,11 @@
       </c>
       <c r="R446" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S446" t="n">
-        <v>812</v>
+        <v>875</v>
       </c>
       <c r="T446" t="n">
         <v>16</v>
@@ -36115,25 +36115,25 @@
       </c>
       <c r="K447" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M447" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N447" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O447" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P447" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
@@ -36142,11 +36142,11 @@
       </c>
       <c r="R447" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S447" t="n">
-        <v>750</v>
+        <v>938</v>
       </c>
       <c r="T447" t="n">
         <v>16</v>
@@ -36195,25 +36195,25 @@
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M448" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N448" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O448" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P448" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36222,11 +36222,11 @@
       </c>
       <c r="R448" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S448" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T448" t="n">
         <v>16</v>
@@ -36247,7 +36247,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E449" t="n">
         <v>5</v>
@@ -36275,29 +36275,29 @@
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M449" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="N449" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O449" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P449" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R449" t="inlineStr">
@@ -36306,10 +36306,10 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>1300</v>
+        <v>625</v>
       </c>
       <c r="T449" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="450">
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E450" t="n">
         <v>5</v>
@@ -36355,16 +36355,16 @@
       </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>Río Copiapó</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M450" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="N450" t="n">
         <v>13000</v>
@@ -36377,19 +36377,19 @@
       </c>
       <c r="Q450" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R450" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S450" t="n">
-        <v>1300</v>
+        <v>812</v>
       </c>
       <c r="T450" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="451">
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E451" t="n">
         <v>5</v>
@@ -36435,16 +36435,16 @@
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>Río Copiapó</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M451" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N451" t="n">
         <v>12000</v>
@@ -36457,19 +36457,19 @@
       </c>
       <c r="Q451" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R451" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S451" t="n">
-        <v>1200</v>
+        <v>750</v>
       </c>
       <c r="T451" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="452">
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E452" t="n">
         <v>5</v>
@@ -36515,41 +36515,41 @@
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M452" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N452" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="O452" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="P452" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R452" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S452" t="n">
-        <v>1333</v>
+        <v>625</v>
       </c>
       <c r="T452" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="453">
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44168</v>
+        <v>44505</v>
       </c>
       <c r="E453" t="n">
         <v>5</v>
@@ -36600,24 +36600,24 @@
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M453" t="n">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="N453" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O453" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P453" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R453" t="inlineStr">
@@ -36626,10 +36626,10 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>625</v>
+        <v>1300</v>
       </c>
       <c r="T453" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="454">
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44168</v>
+        <v>44505</v>
       </c>
       <c r="E454" t="n">
         <v>5</v>
@@ -36675,7 +36675,7 @@
       </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Río Copiapó</t>
         </is>
       </c>
       <c r="L454" t="inlineStr">
@@ -36684,20 +36684,20 @@
         </is>
       </c>
       <c r="M454" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="N454" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O454" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P454" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R454" t="inlineStr">
@@ -36706,10 +36706,10 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>562</v>
+        <v>1300</v>
       </c>
       <c r="T454" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="455">
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44168</v>
+        <v>44505</v>
       </c>
       <c r="E455" t="n">
         <v>5</v>
@@ -36755,7 +36755,7 @@
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Río Copiapó</t>
         </is>
       </c>
       <c r="L455" t="inlineStr">
@@ -36764,20 +36764,20 @@
         </is>
       </c>
       <c r="M455" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="N455" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O455" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P455" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R455" t="inlineStr">
@@ -36786,10 +36786,10 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="T455" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="456">
@@ -36807,7 +36807,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44168</v>
+        <v>44487</v>
       </c>
       <c r="E456" t="n">
         <v>5</v>
@@ -36835,41 +36835,41 @@
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M456" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N456" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="O456" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="P456" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R456" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S456" t="n">
-        <v>875</v>
+        <v>1333</v>
       </c>
       <c r="T456" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="457">
@@ -36915,25 +36915,25 @@
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M457" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N457" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O457" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P457" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
@@ -36942,11 +36942,11 @@
       </c>
       <c r="R457" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S457" t="n">
-        <v>812</v>
+        <v>625</v>
       </c>
       <c r="T457" t="n">
         <v>16</v>
@@ -36995,25 +36995,25 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M458" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N458" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O458" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P458" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
@@ -37022,11 +37022,11 @@
       </c>
       <c r="R458" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S458" t="n">
-        <v>750</v>
+        <v>562</v>
       </c>
       <c r="T458" t="n">
         <v>16</v>
@@ -37075,25 +37075,25 @@
       </c>
       <c r="K459" t="inlineStr">
         <is>
-          <t>Springtime</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M459" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N459" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O459" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P459" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
@@ -37102,11 +37102,11 @@
       </c>
       <c r="R459" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S459" t="n">
-        <v>812</v>
+        <v>500</v>
       </c>
       <c r="T459" t="n">
         <v>16</v>
@@ -37155,25 +37155,25 @@
       </c>
       <c r="K460" t="inlineStr">
         <is>
-          <t>Springtime</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M460" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="N460" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O460" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P460" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T460" t="n">
         <v>16</v>
@@ -37235,25 +37235,25 @@
       </c>
       <c r="K461" t="inlineStr">
         <is>
-          <t>Springtime</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M461" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N461" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O461" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P461" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         </is>
       </c>
       <c r="S461" t="n">
-        <v>625</v>
+        <v>812</v>
       </c>
       <c r="T461" t="n">
         <v>16</v>
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E462" t="n">
         <v>5</v>
@@ -37315,25 +37315,25 @@
       </c>
       <c r="K462" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M462" t="n">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="N462" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O462" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P462" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T462" t="n">
         <v>16</v>
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E463" t="n">
         <v>5</v>
@@ -37395,25 +37395,25 @@
       </c>
       <c r="K463" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Springtime</t>
         </is>
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M463" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N463" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O463" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P463" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>1125</v>
+        <v>812</v>
       </c>
       <c r="T463" t="n">
         <v>16</v>
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E464" t="n">
         <v>5</v>
@@ -37475,7 +37475,7 @@
       </c>
       <c r="K464" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Springtime</t>
         </is>
       </c>
       <c r="L464" t="inlineStr">
@@ -37484,16 +37484,16 @@
         </is>
       </c>
       <c r="M464" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N464" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O464" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P464" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T464" t="n">
         <v>16</v>
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E465" t="n">
         <v>5</v>
@@ -37555,7 +37555,7 @@
       </c>
       <c r="K465" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Springtime</t>
         </is>
       </c>
       <c r="L465" t="inlineStr">
@@ -37564,16 +37564,16 @@
         </is>
       </c>
       <c r="M465" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="N465" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O465" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P465" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T465" t="n">
         <v>16</v>
@@ -37635,7 +37635,7 @@
       </c>
       <c r="K466" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L466" t="inlineStr">
@@ -37644,16 +37644,16 @@
         </is>
       </c>
       <c r="M466" t="n">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="N466" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O466" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P466" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T466" t="n">
         <v>16</v>
@@ -37715,25 +37715,25 @@
       </c>
       <c r="K467" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M467" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N467" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O467" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P467" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         </is>
       </c>
       <c r="S467" t="n">
-        <v>625</v>
+        <v>1125</v>
       </c>
       <c r="T467" t="n">
         <v>16</v>
@@ -37795,25 +37795,25 @@
       </c>
       <c r="K468" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M468" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N468" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O468" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P468" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>562</v>
+        <v>875</v>
       </c>
       <c r="T468" t="n">
         <v>16</v>
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44181</v>
+        <v>44175</v>
       </c>
       <c r="E469" t="n">
         <v>5</v>
@@ -37875,16 +37875,16 @@
       </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M469" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N469" t="n">
         <v>12000</v>
@@ -37902,7 +37902,7 @@
       </c>
       <c r="R469" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S469" t="n">
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44181</v>
+        <v>44175</v>
       </c>
       <c r="E470" t="n">
         <v>5</v>
@@ -37955,25 +37955,25 @@
       </c>
       <c r="K470" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M470" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N470" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O470" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P470" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37982,11 +37982,11 @@
       </c>
       <c r="R470" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S470" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T470" t="n">
         <v>16</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44181</v>
+        <v>44175</v>
       </c>
       <c r="E471" t="n">
         <v>5</v>
@@ -38035,25 +38035,25 @@
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M471" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="N471" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O471" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P471" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38062,11 +38062,11 @@
       </c>
       <c r="R471" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S471" t="n">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="T471" t="n">
         <v>16</v>
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44181</v>
+        <v>44175</v>
       </c>
       <c r="E472" t="n">
         <v>5</v>
@@ -38115,25 +38115,25 @@
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M472" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N472" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="O472" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="P472" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38142,11 +38142,11 @@
       </c>
       <c r="R472" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S472" t="n">
-        <v>1062</v>
+        <v>562</v>
       </c>
       <c r="T472" t="n">
         <v>16</v>
@@ -38195,25 +38195,25 @@
       </c>
       <c r="K473" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M473" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="N473" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O473" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P473" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T473" t="n">
         <v>16</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44270</v>
+        <v>44181</v>
       </c>
       <c r="E474" t="n">
         <v>5</v>
@@ -38275,25 +38275,25 @@
       </c>
       <c r="K474" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M474" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N474" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O474" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P474" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38302,11 +38302,11 @@
       </c>
       <c r="R474" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S474" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T474" t="n">
         <v>16</v>
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44270</v>
+        <v>44181</v>
       </c>
       <c r="E475" t="n">
         <v>5</v>
@@ -38355,25 +38355,25 @@
       </c>
       <c r="K475" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L475" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M475" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N475" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O475" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P475" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38382,11 +38382,11 @@
       </c>
       <c r="R475" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S475" t="n">
-        <v>1000</v>
+        <v>562</v>
       </c>
       <c r="T475" t="n">
         <v>16</v>
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44270</v>
+        <v>44181</v>
       </c>
       <c r="E476" t="n">
         <v>5</v>
@@ -38435,25 +38435,25 @@
       </c>
       <c r="K476" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L476" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M476" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N476" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O476" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P476" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38462,11 +38462,11 @@
       </c>
       <c r="R476" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S476" t="n">
-        <v>750</v>
+        <v>1062</v>
       </c>
       <c r="T476" t="n">
         <v>16</v>
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44270</v>
+        <v>44181</v>
       </c>
       <c r="E477" t="n">
         <v>5</v>
@@ -38515,25 +38515,25 @@
       </c>
       <c r="K477" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L477" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M477" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="N477" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O477" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P477" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38542,11 +38542,11 @@
       </c>
       <c r="R477" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S477" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T477" t="n">
         <v>16</v>
@@ -38595,7 +38595,7 @@
       </c>
       <c r="K478" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L478" t="inlineStr">
@@ -38604,7 +38604,7 @@
         </is>
       </c>
       <c r="M478" t="n">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="N478" t="n">
         <v>14000</v>
@@ -38675,7 +38675,7 @@
       </c>
       <c r="K479" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L479" t="inlineStr">
@@ -38684,7 +38684,7 @@
         </is>
       </c>
       <c r="M479" t="n">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="N479" t="n">
         <v>16000</v>
@@ -38755,7 +38755,7 @@
       </c>
       <c r="K480" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L480" t="inlineStr">
@@ -38764,7 +38764,7 @@
         </is>
       </c>
       <c r="M480" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N480" t="n">
         <v>12000</v>
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E481" t="n">
         <v>5</v>
@@ -38835,25 +38835,25 @@
       </c>
       <c r="K481" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M481" t="n">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="N481" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O481" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P481" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38862,11 +38862,11 @@
       </c>
       <c r="R481" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S481" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T481" t="n">
         <v>16</v>
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E482" t="n">
         <v>5</v>
@@ -38915,25 +38915,25 @@
       </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M482" t="n">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="N482" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O482" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P482" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
@@ -38942,11 +38942,11 @@
       </c>
       <c r="R482" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S482" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T482" t="n">
         <v>16</v>
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E483" t="n">
         <v>5</v>
@@ -38995,25 +38995,25 @@
       </c>
       <c r="K483" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M483" t="n">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="N483" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O483" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P483" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39022,11 +39022,11 @@
       </c>
       <c r="R483" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S483" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T483" t="n">
         <v>16</v>
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E484" t="n">
         <v>5</v>
@@ -39075,25 +39075,25 @@
       </c>
       <c r="K484" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L484" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M484" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N484" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O484" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P484" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39102,11 +39102,11 @@
       </c>
       <c r="R484" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S484" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T484" t="n">
         <v>16</v>
@@ -39155,7 +39155,7 @@
       </c>
       <c r="K485" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L485" t="inlineStr">
@@ -39164,16 +39164,16 @@
         </is>
       </c>
       <c r="M485" t="n">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="N485" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O485" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P485" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39186,7 +39186,7 @@
         </is>
       </c>
       <c r="S485" t="n">
-        <v>812</v>
+        <v>875</v>
       </c>
       <c r="T485" t="n">
         <v>16</v>
@@ -39235,25 +39235,25 @@
       </c>
       <c r="K486" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M486" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="N486" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O486" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P486" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         </is>
       </c>
       <c r="S486" t="n">
-        <v>750</v>
+        <v>938</v>
       </c>
       <c r="T486" t="n">
         <v>16</v>
@@ -39315,25 +39315,25 @@
       </c>
       <c r="K487" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M487" t="n">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="N487" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O487" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P487" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39346,7 +39346,7 @@
         </is>
       </c>
       <c r="S487" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T487" t="n">
         <v>16</v>
@@ -39395,25 +39395,25 @@
       </c>
       <c r="K488" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L488" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M488" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="N488" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O488" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P488" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         </is>
       </c>
       <c r="S488" t="n">
-        <v>812</v>
+        <v>625</v>
       </c>
       <c r="T488" t="n">
         <v>16</v>
@@ -39475,25 +39475,25 @@
       </c>
       <c r="K489" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M489" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="N489" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O489" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P489" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         </is>
       </c>
       <c r="S489" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T489" t="n">
         <v>16</v>
@@ -39555,25 +39555,25 @@
       </c>
       <c r="K490" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M490" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N490" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O490" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P490" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         </is>
       </c>
       <c r="S490" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T490" t="n">
         <v>16</v>
@@ -39607,7 +39607,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E491" t="n">
         <v>5</v>
@@ -39635,29 +39635,29 @@
       </c>
       <c r="K491" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M491" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N491" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O491" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P491" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R491" t="inlineStr">
@@ -39666,10 +39666,10 @@
         </is>
       </c>
       <c r="S491" t="n">
-        <v>1300</v>
+        <v>625</v>
       </c>
       <c r="T491" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="492">
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E492" t="n">
         <v>5</v>
@@ -39715,29 +39715,29 @@
       </c>
       <c r="K492" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M492" t="n">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="N492" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O492" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P492" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R492" t="inlineStr">
@@ -39746,10 +39746,10 @@
         </is>
       </c>
       <c r="S492" t="n">
-        <v>1000</v>
+        <v>812</v>
       </c>
       <c r="T492" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="493">
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E493" t="n">
         <v>5</v>
@@ -39795,25 +39795,25 @@
       </c>
       <c r="K493" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M493" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N493" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O493" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P493" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         </is>
       </c>
       <c r="S493" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T493" t="n">
         <v>16</v>
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E494" t="n">
         <v>5</v>
@@ -39875,25 +39875,25 @@
       </c>
       <c r="K494" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M494" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N494" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O494" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P494" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39906,7 +39906,7 @@
         </is>
       </c>
       <c r="S494" t="n">
-        <v>938</v>
+        <v>625</v>
       </c>
       <c r="T494" t="n">
         <v>16</v>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44244</v>
+        <v>44509</v>
       </c>
       <c r="E495" t="n">
         <v>5</v>
@@ -39955,7 +39955,7 @@
       </c>
       <c r="K495" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L495" t="inlineStr">
@@ -39964,20 +39964,20 @@
         </is>
       </c>
       <c r="M495" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N495" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O495" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P495" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R495" t="inlineStr">
@@ -39986,10 +39986,10 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="T495" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="496">
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44244</v>
+        <v>44509</v>
       </c>
       <c r="E496" t="n">
         <v>5</v>
@@ -40035,29 +40035,29 @@
       </c>
       <c r="K496" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M496" t="n">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="N496" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O496" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P496" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R496" t="inlineStr">
@@ -40066,10 +40066,10 @@
         </is>
       </c>
       <c r="S496" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T496" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="497">
@@ -40115,25 +40115,25 @@
       </c>
       <c r="K497" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M497" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="N497" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O497" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P497" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
@@ -40146,7 +40146,7 @@
         </is>
       </c>
       <c r="S497" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T497" t="n">
         <v>16</v>
@@ -40195,25 +40195,25 @@
       </c>
       <c r="K498" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M498" t="n">
         <v>85</v>
       </c>
       <c r="N498" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O498" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P498" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40226,7 +40226,7 @@
         </is>
       </c>
       <c r="S498" t="n">
-        <v>750</v>
+        <v>938</v>
       </c>
       <c r="T498" t="n">
         <v>16</v>
@@ -40275,25 +40275,25 @@
       </c>
       <c r="K499" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L499" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M499" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N499" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O499" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P499" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         </is>
       </c>
       <c r="S499" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T499" t="n">
         <v>16</v>
@@ -40355,7 +40355,7 @@
       </c>
       <c r="K500" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L500" t="inlineStr">
@@ -40364,16 +40364,16 @@
         </is>
       </c>
       <c r="M500" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="N500" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O500" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P500" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40382,11 +40382,11 @@
       </c>
       <c r="R500" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S500" t="n">
-        <v>812</v>
+        <v>875</v>
       </c>
       <c r="T500" t="n">
         <v>16</v>
@@ -40435,25 +40435,25 @@
       </c>
       <c r="K501" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L501" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M501" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="N501" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O501" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P501" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40462,11 +40462,11 @@
       </c>
       <c r="R501" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S501" t="n">
-        <v>750</v>
+        <v>938</v>
       </c>
       <c r="T501" t="n">
         <v>16</v>
@@ -40515,25 +40515,25 @@
       </c>
       <c r="K502" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M502" t="n">
         <v>85</v>
       </c>
       <c r="N502" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O502" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P502" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40542,11 +40542,11 @@
       </c>
       <c r="R502" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S502" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T502" t="n">
         <v>16</v>
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E503" t="n">
         <v>5</v>
@@ -40600,20 +40600,20 @@
       </c>
       <c r="L503" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M503" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="N503" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O503" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P503" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40622,11 +40622,11 @@
       </c>
       <c r="R503" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S503" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T503" t="n">
         <v>16</v>
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E504" t="n">
         <v>5</v>
@@ -40675,25 +40675,25 @@
       </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M504" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N504" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O504" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P504" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T504" t="n">
         <v>16</v>
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E505" t="n">
         <v>5</v>
@@ -40755,25 +40755,25 @@
       </c>
       <c r="K505" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M505" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N505" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O505" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P505" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40786,7 +40786,7 @@
         </is>
       </c>
       <c r="S505" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T505" t="n">
         <v>16</v>
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E506" t="n">
         <v>5</v>
@@ -40835,25 +40835,25 @@
       </c>
       <c r="K506" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M506" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N506" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O506" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P506" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         </is>
       </c>
       <c r="S506" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T506" t="n">
         <v>16</v>
@@ -40915,25 +40915,25 @@
       </c>
       <c r="K507" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M507" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="N507" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O507" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P507" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T507" t="n">
         <v>16</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E508" t="n">
         <v>5</v>
@@ -40995,25 +40995,25 @@
       </c>
       <c r="K508" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L508" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M508" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N508" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O508" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P508" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41022,11 +41022,11 @@
       </c>
       <c r="R508" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S508" t="n">
-        <v>938</v>
+        <v>750</v>
       </c>
       <c r="T508" t="n">
         <v>16</v>
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E509" t="n">
         <v>5</v>
@@ -41075,25 +41075,25 @@
       </c>
       <c r="K509" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M509" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N509" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O509" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P509" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41102,11 +41102,11 @@
       </c>
       <c r="R509" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S509" t="n">
-        <v>1062</v>
+        <v>625</v>
       </c>
       <c r="T509" t="n">
         <v>16</v>
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E510" t="n">
         <v>5</v>
@@ -41155,25 +41155,25 @@
       </c>
       <c r="K510" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M510" t="n">
         <v>80</v>
       </c>
       <c r="N510" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O510" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P510" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41182,11 +41182,11 @@
       </c>
       <c r="R510" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S510" t="n">
-        <v>812</v>
+        <v>875</v>
       </c>
       <c r="T510" t="n">
         <v>16</v>
@@ -41207,68 +41207,388 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
+        <v>44273</v>
+      </c>
+      <c r="E511" t="n">
+        <v>5</v>
+      </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G511" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H511" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I511" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J511" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>September Sweet</t>
+        </is>
+      </c>
+      <c r="L511" t="inlineStr">
+        <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M511" t="n">
+        <v>75</v>
+      </c>
+      <c r="N511" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O511" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P511" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q511" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R511" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S511" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T511" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>3</v>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D512" s="2" t="n">
         <v>44179</v>
       </c>
-      <c r="E511" t="n">
-        <v>5</v>
-      </c>
-      <c r="F511" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G511" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I511" t="n">
-        <v>100103004</v>
-      </c>
-      <c r="J511" t="inlineStr">
-        <is>
-          <t>Durazno</t>
-        </is>
-      </c>
-      <c r="K511" t="inlineStr">
+      <c r="E512" t="n">
+        <v>5</v>
+      </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G512" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I512" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J512" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K512" t="inlineStr">
         <is>
           <t>Kurakata</t>
         </is>
       </c>
-      <c r="L511" t="inlineStr">
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M512" t="n">
+        <v>80</v>
+      </c>
+      <c r="N512" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O512" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P512" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q512" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R512" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S512" t="n">
+        <v>938</v>
+      </c>
+      <c r="T512" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>3</v>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D513" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E513" t="n">
+        <v>5</v>
+      </c>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G513" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H513" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I513" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J513" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>Kurakata</t>
+        </is>
+      </c>
+      <c r="L513" t="inlineStr">
+        <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M513" t="n">
+        <v>75</v>
+      </c>
+      <c r="N513" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O513" t="n">
+        <v>17000</v>
+      </c>
+      <c r="P513" t="n">
+        <v>17000</v>
+      </c>
+      <c r="Q513" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R513" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S513" t="n">
+        <v>1062</v>
+      </c>
+      <c r="T513" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>3</v>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D514" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E514" t="n">
+        <v>5</v>
+      </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G514" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I514" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J514" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>Kurakata</t>
+        </is>
+      </c>
+      <c r="L514" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M514" t="n">
+        <v>80</v>
+      </c>
+      <c r="N514" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O514" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P514" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q514" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R514" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S514" t="n">
+        <v>812</v>
+      </c>
+      <c r="T514" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>3</v>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D515" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E515" t="n">
+        <v>5</v>
+      </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G515" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H515" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I515" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J515" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>Kurakata</t>
+        </is>
+      </c>
+      <c r="L515" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M511" t="n">
+      <c r="M515" t="n">
         <v>67</v>
       </c>
-      <c r="N511" t="n">
+      <c r="N515" t="n">
         <v>11000</v>
       </c>
-      <c r="O511" t="n">
+      <c r="O515" t="n">
         <v>11000</v>
       </c>
-      <c r="P511" t="n">
+      <c r="P515" t="n">
         <v>11000</v>
       </c>
-      <c r="Q511" t="inlineStr">
-        <is>
-          <t>$/caja 16 kilos empedrada</t>
-        </is>
-      </c>
-      <c r="R511" t="inlineStr">
+      <c r="Q515" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R515" t="inlineStr">
         <is>
           <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
-      <c r="S511" t="n">
+      <c r="S515" t="n">
         <v>688</v>
       </c>
-      <c r="T511" t="n">
+      <c r="T515" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T515"/>
+  <dimension ref="A1:T523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44211</v>
+        <v>44511</v>
       </c>
       <c r="E409" t="n">
         <v>5</v>
@@ -33075,7 +33075,7 @@
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L409" t="inlineStr">
@@ -33084,20 +33084,20 @@
         </is>
       </c>
       <c r="M409" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="N409" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O409" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P409" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R409" t="inlineStr">
@@ -33106,10 +33106,10 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>938</v>
+        <v>1300</v>
       </c>
       <c r="T409" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="410">
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44211</v>
+        <v>44511</v>
       </c>
       <c r="E410" t="n">
         <v>5</v>
@@ -33155,29 +33155,29 @@
       </c>
       <c r="K410" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L410" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M410" t="n">
         <v>67</v>
       </c>
       <c r="N410" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O410" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P410" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R410" t="inlineStr">
@@ -33189,7 +33189,7 @@
         <v>1000</v>
       </c>
       <c r="T410" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="411">
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44211</v>
+        <v>44511</v>
       </c>
       <c r="E411" t="n">
         <v>5</v>
@@ -33235,29 +33235,29 @@
       </c>
       <c r="K411" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M411" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="N411" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O411" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P411" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R411" t="inlineStr">
@@ -33266,10 +33266,10 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>875</v>
+        <v>800</v>
       </c>
       <c r="T411" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="412">
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44211</v>
+        <v>44511</v>
       </c>
       <c r="E412" t="n">
         <v>5</v>
@@ -33315,41 +33315,41 @@
       </c>
       <c r="K412" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M412" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="N412" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O412" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P412" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R412" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S412" t="n">
-        <v>750</v>
+        <v>933</v>
       </c>
       <c r="T412" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="413">
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44211</v>
+        <v>44511</v>
       </c>
       <c r="E413" t="n">
         <v>5</v>
@@ -33395,41 +33395,41 @@
       </c>
       <c r="K413" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M413" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N413" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O413" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P413" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R413" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S413" t="n">
-        <v>938</v>
+        <v>800</v>
       </c>
       <c r="T413" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="414">
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44211</v>
+        <v>44511</v>
       </c>
       <c r="E414" t="n">
         <v>5</v>
@@ -33475,29 +33475,29 @@
       </c>
       <c r="K414" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Gold Crest</t>
         </is>
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M414" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N414" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O414" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P414" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R414" t="inlineStr">
@@ -33506,10 +33506,10 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>875</v>
+        <v>1300</v>
       </c>
       <c r="T414" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="415">
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44211</v>
+        <v>44511</v>
       </c>
       <c r="E415" t="n">
         <v>5</v>
@@ -33555,29 +33555,29 @@
       </c>
       <c r="K415" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Gold Crest</t>
         </is>
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M415" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N415" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O415" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P415" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R415" t="inlineStr">
@@ -33586,10 +33586,10 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T415" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="416">
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44211</v>
+        <v>44511</v>
       </c>
       <c r="E416" t="n">
         <v>5</v>
@@ -33635,41 +33635,41 @@
       </c>
       <c r="K416" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Gold Crest</t>
         </is>
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M416" t="n">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="N416" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O416" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P416" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R416" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S416" t="n">
-        <v>875</v>
+        <v>800</v>
       </c>
       <c r="T416" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="417">
@@ -33715,25 +33715,25 @@
       </c>
       <c r="K417" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M417" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="N417" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O417" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P417" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33742,11 +33742,11 @@
       </c>
       <c r="R417" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S417" t="n">
-        <v>750</v>
+        <v>938</v>
       </c>
       <c r="T417" t="n">
         <v>16</v>
@@ -33795,25 +33795,25 @@
       </c>
       <c r="K418" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M418" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N418" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O418" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P418" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33822,11 +33822,11 @@
       </c>
       <c r="R418" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S418" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T418" t="n">
         <v>16</v>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E419" t="n">
         <v>5</v>
@@ -33880,20 +33880,20 @@
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M419" t="n">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="N419" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O419" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P419" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T419" t="n">
         <v>16</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E420" t="n">
         <v>5</v>
@@ -33960,20 +33960,20 @@
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M420" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="N420" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O420" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P420" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T420" t="n">
         <v>16</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E421" t="n">
         <v>5</v>
@@ -34035,25 +34035,25 @@
       </c>
       <c r="K421" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M421" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N421" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O421" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P421" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T421" t="n">
         <v>16</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E422" t="n">
         <v>5</v>
@@ -34115,25 +34115,25 @@
       </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M422" t="n">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="N422" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O422" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P422" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T422" t="n">
         <v>16</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E423" t="n">
         <v>5</v>
@@ -34200,20 +34200,20 @@
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M423" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N423" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O423" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P423" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>938</v>
+        <v>750</v>
       </c>
       <c r="T423" t="n">
         <v>16</v>
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E424" t="n">
         <v>5</v>
@@ -34275,16 +34275,16 @@
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M424" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="N424" t="n">
         <v>14000</v>
@@ -34302,7 +34302,7 @@
       </c>
       <c r="R424" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S424" t="n">
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E425" t="n">
         <v>5</v>
@@ -34355,16 +34355,16 @@
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M425" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N425" t="n">
         <v>12000</v>
@@ -34382,7 +34382,7 @@
       </c>
       <c r="R425" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S425" t="n">
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E426" t="n">
         <v>5</v>
@@ -34435,25 +34435,25 @@
       </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M426" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N426" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O426" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P426" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
@@ -34466,7 +34466,7 @@
         </is>
       </c>
       <c r="S426" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T426" t="n">
         <v>16</v>
@@ -34515,25 +34515,25 @@
       </c>
       <c r="K427" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M427" t="n">
         <v>60</v>
       </c>
       <c r="N427" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O427" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P427" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
@@ -34542,11 +34542,11 @@
       </c>
       <c r="R427" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S427" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T427" t="n">
         <v>16</v>
@@ -34595,25 +34595,25 @@
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M428" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N428" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="O428" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="P428" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34622,11 +34622,11 @@
       </c>
       <c r="R428" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S428" t="n">
-        <v>562</v>
+        <v>1000</v>
       </c>
       <c r="T428" t="n">
         <v>16</v>
@@ -34675,25 +34675,25 @@
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M429" t="n">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="N429" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O429" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P429" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34702,11 +34702,11 @@
       </c>
       <c r="R429" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S429" t="n">
-        <v>812</v>
+        <v>875</v>
       </c>
       <c r="T429" t="n">
         <v>16</v>
@@ -34755,16 +34755,16 @@
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M430" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="N430" t="n">
         <v>12000</v>
@@ -34782,7 +34782,7 @@
       </c>
       <c r="R430" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S430" t="n">
@@ -34835,25 +34835,25 @@
       </c>
       <c r="K431" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M431" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N431" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O431" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P431" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
@@ -34862,11 +34862,11 @@
       </c>
       <c r="R431" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S431" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T431" t="n">
         <v>16</v>
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E432" t="n">
         <v>5</v>
@@ -34915,25 +34915,25 @@
       </c>
       <c r="K432" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M432" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="N432" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O432" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P432" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T432" t="n">
         <v>16</v>
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E433" t="n">
         <v>5</v>
@@ -34995,25 +34995,25 @@
       </c>
       <c r="K433" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M433" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N433" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O433" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P433" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T433" t="n">
         <v>16</v>
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E434" t="n">
         <v>5</v>
@@ -35075,25 +35075,25 @@
       </c>
       <c r="K434" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M434" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N434" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O434" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P434" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
@@ -35102,11 +35102,11 @@
       </c>
       <c r="R434" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S434" t="n">
-        <v>562</v>
+        <v>750</v>
       </c>
       <c r="T434" t="n">
         <v>16</v>
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E435" t="n">
         <v>5</v>
@@ -35155,25 +35155,25 @@
       </c>
       <c r="K435" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M435" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N435" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O435" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P435" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
@@ -35182,11 +35182,11 @@
       </c>
       <c r="R435" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S435" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T435" t="n">
         <v>16</v>
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E436" t="n">
         <v>5</v>
@@ -35235,25 +35235,25 @@
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M436" t="n">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="N436" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="O436" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="P436" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
@@ -35262,11 +35262,11 @@
       </c>
       <c r="R436" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S436" t="n">
-        <v>1062</v>
+        <v>562</v>
       </c>
       <c r="T436" t="n">
         <v>16</v>
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E437" t="n">
         <v>5</v>
@@ -35315,25 +35315,25 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M437" t="n">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="N437" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O437" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P437" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
@@ -35342,11 +35342,11 @@
       </c>
       <c r="R437" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S437" t="n">
-        <v>875</v>
+        <v>812</v>
       </c>
       <c r="T437" t="n">
         <v>16</v>
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E438" t="n">
         <v>5</v>
@@ -35395,16 +35395,16 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M438" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N438" t="n">
         <v>12000</v>
@@ -35422,7 +35422,7 @@
       </c>
       <c r="R438" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S438" t="n">
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44504</v>
+        <v>44215</v>
       </c>
       <c r="E439" t="n">
         <v>5</v>
@@ -35475,7 +35475,7 @@
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L439" t="inlineStr">
@@ -35484,32 +35484,32 @@
         </is>
       </c>
       <c r="M439" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N439" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O439" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P439" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R439" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S439" t="n">
-        <v>1200</v>
+        <v>625</v>
       </c>
       <c r="T439" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="440">
@@ -35527,7 +35527,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E440" t="n">
         <v>5</v>
@@ -35555,29 +35555,29 @@
       </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M440" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="N440" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O440" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P440" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R440" t="inlineStr">
@@ -35586,10 +35586,10 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>1300</v>
+        <v>750</v>
       </c>
       <c r="T440" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="441">
@@ -35607,7 +35607,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E441" t="n">
         <v>5</v>
@@ -35635,7 +35635,7 @@
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L441" t="inlineStr">
@@ -35644,32 +35644,32 @@
         </is>
       </c>
       <c r="M441" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N441" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O441" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P441" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R441" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S441" t="n">
-        <v>1133</v>
+        <v>625</v>
       </c>
       <c r="T441" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="442">
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E442" t="n">
         <v>5</v>
@@ -35715,7 +35715,7 @@
       </c>
       <c r="K442" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L442" t="inlineStr">
@@ -35724,32 +35724,32 @@
         </is>
       </c>
       <c r="M442" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="N442" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O442" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P442" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R442" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S442" t="n">
-        <v>933</v>
+        <v>562</v>
       </c>
       <c r="T442" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="443">
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44246</v>
+        <v>44186</v>
       </c>
       <c r="E443" t="n">
         <v>5</v>
@@ -35795,7 +35795,7 @@
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L443" t="inlineStr">
@@ -35804,16 +35804,16 @@
         </is>
       </c>
       <c r="M443" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="N443" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O443" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P443" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T443" t="n">
         <v>16</v>
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44246</v>
+        <v>44186</v>
       </c>
       <c r="E444" t="n">
         <v>5</v>
@@ -35875,25 +35875,25 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M444" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N444" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O444" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P444" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>750</v>
+        <v>1062</v>
       </c>
       <c r="T444" t="n">
         <v>16</v>
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44246</v>
+        <v>44186</v>
       </c>
       <c r="E445" t="n">
         <v>5</v>
@@ -35955,25 +35955,25 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M445" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N445" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O445" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P445" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T445" t="n">
         <v>16</v>
@@ -36007,7 +36007,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44246</v>
+        <v>44186</v>
       </c>
       <c r="E446" t="n">
         <v>5</v>
@@ -36035,25 +36035,25 @@
       </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M446" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N446" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O446" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P446" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T446" t="n">
         <v>16</v>
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E447" t="n">
         <v>5</v>
@@ -36115,29 +36115,29 @@
       </c>
       <c r="K447" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M447" t="n">
         <v>70</v>
       </c>
       <c r="N447" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O447" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P447" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R447" t="inlineStr">
@@ -36146,10 +36146,10 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>938</v>
+        <v>1200</v>
       </c>
       <c r="T447" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="448">
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E448" t="n">
         <v>5</v>
@@ -36195,7 +36195,7 @@
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L448" t="inlineStr">
@@ -36204,20 +36204,20 @@
         </is>
       </c>
       <c r="M448" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="N448" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O448" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P448" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R448" t="inlineStr">
@@ -36226,10 +36226,10 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="T448" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="449">
@@ -36247,7 +36247,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E449" t="n">
         <v>5</v>
@@ -36275,41 +36275,41 @@
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M449" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="N449" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O449" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P449" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R449" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S449" t="n">
-        <v>625</v>
+        <v>1133</v>
       </c>
       <c r="T449" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="450">
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E450" t="n">
         <v>5</v>
@@ -36355,41 +36355,41 @@
       </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M450" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N450" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O450" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P450" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R450" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S450" t="n">
-        <v>812</v>
+        <v>933</v>
       </c>
       <c r="T450" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="451">
@@ -36435,25 +36435,25 @@
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M451" t="n">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N451" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O451" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P451" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
@@ -36462,11 +36462,11 @@
       </c>
       <c r="R451" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S451" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T451" t="n">
         <v>16</v>
@@ -36515,25 +36515,25 @@
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M452" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N452" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O452" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P452" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36542,11 +36542,11 @@
       </c>
       <c r="R452" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S452" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T452" t="n">
         <v>16</v>
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E453" t="n">
         <v>5</v>
@@ -36595,29 +36595,29 @@
       </c>
       <c r="K453" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M453" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="N453" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O453" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P453" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R453" t="inlineStr">
@@ -36626,10 +36626,10 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>1300</v>
+        <v>625</v>
       </c>
       <c r="T453" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="454">
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E454" t="n">
         <v>5</v>
@@ -36675,29 +36675,29 @@
       </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>Río Copiapó</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M454" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="N454" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O454" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P454" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R454" t="inlineStr">
@@ -36706,10 +36706,10 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>1300</v>
+        <v>875</v>
       </c>
       <c r="T454" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="455">
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E455" t="n">
         <v>5</v>
@@ -36755,29 +36755,29 @@
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>Río Copiapó</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M455" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N455" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O455" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P455" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R455" t="inlineStr">
@@ -36786,10 +36786,10 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>1200</v>
+        <v>938</v>
       </c>
       <c r="T455" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="456">
@@ -36807,7 +36807,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E456" t="n">
         <v>5</v>
@@ -36835,7 +36835,7 @@
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L456" t="inlineStr">
@@ -36844,32 +36844,32 @@
         </is>
       </c>
       <c r="M456" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="N456" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="O456" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="P456" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R456" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S456" t="n">
-        <v>1333</v>
+        <v>750</v>
       </c>
       <c r="T456" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="457">
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44168</v>
+        <v>44246</v>
       </c>
       <c r="E457" t="n">
         <v>5</v>
@@ -36915,16 +36915,16 @@
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M457" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N457" t="n">
         <v>10000</v>
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44168</v>
+        <v>44246</v>
       </c>
       <c r="E458" t="n">
         <v>5</v>
@@ -36995,25 +36995,25 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M458" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N458" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O458" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P458" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
@@ -37022,11 +37022,11 @@
       </c>
       <c r="R458" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S458" t="n">
-        <v>562</v>
+        <v>812</v>
       </c>
       <c r="T458" t="n">
         <v>16</v>
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44168</v>
+        <v>44246</v>
       </c>
       <c r="E459" t="n">
         <v>5</v>
@@ -37075,25 +37075,25 @@
       </c>
       <c r="K459" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M459" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N459" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O459" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P459" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
@@ -37102,11 +37102,11 @@
       </c>
       <c r="R459" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S459" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T459" t="n">
         <v>16</v>
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44168</v>
+        <v>44246</v>
       </c>
       <c r="E460" t="n">
         <v>5</v>
@@ -37155,25 +37155,25 @@
       </c>
       <c r="K460" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M460" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N460" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O460" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P460" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T460" t="n">
         <v>16</v>
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44168</v>
+        <v>44505</v>
       </c>
       <c r="E461" t="n">
         <v>5</v>
@@ -37235,7 +37235,7 @@
       </c>
       <c r="K461" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L461" t="inlineStr">
@@ -37244,7 +37244,7 @@
         </is>
       </c>
       <c r="M461" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="N461" t="n">
         <v>13000</v>
@@ -37257,19 +37257,19 @@
       </c>
       <c r="Q461" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R461" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S461" t="n">
-        <v>812</v>
+        <v>1300</v>
       </c>
       <c r="T461" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="462">
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44168</v>
+        <v>44505</v>
       </c>
       <c r="E462" t="n">
         <v>5</v>
@@ -37315,41 +37315,41 @@
       </c>
       <c r="K462" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Río Copiapó</t>
         </is>
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M462" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="N462" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O462" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P462" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R462" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S462" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="T462" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="463">
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44168</v>
+        <v>44505</v>
       </c>
       <c r="E463" t="n">
         <v>5</v>
@@ -37395,41 +37395,41 @@
       </c>
       <c r="K463" t="inlineStr">
         <is>
-          <t>Springtime</t>
+          <t>Río Copiapó</t>
         </is>
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M463" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N463" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O463" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P463" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R463" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S463" t="n">
-        <v>812</v>
+        <v>1200</v>
       </c>
       <c r="T463" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="464">
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44168</v>
+        <v>44487</v>
       </c>
       <c r="E464" t="n">
         <v>5</v>
@@ -37475,7 +37475,7 @@
       </c>
       <c r="K464" t="inlineStr">
         <is>
-          <t>Springtime</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L464" t="inlineStr">
@@ -37484,32 +37484,32 @@
         </is>
       </c>
       <c r="M464" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="N464" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="O464" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="P464" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R464" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S464" t="n">
-        <v>750</v>
+        <v>1333</v>
       </c>
       <c r="T464" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="465">
@@ -37555,16 +37555,16 @@
       </c>
       <c r="K465" t="inlineStr">
         <is>
-          <t>Springtime</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L465" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M465" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N465" t="n">
         <v>10000</v>
@@ -37582,7 +37582,7 @@
       </c>
       <c r="R465" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S465" t="n">
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E466" t="n">
         <v>5</v>
@@ -37635,25 +37635,25 @@
       </c>
       <c r="K466" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L466" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M466" t="n">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="N466" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O466" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P466" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37662,11 +37662,11 @@
       </c>
       <c r="R466" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S466" t="n">
-        <v>1000</v>
+        <v>562</v>
       </c>
       <c r="T466" t="n">
         <v>16</v>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E467" t="n">
         <v>5</v>
@@ -37715,25 +37715,25 @@
       </c>
       <c r="K467" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M467" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="N467" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="O467" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P467" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37742,11 +37742,11 @@
       </c>
       <c r="R467" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S467" t="n">
-        <v>1125</v>
+        <v>500</v>
       </c>
       <c r="T467" t="n">
         <v>16</v>
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E468" t="n">
         <v>5</v>
@@ -37795,16 +37795,16 @@
       </c>
       <c r="K468" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M468" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="N468" t="n">
         <v>14000</v>
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E469" t="n">
         <v>5</v>
@@ -37875,25 +37875,25 @@
       </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M469" t="n">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="N469" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O469" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P469" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T469" t="n">
         <v>16</v>
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E470" t="n">
         <v>5</v>
@@ -37955,16 +37955,16 @@
       </c>
       <c r="K470" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M470" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N470" t="n">
         <v>12000</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E471" t="n">
         <v>5</v>
@@ -38035,25 +38035,25 @@
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Springtime</t>
         </is>
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M471" t="n">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="N471" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O471" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P471" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>625</v>
+        <v>812</v>
       </c>
       <c r="T471" t="n">
         <v>16</v>
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E472" t="n">
         <v>5</v>
@@ -38115,25 +38115,25 @@
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Springtime</t>
         </is>
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M472" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N472" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O472" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P472" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         </is>
       </c>
       <c r="S472" t="n">
-        <v>562</v>
+        <v>750</v>
       </c>
       <c r="T472" t="n">
         <v>16</v>
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44181</v>
+        <v>44168</v>
       </c>
       <c r="E473" t="n">
         <v>5</v>
@@ -38195,25 +38195,25 @@
       </c>
       <c r="K473" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Springtime</t>
         </is>
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M473" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N473" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O473" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P473" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38222,11 +38222,11 @@
       </c>
       <c r="R473" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S473" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T473" t="n">
         <v>16</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44181</v>
+        <v>44175</v>
       </c>
       <c r="E474" t="n">
         <v>5</v>
@@ -38275,25 +38275,25 @@
       </c>
       <c r="K474" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M474" t="n">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="N474" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O474" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P474" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38302,11 +38302,11 @@
       </c>
       <c r="R474" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S474" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T474" t="n">
         <v>16</v>
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44181</v>
+        <v>44175</v>
       </c>
       <c r="E475" t="n">
         <v>5</v>
@@ -38355,25 +38355,25 @@
       </c>
       <c r="K475" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L475" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M475" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N475" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="O475" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="P475" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38382,11 +38382,11 @@
       </c>
       <c r="R475" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S475" t="n">
-        <v>562</v>
+        <v>1125</v>
       </c>
       <c r="T475" t="n">
         <v>16</v>
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44181</v>
+        <v>44175</v>
       </c>
       <c r="E476" t="n">
         <v>5</v>
@@ -38435,25 +38435,25 @@
       </c>
       <c r="K476" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L476" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M476" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N476" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O476" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P476" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38462,11 +38462,11 @@
       </c>
       <c r="R476" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S476" t="n">
-        <v>1062</v>
+        <v>875</v>
       </c>
       <c r="T476" t="n">
         <v>16</v>
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44181</v>
+        <v>44175</v>
       </c>
       <c r="E477" t="n">
         <v>5</v>
@@ -38515,25 +38515,25 @@
       </c>
       <c r="K477" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L477" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M477" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="N477" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O477" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P477" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38542,11 +38542,11 @@
       </c>
       <c r="R477" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S477" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T477" t="n">
         <v>16</v>
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44270</v>
+        <v>44175</v>
       </c>
       <c r="E478" t="n">
         <v>5</v>
@@ -38595,7 +38595,7 @@
       </c>
       <c r="K478" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L478" t="inlineStr">
@@ -38604,16 +38604,16 @@
         </is>
       </c>
       <c r="M478" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N478" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O478" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P478" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T478" t="n">
         <v>16</v>
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44270</v>
+        <v>44175</v>
       </c>
       <c r="E479" t="n">
         <v>5</v>
@@ -38675,25 +38675,25 @@
       </c>
       <c r="K479" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L479" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M479" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N479" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O479" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P479" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         </is>
       </c>
       <c r="S479" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T479" t="n">
         <v>16</v>
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44270</v>
+        <v>44175</v>
       </c>
       <c r="E480" t="n">
         <v>5</v>
@@ -38755,25 +38755,25 @@
       </c>
       <c r="K480" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M480" t="n">
         <v>80</v>
       </c>
       <c r="N480" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O480" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P480" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         </is>
       </c>
       <c r="S480" t="n">
-        <v>750</v>
+        <v>562</v>
       </c>
       <c r="T480" t="n">
         <v>16</v>
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44270</v>
+        <v>44181</v>
       </c>
       <c r="E481" t="n">
         <v>5</v>
@@ -38835,25 +38835,25 @@
       </c>
       <c r="K481" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M481" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="N481" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O481" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P481" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38862,11 +38862,11 @@
       </c>
       <c r="R481" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S481" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T481" t="n">
         <v>16</v>
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44270</v>
+        <v>44181</v>
       </c>
       <c r="E482" t="n">
         <v>5</v>
@@ -38915,25 +38915,25 @@
       </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M482" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="N482" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O482" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P482" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
@@ -38942,11 +38942,11 @@
       </c>
       <c r="R482" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S482" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T482" t="n">
         <v>16</v>
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44270</v>
+        <v>44181</v>
       </c>
       <c r="E483" t="n">
         <v>5</v>
@@ -38995,25 +38995,25 @@
       </c>
       <c r="K483" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M483" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="N483" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O483" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P483" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39022,11 +39022,11 @@
       </c>
       <c r="R483" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S483" t="n">
-        <v>1000</v>
+        <v>562</v>
       </c>
       <c r="T483" t="n">
         <v>16</v>
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44270</v>
+        <v>44181</v>
       </c>
       <c r="E484" t="n">
         <v>5</v>
@@ -39075,25 +39075,25 @@
       </c>
       <c r="K484" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L484" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M484" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N484" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O484" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P484" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39102,11 +39102,11 @@
       </c>
       <c r="R484" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S484" t="n">
-        <v>750</v>
+        <v>1062</v>
       </c>
       <c r="T484" t="n">
         <v>16</v>
@@ -39127,7 +39127,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44217</v>
+        <v>44181</v>
       </c>
       <c r="E485" t="n">
         <v>5</v>
@@ -39155,25 +39155,25 @@
       </c>
       <c r="K485" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L485" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M485" t="n">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="N485" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O485" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P485" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39186,7 +39186,7 @@
         </is>
       </c>
       <c r="S485" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T485" t="n">
         <v>16</v>
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E486" t="n">
         <v>5</v>
@@ -39235,25 +39235,25 @@
       </c>
       <c r="K486" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M486" t="n">
         <v>87</v>
       </c>
       <c r="N486" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O486" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P486" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39262,11 +39262,11 @@
       </c>
       <c r="R486" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S486" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T486" t="n">
         <v>16</v>
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E487" t="n">
         <v>5</v>
@@ -39315,25 +39315,25 @@
       </c>
       <c r="K487" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M487" t="n">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="N487" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O487" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P487" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39342,11 +39342,11 @@
       </c>
       <c r="R487" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S487" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T487" t="n">
         <v>16</v>
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E488" t="n">
         <v>5</v>
@@ -39395,25 +39395,25 @@
       </c>
       <c r="K488" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L488" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M488" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N488" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O488" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P488" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
@@ -39422,11 +39422,11 @@
       </c>
       <c r="R488" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S488" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T488" t="n">
         <v>16</v>
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E489" t="n">
         <v>5</v>
@@ -39475,25 +39475,25 @@
       </c>
       <c r="K489" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M489" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N489" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O489" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P489" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39502,11 +39502,11 @@
       </c>
       <c r="R489" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S489" t="n">
-        <v>812</v>
+        <v>625</v>
       </c>
       <c r="T489" t="n">
         <v>16</v>
@@ -39527,7 +39527,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E490" t="n">
         <v>5</v>
@@ -39555,25 +39555,25 @@
       </c>
       <c r="K490" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M490" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N490" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O490" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P490" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39582,11 +39582,11 @@
       </c>
       <c r="R490" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S490" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T490" t="n">
         <v>16</v>
@@ -39607,7 +39607,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E491" t="n">
         <v>5</v>
@@ -39635,25 +39635,25 @@
       </c>
       <c r="K491" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M491" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="N491" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O491" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P491" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39662,11 +39662,11 @@
       </c>
       <c r="R491" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S491" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T491" t="n">
         <v>16</v>
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E492" t="n">
         <v>5</v>
@@ -39715,25 +39715,25 @@
       </c>
       <c r="K492" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M492" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="N492" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O492" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P492" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39742,11 +39742,11 @@
       </c>
       <c r="R492" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S492" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T492" t="n">
         <v>16</v>
@@ -39795,25 +39795,25 @@
       </c>
       <c r="K493" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M493" t="n">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="N493" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O493" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P493" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         </is>
       </c>
       <c r="S493" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T493" t="n">
         <v>16</v>
@@ -39875,25 +39875,25 @@
       </c>
       <c r="K494" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M494" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N494" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O494" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P494" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39906,7 +39906,7 @@
         </is>
       </c>
       <c r="S494" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T494" t="n">
         <v>16</v>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E495" t="n">
         <v>5</v>
@@ -39955,7 +39955,7 @@
       </c>
       <c r="K495" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L495" t="inlineStr">
@@ -39964,20 +39964,20 @@
         </is>
       </c>
       <c r="M495" t="n">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="N495" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O495" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P495" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R495" t="inlineStr">
@@ -39986,10 +39986,10 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>1300</v>
+        <v>750</v>
       </c>
       <c r="T495" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="496">
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E496" t="n">
         <v>5</v>
@@ -40035,7 +40035,7 @@
       </c>
       <c r="K496" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L496" t="inlineStr">
@@ -40044,7 +40044,7 @@
         </is>
       </c>
       <c r="M496" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="N496" t="n">
         <v>10000</v>
@@ -40057,7 +40057,7 @@
       </c>
       <c r="Q496" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R496" t="inlineStr">
@@ -40066,10 +40066,10 @@
         </is>
       </c>
       <c r="S496" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T496" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="497">
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E497" t="n">
         <v>5</v>
@@ -40115,7 +40115,7 @@
       </c>
       <c r="K497" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L497" t="inlineStr">
@@ -40124,16 +40124,16 @@
         </is>
       </c>
       <c r="M497" t="n">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="N497" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O497" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P497" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
@@ -40146,7 +40146,7 @@
         </is>
       </c>
       <c r="S497" t="n">
-        <v>875</v>
+        <v>812</v>
       </c>
       <c r="T497" t="n">
         <v>16</v>
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E498" t="n">
         <v>5</v>
@@ -40195,25 +40195,25 @@
       </c>
       <c r="K498" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M498" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N498" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O498" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P498" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40226,7 +40226,7 @@
         </is>
       </c>
       <c r="S498" t="n">
-        <v>938</v>
+        <v>750</v>
       </c>
       <c r="T498" t="n">
         <v>16</v>
@@ -40247,7 +40247,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E499" t="n">
         <v>5</v>
@@ -40275,25 +40275,25 @@
       </c>
       <c r="K499" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L499" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M499" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N499" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O499" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P499" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         </is>
       </c>
       <c r="S499" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T499" t="n">
         <v>16</v>
@@ -40327,7 +40327,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E500" t="n">
         <v>5</v>
@@ -40355,7 +40355,7 @@
       </c>
       <c r="K500" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L500" t="inlineStr">
@@ -40364,16 +40364,16 @@
         </is>
       </c>
       <c r="M500" t="n">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="N500" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O500" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P500" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40386,7 +40386,7 @@
         </is>
       </c>
       <c r="S500" t="n">
-        <v>875</v>
+        <v>812</v>
       </c>
       <c r="T500" t="n">
         <v>16</v>
@@ -40407,7 +40407,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E501" t="n">
         <v>5</v>
@@ -40435,25 +40435,25 @@
       </c>
       <c r="K501" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L501" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M501" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N501" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O501" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P501" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40466,7 +40466,7 @@
         </is>
       </c>
       <c r="S501" t="n">
-        <v>938</v>
+        <v>750</v>
       </c>
       <c r="T501" t="n">
         <v>16</v>
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E502" t="n">
         <v>5</v>
@@ -40515,25 +40515,25 @@
       </c>
       <c r="K502" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M502" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N502" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O502" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P502" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         </is>
       </c>
       <c r="S502" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T502" t="n">
         <v>16</v>
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44244</v>
+        <v>44509</v>
       </c>
       <c r="E503" t="n">
         <v>5</v>
@@ -40595,29 +40595,29 @@
       </c>
       <c r="K503" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L503" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M503" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="N503" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O503" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P503" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R503" t="inlineStr">
@@ -40626,10 +40626,10 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>625</v>
+        <v>1300</v>
       </c>
       <c r="T503" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="504">
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44244</v>
+        <v>44509</v>
       </c>
       <c r="E504" t="n">
         <v>5</v>
@@ -40675,41 +40675,41 @@
       </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M504" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="N504" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O504" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P504" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R504" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S504" t="n">
-        <v>812</v>
+        <v>1000</v>
       </c>
       <c r="T504" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="505">
@@ -40755,25 +40755,25 @@
       </c>
       <c r="K505" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M505" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="N505" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O505" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P505" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40782,11 +40782,11 @@
       </c>
       <c r="R505" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S505" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T505" t="n">
         <v>16</v>
@@ -40835,25 +40835,25 @@
       </c>
       <c r="K506" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M506" t="n">
         <v>85</v>
       </c>
       <c r="N506" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O506" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P506" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40862,11 +40862,11 @@
       </c>
       <c r="R506" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S506" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T506" t="n">
         <v>16</v>
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E507" t="n">
         <v>5</v>
@@ -40915,25 +40915,25 @@
       </c>
       <c r="K507" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M507" t="n">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="N507" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O507" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P507" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40942,11 +40942,11 @@
       </c>
       <c r="R507" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S507" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T507" t="n">
         <v>16</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E508" t="n">
         <v>5</v>
@@ -41000,20 +41000,20 @@
       </c>
       <c r="L508" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M508" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N508" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O508" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P508" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41022,11 +41022,11 @@
       </c>
       <c r="R508" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S508" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T508" t="n">
         <v>16</v>
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E509" t="n">
         <v>5</v>
@@ -41080,20 +41080,20 @@
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M509" t="n">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="N509" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O509" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P509" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41102,11 +41102,11 @@
       </c>
       <c r="R509" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S509" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T509" t="n">
         <v>16</v>
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E510" t="n">
         <v>5</v>
@@ -41155,25 +41155,25 @@
       </c>
       <c r="K510" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M510" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N510" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O510" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P510" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41182,11 +41182,11 @@
       </c>
       <c r="R510" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S510" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T510" t="n">
         <v>16</v>
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E511" t="n">
         <v>5</v>
@@ -41235,25 +41235,25 @@
       </c>
       <c r="K511" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L511" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M511" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N511" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O511" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P511" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41262,11 +41262,11 @@
       </c>
       <c r="R511" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S511" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T511" t="n">
         <v>16</v>
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44179</v>
+        <v>44244</v>
       </c>
       <c r="E512" t="n">
         <v>5</v>
@@ -41315,7 +41315,7 @@
       </c>
       <c r="K512" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L512" t="inlineStr">
@@ -41324,16 +41324,16 @@
         </is>
       </c>
       <c r="M512" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N512" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O512" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P512" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41342,11 +41342,11 @@
       </c>
       <c r="R512" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S512" t="n">
-        <v>938</v>
+        <v>812</v>
       </c>
       <c r="T512" t="n">
         <v>16</v>
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44179</v>
+        <v>44244</v>
       </c>
       <c r="E513" t="n">
         <v>5</v>
@@ -41395,25 +41395,25 @@
       </c>
       <c r="K513" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M513" t="n">
         <v>75</v>
       </c>
       <c r="N513" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O513" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P513" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41422,11 +41422,11 @@
       </c>
       <c r="R513" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S513" t="n">
-        <v>1062</v>
+        <v>750</v>
       </c>
       <c r="T513" t="n">
         <v>16</v>
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44179</v>
+        <v>44244</v>
       </c>
       <c r="E514" t="n">
         <v>5</v>
@@ -41475,25 +41475,25 @@
       </c>
       <c r="K514" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M514" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N514" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O514" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P514" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41502,11 +41502,11 @@
       </c>
       <c r="R514" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S514" t="n">
-        <v>812</v>
+        <v>625</v>
       </c>
       <c r="T514" t="n">
         <v>16</v>
@@ -41527,68 +41527,708 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
+        <v>44273</v>
+      </c>
+      <c r="E515" t="n">
+        <v>5</v>
+      </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G515" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H515" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I515" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J515" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>Phillips Cling</t>
+        </is>
+      </c>
+      <c r="L515" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M515" t="n">
+        <v>56</v>
+      </c>
+      <c r="N515" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O515" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P515" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q515" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R515" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S515" t="n">
+        <v>875</v>
+      </c>
+      <c r="T515" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>3</v>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D516" s="2" t="n">
+        <v>44273</v>
+      </c>
+      <c r="E516" t="n">
+        <v>5</v>
+      </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G516" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H516" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I516" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J516" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>Phillips Cling</t>
+        </is>
+      </c>
+      <c r="L516" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M516" t="n">
+        <v>60</v>
+      </c>
+      <c r="N516" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O516" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P516" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q516" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R516" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S516" t="n">
+        <v>750</v>
+      </c>
+      <c r="T516" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>3</v>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D517" s="2" t="n">
+        <v>44273</v>
+      </c>
+      <c r="E517" t="n">
+        <v>5</v>
+      </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G517" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H517" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I517" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J517" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>Phillips Cling</t>
+        </is>
+      </c>
+      <c r="L517" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M517" t="n">
+        <v>50</v>
+      </c>
+      <c r="N517" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O517" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P517" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q517" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R517" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S517" t="n">
+        <v>625</v>
+      </c>
+      <c r="T517" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>3</v>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D518" s="2" t="n">
+        <v>44273</v>
+      </c>
+      <c r="E518" t="n">
+        <v>5</v>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G518" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H518" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I518" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J518" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>September Sweet</t>
+        </is>
+      </c>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M518" t="n">
+        <v>80</v>
+      </c>
+      <c r="N518" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O518" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P518" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q518" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R518" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S518" t="n">
+        <v>875</v>
+      </c>
+      <c r="T518" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>3</v>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D519" s="2" t="n">
+        <v>44273</v>
+      </c>
+      <c r="E519" t="n">
+        <v>5</v>
+      </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G519" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H519" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I519" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J519" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>September Sweet</t>
+        </is>
+      </c>
+      <c r="L519" t="inlineStr">
+        <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M519" t="n">
+        <v>75</v>
+      </c>
+      <c r="N519" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O519" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P519" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q519" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R519" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S519" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T519" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>3</v>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D520" s="2" t="n">
         <v>44179</v>
       </c>
-      <c r="E515" t="n">
-        <v>5</v>
-      </c>
-      <c r="F515" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G515" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I515" t="n">
-        <v>100103004</v>
-      </c>
-      <c r="J515" t="inlineStr">
-        <is>
-          <t>Durazno</t>
-        </is>
-      </c>
-      <c r="K515" t="inlineStr">
+      <c r="E520" t="n">
+        <v>5</v>
+      </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G520" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H520" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I520" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J520" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K520" t="inlineStr">
         <is>
           <t>Kurakata</t>
         </is>
       </c>
-      <c r="L515" t="inlineStr">
+      <c r="L520" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M520" t="n">
+        <v>80</v>
+      </c>
+      <c r="N520" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O520" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P520" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q520" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R520" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S520" t="n">
+        <v>938</v>
+      </c>
+      <c r="T520" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>3</v>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D521" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E521" t="n">
+        <v>5</v>
+      </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G521" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H521" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I521" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J521" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>Kurakata</t>
+        </is>
+      </c>
+      <c r="L521" t="inlineStr">
+        <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M521" t="n">
+        <v>75</v>
+      </c>
+      <c r="N521" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O521" t="n">
+        <v>17000</v>
+      </c>
+      <c r="P521" t="n">
+        <v>17000</v>
+      </c>
+      <c r="Q521" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R521" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S521" t="n">
+        <v>1062</v>
+      </c>
+      <c r="T521" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>3</v>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D522" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E522" t="n">
+        <v>5</v>
+      </c>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G522" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H522" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I522" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J522" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>Kurakata</t>
+        </is>
+      </c>
+      <c r="L522" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M522" t="n">
+        <v>80</v>
+      </c>
+      <c r="N522" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O522" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P522" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q522" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R522" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S522" t="n">
+        <v>812</v>
+      </c>
+      <c r="T522" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>3</v>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D523" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E523" t="n">
+        <v>5</v>
+      </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G523" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H523" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I523" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J523" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>Kurakata</t>
+        </is>
+      </c>
+      <c r="L523" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M515" t="n">
+      <c r="M523" t="n">
         <v>67</v>
       </c>
-      <c r="N515" t="n">
+      <c r="N523" t="n">
         <v>11000</v>
       </c>
-      <c r="O515" t="n">
+      <c r="O523" t="n">
         <v>11000</v>
       </c>
-      <c r="P515" t="n">
+      <c r="P523" t="n">
         <v>11000</v>
       </c>
-      <c r="Q515" t="inlineStr">
-        <is>
-          <t>$/caja 16 kilos empedrada</t>
-        </is>
-      </c>
-      <c r="R515" t="inlineStr">
+      <c r="Q523" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R523" t="inlineStr">
         <is>
           <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
-      <c r="S515" t="n">
+      <c r="S523" t="n">
         <v>688</v>
       </c>
-      <c r="T515" t="n">
+      <c r="T523" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T535"/>
+  <dimension ref="A1:T537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E498" t="n">
         <v>5</v>
@@ -40195,41 +40195,41 @@
       </c>
       <c r="K498" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M498" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N498" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O498" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P498" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R498" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S498" t="n">
-        <v>875</v>
+        <v>1200</v>
       </c>
       <c r="T498" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="499">
@@ -40247,7 +40247,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E499" t="n">
         <v>5</v>
@@ -40275,41 +40275,41 @@
       </c>
       <c r="K499" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L499" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M499" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="N499" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O499" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P499" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R499" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S499" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T499" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="500">
@@ -40360,20 +40360,20 @@
       </c>
       <c r="L500" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M500" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N500" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O500" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P500" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40386,7 +40386,7 @@
         </is>
       </c>
       <c r="S500" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T500" t="n">
         <v>16</v>
@@ -40440,20 +40440,20 @@
       </c>
       <c r="L501" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M501" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="N501" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O501" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P501" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40466,7 +40466,7 @@
         </is>
       </c>
       <c r="S501" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T501" t="n">
         <v>16</v>
@@ -40515,25 +40515,25 @@
       </c>
       <c r="K502" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M502" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="N502" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O502" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P502" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         </is>
       </c>
       <c r="S502" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T502" t="n">
         <v>16</v>
@@ -40595,25 +40595,25 @@
       </c>
       <c r="K503" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L503" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M503" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="N503" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O503" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P503" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40626,7 +40626,7 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T503" t="n">
         <v>16</v>
@@ -40680,20 +40680,20 @@
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M504" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N504" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O504" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P504" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T504" t="n">
         <v>16</v>
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E505" t="n">
         <v>5</v>
@@ -40755,25 +40755,25 @@
       </c>
       <c r="K505" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M505" t="n">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="N505" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O505" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P505" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40782,11 +40782,11 @@
       </c>
       <c r="R505" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S505" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T505" t="n">
         <v>16</v>
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E506" t="n">
         <v>5</v>
@@ -40835,25 +40835,25 @@
       </c>
       <c r="K506" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M506" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="N506" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O506" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P506" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40862,11 +40862,11 @@
       </c>
       <c r="R506" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S506" t="n">
-        <v>938</v>
+        <v>750</v>
       </c>
       <c r="T506" t="n">
         <v>16</v>
@@ -40920,20 +40920,20 @@
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M507" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N507" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O507" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P507" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T507" t="n">
         <v>16</v>
@@ -41000,20 +41000,20 @@
       </c>
       <c r="L508" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M508" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N508" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O508" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P508" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T508" t="n">
         <v>16</v>
@@ -41075,25 +41075,25 @@
       </c>
       <c r="K509" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M509" t="n">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="N509" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O509" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P509" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41106,7 +41106,7 @@
         </is>
       </c>
       <c r="S509" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T509" t="n">
         <v>16</v>
@@ -41155,25 +41155,25 @@
       </c>
       <c r="K510" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M510" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N510" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O510" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P510" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         </is>
       </c>
       <c r="S510" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T510" t="n">
         <v>16</v>
@@ -41240,20 +41240,20 @@
       </c>
       <c r="L511" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M511" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="N511" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O511" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P511" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         </is>
       </c>
       <c r="S511" t="n">
-        <v>625</v>
+        <v>812</v>
       </c>
       <c r="T511" t="n">
         <v>16</v>
@@ -41315,25 +41315,25 @@
       </c>
       <c r="K512" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L512" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M512" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N512" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O512" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P512" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T512" t="n">
         <v>16</v>
@@ -41395,25 +41395,25 @@
       </c>
       <c r="K513" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M513" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N513" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O513" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P513" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T513" t="n">
         <v>16</v>
@@ -41480,20 +41480,20 @@
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M514" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N514" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O514" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P514" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>625</v>
+        <v>812</v>
       </c>
       <c r="T514" t="n">
         <v>16</v>
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E515" t="n">
         <v>5</v>
@@ -41555,7 +41555,7 @@
       </c>
       <c r="K515" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L515" t="inlineStr">
@@ -41564,20 +41564,20 @@
         </is>
       </c>
       <c r="M515" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N515" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O515" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P515" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R515" t="inlineStr">
@@ -41586,10 +41586,10 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>1300</v>
+        <v>750</v>
       </c>
       <c r="T515" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="516">
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E516" t="n">
         <v>5</v>
@@ -41635,7 +41635,7 @@
       </c>
       <c r="K516" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L516" t="inlineStr">
@@ -41644,7 +41644,7 @@
         </is>
       </c>
       <c r="M516" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="N516" t="n">
         <v>10000</v>
@@ -41657,7 +41657,7 @@
       </c>
       <c r="Q516" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R516" t="inlineStr">
@@ -41666,10 +41666,10 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T516" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="517">
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44244</v>
+        <v>44509</v>
       </c>
       <c r="E517" t="n">
         <v>5</v>
@@ -41715,29 +41715,29 @@
       </c>
       <c r="K517" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L517" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M517" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N517" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O517" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P517" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R517" t="inlineStr">
@@ -41746,10 +41746,10 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>875</v>
+        <v>1300</v>
       </c>
       <c r="T517" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="518">
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44244</v>
+        <v>44509</v>
       </c>
       <c r="E518" t="n">
         <v>5</v>
@@ -41795,29 +41795,29 @@
       </c>
       <c r="K518" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L518" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M518" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="N518" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O518" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P518" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R518" t="inlineStr">
@@ -41826,10 +41826,10 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T518" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="519">
@@ -41880,20 +41880,20 @@
       </c>
       <c r="L519" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M519" t="n">
         <v>100</v>
       </c>
       <c r="N519" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O519" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P519" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T519" t="n">
         <v>16</v>
@@ -41955,25 +41955,25 @@
       </c>
       <c r="K520" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L520" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M520" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N520" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O520" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P520" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         </is>
       </c>
       <c r="S520" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T520" t="n">
         <v>16</v>
@@ -42035,25 +42035,25 @@
       </c>
       <c r="K521" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L521" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M521" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="N521" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O521" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P521" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>938</v>
+        <v>750</v>
       </c>
       <c r="T521" t="n">
         <v>16</v>
@@ -42120,20 +42120,20 @@
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M522" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N522" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O522" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P522" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42146,7 +42146,7 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T522" t="n">
         <v>16</v>
@@ -42200,20 +42200,20 @@
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M523" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="N523" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O523" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P523" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T523" t="n">
         <v>16</v>
@@ -42275,25 +42275,25 @@
       </c>
       <c r="K524" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M524" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N524" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O524" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P524" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42302,11 +42302,11 @@
       </c>
       <c r="R524" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S524" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T524" t="n">
         <v>16</v>
@@ -42355,25 +42355,25 @@
       </c>
       <c r="K525" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M525" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N525" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O525" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P525" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42382,11 +42382,11 @@
       </c>
       <c r="R525" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S525" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T525" t="n">
         <v>16</v>
@@ -42440,20 +42440,20 @@
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M526" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N526" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O526" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P526" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>625</v>
+        <v>812</v>
       </c>
       <c r="T526" t="n">
         <v>16</v>
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E527" t="n">
         <v>5</v>
@@ -42515,25 +42515,25 @@
       </c>
       <c r="K527" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L527" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M527" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="N527" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O527" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P527" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         </is>
       </c>
       <c r="S527" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T527" t="n">
         <v>16</v>
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E528" t="n">
         <v>5</v>
@@ -42595,25 +42595,25 @@
       </c>
       <c r="K528" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L528" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M528" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N528" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O528" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P528" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42626,7 +42626,7 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T528" t="n">
         <v>16</v>
@@ -42680,20 +42680,20 @@
       </c>
       <c r="L529" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M529" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N529" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O529" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P529" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42706,7 +42706,7 @@
         </is>
       </c>
       <c r="S529" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T529" t="n">
         <v>16</v>
@@ -42755,25 +42755,25 @@
       </c>
       <c r="K530" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L530" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M530" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N530" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O530" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P530" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42786,7 +42786,7 @@
         </is>
       </c>
       <c r="S530" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T530" t="n">
         <v>16</v>
@@ -42835,25 +42835,25 @@
       </c>
       <c r="K531" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L531" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M531" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N531" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O531" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P531" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         </is>
       </c>
       <c r="S531" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T531" t="n">
         <v>16</v>
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E532" t="n">
         <v>5</v>
@@ -42915,7 +42915,7 @@
       </c>
       <c r="K532" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L532" t="inlineStr">
@@ -42927,13 +42927,13 @@
         <v>80</v>
       </c>
       <c r="N532" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O532" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P532" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42942,11 +42942,11 @@
       </c>
       <c r="R532" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S532" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T532" t="n">
         <v>16</v>
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E533" t="n">
         <v>5</v>
@@ -42995,7 +42995,7 @@
       </c>
       <c r="K533" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L533" t="inlineStr">
@@ -43007,13 +43007,13 @@
         <v>75</v>
       </c>
       <c r="N533" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O533" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P533" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43022,11 +43022,11 @@
       </c>
       <c r="R533" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S533" t="n">
-        <v>1062</v>
+        <v>1000</v>
       </c>
       <c r="T533" t="n">
         <v>16</v>
@@ -43080,20 +43080,20 @@
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M534" t="n">
         <v>80</v>
       </c>
       <c r="N534" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O534" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P534" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>812</v>
+        <v>938</v>
       </c>
       <c r="T534" t="n">
         <v>16</v>
@@ -43160,35 +43160,195 @@
       </c>
       <c r="L535" t="inlineStr">
         <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M535" t="n">
+        <v>75</v>
+      </c>
+      <c r="N535" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O535" t="n">
+        <v>17000</v>
+      </c>
+      <c r="P535" t="n">
+        <v>17000</v>
+      </c>
+      <c r="Q535" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R535" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S535" t="n">
+        <v>1062</v>
+      </c>
+      <c r="T535" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>3</v>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D536" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E536" t="n">
+        <v>5</v>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G536" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H536" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I536" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J536" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>Kurakata</t>
+        </is>
+      </c>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M536" t="n">
+        <v>80</v>
+      </c>
+      <c r="N536" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O536" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P536" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q536" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R536" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S536" t="n">
+        <v>812</v>
+      </c>
+      <c r="T536" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>3</v>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D537" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E537" t="n">
+        <v>5</v>
+      </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G537" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H537" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I537" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J537" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>Kurakata</t>
+        </is>
+      </c>
+      <c r="L537" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M535" t="n">
+      <c r="M537" t="n">
         <v>67</v>
       </c>
-      <c r="N535" t="n">
+      <c r="N537" t="n">
         <v>11000</v>
       </c>
-      <c r="O535" t="n">
+      <c r="O537" t="n">
         <v>11000</v>
       </c>
-      <c r="P535" t="n">
+      <c r="P537" t="n">
         <v>11000</v>
       </c>
-      <c r="Q535" t="inlineStr">
-        <is>
-          <t>$/caja 16 kilos empedrada</t>
-        </is>
-      </c>
-      <c r="R535" t="inlineStr">
+      <c r="Q537" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R537" t="inlineStr">
         <is>
           <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
-      <c r="S535" t="n">
+      <c r="S537" t="n">
         <v>688</v>
       </c>
-      <c r="T535" t="n">
+      <c r="T537" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T550"/>
+  <dimension ref="A1:T554"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E460" t="n">
         <v>5</v>
@@ -37155,29 +37155,29 @@
       </c>
       <c r="K460" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M460" t="n">
-        <v>56</v>
+        <v>165</v>
       </c>
       <c r="N460" t="n">
         <v>14000</v>
       </c>
       <c r="O460" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P460" t="n">
-        <v>14000</v>
+        <v>14515</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R460" t="inlineStr">
@@ -37186,10 +37186,10 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>875</v>
+        <v>968</v>
       </c>
       <c r="T460" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="461">
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E461" t="n">
         <v>5</v>
@@ -37235,29 +37235,29 @@
       </c>
       <c r="K461" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M461" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="N461" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O461" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P461" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R461" t="inlineStr">
@@ -37266,10 +37266,10 @@
         </is>
       </c>
       <c r="S461" t="n">
-        <v>750</v>
+        <v>733</v>
       </c>
       <c r="T461" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="462">
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E462" t="n">
         <v>5</v>
@@ -37315,29 +37315,29 @@
       </c>
       <c r="K462" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Gold Crest</t>
         </is>
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M462" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N462" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O462" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P462" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R462" t="inlineStr">
@@ -37346,10 +37346,10 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>625</v>
+        <v>867</v>
       </c>
       <c r="T462" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="463">
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E463" t="n">
         <v>5</v>
@@ -37395,29 +37395,29 @@
       </c>
       <c r="K463" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Gold Crest</t>
         </is>
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M463" t="n">
         <v>80</v>
       </c>
       <c r="N463" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O463" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P463" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R463" t="inlineStr">
@@ -37426,10 +37426,10 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>875</v>
+        <v>533</v>
       </c>
       <c r="T463" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="464">
@@ -37475,25 +37475,25 @@
       </c>
       <c r="K464" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M464" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="N464" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O464" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P464" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T464" t="n">
         <v>16</v>
@@ -37555,7 +37555,7 @@
       </c>
       <c r="K465" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L465" t="inlineStr">
@@ -37564,7 +37564,7 @@
         </is>
       </c>
       <c r="M465" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N465" t="n">
         <v>12000</v>
@@ -37635,7 +37635,7 @@
       </c>
       <c r="K466" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L466" t="inlineStr">
@@ -37644,7 +37644,7 @@
         </is>
       </c>
       <c r="M466" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N466" t="n">
         <v>10000</v>
@@ -37715,7 +37715,7 @@
       </c>
       <c r="K467" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L467" t="inlineStr">
@@ -37724,16 +37724,16 @@
         </is>
       </c>
       <c r="M467" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N467" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O467" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P467" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37742,11 +37742,11 @@
       </c>
       <c r="R467" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S467" t="n">
-        <v>812</v>
+        <v>875</v>
       </c>
       <c r="T467" t="n">
         <v>16</v>
@@ -37795,25 +37795,25 @@
       </c>
       <c r="K468" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M468" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N468" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O468" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P468" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37822,11 +37822,11 @@
       </c>
       <c r="R468" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S468" t="n">
-        <v>750</v>
+        <v>938</v>
       </c>
       <c r="T468" t="n">
         <v>16</v>
@@ -37875,25 +37875,25 @@
       </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M469" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N469" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O469" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P469" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37902,11 +37902,11 @@
       </c>
       <c r="R469" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S469" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T469" t="n">
         <v>16</v>
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44272</v>
+        <v>44246</v>
       </c>
       <c r="E470" t="n">
         <v>5</v>
@@ -37960,20 +37960,20 @@
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M470" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N470" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O470" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P470" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37982,11 +37982,11 @@
       </c>
       <c r="R470" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S470" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T470" t="n">
         <v>16</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44272</v>
+        <v>44246</v>
       </c>
       <c r="E471" t="n">
         <v>5</v>
@@ -38035,25 +38035,25 @@
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M471" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="N471" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O471" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P471" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>1000</v>
+        <v>812</v>
       </c>
       <c r="T471" t="n">
         <v>16</v>
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44272</v>
+        <v>44246</v>
       </c>
       <c r="E472" t="n">
         <v>5</v>
@@ -38115,7 +38115,7 @@
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L472" t="inlineStr">
@@ -38124,7 +38124,7 @@
         </is>
       </c>
       <c r="M472" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N472" t="n">
         <v>12000</v>
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44166</v>
+        <v>44246</v>
       </c>
       <c r="E473" t="n">
         <v>5</v>
@@ -38195,25 +38195,25 @@
       </c>
       <c r="K473" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M473" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="N473" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O473" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P473" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38222,11 +38222,11 @@
       </c>
       <c r="R473" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S473" t="n">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="T473" t="n">
         <v>16</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E474" t="n">
         <v>5</v>
@@ -38275,25 +38275,25 @@
       </c>
       <c r="K474" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M474" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="N474" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O474" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P474" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38302,11 +38302,11 @@
       </c>
       <c r="R474" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S474" t="n">
-        <v>500</v>
+        <v>875</v>
       </c>
       <c r="T474" t="n">
         <v>16</v>
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E475" t="n">
         <v>5</v>
@@ -38355,25 +38355,25 @@
       </c>
       <c r="K475" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L475" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M475" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="N475" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="O475" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="P475" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38382,11 +38382,11 @@
       </c>
       <c r="R475" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S475" t="n">
-        <v>438</v>
+        <v>1000</v>
       </c>
       <c r="T475" t="n">
         <v>16</v>
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E476" t="n">
         <v>5</v>
@@ -38435,25 +38435,25 @@
       </c>
       <c r="K476" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L476" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M476" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N476" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O476" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P476" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38462,11 +38462,11 @@
       </c>
       <c r="R476" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S476" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T476" t="n">
         <v>16</v>
@@ -38515,25 +38515,25 @@
       </c>
       <c r="K477" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L477" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M477" t="n">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="N477" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O477" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P477" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>750</v>
+        <v>562</v>
       </c>
       <c r="T477" t="n">
         <v>16</v>
@@ -38595,25 +38595,25 @@
       </c>
       <c r="K478" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M478" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N478" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O478" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P478" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T478" t="n">
         <v>16</v>
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E479" t="n">
         <v>5</v>
@@ -38675,25 +38675,25 @@
       </c>
       <c r="K479" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L479" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M479" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N479" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O479" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P479" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         </is>
       </c>
       <c r="S479" t="n">
-        <v>875</v>
+        <v>438</v>
       </c>
       <c r="T479" t="n">
         <v>16</v>
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E480" t="n">
         <v>5</v>
@@ -38755,16 +38755,16 @@
       </c>
       <c r="K480" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M480" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N480" t="n">
         <v>13000</v>
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E481" t="n">
         <v>5</v>
@@ -38835,16 +38835,16 @@
       </c>
       <c r="K481" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M481" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N481" t="n">
         <v>12000</v>
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E482" t="n">
         <v>5</v>
@@ -38915,25 +38915,25 @@
       </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M482" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="N482" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O482" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P482" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         </is>
       </c>
       <c r="S482" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T482" t="n">
         <v>16</v>
@@ -38995,25 +38995,25 @@
       </c>
       <c r="K483" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M483" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N483" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O483" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P483" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         </is>
       </c>
       <c r="S483" t="n">
-        <v>812</v>
+        <v>875</v>
       </c>
       <c r="T483" t="n">
         <v>16</v>
@@ -39075,25 +39075,25 @@
       </c>
       <c r="K484" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L484" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M484" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="N484" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O484" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P484" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         </is>
       </c>
       <c r="S484" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T484" t="n">
         <v>16</v>
@@ -39155,25 +39155,25 @@
       </c>
       <c r="K485" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L485" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M485" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N485" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O485" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P485" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39186,7 +39186,7 @@
         </is>
       </c>
       <c r="S485" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T485" t="n">
         <v>16</v>
@@ -39235,25 +39235,25 @@
       </c>
       <c r="K486" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M486" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N486" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O486" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P486" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         </is>
       </c>
       <c r="S486" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T486" t="n">
         <v>16</v>
@@ -39315,25 +39315,25 @@
       </c>
       <c r="K487" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M487" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="N487" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O487" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P487" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39346,7 +39346,7 @@
         </is>
       </c>
       <c r="S487" t="n">
-        <v>625</v>
+        <v>812</v>
       </c>
       <c r="T487" t="n">
         <v>16</v>
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44232</v>
+        <v>44225</v>
       </c>
       <c r="E488" t="n">
         <v>5</v>
@@ -39395,25 +39395,25 @@
       </c>
       <c r="K488" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L488" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M488" t="n">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="N488" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O488" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P488" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         </is>
       </c>
       <c r="S488" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T488" t="n">
         <v>16</v>
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44232</v>
+        <v>44225</v>
       </c>
       <c r="E489" t="n">
         <v>5</v>
@@ -39475,25 +39475,25 @@
       </c>
       <c r="K489" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M489" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N489" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O489" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P489" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         </is>
       </c>
       <c r="S489" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T489" t="n">
         <v>16</v>
@@ -39527,7 +39527,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44232</v>
+        <v>44225</v>
       </c>
       <c r="E490" t="n">
         <v>5</v>
@@ -39555,25 +39555,25 @@
       </c>
       <c r="K490" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M490" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="N490" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O490" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P490" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         </is>
       </c>
       <c r="S490" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T490" t="n">
         <v>16</v>
@@ -39607,7 +39607,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44510</v>
+        <v>44225</v>
       </c>
       <c r="E491" t="n">
         <v>5</v>
@@ -39635,29 +39635,29 @@
       </c>
       <c r="K491" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M491" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N491" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O491" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P491" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R491" t="inlineStr">
@@ -39666,10 +39666,10 @@
         </is>
       </c>
       <c r="S491" t="n">
-        <v>1200</v>
+        <v>625</v>
       </c>
       <c r="T491" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="492">
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44510</v>
+        <v>44232</v>
       </c>
       <c r="E492" t="n">
         <v>5</v>
@@ -39715,41 +39715,41 @@
       </c>
       <c r="K492" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M492" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N492" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O492" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P492" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R492" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S492" t="n">
-        <v>1133</v>
+        <v>812</v>
       </c>
       <c r="T492" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="493">
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44510</v>
+        <v>44232</v>
       </c>
       <c r="E493" t="n">
         <v>5</v>
@@ -39795,29 +39795,29 @@
       </c>
       <c r="K493" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M493" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="N493" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O493" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P493" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R493" t="inlineStr">
@@ -39826,10 +39826,10 @@
         </is>
       </c>
       <c r="S493" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T493" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="494">
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44510</v>
+        <v>44232</v>
       </c>
       <c r="E494" t="n">
         <v>5</v>
@@ -39875,7 +39875,7 @@
       </c>
       <c r="K494" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L494" t="inlineStr">
@@ -39884,32 +39884,32 @@
         </is>
       </c>
       <c r="M494" t="n">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="N494" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O494" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P494" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R494" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S494" t="n">
-        <v>867</v>
+        <v>625</v>
       </c>
       <c r="T494" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="495">
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E495" t="n">
         <v>5</v>
@@ -39955,41 +39955,41 @@
       </c>
       <c r="K495" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L495" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M495" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N495" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O495" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P495" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R495" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S495" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T495" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="496">
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E496" t="n">
         <v>5</v>
@@ -40035,7 +40035,7 @@
       </c>
       <c r="K496" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L496" t="inlineStr">
@@ -40044,32 +40044,32 @@
         </is>
       </c>
       <c r="M496" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="N496" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="O496" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="P496" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R496" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S496" t="n">
-        <v>875</v>
+        <v>1133</v>
       </c>
       <c r="T496" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="497">
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E497" t="n">
         <v>5</v>
@@ -40115,7 +40115,7 @@
       </c>
       <c r="K497" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L497" t="inlineStr">
@@ -40124,32 +40124,32 @@
         </is>
       </c>
       <c r="M497" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N497" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O497" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P497" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R497" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S497" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T497" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="498">
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E498" t="n">
         <v>5</v>
@@ -40195,41 +40195,41 @@
       </c>
       <c r="K498" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M498" t="n">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="N498" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O498" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P498" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R498" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S498" t="n">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="T498" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="499">
@@ -40275,25 +40275,25 @@
       </c>
       <c r="K499" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L499" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M499" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="N499" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O499" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P499" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         </is>
       </c>
       <c r="S499" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T499" t="n">
         <v>8</v>
@@ -40355,25 +40355,25 @@
       </c>
       <c r="K500" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L500" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M500" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N500" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O500" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P500" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40386,7 +40386,7 @@
         </is>
       </c>
       <c r="S500" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T500" t="n">
         <v>8</v>
@@ -40435,29 +40435,29 @@
       </c>
       <c r="K501" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L501" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M501" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="N501" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="O501" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="P501" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R501" t="inlineStr">
@@ -40466,10 +40466,10 @@
         </is>
       </c>
       <c r="S501" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T501" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="502">
@@ -40515,29 +40515,29 @@
       </c>
       <c r="K502" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M502" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N502" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O502" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P502" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R502" t="inlineStr">
@@ -40546,10 +40546,10 @@
         </is>
       </c>
       <c r="S502" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T502" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="503">
@@ -40595,29 +40595,29 @@
       </c>
       <c r="K503" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L503" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M503" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="N503" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="O503" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="P503" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R503" t="inlineStr">
@@ -40626,10 +40626,10 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T503" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="504">
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E504" t="n">
         <v>5</v>
@@ -40680,36 +40680,36 @@
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M504" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="N504" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O504" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P504" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R504" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S504" t="n">
-        <v>1200</v>
+        <v>625</v>
       </c>
       <c r="T504" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="505">
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E505" t="n">
         <v>5</v>
@@ -40755,41 +40755,41 @@
       </c>
       <c r="K505" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M505" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="N505" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="O505" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P505" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R505" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S505" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T505" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="506">
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E506" t="n">
         <v>5</v>
@@ -40835,7 +40835,7 @@
       </c>
       <c r="K506" t="inlineStr">
         <is>
-          <t>Gold Crest</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L506" t="inlineStr">
@@ -40844,32 +40844,32 @@
         </is>
       </c>
       <c r="M506" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="N506" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O506" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P506" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R506" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S506" t="n">
-        <v>1200</v>
+        <v>938</v>
       </c>
       <c r="T506" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="507">
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E507" t="n">
         <v>5</v>
@@ -40915,7 +40915,7 @@
       </c>
       <c r="K507" t="inlineStr">
         <is>
-          <t>Gold Crest</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L507" t="inlineStr">
@@ -40924,32 +40924,32 @@
         </is>
       </c>
       <c r="M507" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N507" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O507" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P507" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R507" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S507" t="n">
-        <v>900</v>
+        <v>812</v>
       </c>
       <c r="T507" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="508">
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E508" t="n">
         <v>5</v>
@@ -40995,7 +40995,7 @@
       </c>
       <c r="K508" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L508" t="inlineStr">
@@ -41004,20 +41004,20 @@
         </is>
       </c>
       <c r="M508" t="n">
-        <v>170</v>
+        <v>56</v>
       </c>
       <c r="N508" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="O508" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P508" t="n">
-        <v>12765</v>
+        <v>12000</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R508" t="inlineStr">
@@ -41026,10 +41026,10 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>798</v>
+        <v>1200</v>
       </c>
       <c r="T508" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="509">
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E509" t="n">
         <v>5</v>
@@ -41075,7 +41075,7 @@
       </c>
       <c r="K509" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L509" t="inlineStr">
@@ -41084,20 +41084,20 @@
         </is>
       </c>
       <c r="M509" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N509" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O509" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P509" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R509" t="inlineStr">
@@ -41106,10 +41106,10 @@
         </is>
       </c>
       <c r="S509" t="n">
-        <v>688</v>
+        <v>800</v>
       </c>
       <c r="T509" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="510">
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44236</v>
+        <v>44517</v>
       </c>
       <c r="E510" t="n">
         <v>5</v>
@@ -41155,7 +41155,7 @@
       </c>
       <c r="K510" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Gold Crest</t>
         </is>
       </c>
       <c r="L510" t="inlineStr">
@@ -41164,20 +41164,20 @@
         </is>
       </c>
       <c r="M510" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="N510" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O510" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P510" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R510" t="inlineStr">
@@ -41186,10 +41186,10 @@
         </is>
       </c>
       <c r="S510" t="n">
-        <v>875</v>
+        <v>1200</v>
       </c>
       <c r="T510" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="511">
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44236</v>
+        <v>44517</v>
       </c>
       <c r="E511" t="n">
         <v>5</v>
@@ -41235,7 +41235,7 @@
       </c>
       <c r="K511" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Gold Crest</t>
         </is>
       </c>
       <c r="L511" t="inlineStr">
@@ -41244,20 +41244,20 @@
         </is>
       </c>
       <c r="M511" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N511" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O511" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P511" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R511" t="inlineStr">
@@ -41266,10 +41266,10 @@
         </is>
       </c>
       <c r="S511" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="T511" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="512">
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E512" t="n">
         <v>5</v>
@@ -41315,7 +41315,7 @@
       </c>
       <c r="K512" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L512" t="inlineStr">
@@ -41324,16 +41324,16 @@
         </is>
       </c>
       <c r="M512" t="n">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="N512" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="O512" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P512" t="n">
-        <v>14000</v>
+        <v>12765</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>875</v>
+        <v>798</v>
       </c>
       <c r="T512" t="n">
         <v>16</v>
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E513" t="n">
         <v>5</v>
@@ -41395,7 +41395,7 @@
       </c>
       <c r="K513" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L513" t="inlineStr">
@@ -41404,16 +41404,16 @@
         </is>
       </c>
       <c r="M513" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N513" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O513" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P513" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>750</v>
+        <v>688</v>
       </c>
       <c r="T513" t="n">
         <v>16</v>
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E514" t="n">
         <v>5</v>
@@ -41475,25 +41475,25 @@
       </c>
       <c r="K514" t="inlineStr">
         <is>
-          <t>Jungermann</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M514" t="n">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="N514" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O514" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P514" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41502,11 +41502,11 @@
       </c>
       <c r="R514" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S514" t="n">
-        <v>812</v>
+        <v>875</v>
       </c>
       <c r="T514" t="n">
         <v>16</v>
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E515" t="n">
         <v>5</v>
@@ -41555,25 +41555,25 @@
       </c>
       <c r="K515" t="inlineStr">
         <is>
-          <t>Jungermann</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M515" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N515" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O515" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P515" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41582,11 +41582,11 @@
       </c>
       <c r="R515" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S515" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T515" t="n">
         <v>16</v>
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E516" t="n">
         <v>5</v>
@@ -41635,7 +41635,7 @@
       </c>
       <c r="K516" t="inlineStr">
         <is>
-          <t>Jungermann</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L516" t="inlineStr">
@@ -41644,16 +41644,16 @@
         </is>
       </c>
       <c r="M516" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="N516" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O516" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P516" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41662,11 +41662,11 @@
       </c>
       <c r="R516" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S516" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T516" t="n">
         <v>16</v>
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E517" t="n">
         <v>5</v>
@@ -41715,25 +41715,25 @@
       </c>
       <c r="K517" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L517" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M517" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N517" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O517" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P517" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T517" t="n">
         <v>16</v>
@@ -41795,25 +41795,25 @@
       </c>
       <c r="K518" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Jungermann</t>
         </is>
       </c>
       <c r="L518" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M518" t="n">
         <v>68</v>
       </c>
       <c r="N518" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O518" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P518" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41822,11 +41822,11 @@
       </c>
       <c r="R518" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S518" t="n">
-        <v>938</v>
+        <v>812</v>
       </c>
       <c r="T518" t="n">
         <v>16</v>
@@ -41875,25 +41875,25 @@
       </c>
       <c r="K519" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Jungermann</t>
         </is>
       </c>
       <c r="L519" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M519" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N519" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O519" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P519" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41902,11 +41902,11 @@
       </c>
       <c r="R519" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S519" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T519" t="n">
         <v>16</v>
@@ -41955,25 +41955,25 @@
       </c>
       <c r="K520" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Jungermann</t>
         </is>
       </c>
       <c r="L520" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M520" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N520" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O520" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P520" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41982,11 +41982,11 @@
       </c>
       <c r="R520" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S520" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T520" t="n">
         <v>16</v>
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44515</v>
+        <v>44251</v>
       </c>
       <c r="E521" t="n">
         <v>5</v>
@@ -42035,29 +42035,29 @@
       </c>
       <c r="K521" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L521" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M521" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N521" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O521" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P521" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R521" t="inlineStr">
@@ -42066,10 +42066,10 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>1200</v>
+        <v>875</v>
       </c>
       <c r="T521" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="522">
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44515</v>
+        <v>44251</v>
       </c>
       <c r="E522" t="n">
         <v>5</v>
@@ -42115,29 +42115,29 @@
       </c>
       <c r="K522" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M522" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="N522" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O522" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P522" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R522" t="inlineStr">
@@ -42146,10 +42146,10 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>800</v>
+        <v>938</v>
       </c>
       <c r="T522" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="523">
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44515</v>
+        <v>44251</v>
       </c>
       <c r="E523" t="n">
         <v>5</v>
@@ -42195,7 +42195,7 @@
       </c>
       <c r="K523" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L523" t="inlineStr">
@@ -42207,29 +42207,29 @@
         <v>68</v>
       </c>
       <c r="N523" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O523" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P523" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R523" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S523" t="n">
-        <v>1200</v>
+        <v>750</v>
       </c>
       <c r="T523" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="524">
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44515</v>
+        <v>44251</v>
       </c>
       <c r="E524" t="n">
         <v>5</v>
@@ -42275,7 +42275,7 @@
       </c>
       <c r="K524" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L524" t="inlineStr">
@@ -42284,32 +42284,32 @@
         </is>
       </c>
       <c r="M524" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N524" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O524" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P524" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R524" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S524" t="n">
-        <v>800</v>
+        <v>625</v>
       </c>
       <c r="T524" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="525">
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44181</v>
+        <v>44515</v>
       </c>
       <c r="E525" t="n">
         <v>5</v>
@@ -42355,16 +42355,16 @@
       </c>
       <c r="K525" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M525" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="N525" t="n">
         <v>12000</v>
@@ -42377,7 +42377,7 @@
       </c>
       <c r="Q525" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R525" t="inlineStr">
@@ -42386,10 +42386,10 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>750</v>
+        <v>1200</v>
       </c>
       <c r="T525" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="526">
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44181</v>
+        <v>44515</v>
       </c>
       <c r="E526" t="n">
         <v>5</v>
@@ -42435,29 +42435,29 @@
       </c>
       <c r="K526" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M526" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N526" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O526" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P526" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R526" t="inlineStr">
@@ -42466,10 +42466,10 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>625</v>
+        <v>800</v>
       </c>
       <c r="T526" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="527">
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44181</v>
+        <v>44515</v>
       </c>
       <c r="E527" t="n">
         <v>5</v>
@@ -42515,41 +42515,41 @@
       </c>
       <c r="K527" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L527" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M527" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N527" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="O527" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="P527" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R527" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S527" t="n">
-        <v>562</v>
+        <v>1200</v>
       </c>
       <c r="T527" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="528">
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44181</v>
+        <v>44515</v>
       </c>
       <c r="E528" t="n">
         <v>5</v>
@@ -42595,41 +42595,41 @@
       </c>
       <c r="K528" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L528" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M528" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N528" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O528" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P528" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R528" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S528" t="n">
-        <v>1062</v>
+        <v>800</v>
       </c>
       <c r="T528" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="529">
@@ -42675,25 +42675,25 @@
       </c>
       <c r="K529" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L529" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M529" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="N529" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O529" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P529" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42706,7 +42706,7 @@
         </is>
       </c>
       <c r="S529" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T529" t="n">
         <v>16</v>
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E530" t="n">
         <v>5</v>
@@ -42755,25 +42755,25 @@
       </c>
       <c r="K530" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L530" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M530" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N530" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O530" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P530" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42786,7 +42786,7 @@
         </is>
       </c>
       <c r="S530" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T530" t="n">
         <v>16</v>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E531" t="n">
         <v>5</v>
@@ -42835,25 +42835,25 @@
       </c>
       <c r="K531" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L531" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M531" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N531" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O531" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P531" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         </is>
       </c>
       <c r="S531" t="n">
-        <v>625</v>
+        <v>562</v>
       </c>
       <c r="T531" t="n">
         <v>16</v>
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E532" t="n">
         <v>5</v>
@@ -42915,25 +42915,25 @@
       </c>
       <c r="K532" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M532" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="N532" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="O532" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="P532" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42946,7 +42946,7 @@
         </is>
       </c>
       <c r="S532" t="n">
-        <v>562</v>
+        <v>1062</v>
       </c>
       <c r="T532" t="n">
         <v>16</v>
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E533" t="n">
         <v>5</v>
@@ -43000,20 +43000,20 @@
       </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M533" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N533" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O533" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P533" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>812</v>
+        <v>1000</v>
       </c>
       <c r="T533" t="n">
         <v>16</v>
@@ -43075,16 +43075,16 @@
       </c>
       <c r="K534" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M534" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N534" t="n">
         <v>12000</v>
@@ -43155,16 +43155,16 @@
       </c>
       <c r="K535" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M535" t="n">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="N535" t="n">
         <v>10000</v>
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E536" t="n">
         <v>5</v>
@@ -43235,25 +43235,25 @@
       </c>
       <c r="K536" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M536" t="n">
         <v>68</v>
       </c>
       <c r="N536" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O536" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P536" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43262,11 +43262,11 @@
       </c>
       <c r="R536" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S536" t="n">
-        <v>875</v>
+        <v>562</v>
       </c>
       <c r="T536" t="n">
         <v>16</v>
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E537" t="n">
         <v>5</v>
@@ -43315,25 +43315,25 @@
       </c>
       <c r="K537" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M537" t="n">
         <v>70</v>
       </c>
       <c r="N537" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O537" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P537" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43342,11 +43342,11 @@
       </c>
       <c r="R537" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S537" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T537" t="n">
         <v>16</v>
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E538" t="n">
         <v>5</v>
@@ -43395,25 +43395,25 @@
       </c>
       <c r="K538" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L538" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M538" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N538" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O538" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P538" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43422,11 +43422,11 @@
       </c>
       <c r="R538" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S538" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T538" t="n">
         <v>16</v>
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44508</v>
+        <v>44194</v>
       </c>
       <c r="E539" t="n">
         <v>5</v>
@@ -43475,29 +43475,29 @@
       </c>
       <c r="K539" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L539" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M539" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N539" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O539" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P539" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R539" t="inlineStr">
@@ -43506,10 +43506,10 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>1400</v>
+        <v>625</v>
       </c>
       <c r="T539" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="540">
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44508</v>
+        <v>44271</v>
       </c>
       <c r="E540" t="n">
         <v>5</v>
@@ -43555,41 +43555,41 @@
       </c>
       <c r="K540" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L540" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M540" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="N540" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O540" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P540" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R540" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S540" t="n">
-        <v>1100</v>
+        <v>875</v>
       </c>
       <c r="T540" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="541">
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44508</v>
+        <v>44271</v>
       </c>
       <c r="E541" t="n">
         <v>5</v>
@@ -43635,41 +43635,41 @@
       </c>
       <c r="K541" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L541" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M541" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="N541" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O541" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P541" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R541" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S541" t="n">
-        <v>1333</v>
+        <v>750</v>
       </c>
       <c r="T541" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="542">
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44508</v>
+        <v>44271</v>
       </c>
       <c r="E542" t="n">
         <v>5</v>
@@ -43715,41 +43715,41 @@
       </c>
       <c r="K542" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L542" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M542" t="n">
         <v>60</v>
       </c>
       <c r="N542" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O542" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P542" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R542" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S542" t="n">
-        <v>1200</v>
+        <v>625</v>
       </c>
       <c r="T542" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="543">
@@ -43795,16 +43795,16 @@
       </c>
       <c r="K543" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L543" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M543" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="N543" t="n">
         <v>14000</v>
@@ -43817,19 +43817,19 @@
       </c>
       <c r="Q543" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R543" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S543" t="n">
-        <v>933</v>
+        <v>1400</v>
       </c>
       <c r="T543" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="544">
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E544" t="n">
         <v>5</v>
@@ -43875,29 +43875,29 @@
       </c>
       <c r="K544" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L544" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M544" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N544" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O544" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P544" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R544" t="inlineStr">
@@ -43906,10 +43906,10 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>938</v>
+        <v>1100</v>
       </c>
       <c r="T544" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="545">
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E545" t="n">
         <v>5</v>
@@ -43955,41 +43955,41 @@
       </c>
       <c r="K545" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L545" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M545" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="N545" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O545" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P545" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R545" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S545" t="n">
-        <v>1000</v>
+        <v>1333</v>
       </c>
       <c r="T545" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="546">
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E546" t="n">
         <v>5</v>
@@ -44035,7 +44035,7 @@
       </c>
       <c r="K546" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L546" t="inlineStr">
@@ -44044,32 +44044,32 @@
         </is>
       </c>
       <c r="M546" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N546" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O546" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P546" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R546" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S546" t="n">
-        <v>875</v>
+        <v>1200</v>
       </c>
       <c r="T546" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="547">
@@ -44087,7 +44087,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E547" t="n">
         <v>5</v>
@@ -44115,7 +44115,7 @@
       </c>
       <c r="K547" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L547" t="inlineStr">
@@ -44124,32 +44124,32 @@
         </is>
       </c>
       <c r="M547" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="N547" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O547" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P547" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R547" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S547" t="n">
-        <v>750</v>
+        <v>933</v>
       </c>
       <c r="T547" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="548">
@@ -44195,7 +44195,7 @@
       </c>
       <c r="K548" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L548" t="inlineStr">
@@ -44204,16 +44204,16 @@
         </is>
       </c>
       <c r="M548" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N548" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O548" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P548" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44222,11 +44222,11 @@
       </c>
       <c r="R548" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S548" t="n">
-        <v>812</v>
+        <v>938</v>
       </c>
       <c r="T548" t="n">
         <v>16</v>
@@ -44275,25 +44275,25 @@
       </c>
       <c r="K549" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L549" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M549" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N549" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O549" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P549" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44302,11 +44302,11 @@
       </c>
       <c r="R549" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S549" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T549" t="n">
         <v>16</v>
@@ -44355,40 +44355,360 @@
       </c>
       <c r="K550" t="inlineStr">
         <is>
+          <t>American Nectar</t>
+        </is>
+      </c>
+      <c r="L550" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M550" t="n">
+        <v>80</v>
+      </c>
+      <c r="N550" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O550" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P550" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q550" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R550" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S550" t="n">
+        <v>875</v>
+      </c>
+      <c r="T550" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>3</v>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D551" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E551" t="n">
+        <v>5</v>
+      </c>
+      <c r="F551" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G551" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H551" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I551" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J551" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>American Nectar</t>
+        </is>
+      </c>
+      <c r="L551" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M551" t="n">
+        <v>67</v>
+      </c>
+      <c r="N551" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O551" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P551" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q551" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R551" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S551" t="n">
+        <v>750</v>
+      </c>
+      <c r="T551" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>3</v>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D552" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E552" t="n">
+        <v>5</v>
+      </c>
+      <c r="F552" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G552" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H552" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I552" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J552" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
           <t>Flavor Crest</t>
         </is>
       </c>
-      <c r="L550" t="inlineStr">
+      <c r="L552" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M552" t="n">
+        <v>65</v>
+      </c>
+      <c r="N552" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O552" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P552" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q552" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R552" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S552" t="n">
+        <v>812</v>
+      </c>
+      <c r="T552" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>3</v>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D553" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E553" t="n">
+        <v>5</v>
+      </c>
+      <c r="F553" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G553" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H553" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I553" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J553" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>Flavor Crest</t>
+        </is>
+      </c>
+      <c r="L553" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M553" t="n">
+        <v>67</v>
+      </c>
+      <c r="N553" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O553" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P553" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q553" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R553" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S553" t="n">
+        <v>750</v>
+      </c>
+      <c r="T553" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>3</v>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D554" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E554" t="n">
+        <v>5</v>
+      </c>
+      <c r="F554" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G554" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H554" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I554" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J554" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>Flavor Crest</t>
+        </is>
+      </c>
+      <c r="L554" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M550" t="n">
+      <c r="M554" t="n">
         <v>60</v>
       </c>
-      <c r="N550" t="n">
+      <c r="N554" t="n">
         <v>10000</v>
       </c>
-      <c r="O550" t="n">
+      <c r="O554" t="n">
         <v>10000</v>
       </c>
-      <c r="P550" t="n">
+      <c r="P554" t="n">
         <v>10000</v>
       </c>
-      <c r="Q550" t="inlineStr">
-        <is>
-          <t>$/caja 16 kilos empedrada</t>
-        </is>
-      </c>
-      <c r="R550" t="inlineStr">
+      <c r="Q554" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R554" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S550" t="n">
+      <c r="S554" t="n">
         <v>625</v>
       </c>
-      <c r="T550" t="n">
+      <c r="T554" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T554"/>
+  <dimension ref="A1:T556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44259</v>
+        <v>44523</v>
       </c>
       <c r="E374" t="n">
         <v>5</v>
@@ -30275,41 +30275,41 @@
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M374" t="n">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="N374" t="n">
         <v>14000</v>
       </c>
       <c r="O374" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P374" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R374" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="S374" t="n">
-        <v>875</v>
+        <v>967</v>
       </c>
       <c r="T374" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="375">
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44259</v>
+        <v>44523</v>
       </c>
       <c r="E375" t="n">
         <v>5</v>
@@ -30355,41 +30355,41 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M375" t="n">
         <v>80</v>
       </c>
       <c r="N375" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O375" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P375" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R375" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="S375" t="n">
-        <v>1000</v>
+        <v>733</v>
       </c>
       <c r="T375" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="376">
@@ -30440,20 +30440,20 @@
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M376" t="n">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="N376" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O376" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P376" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T376" t="n">
         <v>16</v>
@@ -30520,20 +30520,20 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M377" t="n">
         <v>80</v>
       </c>
       <c r="N377" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O377" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P377" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T377" t="n">
         <v>16</v>
@@ -30595,25 +30595,25 @@
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M378" t="n">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="N378" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O378" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P378" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T378" t="n">
         <v>16</v>
@@ -30675,25 +30675,25 @@
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M379" t="n">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="N379" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O379" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P379" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T379" t="n">
         <v>16</v>
@@ -30760,20 +30760,20 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M380" t="n">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="N380" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O380" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P380" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>625</v>
+        <v>812</v>
       </c>
       <c r="T380" t="n">
         <v>16</v>
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44216</v>
+        <v>44259</v>
       </c>
       <c r="E381" t="n">
         <v>5</v>
@@ -30835,25 +30835,25 @@
       </c>
       <c r="K381" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M381" t="n">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="N381" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O381" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P381" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30862,11 +30862,11 @@
       </c>
       <c r="R381" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S381" t="n">
-        <v>938</v>
+        <v>750</v>
       </c>
       <c r="T381" t="n">
         <v>16</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44216</v>
+        <v>44259</v>
       </c>
       <c r="E382" t="n">
         <v>5</v>
@@ -30915,25 +30915,25 @@
       </c>
       <c r="K382" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M382" t="n">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="N382" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O382" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P382" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
@@ -30942,11 +30942,11 @@
       </c>
       <c r="R382" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S382" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T382" t="n">
         <v>16</v>
@@ -31000,20 +31000,20 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M383" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N383" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O383" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P383" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T383" t="n">
         <v>16</v>
@@ -31080,20 +31080,20 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M384" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N384" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O384" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P384" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T384" t="n">
         <v>16</v>
@@ -31155,25 +31155,25 @@
       </c>
       <c r="K385" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M385" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="N385" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O385" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P385" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T385" t="n">
         <v>16</v>
@@ -31235,25 +31235,25 @@
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M386" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N386" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O386" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P386" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T386" t="n">
         <v>16</v>
@@ -31320,20 +31320,20 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M387" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N387" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O387" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P387" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>750</v>
+        <v>938</v>
       </c>
       <c r="T387" t="n">
         <v>16</v>
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44270</v>
+        <v>44216</v>
       </c>
       <c r="E388" t="n">
         <v>5</v>
@@ -31395,16 +31395,16 @@
       </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M388" t="n">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="N388" t="n">
         <v>14000</v>
@@ -31422,7 +31422,7 @@
       </c>
       <c r="R388" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S388" t="n">
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44270</v>
+        <v>44216</v>
       </c>
       <c r="E389" t="n">
         <v>5</v>
@@ -31475,25 +31475,25 @@
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M389" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N389" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O389" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P389" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
@@ -31502,11 +31502,11 @@
       </c>
       <c r="R389" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S389" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T389" t="n">
         <v>16</v>
@@ -31560,20 +31560,20 @@
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M390" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N390" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O390" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P390" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
@@ -31586,7 +31586,7 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T390" t="n">
         <v>16</v>
@@ -31640,20 +31640,20 @@
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M391" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="N391" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O391" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P391" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T391" t="n">
         <v>16</v>
@@ -31715,25 +31715,25 @@
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M392" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="N392" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O392" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P392" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T392" t="n">
         <v>16</v>
@@ -31795,25 +31795,25 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M393" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="N393" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O393" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P393" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T393" t="n">
         <v>16</v>
@@ -31880,20 +31880,20 @@
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M394" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N394" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O394" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P394" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T394" t="n">
         <v>16</v>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44257</v>
+        <v>44270</v>
       </c>
       <c r="E395" t="n">
         <v>5</v>
@@ -31955,25 +31955,25 @@
       </c>
       <c r="K395" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M395" t="n">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="N395" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O395" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P395" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T395" t="n">
         <v>16</v>
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44257</v>
+        <v>44270</v>
       </c>
       <c r="E396" t="n">
         <v>5</v>
@@ -32035,25 +32035,25 @@
       </c>
       <c r="K396" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M396" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N396" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O396" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P396" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
@@ -32066,7 +32066,7 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T396" t="n">
         <v>16</v>
@@ -32120,20 +32120,20 @@
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M397" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N397" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O397" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P397" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
@@ -32146,7 +32146,7 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T397" t="n">
         <v>16</v>
@@ -32200,20 +32200,20 @@
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M398" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N398" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O398" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P398" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T398" t="n">
         <v>16</v>
@@ -32275,25 +32275,25 @@
       </c>
       <c r="K399" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M399" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N399" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O399" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P399" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         </is>
       </c>
       <c r="S399" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T399" t="n">
         <v>16</v>
@@ -32355,25 +32355,25 @@
       </c>
       <c r="K400" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M400" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N400" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O400" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P400" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
@@ -32386,7 +32386,7 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T400" t="n">
         <v>16</v>
@@ -32440,20 +32440,20 @@
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M401" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N401" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O401" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P401" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>625</v>
+        <v>812</v>
       </c>
       <c r="T401" t="n">
         <v>16</v>
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44169</v>
+        <v>44257</v>
       </c>
       <c r="E402" t="n">
         <v>5</v>
@@ -32515,25 +32515,25 @@
       </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M402" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N402" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O402" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P402" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
@@ -32542,11 +32542,11 @@
       </c>
       <c r="R402" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S402" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T402" t="n">
         <v>16</v>
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44169</v>
+        <v>44257</v>
       </c>
       <c r="E403" t="n">
         <v>5</v>
@@ -32595,25 +32595,25 @@
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M403" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="N403" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O403" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P403" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32622,11 +32622,11 @@
       </c>
       <c r="R403" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S403" t="n">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="T403" t="n">
         <v>16</v>
@@ -32680,20 +32680,20 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M404" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="N404" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O404" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P404" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T404" t="n">
         <v>16</v>
@@ -32755,25 +32755,25 @@
       </c>
       <c r="K405" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M405" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="N405" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O405" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P405" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32782,11 +32782,11 @@
       </c>
       <c r="R405" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S405" t="n">
-        <v>750</v>
+        <v>562</v>
       </c>
       <c r="T405" t="n">
         <v>16</v>
@@ -32835,25 +32835,25 @@
       </c>
       <c r="K406" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M406" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N406" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O406" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P406" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
@@ -32862,11 +32862,11 @@
       </c>
       <c r="R406" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S406" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T406" t="n">
         <v>16</v>
@@ -32920,20 +32920,20 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M407" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N407" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O407" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P407" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>562</v>
+        <v>750</v>
       </c>
       <c r="T407" t="n">
         <v>16</v>
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44195</v>
+        <v>44169</v>
       </c>
       <c r="E408" t="n">
         <v>5</v>
@@ -32995,25 +32995,25 @@
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M408" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N408" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O408" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P408" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T408" t="n">
         <v>16</v>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44195</v>
+        <v>44169</v>
       </c>
       <c r="E409" t="n">
         <v>5</v>
@@ -33075,25 +33075,25 @@
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M409" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N409" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O409" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P409" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>625</v>
+        <v>562</v>
       </c>
       <c r="T409" t="n">
         <v>16</v>
@@ -33160,20 +33160,20 @@
       </c>
       <c r="L410" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M410" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="N410" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O410" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P410" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>562</v>
+        <v>750</v>
       </c>
       <c r="T410" t="n">
         <v>16</v>
@@ -33235,25 +33235,25 @@
       </c>
       <c r="K411" t="inlineStr">
         <is>
-          <t>Jrb</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M411" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="N411" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O411" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P411" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33262,11 +33262,11 @@
       </c>
       <c r="R411" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S411" t="n">
-        <v>812</v>
+        <v>625</v>
       </c>
       <c r="T411" t="n">
         <v>16</v>
@@ -33315,25 +33315,25 @@
       </c>
       <c r="K412" t="inlineStr">
         <is>
-          <t>Jrb</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M412" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N412" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O412" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P412" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33342,11 +33342,11 @@
       </c>
       <c r="R412" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S412" t="n">
-        <v>875</v>
+        <v>562</v>
       </c>
       <c r="T412" t="n">
         <v>16</v>
@@ -33400,20 +33400,20 @@
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M413" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N413" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O413" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P413" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T413" t="n">
         <v>16</v>
@@ -33480,20 +33480,20 @@
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M414" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N414" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O414" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P414" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T414" t="n">
         <v>16</v>
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44172</v>
+        <v>44195</v>
       </c>
       <c r="E415" t="n">
         <v>5</v>
@@ -33555,25 +33555,25 @@
       </c>
       <c r="K415" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Jrb</t>
         </is>
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M415" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N415" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O415" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P415" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T415" t="n">
         <v>16</v>
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44172</v>
+        <v>44195</v>
       </c>
       <c r="E416" t="n">
         <v>5</v>
@@ -33635,25 +33635,25 @@
       </c>
       <c r="K416" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Jrb</t>
         </is>
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M416" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N416" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O416" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P416" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="T416" t="n">
         <v>16</v>
@@ -33720,20 +33720,20 @@
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M417" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N417" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O417" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P417" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T417" t="n">
         <v>16</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44242</v>
+        <v>44172</v>
       </c>
       <c r="E418" t="n">
         <v>5</v>
@@ -33795,25 +33795,25 @@
       </c>
       <c r="K418" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M418" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N418" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O418" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P418" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>875</v>
+        <v>562</v>
       </c>
       <c r="T418" t="n">
         <v>16</v>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44242</v>
+        <v>44172</v>
       </c>
       <c r="E419" t="n">
         <v>5</v>
@@ -33875,25 +33875,25 @@
       </c>
       <c r="K419" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M419" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="N419" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O419" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P419" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T419" t="n">
         <v>16</v>
@@ -33960,20 +33960,20 @@
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M420" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="N420" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O420" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P420" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T420" t="n">
         <v>16</v>
@@ -34040,20 +34040,20 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M421" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="N421" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O421" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P421" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T421" t="n">
         <v>16</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E422" t="n">
         <v>5</v>
@@ -34115,25 +34115,25 @@
       </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M422" t="n">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="N422" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O422" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P422" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T422" t="n">
         <v>16</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E423" t="n">
         <v>5</v>
@@ -34195,25 +34195,25 @@
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M423" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="N423" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="O423" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="P423" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>781</v>
+        <v>625</v>
       </c>
       <c r="T423" t="n">
         <v>16</v>
@@ -34280,20 +34280,20 @@
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M424" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N424" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O424" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P424" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T424" t="n">
         <v>16</v>
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E425" t="n">
         <v>5</v>
@@ -34355,25 +34355,25 @@
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M425" t="n">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="N425" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="O425" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="P425" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>875</v>
+        <v>781</v>
       </c>
       <c r="T425" t="n">
         <v>16</v>
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E426" t="n">
         <v>5</v>
@@ -34435,25 +34435,25 @@
       </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M426" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N426" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O426" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P426" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
@@ -34466,7 +34466,7 @@
         </is>
       </c>
       <c r="S426" t="n">
-        <v>938</v>
+        <v>625</v>
       </c>
       <c r="T426" t="n">
         <v>16</v>
@@ -34520,20 +34520,20 @@
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M427" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N427" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O427" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P427" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T427" t="n">
         <v>16</v>
@@ -34600,20 +34600,20 @@
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M428" t="n">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="N428" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O428" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P428" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T428" t="n">
         <v>16</v>
@@ -34675,25 +34675,25 @@
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M429" t="n">
         <v>75</v>
       </c>
       <c r="N429" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O429" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P429" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T429" t="n">
         <v>16</v>
@@ -34755,25 +34755,25 @@
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M430" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N430" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O430" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P430" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T430" t="n">
         <v>16</v>
@@ -34840,20 +34840,20 @@
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M431" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="N431" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O431" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P431" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>625</v>
+        <v>812</v>
       </c>
       <c r="T431" t="n">
         <v>16</v>
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44210</v>
+        <v>44222</v>
       </c>
       <c r="E432" t="n">
         <v>5</v>
@@ -34915,25 +34915,25 @@
       </c>
       <c r="K432" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M432" t="n">
         <v>80</v>
       </c>
       <c r="N432" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O432" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P432" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>938</v>
+        <v>750</v>
       </c>
       <c r="T432" t="n">
         <v>16</v>
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44210</v>
+        <v>44222</v>
       </c>
       <c r="E433" t="n">
         <v>5</v>
@@ -34995,25 +34995,25 @@
       </c>
       <c r="K433" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M433" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="N433" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O433" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P433" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T433" t="n">
         <v>16</v>
@@ -35080,20 +35080,20 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M434" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N434" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O434" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P434" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
@@ -35106,7 +35106,7 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T434" t="n">
         <v>16</v>
@@ -35155,25 +35155,25 @@
       </c>
       <c r="K435" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M435" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N435" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O435" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P435" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
@@ -35186,7 +35186,7 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T435" t="n">
         <v>16</v>
@@ -35235,25 +35235,25 @@
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M436" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N436" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O436" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P436" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T436" t="n">
         <v>16</v>
@@ -35320,20 +35320,20 @@
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M437" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N437" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O437" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P437" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
@@ -35346,7 +35346,7 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T437" t="n">
         <v>16</v>
@@ -35400,20 +35400,20 @@
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M438" t="n">
         <v>80</v>
       </c>
       <c r="N438" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O438" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P438" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
@@ -35426,7 +35426,7 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T438" t="n">
         <v>16</v>
@@ -35475,16 +35475,16 @@
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M439" t="n">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="N439" t="n">
         <v>14000</v>
@@ -35502,7 +35502,7 @@
       </c>
       <c r="R439" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S439" t="n">
@@ -35555,16 +35555,16 @@
       </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M440" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N440" t="n">
         <v>12000</v>
@@ -35582,7 +35582,7 @@
       </c>
       <c r="R440" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S440" t="n">
@@ -35640,20 +35640,20 @@
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M441" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N441" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O441" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P441" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         </is>
       </c>
       <c r="S441" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T441" t="n">
         <v>16</v>
@@ -35715,25 +35715,25 @@
       </c>
       <c r="K442" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M442" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N442" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O442" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P442" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
@@ -35746,7 +35746,7 @@
         </is>
       </c>
       <c r="S442" t="n">
-        <v>938</v>
+        <v>750</v>
       </c>
       <c r="T442" t="n">
         <v>16</v>
@@ -35795,25 +35795,25 @@
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M443" t="n">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="N443" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O443" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P443" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T443" t="n">
         <v>16</v>
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E444" t="n">
         <v>5</v>
@@ -35875,7 +35875,7 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
@@ -35884,16 +35884,16 @@
         </is>
       </c>
       <c r="M444" t="n">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="N444" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O444" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P444" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T444" t="n">
         <v>16</v>
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E445" t="n">
         <v>5</v>
@@ -35955,25 +35955,25 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M445" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N445" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O445" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P445" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>1125</v>
+        <v>875</v>
       </c>
       <c r="T445" t="n">
         <v>16</v>
@@ -36040,20 +36040,20 @@
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M446" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N446" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O446" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P446" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T446" t="n">
         <v>16</v>
@@ -36115,25 +36115,25 @@
       </c>
       <c r="K447" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M447" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="N447" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O447" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P447" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>625</v>
+        <v>1125</v>
       </c>
       <c r="T447" t="n">
         <v>16</v>
@@ -36195,25 +36195,25 @@
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M448" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N448" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O448" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P448" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>562</v>
+        <v>875</v>
       </c>
       <c r="T448" t="n">
         <v>16</v>
@@ -36247,7 +36247,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44284</v>
+        <v>44176</v>
       </c>
       <c r="E449" t="n">
         <v>5</v>
@@ -36275,25 +36275,25 @@
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M449" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N449" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O449" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P449" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T449" t="n">
         <v>16</v>
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44284</v>
+        <v>44176</v>
       </c>
       <c r="E450" t="n">
         <v>5</v>
@@ -36355,25 +36355,25 @@
       </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M450" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N450" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O450" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P450" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
@@ -36386,7 +36386,7 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>750</v>
+        <v>562</v>
       </c>
       <c r="T450" t="n">
         <v>16</v>
@@ -36440,20 +36440,20 @@
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M451" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="N451" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O451" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P451" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
@@ -36466,7 +36466,7 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T451" t="n">
         <v>16</v>
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44279</v>
+        <v>44284</v>
       </c>
       <c r="E452" t="n">
         <v>5</v>
@@ -36520,20 +36520,20 @@
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M452" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="N452" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O452" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P452" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36546,7 +36546,7 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>938</v>
+        <v>750</v>
       </c>
       <c r="T452" t="n">
         <v>16</v>
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44279</v>
+        <v>44284</v>
       </c>
       <c r="E453" t="n">
         <v>5</v>
@@ -36600,20 +36600,20 @@
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M453" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N453" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O453" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P453" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>812</v>
+        <v>625</v>
       </c>
       <c r="T453" t="n">
         <v>16</v>
@@ -36680,20 +36680,20 @@
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M454" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="N454" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O454" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P454" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
@@ -36706,7 +36706,7 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>688</v>
+        <v>938</v>
       </c>
       <c r="T454" t="n">
         <v>16</v>
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44504</v>
+        <v>44279</v>
       </c>
       <c r="E455" t="n">
         <v>5</v>
@@ -36755,7 +36755,7 @@
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L455" t="inlineStr">
@@ -36764,32 +36764,32 @@
         </is>
       </c>
       <c r="M455" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N455" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O455" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P455" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R455" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S455" t="n">
-        <v>1400</v>
+        <v>812</v>
       </c>
       <c r="T455" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="456">
@@ -36807,7 +36807,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44504</v>
+        <v>44279</v>
       </c>
       <c r="E456" t="n">
         <v>5</v>
@@ -36835,7 +36835,7 @@
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L456" t="inlineStr">
@@ -36844,32 +36844,32 @@
         </is>
       </c>
       <c r="M456" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N456" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O456" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P456" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R456" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S456" t="n">
-        <v>1200</v>
+        <v>688</v>
       </c>
       <c r="T456" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="457">
@@ -36915,7 +36915,7 @@
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L457" t="inlineStr">
@@ -36924,20 +36924,20 @@
         </is>
       </c>
       <c r="M457" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="N457" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O457" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P457" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R457" t="inlineStr">
@@ -36946,7 +36946,7 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="T457" t="n">
         <v>10</v>
@@ -36995,41 +36995,41 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M458" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N458" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O458" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P458" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R458" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S458" t="n">
-        <v>1133</v>
+        <v>1200</v>
       </c>
       <c r="T458" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="459">
@@ -37080,36 +37080,36 @@
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M459" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="N459" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O459" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P459" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R459" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S459" t="n">
-        <v>933</v>
+        <v>1300</v>
       </c>
       <c r="T459" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="460">
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44522</v>
+        <v>44504</v>
       </c>
       <c r="E460" t="n">
         <v>5</v>
@@ -37164,29 +37164,29 @@
         </is>
       </c>
       <c r="M460" t="n">
-        <v>165</v>
+        <v>68</v>
       </c>
       <c r="N460" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O460" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P460" t="n">
-        <v>14515</v>
+        <v>17000</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R460" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S460" t="n">
-        <v>968</v>
+        <v>1133</v>
       </c>
       <c r="T460" t="n">
         <v>15</v>
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44522</v>
+        <v>44504</v>
       </c>
       <c r="E461" t="n">
         <v>5</v>
@@ -37244,29 +37244,29 @@
         </is>
       </c>
       <c r="M461" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="N461" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O461" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P461" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R461" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S461" t="n">
-        <v>733</v>
+        <v>933</v>
       </c>
       <c r="T461" t="n">
         <v>15</v>
@@ -37315,7 +37315,7 @@
       </c>
       <c r="K462" t="inlineStr">
         <is>
-          <t>Gold Crest</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L462" t="inlineStr">
@@ -37324,16 +37324,16 @@
         </is>
       </c>
       <c r="M462" t="n">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="N462" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O462" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P462" t="n">
-        <v>13000</v>
+        <v>14515</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>867</v>
+        <v>968</v>
       </c>
       <c r="T462" t="n">
         <v>15</v>
@@ -37395,7 +37395,7 @@
       </c>
       <c r="K463" t="inlineStr">
         <is>
-          <t>Gold Crest</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L463" t="inlineStr">
@@ -37404,16 +37404,16 @@
         </is>
       </c>
       <c r="M463" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N463" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O463" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P463" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>533</v>
+        <v>733</v>
       </c>
       <c r="T463" t="n">
         <v>15</v>
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E464" t="n">
         <v>5</v>
@@ -37475,29 +37475,29 @@
       </c>
       <c r="K464" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Gold Crest</t>
         </is>
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M464" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="N464" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O464" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P464" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R464" t="inlineStr">
@@ -37506,10 +37506,10 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="T464" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="465">
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E465" t="n">
         <v>5</v>
@@ -37555,29 +37555,29 @@
       </c>
       <c r="K465" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Gold Crest</t>
         </is>
       </c>
       <c r="L465" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M465" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N465" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O465" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P465" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R465" t="inlineStr">
@@ -37586,10 +37586,10 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>750</v>
+        <v>533</v>
       </c>
       <c r="T465" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="466">
@@ -37640,20 +37640,20 @@
       </c>
       <c r="L466" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M466" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N466" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O466" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P466" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T466" t="n">
         <v>16</v>
@@ -37715,25 +37715,25 @@
       </c>
       <c r="K467" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M467" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N467" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O467" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P467" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         </is>
       </c>
       <c r="S467" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T467" t="n">
         <v>16</v>
@@ -37795,25 +37795,25 @@
       </c>
       <c r="K468" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M468" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N468" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O468" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P468" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>938</v>
+        <v>625</v>
       </c>
       <c r="T468" t="n">
         <v>16</v>
@@ -37880,20 +37880,20 @@
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M469" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N469" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O469" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P469" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T469" t="n">
         <v>16</v>
@@ -37960,20 +37960,20 @@
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M470" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N470" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O470" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P470" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T470" t="n">
         <v>16</v>
@@ -38035,25 +38035,25 @@
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M471" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N471" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O471" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P471" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38062,11 +38062,11 @@
       </c>
       <c r="R471" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S471" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T471" t="n">
         <v>16</v>
@@ -38115,25 +38115,25 @@
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M472" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N472" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O472" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P472" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38142,11 +38142,11 @@
       </c>
       <c r="R472" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S472" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T472" t="n">
         <v>16</v>
@@ -38200,20 +38200,20 @@
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M473" t="n">
         <v>60</v>
       </c>
       <c r="N473" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O473" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P473" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>625</v>
+        <v>812</v>
       </c>
       <c r="T473" t="n">
         <v>16</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44272</v>
+        <v>44246</v>
       </c>
       <c r="E474" t="n">
         <v>5</v>
@@ -38275,25 +38275,25 @@
       </c>
       <c r="K474" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M474" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N474" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O474" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P474" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T474" t="n">
         <v>16</v>
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44272</v>
+        <v>44246</v>
       </c>
       <c r="E475" t="n">
         <v>5</v>
@@ -38355,25 +38355,25 @@
       </c>
       <c r="K475" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L475" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M475" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="N475" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O475" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P475" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T475" t="n">
         <v>16</v>
@@ -38440,20 +38440,20 @@
       </c>
       <c r="L476" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M476" t="n">
         <v>70</v>
       </c>
       <c r="N476" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O476" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P476" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38466,7 +38466,7 @@
         </is>
       </c>
       <c r="S476" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T476" t="n">
         <v>16</v>
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E477" t="n">
         <v>5</v>
@@ -38515,25 +38515,25 @@
       </c>
       <c r="K477" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L477" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M477" t="n">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="N477" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="O477" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="P477" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38542,11 +38542,11 @@
       </c>
       <c r="R477" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S477" t="n">
-        <v>562</v>
+        <v>1000</v>
       </c>
       <c r="T477" t="n">
         <v>16</v>
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E478" t="n">
         <v>5</v>
@@ -38595,7 +38595,7 @@
       </c>
       <c r="K478" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L478" t="inlineStr">
@@ -38604,16 +38604,16 @@
         </is>
       </c>
       <c r="M478" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="N478" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O478" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P478" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38622,11 +38622,11 @@
       </c>
       <c r="R478" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S478" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T478" t="n">
         <v>16</v>
@@ -38680,20 +38680,20 @@
       </c>
       <c r="L479" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M479" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="N479" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O479" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P479" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         </is>
       </c>
       <c r="S479" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T479" t="n">
         <v>16</v>
@@ -38755,25 +38755,25 @@
       </c>
       <c r="K480" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M480" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N480" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O480" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P480" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         </is>
       </c>
       <c r="S480" t="n">
-        <v>812</v>
+        <v>500</v>
       </c>
       <c r="T480" t="n">
         <v>16</v>
@@ -38835,25 +38835,25 @@
       </c>
       <c r="K481" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M481" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="N481" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O481" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P481" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>750</v>
+        <v>438</v>
       </c>
       <c r="T481" t="n">
         <v>16</v>
@@ -38920,20 +38920,20 @@
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M482" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N482" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O482" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P482" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         </is>
       </c>
       <c r="S482" t="n">
-        <v>625</v>
+        <v>812</v>
       </c>
       <c r="T482" t="n">
         <v>16</v>
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E483" t="n">
         <v>5</v>
@@ -38995,25 +38995,25 @@
       </c>
       <c r="K483" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M483" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N483" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O483" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P483" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         </is>
       </c>
       <c r="S483" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T483" t="n">
         <v>16</v>
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E484" t="n">
         <v>5</v>
@@ -39075,25 +39075,25 @@
       </c>
       <c r="K484" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L484" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M484" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="N484" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O484" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P484" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         </is>
       </c>
       <c r="S484" t="n">
-        <v>812</v>
+        <v>625</v>
       </c>
       <c r="T484" t="n">
         <v>16</v>
@@ -39160,20 +39160,20 @@
       </c>
       <c r="L485" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M485" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N485" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O485" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P485" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39186,7 +39186,7 @@
         </is>
       </c>
       <c r="S485" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T485" t="n">
         <v>16</v>
@@ -39235,25 +39235,25 @@
       </c>
       <c r="K486" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M486" t="n">
         <v>70</v>
       </c>
       <c r="N486" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O486" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P486" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         </is>
       </c>
       <c r="S486" t="n">
-        <v>875</v>
+        <v>812</v>
       </c>
       <c r="T486" t="n">
         <v>16</v>
@@ -39315,25 +39315,25 @@
       </c>
       <c r="K487" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M487" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="N487" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O487" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P487" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39346,7 +39346,7 @@
         </is>
       </c>
       <c r="S487" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T487" t="n">
         <v>16</v>
@@ -39400,20 +39400,20 @@
       </c>
       <c r="L488" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M488" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="N488" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O488" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P488" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         </is>
       </c>
       <c r="S488" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T488" t="n">
         <v>16</v>
@@ -39475,16 +39475,16 @@
       </c>
       <c r="K489" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M489" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="N489" t="n">
         <v>13000</v>
@@ -39555,16 +39555,16 @@
       </c>
       <c r="K490" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M490" t="n">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="N490" t="n">
         <v>12000</v>
@@ -39640,20 +39640,20 @@
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M491" t="n">
         <v>60</v>
       </c>
       <c r="N491" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O491" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P491" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39666,7 +39666,7 @@
         </is>
       </c>
       <c r="S491" t="n">
-        <v>625</v>
+        <v>812</v>
       </c>
       <c r="T491" t="n">
         <v>16</v>
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44232</v>
+        <v>44225</v>
       </c>
       <c r="E492" t="n">
         <v>5</v>
@@ -39715,25 +39715,25 @@
       </c>
       <c r="K492" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M492" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="N492" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O492" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P492" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         </is>
       </c>
       <c r="S492" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T492" t="n">
         <v>16</v>
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44232</v>
+        <v>44225</v>
       </c>
       <c r="E493" t="n">
         <v>5</v>
@@ -39795,25 +39795,25 @@
       </c>
       <c r="K493" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M493" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N493" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O493" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P493" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         </is>
       </c>
       <c r="S493" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T493" t="n">
         <v>16</v>
@@ -39880,20 +39880,20 @@
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M494" t="n">
         <v>80</v>
       </c>
       <c r="N494" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O494" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P494" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39906,7 +39906,7 @@
         </is>
       </c>
       <c r="S494" t="n">
-        <v>625</v>
+        <v>812</v>
       </c>
       <c r="T494" t="n">
         <v>16</v>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44510</v>
+        <v>44232</v>
       </c>
       <c r="E495" t="n">
         <v>5</v>
@@ -39955,7 +39955,7 @@
       </c>
       <c r="K495" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L495" t="inlineStr">
@@ -39964,7 +39964,7 @@
         </is>
       </c>
       <c r="M495" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="N495" t="n">
         <v>12000</v>
@@ -39977,7 +39977,7 @@
       </c>
       <c r="Q495" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R495" t="inlineStr">
@@ -39986,10 +39986,10 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>1200</v>
+        <v>750</v>
       </c>
       <c r="T495" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="496">
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44510</v>
+        <v>44232</v>
       </c>
       <c r="E496" t="n">
         <v>5</v>
@@ -40035,41 +40035,41 @@
       </c>
       <c r="K496" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M496" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N496" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O496" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P496" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R496" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S496" t="n">
-        <v>1133</v>
+        <v>625</v>
       </c>
       <c r="T496" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="497">
@@ -40120,20 +40120,20 @@
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M497" t="n">
         <v>50</v>
       </c>
       <c r="N497" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O497" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P497" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
@@ -40146,7 +40146,7 @@
         </is>
       </c>
       <c r="S497" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T497" t="n">
         <v>10</v>
@@ -40200,20 +40200,20 @@
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M498" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="N498" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O498" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P498" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40226,7 +40226,7 @@
         </is>
       </c>
       <c r="S498" t="n">
-        <v>867</v>
+        <v>1133</v>
       </c>
       <c r="T498" t="n">
         <v>15</v>
@@ -40247,7 +40247,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E499" t="n">
         <v>5</v>
@@ -40275,41 +40275,41 @@
       </c>
       <c r="K499" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L499" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M499" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N499" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O499" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P499" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R499" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S499" t="n">
         <v>1000</v>
       </c>
       <c r="T499" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="500">
@@ -40327,7 +40327,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E500" t="n">
         <v>5</v>
@@ -40355,41 +40355,41 @@
       </c>
       <c r="K500" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L500" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M500" t="n">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="N500" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O500" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P500" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R500" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S500" t="n">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="T500" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="501">
@@ -40440,20 +40440,20 @@
       </c>
       <c r="L501" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M501" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N501" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O501" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P501" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40466,7 +40466,7 @@
         </is>
       </c>
       <c r="S501" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T501" t="n">
         <v>8</v>
@@ -40515,16 +40515,16 @@
       </c>
       <c r="K502" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M502" t="n">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="N502" t="n">
         <v>7000</v>
@@ -40595,16 +40595,16 @@
       </c>
       <c r="K503" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L503" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M503" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N503" t="n">
         <v>6000</v>
@@ -40680,20 +40680,20 @@
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M504" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N504" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O504" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P504" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T504" t="n">
         <v>8</v>
@@ -40755,29 +40755,29 @@
       </c>
       <c r="K505" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M505" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="N505" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="O505" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="P505" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R505" t="inlineStr">
@@ -40786,10 +40786,10 @@
         </is>
       </c>
       <c r="S505" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T505" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="506">
@@ -40835,29 +40835,29 @@
       </c>
       <c r="K506" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M506" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N506" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="O506" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="P506" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R506" t="inlineStr">
@@ -40866,10 +40866,10 @@
         </is>
       </c>
       <c r="S506" t="n">
-        <v>938</v>
+        <v>625</v>
       </c>
       <c r="T506" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="507">
@@ -40920,20 +40920,20 @@
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M507" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N507" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O507" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P507" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>812</v>
+        <v>1000</v>
       </c>
       <c r="T507" t="n">
         <v>16</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E508" t="n">
         <v>5</v>
@@ -40995,7 +40995,7 @@
       </c>
       <c r="K508" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L508" t="inlineStr">
@@ -41004,32 +41004,32 @@
         </is>
       </c>
       <c r="M508" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="N508" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O508" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P508" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R508" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S508" t="n">
-        <v>1200</v>
+        <v>938</v>
       </c>
       <c r="T508" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="509">
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E509" t="n">
         <v>5</v>
@@ -41075,7 +41075,7 @@
       </c>
       <c r="K509" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L509" t="inlineStr">
@@ -41084,32 +41084,32 @@
         </is>
       </c>
       <c r="M509" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N509" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O509" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P509" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R509" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S509" t="n">
-        <v>800</v>
+        <v>812</v>
       </c>
       <c r="T509" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="510">
@@ -41155,7 +41155,7 @@
       </c>
       <c r="K510" t="inlineStr">
         <is>
-          <t>Gold Crest</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L510" t="inlineStr">
@@ -41164,7 +41164,7 @@
         </is>
       </c>
       <c r="M510" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="N510" t="n">
         <v>12000</v>
@@ -41235,7 +41235,7 @@
       </c>
       <c r="K511" t="inlineStr">
         <is>
-          <t>Gold Crest</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L511" t="inlineStr">
@@ -41247,13 +41247,13 @@
         <v>50</v>
       </c>
       <c r="N511" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O511" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P511" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         </is>
       </c>
       <c r="S511" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T511" t="n">
         <v>10</v>
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E512" t="n">
         <v>5</v>
@@ -41315,7 +41315,7 @@
       </c>
       <c r="K512" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Gold Crest</t>
         </is>
       </c>
       <c r="L512" t="inlineStr">
@@ -41324,20 +41324,20 @@
         </is>
       </c>
       <c r="M512" t="n">
-        <v>170</v>
+        <v>67</v>
       </c>
       <c r="N512" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="O512" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P512" t="n">
-        <v>12765</v>
+        <v>12000</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R512" t="inlineStr">
@@ -41346,10 +41346,10 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>798</v>
+        <v>1200</v>
       </c>
       <c r="T512" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="513">
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E513" t="n">
         <v>5</v>
@@ -41395,7 +41395,7 @@
       </c>
       <c r="K513" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Gold Crest</t>
         </is>
       </c>
       <c r="L513" t="inlineStr">
@@ -41404,20 +41404,20 @@
         </is>
       </c>
       <c r="M513" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N513" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O513" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P513" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R513" t="inlineStr">
@@ -41426,10 +41426,10 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>688</v>
+        <v>900</v>
       </c>
       <c r="T513" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="514">
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E514" t="n">
         <v>5</v>
@@ -41484,16 +41484,16 @@
         </is>
       </c>
       <c r="M514" t="n">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="N514" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="O514" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P514" t="n">
-        <v>14000</v>
+        <v>12765</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>875</v>
+        <v>798</v>
       </c>
       <c r="T514" t="n">
         <v>16</v>
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E515" t="n">
         <v>5</v>
@@ -41564,16 +41564,16 @@
         </is>
       </c>
       <c r="M515" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N515" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O515" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P515" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>750</v>
+        <v>688</v>
       </c>
       <c r="T515" t="n">
         <v>16</v>
@@ -41635,7 +41635,7 @@
       </c>
       <c r="K516" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L516" t="inlineStr">
@@ -41715,7 +41715,7 @@
       </c>
       <c r="K517" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L517" t="inlineStr">
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E518" t="n">
         <v>5</v>
@@ -41795,25 +41795,25 @@
       </c>
       <c r="K518" t="inlineStr">
         <is>
-          <t>Jungermann</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L518" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M518" t="n">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="N518" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O518" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P518" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41822,11 +41822,11 @@
       </c>
       <c r="R518" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S518" t="n">
-        <v>812</v>
+        <v>875</v>
       </c>
       <c r="T518" t="n">
         <v>16</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E519" t="n">
         <v>5</v>
@@ -41875,25 +41875,25 @@
       </c>
       <c r="K519" t="inlineStr">
         <is>
-          <t>Jungermann</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L519" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M519" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N519" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O519" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P519" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41902,11 +41902,11 @@
       </c>
       <c r="R519" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S519" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T519" t="n">
         <v>16</v>
@@ -41960,20 +41960,20 @@
       </c>
       <c r="L520" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M520" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N520" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O520" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P520" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         </is>
       </c>
       <c r="S520" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T520" t="n">
         <v>16</v>
@@ -42035,16 +42035,16 @@
       </c>
       <c r="K521" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Jungermann</t>
         </is>
       </c>
       <c r="L521" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M521" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N521" t="n">
         <v>14000</v>
@@ -42062,7 +42062,7 @@
       </c>
       <c r="R521" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S521" t="n">
@@ -42115,25 +42115,25 @@
       </c>
       <c r="K522" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Jungermann</t>
         </is>
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M522" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N522" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O522" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P522" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42142,11 +42142,11 @@
       </c>
       <c r="R522" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S522" t="n">
-        <v>938</v>
+        <v>750</v>
       </c>
       <c r="T522" t="n">
         <v>16</v>
@@ -42200,20 +42200,20 @@
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M523" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N523" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O523" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P523" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T523" t="n">
         <v>16</v>
@@ -42280,20 +42280,20 @@
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M524" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N524" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O524" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P524" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T524" t="n">
         <v>16</v>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44515</v>
+        <v>44251</v>
       </c>
       <c r="E525" t="n">
         <v>5</v>
@@ -42355,7 +42355,7 @@
       </c>
       <c r="K525" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L525" t="inlineStr">
@@ -42364,7 +42364,7 @@
         </is>
       </c>
       <c r="M525" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="N525" t="n">
         <v>12000</v>
@@ -42377,7 +42377,7 @@
       </c>
       <c r="Q525" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R525" t="inlineStr">
@@ -42386,10 +42386,10 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>1200</v>
+        <v>750</v>
       </c>
       <c r="T525" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="526">
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44515</v>
+        <v>44251</v>
       </c>
       <c r="E526" t="n">
         <v>5</v>
@@ -42435,7 +42435,7 @@
       </c>
       <c r="K526" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L526" t="inlineStr">
@@ -42444,20 +42444,20 @@
         </is>
       </c>
       <c r="M526" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N526" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O526" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P526" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R526" t="inlineStr">
@@ -42466,10 +42466,10 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>800</v>
+        <v>625</v>
       </c>
       <c r="T526" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="527">
@@ -42515,7 +42515,7 @@
       </c>
       <c r="K527" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L527" t="inlineStr">
@@ -42524,32 +42524,32 @@
         </is>
       </c>
       <c r="M527" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N527" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O527" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P527" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R527" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S527" t="n">
         <v>1200</v>
       </c>
       <c r="T527" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="528">
@@ -42595,7 +42595,7 @@
       </c>
       <c r="K528" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L528" t="inlineStr">
@@ -42607,29 +42607,29 @@
         <v>60</v>
       </c>
       <c r="N528" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O528" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P528" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R528" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S528" t="n">
         <v>800</v>
       </c>
       <c r="T528" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="529">
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44181</v>
+        <v>44515</v>
       </c>
       <c r="E529" t="n">
         <v>5</v>
@@ -42675,41 +42675,41 @@
       </c>
       <c r="K529" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L529" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M529" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N529" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O529" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P529" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R529" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S529" t="n">
-        <v>750</v>
+        <v>1200</v>
       </c>
       <c r="T529" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="530">
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44181</v>
+        <v>44515</v>
       </c>
       <c r="E530" t="n">
         <v>5</v>
@@ -42755,41 +42755,41 @@
       </c>
       <c r="K530" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L530" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M530" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N530" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O530" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P530" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R530" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S530" t="n">
-        <v>625</v>
+        <v>800</v>
       </c>
       <c r="T530" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="531">
@@ -42840,20 +42840,20 @@
       </c>
       <c r="L531" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M531" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N531" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O531" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P531" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         </is>
       </c>
       <c r="S531" t="n">
-        <v>562</v>
+        <v>750</v>
       </c>
       <c r="T531" t="n">
         <v>16</v>
@@ -42915,25 +42915,25 @@
       </c>
       <c r="K532" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M532" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N532" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O532" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P532" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42946,7 +42946,7 @@
         </is>
       </c>
       <c r="S532" t="n">
-        <v>1062</v>
+        <v>625</v>
       </c>
       <c r="T532" t="n">
         <v>16</v>
@@ -42995,25 +42995,25 @@
       </c>
       <c r="K533" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M533" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N533" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O533" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P533" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>1000</v>
+        <v>562</v>
       </c>
       <c r="T533" t="n">
         <v>16</v>
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E534" t="n">
         <v>5</v>
@@ -43075,7 +43075,7 @@
       </c>
       <c r="K534" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L534" t="inlineStr">
@@ -43084,16 +43084,16 @@
         </is>
       </c>
       <c r="M534" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N534" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O534" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P534" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>750</v>
+        <v>1062</v>
       </c>
       <c r="T534" t="n">
         <v>16</v>
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E535" t="n">
         <v>5</v>
@@ -43155,7 +43155,7 @@
       </c>
       <c r="K535" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L535" t="inlineStr">
@@ -43164,16 +43164,16 @@
         </is>
       </c>
       <c r="M535" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N535" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O535" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P535" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43186,7 +43186,7 @@
         </is>
       </c>
       <c r="S535" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T535" t="n">
         <v>16</v>
@@ -43240,20 +43240,20 @@
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M536" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N536" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O536" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P536" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         </is>
       </c>
       <c r="S536" t="n">
-        <v>562</v>
+        <v>750</v>
       </c>
       <c r="T536" t="n">
         <v>16</v>
@@ -43315,25 +43315,25 @@
       </c>
       <c r="K537" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M537" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N537" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O537" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P537" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>812</v>
+        <v>625</v>
       </c>
       <c r="T537" t="n">
         <v>16</v>
@@ -43395,25 +43395,25 @@
       </c>
       <c r="K538" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L538" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M538" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N538" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O538" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P538" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         </is>
       </c>
       <c r="S538" t="n">
-        <v>750</v>
+        <v>562</v>
       </c>
       <c r="T538" t="n">
         <v>16</v>
@@ -43480,20 +43480,20 @@
       </c>
       <c r="L539" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M539" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="N539" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O539" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P539" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43506,7 +43506,7 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>625</v>
+        <v>812</v>
       </c>
       <c r="T539" t="n">
         <v>16</v>
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E540" t="n">
         <v>5</v>
@@ -43555,25 +43555,25 @@
       </c>
       <c r="K540" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L540" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M540" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N540" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O540" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P540" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43582,11 +43582,11 @@
       </c>
       <c r="R540" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S540" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T540" t="n">
         <v>16</v>
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E541" t="n">
         <v>5</v>
@@ -43635,25 +43635,25 @@
       </c>
       <c r="K541" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L541" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M541" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="N541" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O541" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P541" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
@@ -43662,11 +43662,11 @@
       </c>
       <c r="R541" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S541" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T541" t="n">
         <v>16</v>
@@ -43720,20 +43720,20 @@
       </c>
       <c r="L542" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M542" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="N542" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O542" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P542" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         </is>
       </c>
       <c r="S542" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T542" t="n">
         <v>16</v>
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44508</v>
+        <v>44271</v>
       </c>
       <c r="E543" t="n">
         <v>5</v>
@@ -43795,7 +43795,7 @@
       </c>
       <c r="K543" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L543" t="inlineStr">
@@ -43804,32 +43804,32 @@
         </is>
       </c>
       <c r="M543" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="N543" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O543" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P543" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R543" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S543" t="n">
-        <v>1400</v>
+        <v>750</v>
       </c>
       <c r="T543" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="544">
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44508</v>
+        <v>44271</v>
       </c>
       <c r="E544" t="n">
         <v>5</v>
@@ -43875,7 +43875,7 @@
       </c>
       <c r="K544" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L544" t="inlineStr">
@@ -43884,32 +43884,32 @@
         </is>
       </c>
       <c r="M544" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N544" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O544" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P544" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R544" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S544" t="n">
-        <v>1100</v>
+        <v>625</v>
       </c>
       <c r="T544" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="545">
@@ -43955,41 +43955,41 @@
       </c>
       <c r="K545" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L545" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M545" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N545" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O545" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P545" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R545" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S545" t="n">
-        <v>1333</v>
+        <v>1400</v>
       </c>
       <c r="T545" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="546">
@@ -44035,41 +44035,41 @@
       </c>
       <c r="K546" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L546" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M546" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N546" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="O546" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P546" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R546" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S546" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T546" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="547">
@@ -44120,20 +44120,20 @@
       </c>
       <c r="L547" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M547" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N547" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O547" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P547" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>933</v>
+        <v>1333</v>
       </c>
       <c r="T547" t="n">
         <v>15</v>
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E548" t="n">
         <v>5</v>
@@ -44195,41 +44195,41 @@
       </c>
       <c r="K548" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L548" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M548" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N548" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O548" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P548" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R548" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S548" t="n">
-        <v>938</v>
+        <v>1200</v>
       </c>
       <c r="T548" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="549">
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E549" t="n">
         <v>5</v>
@@ -44275,41 +44275,41 @@
       </c>
       <c r="K549" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L549" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M549" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N549" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O549" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P549" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R549" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S549" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T549" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="550">
@@ -44360,20 +44360,20 @@
       </c>
       <c r="L550" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M550" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N550" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O550" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P550" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         </is>
       </c>
       <c r="S550" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T550" t="n">
         <v>16</v>
@@ -44440,20 +44440,20 @@
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M551" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N551" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O551" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P551" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44466,7 +44466,7 @@
         </is>
       </c>
       <c r="S551" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T551" t="n">
         <v>16</v>
@@ -44515,25 +44515,25 @@
       </c>
       <c r="K552" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M552" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N552" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O552" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P552" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44542,11 +44542,11 @@
       </c>
       <c r="R552" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S552" t="n">
-        <v>812</v>
+        <v>875</v>
       </c>
       <c r="T552" t="n">
         <v>16</v>
@@ -44595,12 +44595,12 @@
       </c>
       <c r="K553" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M553" t="n">
@@ -44622,7 +44622,7 @@
       </c>
       <c r="R553" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S553" t="n">
@@ -44680,35 +44680,195 @@
       </c>
       <c r="L554" t="inlineStr">
         <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M554" t="n">
+        <v>65</v>
+      </c>
+      <c r="N554" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O554" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P554" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q554" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R554" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S554" t="n">
+        <v>812</v>
+      </c>
+      <c r="T554" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>3</v>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D555" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E555" t="n">
+        <v>5</v>
+      </c>
+      <c r="F555" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G555" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H555" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I555" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J555" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>Flavor Crest</t>
+        </is>
+      </c>
+      <c r="L555" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M555" t="n">
+        <v>67</v>
+      </c>
+      <c r="N555" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O555" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P555" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q555" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R555" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S555" t="n">
+        <v>750</v>
+      </c>
+      <c r="T555" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>3</v>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D556" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E556" t="n">
+        <v>5</v>
+      </c>
+      <c r="F556" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G556" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H556" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I556" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J556" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>Flavor Crest</t>
+        </is>
+      </c>
+      <c r="L556" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M554" t="n">
+      <c r="M556" t="n">
         <v>60</v>
       </c>
-      <c r="N554" t="n">
+      <c r="N556" t="n">
         <v>10000</v>
       </c>
-      <c r="O554" t="n">
+      <c r="O556" t="n">
         <v>10000</v>
       </c>
-      <c r="P554" t="n">
+      <c r="P556" t="n">
         <v>10000</v>
       </c>
-      <c r="Q554" t="inlineStr">
-        <is>
-          <t>$/caja 16 kilos empedrada</t>
-        </is>
-      </c>
-      <c r="R554" t="inlineStr">
+      <c r="Q556" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R556" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S554" t="n">
+      <c r="S556" t="n">
         <v>625</v>
       </c>
-      <c r="T554" t="n">
+      <c r="T556" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T556"/>
+  <dimension ref="A1:T558"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44172</v>
+        <v>44524</v>
       </c>
       <c r="E417" t="n">
         <v>5</v>
@@ -33720,36 +33720,36 @@
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M417" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N417" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O417" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P417" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R417" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S417" t="n">
-        <v>625</v>
+        <v>867</v>
       </c>
       <c r="T417" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="418">
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44172</v>
+        <v>44524</v>
       </c>
       <c r="E418" t="n">
         <v>5</v>
@@ -33800,36 +33800,36 @@
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M418" t="n">
         <v>60</v>
       </c>
       <c r="N418" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O418" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P418" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R418" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S418" t="n">
-        <v>562</v>
+        <v>733</v>
       </c>
       <c r="T418" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="419">
@@ -33880,20 +33880,20 @@
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M419" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N419" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O419" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P419" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T419" t="n">
         <v>16</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44242</v>
+        <v>44172</v>
       </c>
       <c r="E420" t="n">
         <v>5</v>
@@ -33955,25 +33955,25 @@
       </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M420" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N420" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O420" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P420" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>875</v>
+        <v>562</v>
       </c>
       <c r="T420" t="n">
         <v>16</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44242</v>
+        <v>44172</v>
       </c>
       <c r="E421" t="n">
         <v>5</v>
@@ -34035,25 +34035,25 @@
       </c>
       <c r="K421" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M421" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="N421" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O421" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P421" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T421" t="n">
         <v>16</v>
@@ -34120,20 +34120,20 @@
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M422" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="N422" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O422" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P422" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T422" t="n">
         <v>16</v>
@@ -34200,20 +34200,20 @@
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M423" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="N423" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O423" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P423" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T423" t="n">
         <v>16</v>
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E424" t="n">
         <v>5</v>
@@ -34275,25 +34275,25 @@
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M424" t="n">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="N424" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O424" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P424" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T424" t="n">
         <v>16</v>
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E425" t="n">
         <v>5</v>
@@ -34355,25 +34355,25 @@
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M425" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="N425" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="O425" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="P425" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>781</v>
+        <v>625</v>
       </c>
       <c r="T425" t="n">
         <v>16</v>
@@ -34440,20 +34440,20 @@
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M426" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N426" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O426" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P426" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
@@ -34466,7 +34466,7 @@
         </is>
       </c>
       <c r="S426" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T426" t="n">
         <v>16</v>
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E427" t="n">
         <v>5</v>
@@ -34515,25 +34515,25 @@
       </c>
       <c r="K427" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M427" t="n">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="N427" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="O427" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="P427" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>875</v>
+        <v>781</v>
       </c>
       <c r="T427" t="n">
         <v>16</v>
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E428" t="n">
         <v>5</v>
@@ -34595,25 +34595,25 @@
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M428" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N428" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O428" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P428" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>938</v>
+        <v>625</v>
       </c>
       <c r="T428" t="n">
         <v>16</v>
@@ -34680,20 +34680,20 @@
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M429" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N429" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O429" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P429" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T429" t="n">
         <v>16</v>
@@ -34760,20 +34760,20 @@
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M430" t="n">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="N430" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O430" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P430" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T430" t="n">
         <v>16</v>
@@ -34835,25 +34835,25 @@
       </c>
       <c r="K431" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M431" t="n">
         <v>75</v>
       </c>
       <c r="N431" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O431" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P431" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T431" t="n">
         <v>16</v>
@@ -34915,25 +34915,25 @@
       </c>
       <c r="K432" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M432" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N432" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O432" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P432" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T432" t="n">
         <v>16</v>
@@ -35000,20 +35000,20 @@
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M433" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="N433" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O433" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P433" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>625</v>
+        <v>812</v>
       </c>
       <c r="T433" t="n">
         <v>16</v>
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44210</v>
+        <v>44222</v>
       </c>
       <c r="E434" t="n">
         <v>5</v>
@@ -35075,25 +35075,25 @@
       </c>
       <c r="K434" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M434" t="n">
         <v>80</v>
       </c>
       <c r="N434" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O434" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P434" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
@@ -35106,7 +35106,7 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>938</v>
+        <v>750</v>
       </c>
       <c r="T434" t="n">
         <v>16</v>
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44210</v>
+        <v>44222</v>
       </c>
       <c r="E435" t="n">
         <v>5</v>
@@ -35155,25 +35155,25 @@
       </c>
       <c r="K435" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M435" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="N435" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O435" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P435" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
@@ -35186,7 +35186,7 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T435" t="n">
         <v>16</v>
@@ -35240,20 +35240,20 @@
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M436" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N436" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O436" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P436" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T436" t="n">
         <v>16</v>
@@ -35315,25 +35315,25 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M437" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N437" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O437" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P437" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
@@ -35346,7 +35346,7 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T437" t="n">
         <v>16</v>
@@ -35395,25 +35395,25 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M438" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N438" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O438" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P438" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
@@ -35426,7 +35426,7 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T438" t="n">
         <v>16</v>
@@ -35480,20 +35480,20 @@
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M439" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N439" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O439" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P439" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T439" t="n">
         <v>16</v>
@@ -35560,20 +35560,20 @@
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M440" t="n">
         <v>80</v>
       </c>
       <c r="N440" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O440" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P440" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T440" t="n">
         <v>16</v>
@@ -35635,16 +35635,16 @@
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M441" t="n">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="N441" t="n">
         <v>14000</v>
@@ -35662,7 +35662,7 @@
       </c>
       <c r="R441" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S441" t="n">
@@ -35715,16 +35715,16 @@
       </c>
       <c r="K442" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M442" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N442" t="n">
         <v>12000</v>
@@ -35742,7 +35742,7 @@
       </c>
       <c r="R442" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S442" t="n">
@@ -35800,20 +35800,20 @@
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M443" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N443" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O443" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P443" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T443" t="n">
         <v>16</v>
@@ -35875,25 +35875,25 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M444" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N444" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O444" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P444" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>938</v>
+        <v>750</v>
       </c>
       <c r="T444" t="n">
         <v>16</v>
@@ -35955,25 +35955,25 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M445" t="n">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="N445" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O445" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P445" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T445" t="n">
         <v>16</v>
@@ -36007,7 +36007,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E446" t="n">
         <v>5</v>
@@ -36035,7 +36035,7 @@
       </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L446" t="inlineStr">
@@ -36044,16 +36044,16 @@
         </is>
       </c>
       <c r="M446" t="n">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="N446" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O446" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P446" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T446" t="n">
         <v>16</v>
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E447" t="n">
         <v>5</v>
@@ -36115,25 +36115,25 @@
       </c>
       <c r="K447" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M447" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N447" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O447" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P447" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>1125</v>
+        <v>875</v>
       </c>
       <c r="T447" t="n">
         <v>16</v>
@@ -36200,20 +36200,20 @@
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M448" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N448" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O448" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P448" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T448" t="n">
         <v>16</v>
@@ -36275,25 +36275,25 @@
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M449" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="N449" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O449" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P449" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>625</v>
+        <v>1125</v>
       </c>
       <c r="T449" t="n">
         <v>16</v>
@@ -36355,25 +36355,25 @@
       </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M450" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N450" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O450" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P450" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
@@ -36386,7 +36386,7 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>562</v>
+        <v>875</v>
       </c>
       <c r="T450" t="n">
         <v>16</v>
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44284</v>
+        <v>44176</v>
       </c>
       <c r="E451" t="n">
         <v>5</v>
@@ -36435,25 +36435,25 @@
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M451" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N451" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O451" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P451" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
@@ -36466,7 +36466,7 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T451" t="n">
         <v>16</v>
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44284</v>
+        <v>44176</v>
       </c>
       <c r="E452" t="n">
         <v>5</v>
@@ -36515,25 +36515,25 @@
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M452" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N452" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O452" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P452" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36546,7 +36546,7 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>750</v>
+        <v>562</v>
       </c>
       <c r="T452" t="n">
         <v>16</v>
@@ -36600,20 +36600,20 @@
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M453" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="N453" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O453" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P453" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T453" t="n">
         <v>16</v>
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44279</v>
+        <v>44284</v>
       </c>
       <c r="E454" t="n">
         <v>5</v>
@@ -36680,20 +36680,20 @@
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M454" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="N454" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O454" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P454" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
@@ -36706,7 +36706,7 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>938</v>
+        <v>750</v>
       </c>
       <c r="T454" t="n">
         <v>16</v>
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44279</v>
+        <v>44284</v>
       </c>
       <c r="E455" t="n">
         <v>5</v>
@@ -36760,20 +36760,20 @@
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M455" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N455" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O455" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P455" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>812</v>
+        <v>625</v>
       </c>
       <c r="T455" t="n">
         <v>16</v>
@@ -36840,20 +36840,20 @@
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M456" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="N456" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O456" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P456" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         </is>
       </c>
       <c r="S456" t="n">
-        <v>688</v>
+        <v>938</v>
       </c>
       <c r="T456" t="n">
         <v>16</v>
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44504</v>
+        <v>44279</v>
       </c>
       <c r="E457" t="n">
         <v>5</v>
@@ -36915,7 +36915,7 @@
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L457" t="inlineStr">
@@ -36924,32 +36924,32 @@
         </is>
       </c>
       <c r="M457" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N457" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O457" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P457" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R457" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S457" t="n">
-        <v>1400</v>
+        <v>812</v>
       </c>
       <c r="T457" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="458">
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44504</v>
+        <v>44279</v>
       </c>
       <c r="E458" t="n">
         <v>5</v>
@@ -36995,7 +36995,7 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
@@ -37004,32 +37004,32 @@
         </is>
       </c>
       <c r="M458" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N458" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O458" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P458" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R458" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S458" t="n">
-        <v>1200</v>
+        <v>688</v>
       </c>
       <c r="T458" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="459">
@@ -37075,7 +37075,7 @@
       </c>
       <c r="K459" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L459" t="inlineStr">
@@ -37084,20 +37084,20 @@
         </is>
       </c>
       <c r="M459" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="N459" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O459" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P459" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R459" t="inlineStr">
@@ -37106,7 +37106,7 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="T459" t="n">
         <v>10</v>
@@ -37155,41 +37155,41 @@
       </c>
       <c r="K460" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M460" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N460" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O460" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P460" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R460" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S460" t="n">
-        <v>1133</v>
+        <v>1200</v>
       </c>
       <c r="T460" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="461">
@@ -37240,36 +37240,36 @@
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M461" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="N461" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O461" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P461" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos empedrada</t>
         </is>
       </c>
       <c r="R461" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S461" t="n">
-        <v>933</v>
+        <v>1300</v>
       </c>
       <c r="T461" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="462">
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44522</v>
+        <v>44504</v>
       </c>
       <c r="E462" t="n">
         <v>5</v>
@@ -37324,29 +37324,29 @@
         </is>
       </c>
       <c r="M462" t="n">
-        <v>165</v>
+        <v>68</v>
       </c>
       <c r="N462" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O462" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P462" t="n">
-        <v>14515</v>
+        <v>17000</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R462" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S462" t="n">
-        <v>968</v>
+        <v>1133</v>
       </c>
       <c r="T462" t="n">
         <v>15</v>
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44522</v>
+        <v>44504</v>
       </c>
       <c r="E463" t="n">
         <v>5</v>
@@ -37404,29 +37404,29 @@
         </is>
       </c>
       <c r="M463" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="N463" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O463" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P463" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R463" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S463" t="n">
-        <v>733</v>
+        <v>933</v>
       </c>
       <c r="T463" t="n">
         <v>15</v>
@@ -37475,7 +37475,7 @@
       </c>
       <c r="K464" t="inlineStr">
         <is>
-          <t>Gold Crest</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L464" t="inlineStr">
@@ -37484,16 +37484,16 @@
         </is>
       </c>
       <c r="M464" t="n">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="N464" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O464" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P464" t="n">
-        <v>13000</v>
+        <v>14515</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>867</v>
+        <v>968</v>
       </c>
       <c r="T464" t="n">
         <v>15</v>
@@ -37555,7 +37555,7 @@
       </c>
       <c r="K465" t="inlineStr">
         <is>
-          <t>Gold Crest</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L465" t="inlineStr">
@@ -37564,16 +37564,16 @@
         </is>
       </c>
       <c r="M465" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N465" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O465" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P465" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>533</v>
+        <v>733</v>
       </c>
       <c r="T465" t="n">
         <v>15</v>
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E466" t="n">
         <v>5</v>
@@ -37635,29 +37635,29 @@
       </c>
       <c r="K466" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Gold Crest</t>
         </is>
       </c>
       <c r="L466" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M466" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="N466" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O466" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P466" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R466" t="inlineStr">
@@ -37666,10 +37666,10 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="T466" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="467">
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E467" t="n">
         <v>5</v>
@@ -37715,29 +37715,29 @@
       </c>
       <c r="K467" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Gold Crest</t>
         </is>
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M467" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N467" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O467" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P467" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R467" t="inlineStr">
@@ -37746,10 +37746,10 @@
         </is>
       </c>
       <c r="S467" t="n">
-        <v>750</v>
+        <v>533</v>
       </c>
       <c r="T467" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="468">
@@ -37800,20 +37800,20 @@
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M468" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N468" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O468" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P468" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T468" t="n">
         <v>16</v>
@@ -37875,25 +37875,25 @@
       </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M469" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N469" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O469" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P469" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T469" t="n">
         <v>16</v>
@@ -37955,25 +37955,25 @@
       </c>
       <c r="K470" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M470" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N470" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O470" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P470" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>938</v>
+        <v>625</v>
       </c>
       <c r="T470" t="n">
         <v>16</v>
@@ -38040,20 +38040,20 @@
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M471" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N471" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O471" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P471" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T471" t="n">
         <v>16</v>
@@ -38120,20 +38120,20 @@
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M472" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N472" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O472" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P472" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         </is>
       </c>
       <c r="S472" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T472" t="n">
         <v>16</v>
@@ -38195,25 +38195,25 @@
       </c>
       <c r="K473" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M473" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N473" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O473" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P473" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38222,11 +38222,11 @@
       </c>
       <c r="R473" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S473" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T473" t="n">
         <v>16</v>
@@ -38275,25 +38275,25 @@
       </c>
       <c r="K474" t="inlineStr">
         <is>
-          <t>September Sun</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M474" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N474" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O474" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P474" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38302,11 +38302,11 @@
       </c>
       <c r="R474" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S474" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T474" t="n">
         <v>16</v>
@@ -38360,20 +38360,20 @@
       </c>
       <c r="L475" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M475" t="n">
         <v>60</v>
       </c>
       <c r="N475" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O475" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P475" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>625</v>
+        <v>812</v>
       </c>
       <c r="T475" t="n">
         <v>16</v>
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44272</v>
+        <v>44246</v>
       </c>
       <c r="E476" t="n">
         <v>5</v>
@@ -38435,25 +38435,25 @@
       </c>
       <c r="K476" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L476" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M476" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N476" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O476" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P476" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38466,7 +38466,7 @@
         </is>
       </c>
       <c r="S476" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T476" t="n">
         <v>16</v>
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44272</v>
+        <v>44246</v>
       </c>
       <c r="E477" t="n">
         <v>5</v>
@@ -38515,25 +38515,25 @@
       </c>
       <c r="K477" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>September Sun</t>
         </is>
       </c>
       <c r="L477" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M477" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="N477" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O477" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P477" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T477" t="n">
         <v>16</v>
@@ -38600,20 +38600,20 @@
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M478" t="n">
         <v>70</v>
       </c>
       <c r="N478" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O478" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P478" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T478" t="n">
         <v>16</v>
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E479" t="n">
         <v>5</v>
@@ -38675,25 +38675,25 @@
       </c>
       <c r="K479" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L479" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M479" t="n">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="N479" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="O479" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="P479" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38702,11 +38702,11 @@
       </c>
       <c r="R479" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S479" t="n">
-        <v>562</v>
+        <v>1000</v>
       </c>
       <c r="T479" t="n">
         <v>16</v>
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E480" t="n">
         <v>5</v>
@@ -38755,7 +38755,7 @@
       </c>
       <c r="K480" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L480" t="inlineStr">
@@ -38764,16 +38764,16 @@
         </is>
       </c>
       <c r="M480" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="N480" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O480" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P480" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38782,11 +38782,11 @@
       </c>
       <c r="R480" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S480" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T480" t="n">
         <v>16</v>
@@ -38840,20 +38840,20 @@
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M481" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="N481" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O481" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P481" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="T481" t="n">
         <v>16</v>
@@ -38915,25 +38915,25 @@
       </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M482" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N482" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O482" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P482" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         </is>
       </c>
       <c r="S482" t="n">
-        <v>812</v>
+        <v>500</v>
       </c>
       <c r="T482" t="n">
         <v>16</v>
@@ -38995,25 +38995,25 @@
       </c>
       <c r="K483" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M483" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="N483" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O483" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P483" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         </is>
       </c>
       <c r="S483" t="n">
-        <v>750</v>
+        <v>438</v>
       </c>
       <c r="T483" t="n">
         <v>16</v>
@@ -39080,20 +39080,20 @@
       </c>
       <c r="L484" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M484" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N484" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O484" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P484" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         </is>
       </c>
       <c r="S484" t="n">
-        <v>625</v>
+        <v>812</v>
       </c>
       <c r="T484" t="n">
         <v>16</v>
@@ -39127,7 +39127,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E485" t="n">
         <v>5</v>
@@ -39155,25 +39155,25 @@
       </c>
       <c r="K485" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L485" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M485" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N485" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O485" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P485" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39186,7 +39186,7 @@
         </is>
       </c>
       <c r="S485" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T485" t="n">
         <v>16</v>
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E486" t="n">
         <v>5</v>
@@ -39235,25 +39235,25 @@
       </c>
       <c r="K486" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M486" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="N486" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O486" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P486" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         </is>
       </c>
       <c r="S486" t="n">
-        <v>812</v>
+        <v>625</v>
       </c>
       <c r="T486" t="n">
         <v>16</v>
@@ -39320,20 +39320,20 @@
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M487" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N487" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O487" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P487" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39346,7 +39346,7 @@
         </is>
       </c>
       <c r="S487" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T487" t="n">
         <v>16</v>
@@ -39395,25 +39395,25 @@
       </c>
       <c r="K488" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L488" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M488" t="n">
         <v>70</v>
       </c>
       <c r="N488" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O488" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P488" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         </is>
       </c>
       <c r="S488" t="n">
-        <v>875</v>
+        <v>812</v>
       </c>
       <c r="T488" t="n">
         <v>16</v>
@@ -39475,25 +39475,25 @@
       </c>
       <c r="K489" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M489" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="N489" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O489" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P489" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         </is>
       </c>
       <c r="S489" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T489" t="n">
         <v>16</v>
@@ -39560,20 +39560,20 @@
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M490" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="N490" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O490" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P490" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         </is>
       </c>
       <c r="S490" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T490" t="n">
         <v>16</v>
@@ -39635,16 +39635,16 @@
       </c>
       <c r="K491" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M491" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="N491" t="n">
         <v>13000</v>
@@ -39715,16 +39715,16 @@
       </c>
       <c r="K492" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M492" t="n">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="N492" t="n">
         <v>12000</v>
@@ -39800,20 +39800,20 @@
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M493" t="n">
         <v>60</v>
       </c>
       <c r="N493" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O493" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P493" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         </is>
       </c>
       <c r="S493" t="n">
-        <v>625</v>
+        <v>812</v>
       </c>
       <c r="T493" t="n">
         <v>16</v>
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44232</v>
+        <v>44225</v>
       </c>
       <c r="E494" t="n">
         <v>5</v>
@@ -39875,25 +39875,25 @@
       </c>
       <c r="K494" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M494" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="N494" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O494" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P494" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39906,7 +39906,7 @@
         </is>
       </c>
       <c r="S494" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T494" t="n">
         <v>16</v>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44232</v>
+        <v>44225</v>
       </c>
       <c r="E495" t="n">
         <v>5</v>
@@ -39955,25 +39955,25 @@
       </c>
       <c r="K495" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L495" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M495" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N495" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O495" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P495" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39986,7 +39986,7 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T495" t="n">
         <v>16</v>
@@ -40040,20 +40040,20 @@
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M496" t="n">
         <v>80</v>
       </c>
       <c r="N496" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O496" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P496" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
@@ -40066,7 +40066,7 @@
         </is>
       </c>
       <c r="S496" t="n">
-        <v>625</v>
+        <v>812</v>
       </c>
       <c r="T496" t="n">
         <v>16</v>
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44510</v>
+        <v>44232</v>
       </c>
       <c r="E497" t="n">
         <v>5</v>
@@ -40115,7 +40115,7 @@
       </c>
       <c r="K497" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L497" t="inlineStr">
@@ -40124,7 +40124,7 @@
         </is>
       </c>
       <c r="M497" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="N497" t="n">
         <v>12000</v>
@@ -40137,7 +40137,7 @@
       </c>
       <c r="Q497" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R497" t="inlineStr">
@@ -40146,10 +40146,10 @@
         </is>
       </c>
       <c r="S497" t="n">
-        <v>1200</v>
+        <v>750</v>
       </c>
       <c r="T497" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="498">
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44510</v>
+        <v>44232</v>
       </c>
       <c r="E498" t="n">
         <v>5</v>
@@ -40195,41 +40195,41 @@
       </c>
       <c r="K498" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M498" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N498" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O498" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P498" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R498" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S498" t="n">
-        <v>1133</v>
+        <v>625</v>
       </c>
       <c r="T498" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="499">
@@ -40280,20 +40280,20 @@
       </c>
       <c r="L499" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M499" t="n">
         <v>50</v>
       </c>
       <c r="N499" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O499" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P499" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         </is>
       </c>
       <c r="S499" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T499" t="n">
         <v>10</v>
@@ -40360,20 +40360,20 @@
       </c>
       <c r="L500" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M500" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="N500" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O500" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P500" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40386,7 +40386,7 @@
         </is>
       </c>
       <c r="S500" t="n">
-        <v>867</v>
+        <v>1133</v>
       </c>
       <c r="T500" t="n">
         <v>15</v>
@@ -40407,7 +40407,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E501" t="n">
         <v>5</v>
@@ -40435,41 +40435,41 @@
       </c>
       <c r="K501" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L501" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M501" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N501" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O501" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P501" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R501" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S501" t="n">
         <v>1000</v>
       </c>
       <c r="T501" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="502">
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E502" t="n">
         <v>5</v>
@@ -40515,41 +40515,41 @@
       </c>
       <c r="K502" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M502" t="n">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="N502" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O502" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P502" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R502" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S502" t="n">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="T502" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="503">
@@ -40600,20 +40600,20 @@
       </c>
       <c r="L503" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M503" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N503" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O503" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P503" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40626,7 +40626,7 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T503" t="n">
         <v>8</v>
@@ -40675,16 +40675,16 @@
       </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M504" t="n">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="N504" t="n">
         <v>7000</v>
@@ -40755,16 +40755,16 @@
       </c>
       <c r="K505" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M505" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N505" t="n">
         <v>6000</v>
@@ -40840,20 +40840,20 @@
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M506" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N506" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O506" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P506" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         </is>
       </c>
       <c r="S506" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T506" t="n">
         <v>8</v>
@@ -40915,29 +40915,29 @@
       </c>
       <c r="K507" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M507" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="N507" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="O507" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="P507" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R507" t="inlineStr">
@@ -40946,10 +40946,10 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T507" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="508">
@@ -40995,29 +40995,29 @@
       </c>
       <c r="K508" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L508" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M508" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N508" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="O508" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="P508" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R508" t="inlineStr">
@@ -41026,10 +41026,10 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>938</v>
+        <v>625</v>
       </c>
       <c r="T508" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="509">
@@ -41080,20 +41080,20 @@
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M509" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N509" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O509" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P509" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41106,7 +41106,7 @@
         </is>
       </c>
       <c r="S509" t="n">
-        <v>812</v>
+        <v>1000</v>
       </c>
       <c r="T509" t="n">
         <v>16</v>
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E510" t="n">
         <v>5</v>
@@ -41155,7 +41155,7 @@
       </c>
       <c r="K510" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L510" t="inlineStr">
@@ -41164,32 +41164,32 @@
         </is>
       </c>
       <c r="M510" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="N510" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O510" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P510" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R510" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S510" t="n">
-        <v>1200</v>
+        <v>938</v>
       </c>
       <c r="T510" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="511">
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E511" t="n">
         <v>5</v>
@@ -41235,7 +41235,7 @@
       </c>
       <c r="K511" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L511" t="inlineStr">
@@ -41244,32 +41244,32 @@
         </is>
       </c>
       <c r="M511" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N511" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O511" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P511" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R511" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S511" t="n">
-        <v>800</v>
+        <v>812</v>
       </c>
       <c r="T511" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="512">
@@ -41315,7 +41315,7 @@
       </c>
       <c r="K512" t="inlineStr">
         <is>
-          <t>Gold Crest</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L512" t="inlineStr">
@@ -41324,7 +41324,7 @@
         </is>
       </c>
       <c r="M512" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="N512" t="n">
         <v>12000</v>
@@ -41395,7 +41395,7 @@
       </c>
       <c r="K513" t="inlineStr">
         <is>
-          <t>Gold Crest</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L513" t="inlineStr">
@@ -41407,13 +41407,13 @@
         <v>50</v>
       </c>
       <c r="N513" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O513" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P513" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T513" t="n">
         <v>10</v>
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E514" t="n">
         <v>5</v>
@@ -41475,7 +41475,7 @@
       </c>
       <c r="K514" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Gold Crest</t>
         </is>
       </c>
       <c r="L514" t="inlineStr">
@@ -41484,20 +41484,20 @@
         </is>
       </c>
       <c r="M514" t="n">
-        <v>170</v>
+        <v>67</v>
       </c>
       <c r="N514" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="O514" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P514" t="n">
-        <v>12765</v>
+        <v>12000</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R514" t="inlineStr">
@@ -41506,10 +41506,10 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>798</v>
+        <v>1200</v>
       </c>
       <c r="T514" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="515">
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E515" t="n">
         <v>5</v>
@@ -41555,7 +41555,7 @@
       </c>
       <c r="K515" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Gold Crest</t>
         </is>
       </c>
       <c r="L515" t="inlineStr">
@@ -41564,20 +41564,20 @@
         </is>
       </c>
       <c r="M515" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N515" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O515" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P515" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R515" t="inlineStr">
@@ -41586,10 +41586,10 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>688</v>
+        <v>900</v>
       </c>
       <c r="T515" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="516">
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E516" t="n">
         <v>5</v>
@@ -41644,16 +41644,16 @@
         </is>
       </c>
       <c r="M516" t="n">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="N516" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="O516" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P516" t="n">
-        <v>14000</v>
+        <v>12765</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>875</v>
+        <v>798</v>
       </c>
       <c r="T516" t="n">
         <v>16</v>
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E517" t="n">
         <v>5</v>
@@ -41724,16 +41724,16 @@
         </is>
       </c>
       <c r="M517" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N517" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O517" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P517" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>750</v>
+        <v>688</v>
       </c>
       <c r="T517" t="n">
         <v>16</v>
@@ -41795,7 +41795,7 @@
       </c>
       <c r="K518" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L518" t="inlineStr">
@@ -41875,7 +41875,7 @@
       </c>
       <c r="K519" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L519" t="inlineStr">
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E520" t="n">
         <v>5</v>
@@ -41955,25 +41955,25 @@
       </c>
       <c r="K520" t="inlineStr">
         <is>
-          <t>Jungermann</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L520" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M520" t="n">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="N520" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O520" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P520" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41982,11 +41982,11 @@
       </c>
       <c r="R520" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S520" t="n">
-        <v>812</v>
+        <v>875</v>
       </c>
       <c r="T520" t="n">
         <v>16</v>
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E521" t="n">
         <v>5</v>
@@ -42035,25 +42035,25 @@
       </c>
       <c r="K521" t="inlineStr">
         <is>
-          <t>Jungermann</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L521" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M521" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N521" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O521" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P521" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42062,11 +42062,11 @@
       </c>
       <c r="R521" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S521" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T521" t="n">
         <v>16</v>
@@ -42120,20 +42120,20 @@
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M522" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N522" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O522" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P522" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42146,7 +42146,7 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T522" t="n">
         <v>16</v>
@@ -42195,16 +42195,16 @@
       </c>
       <c r="K523" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Jungermann</t>
         </is>
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M523" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N523" t="n">
         <v>14000</v>
@@ -42222,7 +42222,7 @@
       </c>
       <c r="R523" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S523" t="n">
@@ -42275,25 +42275,25 @@
       </c>
       <c r="K524" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Jungermann</t>
         </is>
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M524" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N524" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O524" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P524" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42302,11 +42302,11 @@
       </c>
       <c r="R524" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S524" t="n">
-        <v>938</v>
+        <v>750</v>
       </c>
       <c r="T524" t="n">
         <v>16</v>
@@ -42360,20 +42360,20 @@
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M525" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N525" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O525" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P525" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T525" t="n">
         <v>16</v>
@@ -42440,20 +42440,20 @@
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M526" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N526" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O526" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P526" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T526" t="n">
         <v>16</v>
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44515</v>
+        <v>44251</v>
       </c>
       <c r="E527" t="n">
         <v>5</v>
@@ -42515,7 +42515,7 @@
       </c>
       <c r="K527" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L527" t="inlineStr">
@@ -42524,7 +42524,7 @@
         </is>
       </c>
       <c r="M527" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="N527" t="n">
         <v>12000</v>
@@ -42537,7 +42537,7 @@
       </c>
       <c r="Q527" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R527" t="inlineStr">
@@ -42546,10 +42546,10 @@
         </is>
       </c>
       <c r="S527" t="n">
-        <v>1200</v>
+        <v>750</v>
       </c>
       <c r="T527" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="528">
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44515</v>
+        <v>44251</v>
       </c>
       <c r="E528" t="n">
         <v>5</v>
@@ -42595,7 +42595,7 @@
       </c>
       <c r="K528" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L528" t="inlineStr">
@@ -42604,20 +42604,20 @@
         </is>
       </c>
       <c r="M528" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N528" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O528" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P528" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R528" t="inlineStr">
@@ -42626,10 +42626,10 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>800</v>
+        <v>625</v>
       </c>
       <c r="T528" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="529">
@@ -42675,7 +42675,7 @@
       </c>
       <c r="K529" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L529" t="inlineStr">
@@ -42684,32 +42684,32 @@
         </is>
       </c>
       <c r="M529" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N529" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O529" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P529" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R529" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S529" t="n">
         <v>1200</v>
       </c>
       <c r="T529" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="530">
@@ -42755,7 +42755,7 @@
       </c>
       <c r="K530" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L530" t="inlineStr">
@@ -42767,29 +42767,29 @@
         <v>60</v>
       </c>
       <c r="N530" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O530" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P530" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R530" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S530" t="n">
         <v>800</v>
       </c>
       <c r="T530" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="531">
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44181</v>
+        <v>44515</v>
       </c>
       <c r="E531" t="n">
         <v>5</v>
@@ -42835,41 +42835,41 @@
       </c>
       <c r="K531" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L531" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M531" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N531" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O531" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P531" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R531" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S531" t="n">
-        <v>750</v>
+        <v>1200</v>
       </c>
       <c r="T531" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="532">
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44181</v>
+        <v>44515</v>
       </c>
       <c r="E532" t="n">
         <v>5</v>
@@ -42915,41 +42915,41 @@
       </c>
       <c r="K532" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M532" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N532" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O532" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P532" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R532" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S532" t="n">
-        <v>625</v>
+        <v>800</v>
       </c>
       <c r="T532" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="533">
@@ -43000,20 +43000,20 @@
       </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M533" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N533" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O533" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P533" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>562</v>
+        <v>750</v>
       </c>
       <c r="T533" t="n">
         <v>16</v>
@@ -43075,25 +43075,25 @@
       </c>
       <c r="K534" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M534" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N534" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O534" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P534" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>1062</v>
+        <v>625</v>
       </c>
       <c r="T534" t="n">
         <v>16</v>
@@ -43155,25 +43155,25 @@
       </c>
       <c r="K535" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M535" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N535" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O535" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P535" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43186,7 +43186,7 @@
         </is>
       </c>
       <c r="S535" t="n">
-        <v>1000</v>
+        <v>562</v>
       </c>
       <c r="T535" t="n">
         <v>16</v>
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E536" t="n">
         <v>5</v>
@@ -43235,7 +43235,7 @@
       </c>
       <c r="K536" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L536" t="inlineStr">
@@ -43244,16 +43244,16 @@
         </is>
       </c>
       <c r="M536" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N536" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O536" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P536" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         </is>
       </c>
       <c r="S536" t="n">
-        <v>750</v>
+        <v>1062</v>
       </c>
       <c r="T536" t="n">
         <v>16</v>
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E537" t="n">
         <v>5</v>
@@ -43315,7 +43315,7 @@
       </c>
       <c r="K537" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L537" t="inlineStr">
@@ -43324,16 +43324,16 @@
         </is>
       </c>
       <c r="M537" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N537" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O537" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P537" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T537" t="n">
         <v>16</v>
@@ -43400,20 +43400,20 @@
       </c>
       <c r="L538" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M538" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N538" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O538" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P538" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         </is>
       </c>
       <c r="S538" t="n">
-        <v>562</v>
+        <v>750</v>
       </c>
       <c r="T538" t="n">
         <v>16</v>
@@ -43475,25 +43475,25 @@
       </c>
       <c r="K539" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L539" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M539" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N539" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O539" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P539" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43506,7 +43506,7 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>812</v>
+        <v>625</v>
       </c>
       <c r="T539" t="n">
         <v>16</v>
@@ -43555,25 +43555,25 @@
       </c>
       <c r="K540" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L540" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M540" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N540" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O540" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P540" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43586,7 +43586,7 @@
         </is>
       </c>
       <c r="S540" t="n">
-        <v>750</v>
+        <v>562</v>
       </c>
       <c r="T540" t="n">
         <v>16</v>
@@ -43640,20 +43640,20 @@
       </c>
       <c r="L541" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M541" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="N541" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O541" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P541" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
@@ -43666,7 +43666,7 @@
         </is>
       </c>
       <c r="S541" t="n">
-        <v>625</v>
+        <v>812</v>
       </c>
       <c r="T541" t="n">
         <v>16</v>
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E542" t="n">
         <v>5</v>
@@ -43715,25 +43715,25 @@
       </c>
       <c r="K542" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L542" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M542" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N542" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O542" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P542" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43742,11 +43742,11 @@
       </c>
       <c r="R542" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S542" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T542" t="n">
         <v>16</v>
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E543" t="n">
         <v>5</v>
@@ -43795,25 +43795,25 @@
       </c>
       <c r="K543" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L543" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M543" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="N543" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O543" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P543" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43822,11 +43822,11 @@
       </c>
       <c r="R543" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S543" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T543" t="n">
         <v>16</v>
@@ -43880,20 +43880,20 @@
       </c>
       <c r="L544" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M544" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="N544" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O544" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P544" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T544" t="n">
         <v>16</v>
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44508</v>
+        <v>44271</v>
       </c>
       <c r="E545" t="n">
         <v>5</v>
@@ -43955,7 +43955,7 @@
       </c>
       <c r="K545" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L545" t="inlineStr">
@@ -43964,32 +43964,32 @@
         </is>
       </c>
       <c r="M545" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="N545" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O545" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P545" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R545" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S545" t="n">
-        <v>1400</v>
+        <v>750</v>
       </c>
       <c r="T545" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="546">
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44508</v>
+        <v>44271</v>
       </c>
       <c r="E546" t="n">
         <v>5</v>
@@ -44035,7 +44035,7 @@
       </c>
       <c r="K546" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L546" t="inlineStr">
@@ -44044,32 +44044,32 @@
         </is>
       </c>
       <c r="M546" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N546" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O546" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P546" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R546" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S546" t="n">
-        <v>1100</v>
+        <v>625</v>
       </c>
       <c r="T546" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="547">
@@ -44115,41 +44115,41 @@
       </c>
       <c r="K547" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L547" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M547" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N547" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O547" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P547" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R547" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S547" t="n">
-        <v>1333</v>
+        <v>1400</v>
       </c>
       <c r="T547" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="548">
@@ -44195,41 +44195,41 @@
       </c>
       <c r="K548" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L548" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M548" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N548" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="O548" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P548" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R548" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S548" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="T548" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="549">
@@ -44280,20 +44280,20 @@
       </c>
       <c r="L549" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M549" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N549" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O549" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P549" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>933</v>
+        <v>1333</v>
       </c>
       <c r="T549" t="n">
         <v>15</v>
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E550" t="n">
         <v>5</v>
@@ -44355,41 +44355,41 @@
       </c>
       <c r="K550" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L550" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M550" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N550" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O550" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P550" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R550" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S550" t="n">
-        <v>938</v>
+        <v>1200</v>
       </c>
       <c r="T550" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="551">
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E551" t="n">
         <v>5</v>
@@ -44435,41 +44435,41 @@
       </c>
       <c r="K551" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M551" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N551" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O551" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P551" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R551" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S551" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T551" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="552">
@@ -44520,20 +44520,20 @@
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M552" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N552" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O552" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P552" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T552" t="n">
         <v>16</v>
@@ -44600,20 +44600,20 @@
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M553" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N553" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O553" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P553" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         </is>
       </c>
       <c r="S553" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T553" t="n">
         <v>16</v>
@@ -44675,25 +44675,25 @@
       </c>
       <c r="K554" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M554" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N554" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O554" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P554" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44702,11 +44702,11 @@
       </c>
       <c r="R554" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S554" t="n">
-        <v>812</v>
+        <v>875</v>
       </c>
       <c r="T554" t="n">
         <v>16</v>
@@ -44755,12 +44755,12 @@
       </c>
       <c r="K555" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L555" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M555" t="n">
@@ -44782,7 +44782,7 @@
       </c>
       <c r="R555" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S555" t="n">
@@ -44840,35 +44840,195 @@
       </c>
       <c r="L556" t="inlineStr">
         <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M556" t="n">
+        <v>65</v>
+      </c>
+      <c r="N556" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O556" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P556" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q556" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R556" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S556" t="n">
+        <v>812</v>
+      </c>
+      <c r="T556" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>3</v>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D557" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E557" t="n">
+        <v>5</v>
+      </c>
+      <c r="F557" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G557" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H557" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I557" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J557" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>Flavor Crest</t>
+        </is>
+      </c>
+      <c r="L557" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M557" t="n">
+        <v>67</v>
+      </c>
+      <c r="N557" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O557" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P557" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q557" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R557" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S557" t="n">
+        <v>750</v>
+      </c>
+      <c r="T557" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>3</v>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D558" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E558" t="n">
+        <v>5</v>
+      </c>
+      <c r="F558" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G558" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H558" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I558" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J558" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>Flavor Crest</t>
+        </is>
+      </c>
+      <c r="L558" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M556" t="n">
+      <c r="M558" t="n">
         <v>60</v>
       </c>
-      <c r="N556" t="n">
+      <c r="N558" t="n">
         <v>10000</v>
       </c>
-      <c r="O556" t="n">
+      <c r="O558" t="n">
         <v>10000</v>
       </c>
-      <c r="P556" t="n">
+      <c r="P558" t="n">
         <v>10000</v>
       </c>
-      <c r="Q556" t="inlineStr">
-        <is>
-          <t>$/caja 16 kilos empedrada</t>
-        </is>
-      </c>
-      <c r="R556" t="inlineStr">
+      <c r="Q558" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R558" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S556" t="n">
+      <c r="S558" t="n">
         <v>625</v>
       </c>
-      <c r="T556" t="n">
+      <c r="T558" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T606"/>
+  <dimension ref="A1:T609"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44278</v>
+        <v>44543</v>
       </c>
       <c r="E487" t="n">
         <v>5</v>
@@ -39315,7 +39315,7 @@
       </c>
       <c r="K487" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L487" t="inlineStr">
@@ -39324,32 +39324,32 @@
         </is>
       </c>
       <c r="M487" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="N487" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O487" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P487" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R487" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S487" t="n">
-        <v>938</v>
+        <v>1133</v>
       </c>
       <c r="T487" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="488">
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44278</v>
+        <v>44543</v>
       </c>
       <c r="E488" t="n">
         <v>5</v>
@@ -39395,7 +39395,7 @@
       </c>
       <c r="K488" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L488" t="inlineStr">
@@ -39404,32 +39404,32 @@
         </is>
       </c>
       <c r="M488" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N488" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O488" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P488" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R488" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S488" t="n">
-        <v>812</v>
+        <v>1000</v>
       </c>
       <c r="T488" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="489">
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44281</v>
+        <v>44543</v>
       </c>
       <c r="E489" t="n">
         <v>5</v>
@@ -39475,41 +39475,41 @@
       </c>
       <c r="K489" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M489" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N489" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O489" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P489" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R489" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S489" t="n">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="T489" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="490">
@@ -39527,7 +39527,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44281</v>
+        <v>44278</v>
       </c>
       <c r="E490" t="n">
         <v>5</v>
@@ -39555,25 +39555,25 @@
       </c>
       <c r="K490" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M490" t="n">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="N490" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O490" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P490" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         </is>
       </c>
       <c r="S490" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T490" t="n">
         <v>16</v>
@@ -39607,7 +39607,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44281</v>
+        <v>44278</v>
       </c>
       <c r="E491" t="n">
         <v>5</v>
@@ -39635,7 +39635,7 @@
       </c>
       <c r="K491" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L491" t="inlineStr">
@@ -39644,16 +39644,16 @@
         </is>
       </c>
       <c r="M491" t="n">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="N491" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O491" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P491" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39666,7 +39666,7 @@
         </is>
       </c>
       <c r="S491" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T491" t="n">
         <v>16</v>
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44187</v>
+        <v>44281</v>
       </c>
       <c r="E492" t="n">
         <v>5</v>
@@ -39715,7 +39715,7 @@
       </c>
       <c r="K492" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L492" t="inlineStr">
@@ -39727,13 +39727,13 @@
         <v>70</v>
       </c>
       <c r="N492" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O492" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P492" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39742,11 +39742,11 @@
       </c>
       <c r="R492" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S492" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T492" t="n">
         <v>16</v>
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44187</v>
+        <v>44281</v>
       </c>
       <c r="E493" t="n">
         <v>5</v>
@@ -39795,25 +39795,25 @@
       </c>
       <c r="K493" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M493" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="N493" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O493" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P493" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39822,11 +39822,11 @@
       </c>
       <c r="R493" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S493" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T493" t="n">
         <v>16</v>
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44187</v>
+        <v>44281</v>
       </c>
       <c r="E494" t="n">
         <v>5</v>
@@ -39875,25 +39875,25 @@
       </c>
       <c r="K494" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M494" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="N494" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O494" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P494" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39902,11 +39902,11 @@
       </c>
       <c r="R494" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S494" t="n">
-        <v>562</v>
+        <v>750</v>
       </c>
       <c r="T494" t="n">
         <v>16</v>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44529</v>
+        <v>44187</v>
       </c>
       <c r="E495" t="n">
         <v>5</v>
@@ -39955,7 +39955,7 @@
       </c>
       <c r="K495" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L495" t="inlineStr">
@@ -39964,20 +39964,20 @@
         </is>
       </c>
       <c r="M495" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="N495" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O495" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P495" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R495" t="inlineStr">
@@ -39986,10 +39986,10 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>1083</v>
+        <v>750</v>
       </c>
       <c r="T495" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="496">
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44529</v>
+        <v>44187</v>
       </c>
       <c r="E496" t="n">
         <v>5</v>
@@ -40035,7 +40035,7 @@
       </c>
       <c r="K496" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L496" t="inlineStr">
@@ -40044,20 +40044,20 @@
         </is>
       </c>
       <c r="M496" t="n">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="N496" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O496" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P496" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R496" t="inlineStr">
@@ -40066,10 +40066,10 @@
         </is>
       </c>
       <c r="S496" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T496" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="497">
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44529</v>
+        <v>44187</v>
       </c>
       <c r="E497" t="n">
         <v>5</v>
@@ -40115,7 +40115,7 @@
       </c>
       <c r="K497" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L497" t="inlineStr">
@@ -40124,20 +40124,20 @@
         </is>
       </c>
       <c r="M497" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N497" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O497" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P497" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R497" t="inlineStr">
@@ -40146,10 +40146,10 @@
         </is>
       </c>
       <c r="S497" t="n">
-        <v>833</v>
+        <v>562</v>
       </c>
       <c r="T497" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="498">
@@ -40195,7 +40195,7 @@
       </c>
       <c r="K498" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L498" t="inlineStr">
@@ -40207,17 +40207,17 @@
         <v>56</v>
       </c>
       <c r="N498" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O498" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P498" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R498" t="inlineStr">
@@ -40226,10 +40226,10 @@
         </is>
       </c>
       <c r="S498" t="n">
-        <v>933</v>
+        <v>1083</v>
       </c>
       <c r="T498" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="499">
@@ -40275,7 +40275,7 @@
       </c>
       <c r="K499" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L499" t="inlineStr">
@@ -40297,7 +40297,7 @@
       </c>
       <c r="Q499" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R499" t="inlineStr">
@@ -40306,10 +40306,10 @@
         </is>
       </c>
       <c r="S499" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T499" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="500">
@@ -40355,7 +40355,7 @@
       </c>
       <c r="K500" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L500" t="inlineStr">
@@ -40377,7 +40377,7 @@
       </c>
       <c r="Q500" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R500" t="inlineStr">
@@ -40386,10 +40386,10 @@
         </is>
       </c>
       <c r="S500" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="T500" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="501">
@@ -40435,7 +40435,7 @@
       </c>
       <c r="K501" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L501" t="inlineStr">
@@ -40444,20 +40444,20 @@
         </is>
       </c>
       <c r="M501" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="N501" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O501" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P501" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R501" t="inlineStr">
@@ -40466,10 +40466,10 @@
         </is>
       </c>
       <c r="S501" t="n">
-        <v>1333</v>
+        <v>933</v>
       </c>
       <c r="T501" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="502">
@@ -40515,7 +40515,7 @@
       </c>
       <c r="K502" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L502" t="inlineStr">
@@ -40524,20 +40524,20 @@
         </is>
       </c>
       <c r="M502" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="N502" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O502" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P502" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R502" t="inlineStr">
@@ -40546,10 +40546,10 @@
         </is>
       </c>
       <c r="S502" t="n">
-        <v>1167</v>
+        <v>800</v>
       </c>
       <c r="T502" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="503">
@@ -40595,7 +40595,7 @@
       </c>
       <c r="K503" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L503" t="inlineStr">
@@ -40607,17 +40607,17 @@
         <v>60</v>
       </c>
       <c r="N503" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O503" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P503" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R503" t="inlineStr">
@@ -40626,10 +40626,10 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T503" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="504">
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44238</v>
+        <v>44529</v>
       </c>
       <c r="E504" t="n">
         <v>5</v>
@@ -40675,29 +40675,29 @@
       </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M504" t="n">
-        <v>170</v>
+        <v>68</v>
       </c>
       <c r="N504" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="O504" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P504" t="n">
-        <v>12765</v>
+        <v>16000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R504" t="inlineStr">
@@ -40706,10 +40706,10 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>798</v>
+        <v>1333</v>
       </c>
       <c r="T504" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="505">
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44238</v>
+        <v>44529</v>
       </c>
       <c r="E505" t="n">
         <v>5</v>
@@ -40755,29 +40755,29 @@
       </c>
       <c r="K505" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M505" t="n">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="N505" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O505" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P505" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R505" t="inlineStr">
@@ -40786,10 +40786,10 @@
         </is>
       </c>
       <c r="S505" t="n">
-        <v>688</v>
+        <v>1167</v>
       </c>
       <c r="T505" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="506">
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44257</v>
+        <v>44529</v>
       </c>
       <c r="E506" t="n">
         <v>5</v>
@@ -40835,41 +40835,41 @@
       </c>
       <c r="K506" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M506" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="N506" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O506" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P506" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R506" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S506" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T506" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="507">
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E507" t="n">
         <v>5</v>
@@ -40915,25 +40915,25 @@
       </c>
       <c r="K507" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M507" t="n">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="N507" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="O507" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P507" t="n">
-        <v>16000</v>
+        <v>12765</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40942,11 +40942,11 @@
       </c>
       <c r="R507" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S507" t="n">
-        <v>1000</v>
+        <v>798</v>
       </c>
       <c r="T507" t="n">
         <v>16</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E508" t="n">
         <v>5</v>
@@ -40995,25 +40995,25 @@
       </c>
       <c r="K508" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L508" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M508" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N508" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O508" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P508" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41022,11 +41022,11 @@
       </c>
       <c r="R508" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S508" t="n">
-        <v>750</v>
+        <v>688</v>
       </c>
       <c r="T508" t="n">
         <v>16</v>
@@ -41080,20 +41080,20 @@
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M509" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="N509" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O509" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P509" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41106,7 +41106,7 @@
         </is>
       </c>
       <c r="S509" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T509" t="n">
         <v>16</v>
@@ -41155,25 +41155,25 @@
       </c>
       <c r="K510" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M510" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N510" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O510" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P510" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         </is>
       </c>
       <c r="S510" t="n">
-        <v>812</v>
+        <v>1000</v>
       </c>
       <c r="T510" t="n">
         <v>16</v>
@@ -41235,7 +41235,7 @@
       </c>
       <c r="K511" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L511" t="inlineStr">
@@ -41244,7 +41244,7 @@
         </is>
       </c>
       <c r="M511" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N511" t="n">
         <v>12000</v>
@@ -41315,7 +41315,7 @@
       </c>
       <c r="K512" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L512" t="inlineStr">
@@ -41324,7 +41324,7 @@
         </is>
       </c>
       <c r="M512" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="N512" t="n">
         <v>10000</v>
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E513" t="n">
         <v>5</v>
@@ -41395,7 +41395,7 @@
       </c>
       <c r="K513" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L513" t="inlineStr">
@@ -41404,16 +41404,16 @@
         </is>
       </c>
       <c r="M513" t="n">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="N513" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O513" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P513" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>1000</v>
+        <v>812</v>
       </c>
       <c r="T513" t="n">
         <v>16</v>
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E514" t="n">
         <v>5</v>
@@ -41475,25 +41475,25 @@
       </c>
       <c r="K514" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M514" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N514" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O514" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P514" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>1125</v>
+        <v>750</v>
       </c>
       <c r="T514" t="n">
         <v>16</v>
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E515" t="n">
         <v>5</v>
@@ -41555,25 +41555,25 @@
       </c>
       <c r="K515" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M515" t="n">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="N515" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O515" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P515" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T515" t="n">
         <v>16</v>
@@ -41640,20 +41640,20 @@
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M516" t="n">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="N516" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O516" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P516" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T516" t="n">
         <v>16</v>
@@ -41715,25 +41715,25 @@
       </c>
       <c r="K517" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L517" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M517" t="n">
         <v>85</v>
       </c>
       <c r="N517" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O517" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P517" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>750</v>
+        <v>1125</v>
       </c>
       <c r="T517" t="n">
         <v>16</v>
@@ -41795,7 +41795,7 @@
       </c>
       <c r="K518" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L518" t="inlineStr">
@@ -41804,16 +41804,16 @@
         </is>
       </c>
       <c r="M518" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="N518" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O518" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P518" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T518" t="n">
         <v>16</v>
@@ -41875,7 +41875,7 @@
       </c>
       <c r="K519" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L519" t="inlineStr">
@@ -41884,16 +41884,16 @@
         </is>
       </c>
       <c r="M519" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N519" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O519" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P519" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>562</v>
+        <v>750</v>
       </c>
       <c r="T519" t="n">
         <v>16</v>
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E520" t="n">
         <v>5</v>
@@ -41955,7 +41955,7 @@
       </c>
       <c r="K520" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L520" t="inlineStr">
@@ -41964,16 +41964,16 @@
         </is>
       </c>
       <c r="M520" t="n">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="N520" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O520" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P520" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41982,11 +41982,11 @@
       </c>
       <c r="R520" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S520" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T520" t="n">
         <v>16</v>
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E521" t="n">
         <v>5</v>
@@ -42035,7 +42035,7 @@
       </c>
       <c r="K521" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L521" t="inlineStr">
@@ -42044,16 +42044,16 @@
         </is>
       </c>
       <c r="M521" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="N521" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O521" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P521" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42062,11 +42062,11 @@
       </c>
       <c r="R521" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S521" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T521" t="n">
         <v>16</v>
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E522" t="n">
         <v>5</v>
@@ -42115,7 +42115,7 @@
       </c>
       <c r="K522" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L522" t="inlineStr">
@@ -42124,16 +42124,16 @@
         </is>
       </c>
       <c r="M522" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N522" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O522" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P522" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42142,11 +42142,11 @@
       </c>
       <c r="R522" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S522" t="n">
-        <v>625</v>
+        <v>562</v>
       </c>
       <c r="T522" t="n">
         <v>16</v>
@@ -42195,7 +42195,7 @@
       </c>
       <c r="K523" t="inlineStr">
         <is>
-          <t>Jrb</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L523" t="inlineStr">
@@ -42204,16 +42204,16 @@
         </is>
       </c>
       <c r="M523" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="N523" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O523" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P523" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>875</v>
+        <v>812</v>
       </c>
       <c r="T523" t="n">
         <v>16</v>
@@ -42275,25 +42275,25 @@
       </c>
       <c r="K524" t="inlineStr">
         <is>
-          <t>Jrb</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M524" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N524" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O524" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P524" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>938</v>
+        <v>750</v>
       </c>
       <c r="T524" t="n">
         <v>16</v>
@@ -42355,25 +42355,25 @@
       </c>
       <c r="K525" t="inlineStr">
         <is>
-          <t>Jrb</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M525" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="N525" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O525" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P525" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>812</v>
+        <v>625</v>
       </c>
       <c r="T525" t="n">
         <v>16</v>
@@ -42440,20 +42440,20 @@
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M526" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N526" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O526" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P526" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T526" t="n">
         <v>16</v>
@@ -42515,25 +42515,25 @@
       </c>
       <c r="K527" t="inlineStr">
         <is>
-          <t>Manon</t>
+          <t>Jrb</t>
         </is>
       </c>
       <c r="L527" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M527" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N527" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O527" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P527" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
@@ -42542,11 +42542,11 @@
       </c>
       <c r="R527" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S527" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T527" t="n">
         <v>16</v>
@@ -42595,7 +42595,7 @@
       </c>
       <c r="K528" t="inlineStr">
         <is>
-          <t>Manon</t>
+          <t>Jrb</t>
         </is>
       </c>
       <c r="L528" t="inlineStr">
@@ -42604,7 +42604,7 @@
         </is>
       </c>
       <c r="M528" t="n">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="N528" t="n">
         <v>13000</v>
@@ -42622,7 +42622,7 @@
       </c>
       <c r="R528" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S528" t="n">
@@ -42675,7 +42675,7 @@
       </c>
       <c r="K529" t="inlineStr">
         <is>
-          <t>Manon</t>
+          <t>Jrb</t>
         </is>
       </c>
       <c r="L529" t="inlineStr">
@@ -42684,7 +42684,7 @@
         </is>
       </c>
       <c r="M529" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N529" t="n">
         <v>12000</v>
@@ -42702,7 +42702,7 @@
       </c>
       <c r="R529" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S529" t="n">
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E530" t="n">
         <v>5</v>
@@ -42755,7 +42755,7 @@
       </c>
       <c r="K530" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Manon</t>
         </is>
       </c>
       <c r="L530" t="inlineStr">
@@ -42764,16 +42764,16 @@
         </is>
       </c>
       <c r="M530" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N530" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O530" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P530" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42782,11 +42782,11 @@
       </c>
       <c r="R530" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S530" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T530" t="n">
         <v>16</v>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E531" t="n">
         <v>5</v>
@@ -42835,7 +42835,7 @@
       </c>
       <c r="K531" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Manon</t>
         </is>
       </c>
       <c r="L531" t="inlineStr">
@@ -42844,16 +42844,16 @@
         </is>
       </c>
       <c r="M531" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="N531" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O531" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P531" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42862,11 +42862,11 @@
       </c>
       <c r="R531" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S531" t="n">
-        <v>875</v>
+        <v>812</v>
       </c>
       <c r="T531" t="n">
         <v>16</v>
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E532" t="n">
         <v>5</v>
@@ -42915,7 +42915,7 @@
       </c>
       <c r="K532" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Manon</t>
         </is>
       </c>
       <c r="L532" t="inlineStr">
@@ -42924,7 +42924,7 @@
         </is>
       </c>
       <c r="M532" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N532" t="n">
         <v>12000</v>
@@ -42942,7 +42942,7 @@
       </c>
       <c r="R532" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S532" t="n">
@@ -42995,7 +42995,7 @@
       </c>
       <c r="K533" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L533" t="inlineStr">
@@ -43004,16 +43004,16 @@
         </is>
       </c>
       <c r="M533" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N533" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O533" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P533" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T533" t="n">
         <v>16</v>
@@ -43075,7 +43075,7 @@
       </c>
       <c r="K534" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L534" t="inlineStr">
@@ -43084,16 +43084,16 @@
         </is>
       </c>
       <c r="M534" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N534" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O534" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P534" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T534" t="n">
         <v>16</v>
@@ -43155,7 +43155,7 @@
       </c>
       <c r="K535" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L535" t="inlineStr">
@@ -43164,16 +43164,16 @@
         </is>
       </c>
       <c r="M535" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="N535" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O535" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P535" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43186,7 +43186,7 @@
         </is>
       </c>
       <c r="S535" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T535" t="n">
         <v>16</v>
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E536" t="n">
         <v>5</v>
@@ -43235,7 +43235,7 @@
       </c>
       <c r="K536" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L536" t="inlineStr">
@@ -43244,16 +43244,16 @@
         </is>
       </c>
       <c r="M536" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N536" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O536" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P536" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43262,11 +43262,11 @@
       </c>
       <c r="R536" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S536" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T536" t="n">
         <v>16</v>
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E537" t="n">
         <v>5</v>
@@ -43315,7 +43315,7 @@
       </c>
       <c r="K537" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L537" t="inlineStr">
@@ -43324,16 +43324,16 @@
         </is>
       </c>
       <c r="M537" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="N537" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O537" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P537" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43342,11 +43342,11 @@
       </c>
       <c r="R537" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S537" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T537" t="n">
         <v>16</v>
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E538" t="n">
         <v>5</v>
@@ -43395,7 +43395,7 @@
       </c>
       <c r="K538" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L538" t="inlineStr">
@@ -43404,16 +43404,16 @@
         </is>
       </c>
       <c r="M538" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="N538" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O538" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P538" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43422,11 +43422,11 @@
       </c>
       <c r="R538" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S538" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="T538" t="n">
         <v>16</v>
@@ -43475,7 +43475,7 @@
       </c>
       <c r="K539" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L539" t="inlineStr">
@@ -43487,13 +43487,13 @@
         <v>65</v>
       </c>
       <c r="N539" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O539" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P539" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43502,11 +43502,11 @@
       </c>
       <c r="R539" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S539" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T539" t="n">
         <v>16</v>
@@ -43555,7 +43555,7 @@
       </c>
       <c r="K540" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L540" t="inlineStr">
@@ -43564,16 +43564,16 @@
         </is>
       </c>
       <c r="M540" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N540" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O540" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P540" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43582,11 +43582,11 @@
       </c>
       <c r="R540" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S540" t="n">
-        <v>812</v>
+        <v>625</v>
       </c>
       <c r="T540" t="n">
         <v>16</v>
@@ -43635,7 +43635,7 @@
       </c>
       <c r="K541" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L541" t="inlineStr">
@@ -43644,16 +43644,16 @@
         </is>
       </c>
       <c r="M541" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="N541" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O541" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P541" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
@@ -43662,11 +43662,11 @@
       </c>
       <c r="R541" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S541" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="T541" t="n">
         <v>16</v>
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E542" t="n">
         <v>5</v>
@@ -43715,7 +43715,7 @@
       </c>
       <c r="K542" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L542" t="inlineStr">
@@ -43724,7 +43724,7 @@
         </is>
       </c>
       <c r="M542" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N542" t="n">
         <v>14000</v>
@@ -43742,7 +43742,7 @@
       </c>
       <c r="R542" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S542" t="n">
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E543" t="n">
         <v>5</v>
@@ -43795,25 +43795,25 @@
       </c>
       <c r="K543" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L543" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M543" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N543" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O543" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P543" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43822,11 +43822,11 @@
       </c>
       <c r="R543" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S543" t="n">
-        <v>1000</v>
+        <v>812</v>
       </c>
       <c r="T543" t="n">
         <v>16</v>
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E544" t="n">
         <v>5</v>
@@ -43875,16 +43875,16 @@
       </c>
       <c r="K544" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L544" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M544" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="N544" t="n">
         <v>12000</v>
@@ -43902,7 +43902,7 @@
       </c>
       <c r="R544" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S544" t="n">
@@ -43960,20 +43960,20 @@
       </c>
       <c r="L545" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M545" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N545" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O545" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P545" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T545" t="n">
         <v>16</v>
@@ -44035,25 +44035,25 @@
       </c>
       <c r="K546" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L546" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M546" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N546" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O546" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P546" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         </is>
       </c>
       <c r="S546" t="n">
-        <v>812</v>
+        <v>1000</v>
       </c>
       <c r="T546" t="n">
         <v>16</v>
@@ -44115,7 +44115,7 @@
       </c>
       <c r="K547" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L547" t="inlineStr">
@@ -44195,7 +44195,7 @@
       </c>
       <c r="K548" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L548" t="inlineStr">
@@ -44204,7 +44204,7 @@
         </is>
       </c>
       <c r="M548" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="N548" t="n">
         <v>10000</v>
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E549" t="n">
         <v>5</v>
@@ -44275,7 +44275,7 @@
       </c>
       <c r="K549" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L549" t="inlineStr">
@@ -44284,16 +44284,16 @@
         </is>
       </c>
       <c r="M549" t="n">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="N549" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O549" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P549" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44302,11 +44302,11 @@
       </c>
       <c r="R549" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S549" t="n">
-        <v>875</v>
+        <v>812</v>
       </c>
       <c r="T549" t="n">
         <v>16</v>
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E550" t="n">
         <v>5</v>
@@ -44355,25 +44355,25 @@
       </c>
       <c r="K550" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L550" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M550" t="n">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="N550" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O550" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P550" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44382,11 +44382,11 @@
       </c>
       <c r="R550" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S550" t="n">
-        <v>938</v>
+        <v>750</v>
       </c>
       <c r="T550" t="n">
         <v>16</v>
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E551" t="n">
         <v>5</v>
@@ -44435,25 +44435,25 @@
       </c>
       <c r="K551" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M551" t="n">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="N551" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O551" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P551" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44462,11 +44462,11 @@
       </c>
       <c r="R551" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S551" t="n">
-        <v>812</v>
+        <v>625</v>
       </c>
       <c r="T551" t="n">
         <v>16</v>
@@ -44520,20 +44520,20 @@
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M552" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="N552" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O552" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P552" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T552" t="n">
         <v>16</v>
@@ -44595,25 +44595,25 @@
       </c>
       <c r="K553" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M553" t="n">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="N553" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O553" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P553" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         </is>
       </c>
       <c r="S553" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T553" t="n">
         <v>16</v>
@@ -44675,7 +44675,7 @@
       </c>
       <c r="K554" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L554" t="inlineStr">
@@ -44684,7 +44684,7 @@
         </is>
       </c>
       <c r="M554" t="n">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="N554" t="n">
         <v>13000</v>
@@ -44755,7 +44755,7 @@
       </c>
       <c r="K555" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L555" t="inlineStr">
@@ -44764,7 +44764,7 @@
         </is>
       </c>
       <c r="M555" t="n">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="N555" t="n">
         <v>12000</v>
@@ -44835,7 +44835,7 @@
       </c>
       <c r="K556" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L556" t="inlineStr">
@@ -44844,7 +44844,7 @@
         </is>
       </c>
       <c r="M556" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N556" t="n">
         <v>14000</v>
@@ -44915,25 +44915,25 @@
       </c>
       <c r="K557" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L557" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M557" t="n">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="N557" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O557" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P557" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
@@ -44946,7 +44946,7 @@
         </is>
       </c>
       <c r="S557" t="n">
-        <v>938</v>
+        <v>812</v>
       </c>
       <c r="T557" t="n">
         <v>16</v>
@@ -44995,25 +44995,25 @@
       </c>
       <c r="K558" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L558" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M558" t="n">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="N558" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O558" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P558" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         </is>
       </c>
       <c r="S558" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T558" t="n">
         <v>16</v>
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44270</v>
+        <v>44224</v>
       </c>
       <c r="E559" t="n">
         <v>5</v>
@@ -45075,7 +45075,7 @@
       </c>
       <c r="K559" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L559" t="inlineStr">
@@ -45084,7 +45084,7 @@
         </is>
       </c>
       <c r="M559" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N559" t="n">
         <v>14000</v>
@@ -45102,7 +45102,7 @@
       </c>
       <c r="R559" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S559" t="n">
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44270</v>
+        <v>44224</v>
       </c>
       <c r="E560" t="n">
         <v>5</v>
@@ -45155,7 +45155,7 @@
       </c>
       <c r="K560" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L560" t="inlineStr">
@@ -45164,16 +45164,16 @@
         </is>
       </c>
       <c r="M560" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N560" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O560" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P560" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45182,11 +45182,11 @@
       </c>
       <c r="R560" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S560" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T560" t="n">
         <v>16</v>
@@ -45207,7 +45207,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44270</v>
+        <v>44224</v>
       </c>
       <c r="E561" t="n">
         <v>5</v>
@@ -45235,7 +45235,7 @@
       </c>
       <c r="K561" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L561" t="inlineStr">
@@ -45244,16 +45244,16 @@
         </is>
       </c>
       <c r="M561" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N561" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O561" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P561" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45262,11 +45262,11 @@
       </c>
       <c r="R561" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S561" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T561" t="n">
         <v>16</v>
@@ -45320,20 +45320,20 @@
       </c>
       <c r="L562" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M562" t="n">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="N562" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O562" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P562" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45346,7 +45346,7 @@
         </is>
       </c>
       <c r="S562" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T562" t="n">
         <v>16</v>
@@ -45395,25 +45395,25 @@
       </c>
       <c r="K563" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L563" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M563" t="n">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="N563" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O563" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P563" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         </is>
       </c>
       <c r="S563" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T563" t="n">
         <v>16</v>
@@ -45475,25 +45475,25 @@
       </c>
       <c r="K564" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M564" t="n">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="N564" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O564" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P564" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         </is>
       </c>
       <c r="S564" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T564" t="n">
         <v>16</v>
@@ -45555,25 +45555,25 @@
       </c>
       <c r="K565" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L565" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M565" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N565" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O565" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P565" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45586,7 +45586,7 @@
         </is>
       </c>
       <c r="S565" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T565" t="n">
         <v>16</v>
@@ -45607,7 +45607,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E566" t="n">
         <v>5</v>
@@ -45635,7 +45635,7 @@
       </c>
       <c r="K566" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L566" t="inlineStr">
@@ -45647,13 +45647,13 @@
         <v>68</v>
       </c>
       <c r="N566" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O566" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P566" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45666,7 +45666,7 @@
         </is>
       </c>
       <c r="S566" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T566" t="n">
         <v>16</v>
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E567" t="n">
         <v>5</v>
@@ -45715,25 +45715,25 @@
       </c>
       <c r="K567" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L567" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M567" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="N567" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O567" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P567" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         </is>
       </c>
       <c r="S567" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T567" t="n">
         <v>16</v>
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E568" t="n">
         <v>5</v>
@@ -45795,25 +45795,25 @@
       </c>
       <c r="K568" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L568" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M568" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N568" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O568" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P568" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45826,7 +45826,7 @@
         </is>
       </c>
       <c r="S568" t="n">
-        <v>562</v>
+        <v>750</v>
       </c>
       <c r="T568" t="n">
         <v>16</v>
@@ -45875,7 +45875,7 @@
       </c>
       <c r="K569" t="inlineStr">
         <is>
-          <t>Jrb</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L569" t="inlineStr">
@@ -45884,16 +45884,16 @@
         </is>
       </c>
       <c r="M569" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="N569" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O569" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P569" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
@@ -45902,11 +45902,11 @@
       </c>
       <c r="R569" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S569" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T569" t="n">
         <v>16</v>
@@ -45955,25 +45955,25 @@
       </c>
       <c r="K570" t="inlineStr">
         <is>
-          <t>Jrb</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L570" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M570" t="n">
         <v>70</v>
       </c>
       <c r="N570" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O570" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P570" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
@@ -45982,11 +45982,11 @@
       </c>
       <c r="R570" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S570" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T570" t="n">
         <v>16</v>
@@ -46035,25 +46035,25 @@
       </c>
       <c r="K571" t="inlineStr">
         <is>
-          <t>Jrb</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L571" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M571" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N571" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O571" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P571" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46062,11 +46062,11 @@
       </c>
       <c r="R571" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S571" t="n">
-        <v>750</v>
+        <v>562</v>
       </c>
       <c r="T571" t="n">
         <v>16</v>
@@ -46120,20 +46120,20 @@
       </c>
       <c r="L572" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M572" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N572" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O572" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P572" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         </is>
       </c>
       <c r="S572" t="n">
-        <v>625</v>
+        <v>812</v>
       </c>
       <c r="T572" t="n">
         <v>16</v>
@@ -46167,7 +46167,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E573" t="n">
         <v>5</v>
@@ -46195,16 +46195,16 @@
       </c>
       <c r="K573" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Jrb</t>
         </is>
       </c>
       <c r="L573" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M573" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N573" t="n">
         <v>14000</v>
@@ -46217,7 +46217,7 @@
       </c>
       <c r="Q573" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R573" t="inlineStr">
@@ -46226,10 +46226,10 @@
         </is>
       </c>
       <c r="S573" t="n">
-        <v>1167</v>
+        <v>875</v>
       </c>
       <c r="T573" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="574">
@@ -46247,7 +46247,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E574" t="n">
         <v>5</v>
@@ -46275,7 +46275,7 @@
       </c>
       <c r="K574" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Jrb</t>
         </is>
       </c>
       <c r="L574" t="inlineStr">
@@ -46284,7 +46284,7 @@
         </is>
       </c>
       <c r="M574" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="N574" t="n">
         <v>12000</v>
@@ -46297,7 +46297,7 @@
       </c>
       <c r="Q574" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R574" t="inlineStr">
@@ -46306,10 +46306,10 @@
         </is>
       </c>
       <c r="S574" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T574" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="575">
@@ -46327,7 +46327,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E575" t="n">
         <v>5</v>
@@ -46355,7 +46355,7 @@
       </c>
       <c r="K575" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Jrb</t>
         </is>
       </c>
       <c r="L575" t="inlineStr">
@@ -46364,7 +46364,7 @@
         </is>
       </c>
       <c r="M575" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N575" t="n">
         <v>10000</v>
@@ -46377,7 +46377,7 @@
       </c>
       <c r="Q575" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R575" t="inlineStr">
@@ -46386,10 +46386,10 @@
         </is>
       </c>
       <c r="S575" t="n">
-        <v>833</v>
+        <v>625</v>
       </c>
       <c r="T575" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="576">
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44511</v>
+        <v>44536</v>
       </c>
       <c r="E576" t="n">
         <v>5</v>
@@ -46435,7 +46435,7 @@
       </c>
       <c r="K576" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L576" t="inlineStr">
@@ -46444,20 +46444,20 @@
         </is>
       </c>
       <c r="M576" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N576" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O576" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P576" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R576" t="inlineStr">
@@ -46466,10 +46466,10 @@
         </is>
       </c>
       <c r="S576" t="n">
-        <v>1300</v>
+        <v>1167</v>
       </c>
       <c r="T576" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="577">
@@ -46487,7 +46487,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44511</v>
+        <v>44536</v>
       </c>
       <c r="E577" t="n">
         <v>5</v>
@@ -46515,7 +46515,7 @@
       </c>
       <c r="K577" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L577" t="inlineStr">
@@ -46524,20 +46524,20 @@
         </is>
       </c>
       <c r="M577" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="N577" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O577" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P577" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R577" t="inlineStr">
@@ -46549,7 +46549,7 @@
         <v>1000</v>
       </c>
       <c r="T577" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="578">
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44511</v>
+        <v>44536</v>
       </c>
       <c r="E578" t="n">
         <v>5</v>
@@ -46595,7 +46595,7 @@
       </c>
       <c r="K578" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L578" t="inlineStr">
@@ -46604,20 +46604,20 @@
         </is>
       </c>
       <c r="M578" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N578" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O578" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P578" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R578" t="inlineStr">
@@ -46626,10 +46626,10 @@
         </is>
       </c>
       <c r="S578" t="n">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="T578" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="579">
@@ -46675,41 +46675,41 @@
       </c>
       <c r="K579" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L579" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M579" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N579" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O579" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P579" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R579" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S579" t="n">
-        <v>933</v>
+        <v>1300</v>
       </c>
       <c r="T579" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="580">
@@ -46755,41 +46755,41 @@
       </c>
       <c r="K580" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L580" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M580" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="N580" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O580" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P580" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R580" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S580" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T580" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="581">
@@ -46835,25 +46835,25 @@
       </c>
       <c r="K581" t="inlineStr">
         <is>
-          <t>Gold Crest</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L581" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M581" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N581" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O581" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P581" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46866,7 +46866,7 @@
         </is>
       </c>
       <c r="S581" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="T581" t="n">
         <v>10</v>
@@ -46915,7 +46915,7 @@
       </c>
       <c r="K582" t="inlineStr">
         <is>
-          <t>Gold Crest</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L582" t="inlineStr">
@@ -46924,32 +46924,32 @@
         </is>
       </c>
       <c r="M582" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="N582" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O582" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P582" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R582" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S582" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T582" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="583">
@@ -46995,7 +46995,7 @@
       </c>
       <c r="K583" t="inlineStr">
         <is>
-          <t>Gold Crest</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L583" t="inlineStr">
@@ -47004,32 +47004,32 @@
         </is>
       </c>
       <c r="M583" t="n">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="N583" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O583" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P583" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R583" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S583" t="n">
         <v>800</v>
       </c>
       <c r="T583" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="584">
@@ -47047,7 +47047,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44239</v>
+        <v>44511</v>
       </c>
       <c r="E584" t="n">
         <v>5</v>
@@ -47075,7 +47075,7 @@
       </c>
       <c r="K584" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Gold Crest</t>
         </is>
       </c>
       <c r="L584" t="inlineStr">
@@ -47084,20 +47084,20 @@
         </is>
       </c>
       <c r="M584" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N584" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O584" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P584" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R584" t="inlineStr">
@@ -47106,10 +47106,10 @@
         </is>
       </c>
       <c r="S584" t="n">
-        <v>875</v>
+        <v>1300</v>
       </c>
       <c r="T584" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="585">
@@ -47127,7 +47127,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44239</v>
+        <v>44511</v>
       </c>
       <c r="E585" t="n">
         <v>5</v>
@@ -47155,7 +47155,7 @@
       </c>
       <c r="K585" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Gold Crest</t>
         </is>
       </c>
       <c r="L585" t="inlineStr">
@@ -47164,20 +47164,20 @@
         </is>
       </c>
       <c r="M585" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="N585" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="O585" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="P585" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R585" t="inlineStr">
@@ -47186,10 +47186,10 @@
         </is>
       </c>
       <c r="S585" t="n">
-        <v>781</v>
+        <v>1000</v>
       </c>
       <c r="T585" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="586">
@@ -47207,7 +47207,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44239</v>
+        <v>44511</v>
       </c>
       <c r="E586" t="n">
         <v>5</v>
@@ -47235,7 +47235,7 @@
       </c>
       <c r="K586" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Gold Crest</t>
         </is>
       </c>
       <c r="L586" t="inlineStr">
@@ -47244,20 +47244,20 @@
         </is>
       </c>
       <c r="M586" t="n">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="N586" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O586" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P586" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R586" t="inlineStr">
@@ -47266,10 +47266,10 @@
         </is>
       </c>
       <c r="S586" t="n">
-        <v>625</v>
+        <v>800</v>
       </c>
       <c r="T586" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="587">
@@ -47287,7 +47287,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E587" t="n">
         <v>5</v>
@@ -47315,7 +47315,7 @@
       </c>
       <c r="K587" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L587" t="inlineStr">
@@ -47324,16 +47324,16 @@
         </is>
       </c>
       <c r="M587" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N587" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O587" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P587" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
@@ -47346,7 +47346,7 @@
         </is>
       </c>
       <c r="S587" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T587" t="n">
         <v>16</v>
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E588" t="n">
         <v>5</v>
@@ -47395,7 +47395,7 @@
       </c>
       <c r="K588" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L588" t="inlineStr">
@@ -47404,16 +47404,16 @@
         </is>
       </c>
       <c r="M588" t="n">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="N588" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="O588" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="P588" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
@@ -47426,7 +47426,7 @@
         </is>
       </c>
       <c r="S588" t="n">
-        <v>625</v>
+        <v>781</v>
       </c>
       <c r="T588" t="n">
         <v>16</v>
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E589" t="n">
         <v>5</v>
@@ -47475,7 +47475,7 @@
       </c>
       <c r="K589" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L589" t="inlineStr">
@@ -47484,16 +47484,16 @@
         </is>
       </c>
       <c r="M589" t="n">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="N589" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O589" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P589" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         </is>
       </c>
       <c r="S589" t="n">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="T589" t="n">
         <v>16</v>
@@ -47555,7 +47555,7 @@
       </c>
       <c r="K590" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L590" t="inlineStr">
@@ -47564,16 +47564,16 @@
         </is>
       </c>
       <c r="M590" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N590" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O590" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P590" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         </is>
       </c>
       <c r="S590" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T590" t="n">
         <v>16</v>
@@ -47635,7 +47635,7 @@
       </c>
       <c r="K591" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L591" t="inlineStr">
@@ -47644,16 +47644,16 @@
         </is>
       </c>
       <c r="M591" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N591" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O591" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P591" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
@@ -47666,7 +47666,7 @@
         </is>
       </c>
       <c r="S591" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T591" t="n">
         <v>16</v>
@@ -47715,7 +47715,7 @@
       </c>
       <c r="K592" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L592" t="inlineStr">
@@ -47724,16 +47724,16 @@
         </is>
       </c>
       <c r="M592" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="N592" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O592" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P592" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
@@ -47746,7 +47746,7 @@
         </is>
       </c>
       <c r="S592" t="n">
-        <v>625</v>
+        <v>562</v>
       </c>
       <c r="T592" t="n">
         <v>16</v>
@@ -47767,7 +47767,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E593" t="n">
         <v>5</v>
@@ -47795,41 +47795,41 @@
       </c>
       <c r="K593" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L593" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M593" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="N593" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O593" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P593" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R593" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S593" t="n">
-        <v>1000</v>
+        <v>812</v>
       </c>
       <c r="T593" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="594">
@@ -47847,7 +47847,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E594" t="n">
         <v>5</v>
@@ -47875,7 +47875,7 @@
       </c>
       <c r="K594" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L594" t="inlineStr">
@@ -47884,20 +47884,20 @@
         </is>
       </c>
       <c r="M594" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N594" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O594" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P594" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R594" t="inlineStr">
@@ -47906,10 +47906,10 @@
         </is>
       </c>
       <c r="S594" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T594" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="595">
@@ -47927,7 +47927,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E595" t="n">
         <v>5</v>
@@ -47955,7 +47955,7 @@
       </c>
       <c r="K595" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L595" t="inlineStr">
@@ -47964,32 +47964,32 @@
         </is>
       </c>
       <c r="M595" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="N595" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O595" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P595" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R595" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S595" t="n">
-        <v>800</v>
+        <v>625</v>
       </c>
       <c r="T595" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="596">
@@ -48035,41 +48035,41 @@
       </c>
       <c r="K596" t="inlineStr">
         <is>
-          <t>Gold Crest</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L596" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M596" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="N596" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O596" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P596" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R596" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S596" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="T596" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="597">
@@ -48115,7 +48115,7 @@
       </c>
       <c r="K597" t="inlineStr">
         <is>
-          <t>Gold Crest</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L597" t="inlineStr">
@@ -48124,20 +48124,20 @@
         </is>
       </c>
       <c r="M597" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="N597" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O597" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P597" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R597" t="inlineStr">
@@ -48146,10 +48146,10 @@
         </is>
       </c>
       <c r="S597" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T597" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="598">
@@ -48195,7 +48195,7 @@
       </c>
       <c r="K598" t="inlineStr">
         <is>
-          <t>Gold Crest</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L598" t="inlineStr">
@@ -48204,32 +48204,32 @@
         </is>
       </c>
       <c r="M598" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N598" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O598" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P598" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R598" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S598" t="n">
         <v>800</v>
       </c>
       <c r="T598" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="599">
@@ -48247,7 +48247,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E599" t="n">
         <v>5</v>
@@ -48275,7 +48275,7 @@
       </c>
       <c r="K599" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Gold Crest</t>
         </is>
       </c>
       <c r="L599" t="inlineStr">
@@ -48284,7 +48284,7 @@
         </is>
       </c>
       <c r="M599" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N599" t="n">
         <v>14000</v>
@@ -48297,7 +48297,7 @@
       </c>
       <c r="Q599" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R599" t="inlineStr">
@@ -48306,10 +48306,10 @@
         </is>
       </c>
       <c r="S599" t="n">
-        <v>933</v>
+        <v>1400</v>
       </c>
       <c r="T599" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="600">
@@ -48327,7 +48327,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E600" t="n">
         <v>5</v>
@@ -48355,7 +48355,7 @@
       </c>
       <c r="K600" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Gold Crest</t>
         </is>
       </c>
       <c r="L600" t="inlineStr">
@@ -48364,7 +48364,7 @@
         </is>
       </c>
       <c r="M600" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N600" t="n">
         <v>12000</v>
@@ -48377,7 +48377,7 @@
       </c>
       <c r="Q600" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R600" t="inlineStr">
@@ -48386,10 +48386,10 @@
         </is>
       </c>
       <c r="S600" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T600" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="601">
@@ -48407,7 +48407,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E601" t="n">
         <v>5</v>
@@ -48435,7 +48435,7 @@
       </c>
       <c r="K601" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Gold Crest</t>
         </is>
       </c>
       <c r="L601" t="inlineStr">
@@ -48447,17 +48447,17 @@
         <v>60</v>
       </c>
       <c r="N601" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O601" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P601" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R601" t="inlineStr">
@@ -48466,10 +48466,10 @@
         </is>
       </c>
       <c r="S601" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T601" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="602">
@@ -48515,7 +48515,7 @@
       </c>
       <c r="K602" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L602" t="inlineStr">
@@ -48524,7 +48524,7 @@
         </is>
       </c>
       <c r="M602" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N602" t="n">
         <v>14000</v>
@@ -48537,7 +48537,7 @@
       </c>
       <c r="Q602" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R602" t="inlineStr">
@@ -48546,10 +48546,10 @@
         </is>
       </c>
       <c r="S602" t="n">
-        <v>1167</v>
+        <v>933</v>
       </c>
       <c r="T602" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="603">
@@ -48595,7 +48595,7 @@
       </c>
       <c r="K603" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L603" t="inlineStr">
@@ -48604,7 +48604,7 @@
         </is>
       </c>
       <c r="M603" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N603" t="n">
         <v>12000</v>
@@ -48617,7 +48617,7 @@
       </c>
       <c r="Q603" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R603" t="inlineStr">
@@ -48626,10 +48626,10 @@
         </is>
       </c>
       <c r="S603" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T603" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="604">
@@ -48647,7 +48647,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E604" t="n">
         <v>5</v>
@@ -48675,41 +48675,41 @@
       </c>
       <c r="K604" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L604" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M604" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N604" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O604" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P604" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R604" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S604" t="n">
-        <v>875</v>
+        <v>667</v>
       </c>
       <c r="T604" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="605">
@@ -48727,7 +48727,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E605" t="n">
         <v>5</v>
@@ -48755,41 +48755,41 @@
       </c>
       <c r="K605" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L605" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M605" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="N605" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O605" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P605" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R605" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S605" t="n">
-        <v>1000</v>
+        <v>1167</v>
       </c>
       <c r="T605" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="606">
@@ -48807,7 +48807,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E606" t="n">
         <v>5</v>
@@ -48835,7 +48835,7 @@
       </c>
       <c r="K606" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L606" t="inlineStr">
@@ -48844,7 +48844,7 @@
         </is>
       </c>
       <c r="M606" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N606" t="n">
         <v>12000</v>
@@ -48857,18 +48857,258 @@
       </c>
       <c r="Q606" t="inlineStr">
         <is>
+          <t>$/caja 12 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R606" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S606" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T606" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="n">
+        <v>3</v>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D607" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E607" t="n">
+        <v>5</v>
+      </c>
+      <c r="F607" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G607" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H607" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I607" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J607" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>Phillips Cling</t>
+        </is>
+      </c>
+      <c r="L607" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M607" t="n">
+        <v>70</v>
+      </c>
+      <c r="N607" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O607" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P607" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q607" t="inlineStr">
+        <is>
           <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
-      <c r="R606" t="inlineStr">
+      <c r="R607" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S606" t="n">
+      <c r="S607" t="n">
+        <v>875</v>
+      </c>
+      <c r="T607" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="n">
+        <v>3</v>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D608" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E608" t="n">
+        <v>5</v>
+      </c>
+      <c r="F608" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G608" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H608" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I608" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J608" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>Phillips Cling</t>
+        </is>
+      </c>
+      <c r="L608" t="inlineStr">
+        <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M608" t="n">
+        <v>65</v>
+      </c>
+      <c r="N608" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O608" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P608" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q608" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R608" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S608" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T608" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="n">
+        <v>3</v>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D609" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E609" t="n">
+        <v>5</v>
+      </c>
+      <c r="F609" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G609" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H609" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I609" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J609" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>Phillips Cling</t>
+        </is>
+      </c>
+      <c r="L609" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M609" t="n">
+        <v>70</v>
+      </c>
+      <c r="N609" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O609" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P609" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q609" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R609" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S609" t="n">
         <v>750</v>
       </c>
-      <c r="T606" t="n">
+      <c r="T609" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T634"/>
+  <dimension ref="A1:T638"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44519</v>
+        <v>44551</v>
       </c>
       <c r="E509" t="n">
         <v>5</v>
@@ -41075,7 +41075,7 @@
       </c>
       <c r="K509" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L509" t="inlineStr">
@@ -41084,32 +41084,32 @@
         </is>
       </c>
       <c r="M509" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="N509" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O509" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P509" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R509" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S509" t="n">
-        <v>1133</v>
+        <v>1167</v>
       </c>
       <c r="T509" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="510">
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44519</v>
+        <v>44551</v>
       </c>
       <c r="E510" t="n">
         <v>5</v>
@@ -41155,16 +41155,16 @@
       </c>
       <c r="K510" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M510" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="N510" t="n">
         <v>15000</v>
@@ -41182,7 +41182,7 @@
       </c>
       <c r="R510" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S510" t="n">
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44519</v>
+        <v>44551</v>
       </c>
       <c r="E511" t="n">
         <v>5</v>
@@ -41235,16 +41235,16 @@
       </c>
       <c r="K511" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L511" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M511" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N511" t="n">
         <v>12000</v>
@@ -41257,19 +41257,19 @@
       </c>
       <c r="Q511" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R511" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S511" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T511" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="512">
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44543</v>
+        <v>44551</v>
       </c>
       <c r="E512" t="n">
         <v>5</v>
@@ -41315,25 +41315,25 @@
       </c>
       <c r="K512" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L512" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M512" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N512" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O512" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P512" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41342,11 +41342,11 @@
       </c>
       <c r="R512" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S512" t="n">
-        <v>1133</v>
+        <v>867</v>
       </c>
       <c r="T512" t="n">
         <v>15</v>
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44543</v>
+        <v>44519</v>
       </c>
       <c r="E513" t="n">
         <v>5</v>
@@ -41395,25 +41395,25 @@
       </c>
       <c r="K513" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M513" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="N513" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O513" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P513" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>1000</v>
+        <v>1133</v>
       </c>
       <c r="T513" t="n">
         <v>15</v>
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44543</v>
+        <v>44519</v>
       </c>
       <c r="E514" t="n">
         <v>5</v>
@@ -41475,25 +41475,25 @@
       </c>
       <c r="K514" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M514" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N514" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O514" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P514" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T514" t="n">
         <v>15</v>
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44278</v>
+        <v>44519</v>
       </c>
       <c r="E515" t="n">
         <v>5</v>
@@ -41555,41 +41555,41 @@
       </c>
       <c r="K515" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M515" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="N515" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O515" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P515" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R515" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S515" t="n">
-        <v>938</v>
+        <v>800</v>
       </c>
       <c r="T515" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="516">
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44278</v>
+        <v>44543</v>
       </c>
       <c r="E516" t="n">
         <v>5</v>
@@ -41635,41 +41635,41 @@
       </c>
       <c r="K516" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M516" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N516" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O516" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P516" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R516" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S516" t="n">
-        <v>812</v>
+        <v>1133</v>
       </c>
       <c r="T516" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="517">
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44281</v>
+        <v>44543</v>
       </c>
       <c r="E517" t="n">
         <v>5</v>
@@ -41715,41 +41715,41 @@
       </c>
       <c r="K517" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L517" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M517" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N517" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O517" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P517" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R517" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S517" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T517" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="518">
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44281</v>
+        <v>44543</v>
       </c>
       <c r="E518" t="n">
         <v>5</v>
@@ -41795,41 +41795,41 @@
       </c>
       <c r="K518" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L518" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M518" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N518" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O518" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P518" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R518" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S518" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T518" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="519">
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44281</v>
+        <v>44278</v>
       </c>
       <c r="E519" t="n">
         <v>5</v>
@@ -41875,25 +41875,25 @@
       </c>
       <c r="K519" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L519" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M519" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N519" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O519" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P519" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>750</v>
+        <v>938</v>
       </c>
       <c r="T519" t="n">
         <v>16</v>
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44187</v>
+        <v>44278</v>
       </c>
       <c r="E520" t="n">
         <v>5</v>
@@ -41955,25 +41955,25 @@
       </c>
       <c r="K520" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L520" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M520" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="N520" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O520" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P520" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41982,11 +41982,11 @@
       </c>
       <c r="R520" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S520" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T520" t="n">
         <v>16</v>
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44187</v>
+        <v>44281</v>
       </c>
       <c r="E521" t="n">
         <v>5</v>
@@ -42035,25 +42035,25 @@
       </c>
       <c r="K521" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L521" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M521" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="N521" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O521" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P521" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42062,11 +42062,11 @@
       </c>
       <c r="R521" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S521" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T521" t="n">
         <v>16</v>
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44187</v>
+        <v>44281</v>
       </c>
       <c r="E522" t="n">
         <v>5</v>
@@ -42115,25 +42115,25 @@
       </c>
       <c r="K522" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M522" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N522" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="O522" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="P522" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42142,11 +42142,11 @@
       </c>
       <c r="R522" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S522" t="n">
-        <v>562</v>
+        <v>1000</v>
       </c>
       <c r="T522" t="n">
         <v>16</v>
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44529</v>
+        <v>44281</v>
       </c>
       <c r="E523" t="n">
         <v>5</v>
@@ -42195,41 +42195,41 @@
       </c>
       <c r="K523" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M523" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N523" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O523" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P523" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R523" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S523" t="n">
-        <v>1083</v>
+        <v>750</v>
       </c>
       <c r="T523" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="524">
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44529</v>
+        <v>44187</v>
       </c>
       <c r="E524" t="n">
         <v>5</v>
@@ -42275,16 +42275,16 @@
       </c>
       <c r="K524" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M524" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N524" t="n">
         <v>12000</v>
@@ -42297,7 +42297,7 @@
       </c>
       <c r="Q524" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R524" t="inlineStr">
@@ -42306,10 +42306,10 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T524" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="525">
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44529</v>
+        <v>44187</v>
       </c>
       <c r="E525" t="n">
         <v>5</v>
@@ -42355,16 +42355,16 @@
       </c>
       <c r="K525" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M525" t="n">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="N525" t="n">
         <v>10000</v>
@@ -42377,7 +42377,7 @@
       </c>
       <c r="Q525" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R525" t="inlineStr">
@@ -42386,10 +42386,10 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>833</v>
+        <v>625</v>
       </c>
       <c r="T525" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="526">
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44529</v>
+        <v>44187</v>
       </c>
       <c r="E526" t="n">
         <v>5</v>
@@ -42435,29 +42435,29 @@
       </c>
       <c r="K526" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M526" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="N526" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O526" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P526" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R526" t="inlineStr">
@@ -42466,10 +42466,10 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>933</v>
+        <v>562</v>
       </c>
       <c r="T526" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="527">
@@ -42515,29 +42515,29 @@
       </c>
       <c r="K527" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L527" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M527" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N527" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O527" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P527" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R527" t="inlineStr">
@@ -42546,10 +42546,10 @@
         </is>
       </c>
       <c r="S527" t="n">
-        <v>800</v>
+        <v>1083</v>
       </c>
       <c r="T527" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="528">
@@ -42595,29 +42595,29 @@
       </c>
       <c r="K528" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L528" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M528" t="n">
         <v>60</v>
       </c>
       <c r="N528" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O528" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P528" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R528" t="inlineStr">
@@ -42626,10 +42626,10 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T528" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="529">
@@ -42675,25 +42675,25 @@
       </c>
       <c r="K529" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L529" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M529" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N529" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O529" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P529" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42706,7 +42706,7 @@
         </is>
       </c>
       <c r="S529" t="n">
-        <v>1333</v>
+        <v>833</v>
       </c>
       <c r="T529" t="n">
         <v>12</v>
@@ -42755,16 +42755,16 @@
       </c>
       <c r="K530" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L530" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M530" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="N530" t="n">
         <v>14000</v>
@@ -42777,7 +42777,7 @@
       </c>
       <c r="Q530" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R530" t="inlineStr">
@@ -42786,10 +42786,10 @@
         </is>
       </c>
       <c r="S530" t="n">
-        <v>1167</v>
+        <v>933</v>
       </c>
       <c r="T530" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="531">
@@ -42835,12 +42835,12 @@
       </c>
       <c r="K531" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L531" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M531" t="n">
@@ -42857,7 +42857,7 @@
       </c>
       <c r="Q531" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R531" t="inlineStr">
@@ -42866,10 +42866,10 @@
         </is>
       </c>
       <c r="S531" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T531" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="532">
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44238</v>
+        <v>44529</v>
       </c>
       <c r="E532" t="n">
         <v>5</v>
@@ -42915,29 +42915,29 @@
       </c>
       <c r="K532" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M532" t="n">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="N532" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="O532" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P532" t="n">
-        <v>12765</v>
+        <v>10000</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R532" t="inlineStr">
@@ -42946,10 +42946,10 @@
         </is>
       </c>
       <c r="S532" t="n">
-        <v>798</v>
+        <v>667</v>
       </c>
       <c r="T532" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="533">
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44238</v>
+        <v>44529</v>
       </c>
       <c r="E533" t="n">
         <v>5</v>
@@ -42995,29 +42995,29 @@
       </c>
       <c r="K533" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M533" t="n">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="N533" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O533" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P533" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R533" t="inlineStr">
@@ -43026,10 +43026,10 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>688</v>
+        <v>1333</v>
       </c>
       <c r="T533" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="534">
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44257</v>
+        <v>44529</v>
       </c>
       <c r="E534" t="n">
         <v>5</v>
@@ -43075,16 +43075,16 @@
       </c>
       <c r="K534" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M534" t="n">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="N534" t="n">
         <v>14000</v>
@@ -43097,19 +43097,19 @@
       </c>
       <c r="Q534" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R534" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S534" t="n">
-        <v>875</v>
+        <v>1167</v>
       </c>
       <c r="T534" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="535">
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44257</v>
+        <v>44529</v>
       </c>
       <c r="E535" t="n">
         <v>5</v>
@@ -43155,41 +43155,41 @@
       </c>
       <c r="K535" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M535" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N535" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O535" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P535" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R535" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S535" t="n">
         <v>1000</v>
       </c>
       <c r="T535" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="536">
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E536" t="n">
         <v>5</v>
@@ -43235,7 +43235,7 @@
       </c>
       <c r="K536" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L536" t="inlineStr">
@@ -43244,16 +43244,16 @@
         </is>
       </c>
       <c r="M536" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="N536" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="O536" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P536" t="n">
-        <v>12000</v>
+        <v>12765</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43262,11 +43262,11 @@
       </c>
       <c r="R536" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S536" t="n">
-        <v>750</v>
+        <v>798</v>
       </c>
       <c r="T536" t="n">
         <v>16</v>
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E537" t="n">
         <v>5</v>
@@ -43315,7 +43315,7 @@
       </c>
       <c r="K537" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L537" t="inlineStr">
@@ -43324,16 +43324,16 @@
         </is>
       </c>
       <c r="M537" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="N537" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O537" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P537" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43342,11 +43342,11 @@
       </c>
       <c r="R537" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S537" t="n">
-        <v>625</v>
+        <v>688</v>
       </c>
       <c r="T537" t="n">
         <v>16</v>
@@ -43395,7 +43395,7 @@
       </c>
       <c r="K538" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L538" t="inlineStr">
@@ -43404,16 +43404,16 @@
         </is>
       </c>
       <c r="M538" t="n">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="N538" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O538" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P538" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         </is>
       </c>
       <c r="S538" t="n">
-        <v>812</v>
+        <v>875</v>
       </c>
       <c r="T538" t="n">
         <v>16</v>
@@ -43475,25 +43475,25 @@
       </c>
       <c r="K539" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L539" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M539" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="N539" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O539" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P539" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43506,7 +43506,7 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T539" t="n">
         <v>16</v>
@@ -43555,25 +43555,25 @@
       </c>
       <c r="K540" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L540" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M540" t="n">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="N540" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O540" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P540" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43586,7 +43586,7 @@
         </is>
       </c>
       <c r="S540" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T540" t="n">
         <v>16</v>
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E541" t="n">
         <v>5</v>
@@ -43635,25 +43635,25 @@
       </c>
       <c r="K541" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L541" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M541" t="n">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="N541" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O541" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P541" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
@@ -43666,7 +43666,7 @@
         </is>
       </c>
       <c r="S541" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T541" t="n">
         <v>16</v>
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E542" t="n">
         <v>5</v>
@@ -43715,25 +43715,25 @@
       </c>
       <c r="K542" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L542" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M542" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N542" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O542" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P542" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         </is>
       </c>
       <c r="S542" t="n">
-        <v>1125</v>
+        <v>812</v>
       </c>
       <c r="T542" t="n">
         <v>16</v>
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E543" t="n">
         <v>5</v>
@@ -43795,7 +43795,7 @@
       </c>
       <c r="K543" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L543" t="inlineStr">
@@ -43804,16 +43804,16 @@
         </is>
       </c>
       <c r="M543" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="N543" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O543" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P543" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         </is>
       </c>
       <c r="S543" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T543" t="n">
         <v>16</v>
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E544" t="n">
         <v>5</v>
@@ -43875,7 +43875,7 @@
       </c>
       <c r="K544" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L544" t="inlineStr">
@@ -43884,16 +43884,16 @@
         </is>
       </c>
       <c r="M544" t="n">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="N544" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O544" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P544" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T544" t="n">
         <v>16</v>
@@ -43955,7 +43955,7 @@
       </c>
       <c r="K545" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L545" t="inlineStr">
@@ -43964,16 +43964,16 @@
         </is>
       </c>
       <c r="M545" t="n">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="N545" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O545" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P545" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T545" t="n">
         <v>16</v>
@@ -44035,25 +44035,25 @@
       </c>
       <c r="K546" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L546" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M546" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N546" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O546" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P546" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         </is>
       </c>
       <c r="S546" t="n">
-        <v>625</v>
+        <v>1125</v>
       </c>
       <c r="T546" t="n">
         <v>16</v>
@@ -44115,25 +44115,25 @@
       </c>
       <c r="K547" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L547" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M547" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N547" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O547" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P547" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>562</v>
+        <v>875</v>
       </c>
       <c r="T547" t="n">
         <v>16</v>
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E548" t="n">
         <v>5</v>
@@ -44195,25 +44195,25 @@
       </c>
       <c r="K548" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L548" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M548" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="N548" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O548" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P548" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44222,11 +44222,11 @@
       </c>
       <c r="R548" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S548" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T548" t="n">
         <v>16</v>
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E549" t="n">
         <v>5</v>
@@ -44275,16 +44275,16 @@
       </c>
       <c r="K549" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L549" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M549" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N549" t="n">
         <v>12000</v>
@@ -44302,7 +44302,7 @@
       </c>
       <c r="R549" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S549" t="n">
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E550" t="n">
         <v>5</v>
@@ -44355,16 +44355,16 @@
       </c>
       <c r="K550" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L550" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M550" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="N550" t="n">
         <v>10000</v>
@@ -44382,7 +44382,7 @@
       </c>
       <c r="R550" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S550" t="n">
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E551" t="n">
         <v>5</v>
@@ -44435,25 +44435,25 @@
       </c>
       <c r="K551" t="inlineStr">
         <is>
-          <t>Jrb</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M551" t="n">
         <v>80</v>
       </c>
       <c r="N551" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O551" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P551" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44462,11 +44462,11 @@
       </c>
       <c r="R551" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S551" t="n">
-        <v>875</v>
+        <v>562</v>
       </c>
       <c r="T551" t="n">
         <v>16</v>
@@ -44515,25 +44515,25 @@
       </c>
       <c r="K552" t="inlineStr">
         <is>
-          <t>Jrb</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M552" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="N552" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O552" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P552" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>938</v>
+        <v>812</v>
       </c>
       <c r="T552" t="n">
         <v>16</v>
@@ -44595,7 +44595,7 @@
       </c>
       <c r="K553" t="inlineStr">
         <is>
-          <t>Jrb</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L553" t="inlineStr">
@@ -44604,16 +44604,16 @@
         </is>
       </c>
       <c r="M553" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="N553" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O553" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P553" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         </is>
       </c>
       <c r="S553" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T553" t="n">
         <v>16</v>
@@ -44675,7 +44675,7 @@
       </c>
       <c r="K554" t="inlineStr">
         <is>
-          <t>Jrb</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L554" t="inlineStr">
@@ -44684,16 +44684,16 @@
         </is>
       </c>
       <c r="M554" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N554" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O554" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P554" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44706,7 +44706,7 @@
         </is>
       </c>
       <c r="S554" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T554" t="n">
         <v>16</v>
@@ -44755,7 +44755,7 @@
       </c>
       <c r="K555" t="inlineStr">
         <is>
-          <t>Manon</t>
+          <t>Jrb</t>
         </is>
       </c>
       <c r="L555" t="inlineStr">
@@ -44764,7 +44764,7 @@
         </is>
       </c>
       <c r="M555" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N555" t="n">
         <v>14000</v>
@@ -44782,7 +44782,7 @@
       </c>
       <c r="R555" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S555" t="n">
@@ -44835,25 +44835,25 @@
       </c>
       <c r="K556" t="inlineStr">
         <is>
-          <t>Manon</t>
+          <t>Jrb</t>
         </is>
       </c>
       <c r="L556" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M556" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N556" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O556" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P556" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
@@ -44862,11 +44862,11 @@
       </c>
       <c r="R556" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S556" t="n">
-        <v>812</v>
+        <v>938</v>
       </c>
       <c r="T556" t="n">
         <v>16</v>
@@ -44915,25 +44915,25 @@
       </c>
       <c r="K557" t="inlineStr">
         <is>
-          <t>Manon</t>
+          <t>Jrb</t>
         </is>
       </c>
       <c r="L557" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M557" t="n">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="N557" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O557" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P557" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
@@ -44942,11 +44942,11 @@
       </c>
       <c r="R557" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S557" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T557" t="n">
         <v>16</v>
@@ -44967,7 +44967,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E558" t="n">
         <v>5</v>
@@ -44995,25 +44995,25 @@
       </c>
       <c r="K558" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Jrb</t>
         </is>
       </c>
       <c r="L558" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M558" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N558" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O558" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P558" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         </is>
       </c>
       <c r="S558" t="n">
-        <v>938</v>
+        <v>750</v>
       </c>
       <c r="T558" t="n">
         <v>16</v>
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E559" t="n">
         <v>5</v>
@@ -45075,16 +45075,16 @@
       </c>
       <c r="K559" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Manon</t>
         </is>
       </c>
       <c r="L559" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M559" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N559" t="n">
         <v>14000</v>
@@ -45102,7 +45102,7 @@
       </c>
       <c r="R559" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S559" t="n">
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E560" t="n">
         <v>5</v>
@@ -45155,25 +45155,25 @@
       </c>
       <c r="K560" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Manon</t>
         </is>
       </c>
       <c r="L560" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M560" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N560" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O560" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P560" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45182,11 +45182,11 @@
       </c>
       <c r="R560" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S560" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T560" t="n">
         <v>16</v>
@@ -45207,7 +45207,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E561" t="n">
         <v>5</v>
@@ -45235,25 +45235,25 @@
       </c>
       <c r="K561" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Manon</t>
         </is>
       </c>
       <c r="L561" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M561" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N561" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O561" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P561" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45262,11 +45262,11 @@
       </c>
       <c r="R561" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S561" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T561" t="n">
         <v>16</v>
@@ -45315,25 +45315,25 @@
       </c>
       <c r="K562" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L562" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M562" t="n">
         <v>75</v>
       </c>
       <c r="N562" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O562" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P562" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45346,7 +45346,7 @@
         </is>
       </c>
       <c r="S562" t="n">
-        <v>750</v>
+        <v>938</v>
       </c>
       <c r="T562" t="n">
         <v>16</v>
@@ -45395,25 +45395,25 @@
       </c>
       <c r="K563" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L563" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M563" t="n">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="N563" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O563" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P563" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         </is>
       </c>
       <c r="S563" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T563" t="n">
         <v>16</v>
@@ -45447,7 +45447,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E564" t="n">
         <v>5</v>
@@ -45475,16 +45475,16 @@
       </c>
       <c r="K564" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M564" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N564" t="n">
         <v>12000</v>
@@ -45502,7 +45502,7 @@
       </c>
       <c r="R564" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S564" t="n">
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E565" t="n">
         <v>5</v>
@@ -45555,25 +45555,25 @@
       </c>
       <c r="K565" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L565" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M565" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N565" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O565" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P565" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45582,11 +45582,11 @@
       </c>
       <c r="R565" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S565" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T565" t="n">
         <v>16</v>
@@ -45607,7 +45607,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E566" t="n">
         <v>5</v>
@@ -45635,25 +45635,25 @@
       </c>
       <c r="K566" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L566" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M566" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N566" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O566" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P566" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45662,11 +45662,11 @@
       </c>
       <c r="R566" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S566" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T566" t="n">
         <v>16</v>
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E567" t="n">
         <v>5</v>
@@ -45715,25 +45715,25 @@
       </c>
       <c r="K567" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L567" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M567" t="n">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="N567" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O567" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P567" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         </is>
       </c>
       <c r="S567" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T567" t="n">
         <v>16</v>
@@ -45795,25 +45795,25 @@
       </c>
       <c r="K568" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L568" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M568" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N568" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O568" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P568" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45822,11 +45822,11 @@
       </c>
       <c r="R568" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S568" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T568" t="n">
         <v>16</v>
@@ -45875,25 +45875,25 @@
       </c>
       <c r="K569" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L569" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M569" t="n">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="N569" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O569" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P569" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
@@ -45902,11 +45902,11 @@
       </c>
       <c r="R569" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S569" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T569" t="n">
         <v>16</v>
@@ -45927,7 +45927,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E570" t="n">
         <v>5</v>
@@ -45955,25 +45955,25 @@
       </c>
       <c r="K570" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L570" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M570" t="n">
         <v>70</v>
       </c>
       <c r="N570" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O570" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P570" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
@@ -45986,7 +45986,7 @@
         </is>
       </c>
       <c r="S570" t="n">
-        <v>875</v>
+        <v>500</v>
       </c>
       <c r="T570" t="n">
         <v>16</v>
@@ -46007,7 +46007,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E571" t="n">
         <v>5</v>
@@ -46035,25 +46035,25 @@
       </c>
       <c r="K571" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L571" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M571" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N571" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O571" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P571" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46062,11 +46062,11 @@
       </c>
       <c r="R571" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S571" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T571" t="n">
         <v>16</v>
@@ -46087,7 +46087,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E572" t="n">
         <v>5</v>
@@ -46115,7 +46115,7 @@
       </c>
       <c r="K572" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L572" t="inlineStr">
@@ -46127,13 +46127,13 @@
         <v>70</v>
       </c>
       <c r="N572" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O572" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P572" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46142,11 +46142,11 @@
       </c>
       <c r="R572" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S572" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T572" t="n">
         <v>16</v>
@@ -46167,7 +46167,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E573" t="n">
         <v>5</v>
@@ -46195,7 +46195,7 @@
       </c>
       <c r="K573" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L573" t="inlineStr">
@@ -46204,16 +46204,16 @@
         </is>
       </c>
       <c r="M573" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="N573" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O573" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P573" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46222,11 +46222,11 @@
       </c>
       <c r="R573" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S573" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T573" t="n">
         <v>16</v>
@@ -46275,7 +46275,7 @@
       </c>
       <c r="K574" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L574" t="inlineStr">
@@ -46284,16 +46284,16 @@
         </is>
       </c>
       <c r="M574" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N574" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O574" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P574" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         </is>
       </c>
       <c r="S574" t="n">
-        <v>812</v>
+        <v>875</v>
       </c>
       <c r="T574" t="n">
         <v>16</v>
@@ -46355,25 +46355,25 @@
       </c>
       <c r="K575" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L575" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M575" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N575" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O575" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P575" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46386,7 +46386,7 @@
         </is>
       </c>
       <c r="S575" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T575" t="n">
         <v>16</v>
@@ -46435,25 +46435,25 @@
       </c>
       <c r="K576" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L576" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M576" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="N576" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O576" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P576" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46466,7 +46466,7 @@
         </is>
       </c>
       <c r="S576" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T576" t="n">
         <v>16</v>
@@ -46487,7 +46487,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E577" t="n">
         <v>5</v>
@@ -46515,25 +46515,25 @@
       </c>
       <c r="K577" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L577" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M577" t="n">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="N577" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O577" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P577" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46542,11 +46542,11 @@
       </c>
       <c r="R577" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S577" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T577" t="n">
         <v>16</v>
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E578" t="n">
         <v>5</v>
@@ -46595,25 +46595,25 @@
       </c>
       <c r="K578" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L578" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M578" t="n">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="N578" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O578" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P578" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
@@ -46622,11 +46622,11 @@
       </c>
       <c r="R578" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S578" t="n">
-        <v>938</v>
+        <v>812</v>
       </c>
       <c r="T578" t="n">
         <v>16</v>
@@ -46647,7 +46647,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E579" t="n">
         <v>5</v>
@@ -46675,7 +46675,7 @@
       </c>
       <c r="K579" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L579" t="inlineStr">
@@ -46684,16 +46684,16 @@
         </is>
       </c>
       <c r="M579" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="N579" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O579" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P579" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46702,11 +46702,11 @@
       </c>
       <c r="R579" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S579" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T579" t="n">
         <v>16</v>
@@ -46727,7 +46727,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E580" t="n">
         <v>5</v>
@@ -46755,7 +46755,7 @@
       </c>
       <c r="K580" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L580" t="inlineStr">
@@ -46764,16 +46764,16 @@
         </is>
       </c>
       <c r="M580" t="n">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="N580" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O580" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P580" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
@@ -46782,11 +46782,11 @@
       </c>
       <c r="R580" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S580" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T580" t="n">
         <v>16</v>
@@ -46835,7 +46835,7 @@
       </c>
       <c r="K581" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L581" t="inlineStr">
@@ -46844,7 +46844,7 @@
         </is>
       </c>
       <c r="M581" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="N581" t="n">
         <v>14000</v>
@@ -46915,25 +46915,25 @@
       </c>
       <c r="K582" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L582" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M582" t="n">
         <v>98</v>
       </c>
       <c r="N582" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O582" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P582" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
@@ -46946,7 +46946,7 @@
         </is>
       </c>
       <c r="S582" t="n">
-        <v>812</v>
+        <v>938</v>
       </c>
       <c r="T582" t="n">
         <v>16</v>
@@ -46995,25 +46995,25 @@
       </c>
       <c r="K583" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L583" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M583" t="n">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="N583" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O583" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P583" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47026,7 +47026,7 @@
         </is>
       </c>
       <c r="S583" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T583" t="n">
         <v>16</v>
@@ -47075,25 +47075,25 @@
       </c>
       <c r="K584" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L584" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M584" t="n">
         <v>80</v>
       </c>
       <c r="N584" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O584" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P584" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
@@ -47106,7 +47106,7 @@
         </is>
       </c>
       <c r="S584" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T584" t="n">
         <v>16</v>
@@ -47155,25 +47155,25 @@
       </c>
       <c r="K585" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L585" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M585" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N585" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O585" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P585" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
@@ -47186,7 +47186,7 @@
         </is>
       </c>
       <c r="S585" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T585" t="n">
         <v>16</v>
@@ -47235,7 +47235,7 @@
       </c>
       <c r="K586" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L586" t="inlineStr">
@@ -47244,7 +47244,7 @@
         </is>
       </c>
       <c r="M586" t="n">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="N586" t="n">
         <v>13000</v>
@@ -47287,7 +47287,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44270</v>
+        <v>44224</v>
       </c>
       <c r="E587" t="n">
         <v>5</v>
@@ -47315,25 +47315,25 @@
       </c>
       <c r="K587" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L587" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M587" t="n">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="N587" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O587" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P587" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
@@ -47342,11 +47342,11 @@
       </c>
       <c r="R587" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S587" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T587" t="n">
         <v>16</v>
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44270</v>
+        <v>44224</v>
       </c>
       <c r="E588" t="n">
         <v>5</v>
@@ -47395,25 +47395,25 @@
       </c>
       <c r="K588" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L588" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M588" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N588" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O588" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P588" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
@@ -47422,11 +47422,11 @@
       </c>
       <c r="R588" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S588" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T588" t="n">
         <v>16</v>
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44270</v>
+        <v>44224</v>
       </c>
       <c r="E589" t="n">
         <v>5</v>
@@ -47475,25 +47475,25 @@
       </c>
       <c r="K589" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M589" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N589" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O589" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P589" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47502,11 +47502,11 @@
       </c>
       <c r="R589" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S589" t="n">
-        <v>750</v>
+        <v>938</v>
       </c>
       <c r="T589" t="n">
         <v>16</v>
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44270</v>
+        <v>44224</v>
       </c>
       <c r="E590" t="n">
         <v>5</v>
@@ -47555,25 +47555,25 @@
       </c>
       <c r="K590" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L590" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M590" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="N590" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O590" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P590" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47582,11 +47582,11 @@
       </c>
       <c r="R590" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S590" t="n">
-        <v>625</v>
+        <v>812</v>
       </c>
       <c r="T590" t="n">
         <v>16</v>
@@ -47635,7 +47635,7 @@
       </c>
       <c r="K591" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L591" t="inlineStr">
@@ -47644,7 +47644,7 @@
         </is>
       </c>
       <c r="M591" t="n">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="N591" t="n">
         <v>14000</v>
@@ -47715,7 +47715,7 @@
       </c>
       <c r="K592" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L592" t="inlineStr">
@@ -47724,7 +47724,7 @@
         </is>
       </c>
       <c r="M592" t="n">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="N592" t="n">
         <v>16000</v>
@@ -47795,7 +47795,7 @@
       </c>
       <c r="K593" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L593" t="inlineStr">
@@ -47804,7 +47804,7 @@
         </is>
       </c>
       <c r="M593" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N593" t="n">
         <v>12000</v>
@@ -47847,7 +47847,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E594" t="n">
         <v>5</v>
@@ -47875,25 +47875,25 @@
       </c>
       <c r="K594" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L594" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M594" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N594" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O594" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P594" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
@@ -47906,7 +47906,7 @@
         </is>
       </c>
       <c r="S594" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T594" t="n">
         <v>16</v>
@@ -47927,7 +47927,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E595" t="n">
         <v>5</v>
@@ -47955,25 +47955,25 @@
       </c>
       <c r="K595" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L595" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M595" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N595" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O595" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P595" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
@@ -47986,7 +47986,7 @@
         </is>
       </c>
       <c r="S595" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T595" t="n">
         <v>16</v>
@@ -48007,7 +48007,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E596" t="n">
         <v>5</v>
@@ -48035,25 +48035,25 @@
       </c>
       <c r="K596" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L596" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M596" t="n">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="N596" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="O596" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="P596" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
@@ -48066,7 +48066,7 @@
         </is>
       </c>
       <c r="S596" t="n">
-        <v>562</v>
+        <v>1000</v>
       </c>
       <c r="T596" t="n">
         <v>16</v>
@@ -48087,7 +48087,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E597" t="n">
         <v>5</v>
@@ -48115,25 +48115,25 @@
       </c>
       <c r="K597" t="inlineStr">
         <is>
-          <t>Jrb</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L597" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M597" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="N597" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O597" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P597" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
@@ -48142,11 +48142,11 @@
       </c>
       <c r="R597" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S597" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T597" t="n">
         <v>16</v>
@@ -48195,25 +48195,25 @@
       </c>
       <c r="K598" t="inlineStr">
         <is>
-          <t>Jrb</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L598" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M598" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N598" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O598" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P598" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
@@ -48222,11 +48222,11 @@
       </c>
       <c r="R598" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S598" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T598" t="n">
         <v>16</v>
@@ -48275,7 +48275,7 @@
       </c>
       <c r="K599" t="inlineStr">
         <is>
-          <t>Jrb</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L599" t="inlineStr">
@@ -48284,16 +48284,16 @@
         </is>
       </c>
       <c r="M599" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N599" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O599" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P599" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
@@ -48302,11 +48302,11 @@
       </c>
       <c r="R599" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S599" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T599" t="n">
         <v>16</v>
@@ -48355,7 +48355,7 @@
       </c>
       <c r="K600" t="inlineStr">
         <is>
-          <t>Jrb</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L600" t="inlineStr">
@@ -48364,16 +48364,16 @@
         </is>
       </c>
       <c r="M600" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="N600" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O600" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P600" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
@@ -48382,11 +48382,11 @@
       </c>
       <c r="R600" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S600" t="n">
-        <v>625</v>
+        <v>562</v>
       </c>
       <c r="T600" t="n">
         <v>16</v>
@@ -48407,7 +48407,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E601" t="n">
         <v>5</v>
@@ -48435,7 +48435,7 @@
       </c>
       <c r="K601" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Jrb</t>
         </is>
       </c>
       <c r="L601" t="inlineStr">
@@ -48444,20 +48444,20 @@
         </is>
       </c>
       <c r="M601" t="n">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="N601" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O601" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P601" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R601" t="inlineStr">
@@ -48466,10 +48466,10 @@
         </is>
       </c>
       <c r="S601" t="n">
-        <v>1167</v>
+        <v>812</v>
       </c>
       <c r="T601" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="602">
@@ -48487,7 +48487,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E602" t="n">
         <v>5</v>
@@ -48515,29 +48515,29 @@
       </c>
       <c r="K602" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Jrb</t>
         </is>
       </c>
       <c r="L602" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M602" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="N602" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O602" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P602" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R602" t="inlineStr">
@@ -48546,10 +48546,10 @@
         </is>
       </c>
       <c r="S602" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T602" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="603">
@@ -48567,7 +48567,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E603" t="n">
         <v>5</v>
@@ -48595,29 +48595,29 @@
       </c>
       <c r="K603" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Jrb</t>
         </is>
       </c>
       <c r="L603" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M603" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N603" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O603" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P603" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R603" t="inlineStr">
@@ -48626,10 +48626,10 @@
         </is>
       </c>
       <c r="S603" t="n">
-        <v>833</v>
+        <v>750</v>
       </c>
       <c r="T603" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="604">
@@ -48647,7 +48647,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44511</v>
+        <v>44195</v>
       </c>
       <c r="E604" t="n">
         <v>5</v>
@@ -48675,29 +48675,29 @@
       </c>
       <c r="K604" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Jrb</t>
         </is>
       </c>
       <c r="L604" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M604" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="N604" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O604" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P604" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R604" t="inlineStr">
@@ -48706,10 +48706,10 @@
         </is>
       </c>
       <c r="S604" t="n">
-        <v>1300</v>
+        <v>625</v>
       </c>
       <c r="T604" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="605">
@@ -48727,7 +48727,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44511</v>
+        <v>44536</v>
       </c>
       <c r="E605" t="n">
         <v>5</v>
@@ -48755,29 +48755,29 @@
       </c>
       <c r="K605" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L605" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M605" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="N605" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O605" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P605" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R605" t="inlineStr">
@@ -48786,10 +48786,10 @@
         </is>
       </c>
       <c r="S605" t="n">
-        <v>1000</v>
+        <v>1167</v>
       </c>
       <c r="T605" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="606">
@@ -48807,7 +48807,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44511</v>
+        <v>44536</v>
       </c>
       <c r="E606" t="n">
         <v>5</v>
@@ -48835,29 +48835,29 @@
       </c>
       <c r="K606" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L606" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M606" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="N606" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O606" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P606" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R606" t="inlineStr">
@@ -48866,10 +48866,10 @@
         </is>
       </c>
       <c r="S606" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T606" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="607">
@@ -48887,7 +48887,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44511</v>
+        <v>44536</v>
       </c>
       <c r="E607" t="n">
         <v>5</v>
@@ -48915,41 +48915,41 @@
       </c>
       <c r="K607" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L607" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M607" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N607" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O607" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P607" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R607" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S607" t="n">
-        <v>933</v>
+        <v>833</v>
       </c>
       <c r="T607" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="608">
@@ -48995,41 +48995,41 @@
       </c>
       <c r="K608" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L608" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M608" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N608" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O608" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P608" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R608" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S608" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="T608" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="609">
@@ -49075,25 +49075,25 @@
       </c>
       <c r="K609" t="inlineStr">
         <is>
-          <t>Gold Crest</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L609" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M609" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="N609" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O609" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P609" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
@@ -49106,7 +49106,7 @@
         </is>
       </c>
       <c r="S609" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="T609" t="n">
         <v>10</v>
@@ -49155,25 +49155,25 @@
       </c>
       <c r="K610" t="inlineStr">
         <is>
-          <t>Gold Crest</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L610" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M610" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N610" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O610" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P610" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
@@ -49186,7 +49186,7 @@
         </is>
       </c>
       <c r="S610" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T610" t="n">
         <v>10</v>
@@ -49235,41 +49235,41 @@
       </c>
       <c r="K611" t="inlineStr">
         <is>
-          <t>Gold Crest</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M611" t="n">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="N611" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O611" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P611" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R611" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S611" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T611" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="612">
@@ -49287,7 +49287,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44239</v>
+        <v>44511</v>
       </c>
       <c r="E612" t="n">
         <v>5</v>
@@ -49315,41 +49315,41 @@
       </c>
       <c r="K612" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M612" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N612" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O612" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P612" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R612" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S612" t="n">
-        <v>875</v>
+        <v>800</v>
       </c>
       <c r="T612" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="613">
@@ -49367,7 +49367,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44239</v>
+        <v>44511</v>
       </c>
       <c r="E613" t="n">
         <v>5</v>
@@ -49395,29 +49395,29 @@
       </c>
       <c r="K613" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Gold Crest</t>
         </is>
       </c>
       <c r="L613" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M613" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="N613" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="O613" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="P613" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R613" t="inlineStr">
@@ -49426,10 +49426,10 @@
         </is>
       </c>
       <c r="S613" t="n">
-        <v>781</v>
+        <v>1300</v>
       </c>
       <c r="T613" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="614">
@@ -49447,7 +49447,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44239</v>
+        <v>44511</v>
       </c>
       <c r="E614" t="n">
         <v>5</v>
@@ -49475,16 +49475,16 @@
       </c>
       <c r="K614" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Gold Crest</t>
         </is>
       </c>
       <c r="L614" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M614" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="N614" t="n">
         <v>10000</v>
@@ -49497,7 +49497,7 @@
       </c>
       <c r="Q614" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R614" t="inlineStr">
@@ -49506,10 +49506,10 @@
         </is>
       </c>
       <c r="S614" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T614" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="615">
@@ -49527,7 +49527,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44194</v>
+        <v>44511</v>
       </c>
       <c r="E615" t="n">
         <v>5</v>
@@ -49555,29 +49555,29 @@
       </c>
       <c r="K615" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Gold Crest</t>
         </is>
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M615" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="N615" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O615" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P615" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R615" t="inlineStr">
@@ -49586,10 +49586,10 @@
         </is>
       </c>
       <c r="S615" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="T615" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="616">
@@ -49607,7 +49607,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E616" t="n">
         <v>5</v>
@@ -49635,25 +49635,25 @@
       </c>
       <c r="K616" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L616" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M616" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N616" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O616" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P616" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49666,7 +49666,7 @@
         </is>
       </c>
       <c r="S616" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T616" t="n">
         <v>16</v>
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E617" t="n">
         <v>5</v>
@@ -49715,25 +49715,25 @@
       </c>
       <c r="K617" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L617" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M617" t="n">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="N617" t="n">
-        <v>9000</v>
+        <v>12500</v>
       </c>
       <c r="O617" t="n">
-        <v>9000</v>
+        <v>12500</v>
       </c>
       <c r="P617" t="n">
-        <v>9000</v>
+        <v>12500</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         </is>
       </c>
       <c r="S617" t="n">
-        <v>562</v>
+        <v>781</v>
       </c>
       <c r="T617" t="n">
         <v>16</v>
@@ -49767,7 +49767,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E618" t="n">
         <v>5</v>
@@ -49795,25 +49795,25 @@
       </c>
       <c r="K618" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L618" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M618" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="N618" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O618" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P618" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
@@ -49826,7 +49826,7 @@
         </is>
       </c>
       <c r="S618" t="n">
-        <v>812</v>
+        <v>625</v>
       </c>
       <c r="T618" t="n">
         <v>16</v>
@@ -49875,16 +49875,16 @@
       </c>
       <c r="K619" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L619" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M619" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N619" t="n">
         <v>12000</v>
@@ -49955,16 +49955,16 @@
       </c>
       <c r="K620" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L620" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M620" t="n">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="N620" t="n">
         <v>10000</v>
@@ -50007,7 +50007,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E621" t="n">
         <v>5</v>
@@ -50035,41 +50035,41 @@
       </c>
       <c r="K621" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L621" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M621" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="N621" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O621" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P621" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R621" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S621" t="n">
-        <v>1000</v>
+        <v>562</v>
       </c>
       <c r="T621" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="622">
@@ -50087,7 +50087,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E622" t="n">
         <v>5</v>
@@ -50115,29 +50115,29 @@
       </c>
       <c r="K622" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L622" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M622" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N622" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O622" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P622" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R622" t="inlineStr">
@@ -50146,10 +50146,10 @@
         </is>
       </c>
       <c r="S622" t="n">
-        <v>1000</v>
+        <v>812</v>
       </c>
       <c r="T622" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="623">
@@ -50167,7 +50167,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E623" t="n">
         <v>5</v>
@@ -50195,12 +50195,12 @@
       </c>
       <c r="K623" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L623" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M623" t="n">
@@ -50217,19 +50217,19 @@
       </c>
       <c r="Q623" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R623" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S623" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="T623" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="624">
@@ -50247,7 +50247,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E624" t="n">
         <v>5</v>
@@ -50275,29 +50275,29 @@
       </c>
       <c r="K624" t="inlineStr">
         <is>
-          <t>Gold Crest</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L624" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M624" t="n">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="N624" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O624" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P624" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R624" t="inlineStr">
@@ -50306,10 +50306,10 @@
         </is>
       </c>
       <c r="S624" t="n">
-        <v>1400</v>
+        <v>625</v>
       </c>
       <c r="T624" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="625">
@@ -50355,7 +50355,7 @@
       </c>
       <c r="K625" t="inlineStr">
         <is>
-          <t>Gold Crest</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L625" t="inlineStr">
@@ -50364,32 +50364,32 @@
         </is>
       </c>
       <c r="M625" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="N625" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O625" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P625" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R625" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S625" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T625" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="626">
@@ -50435,29 +50435,29 @@
       </c>
       <c r="K626" t="inlineStr">
         <is>
-          <t>Gold Crest</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L626" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M626" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N626" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O626" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P626" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R626" t="inlineStr">
@@ -50466,10 +50466,10 @@
         </is>
       </c>
       <c r="S626" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T626" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="627">
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E627" t="n">
         <v>5</v>
@@ -50515,38 +50515,38 @@
       </c>
       <c r="K627" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L627" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M627" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N627" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O627" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P627" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R627" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S627" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T627" t="n">
         <v>15</v>
@@ -50567,7 +50567,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E628" t="n">
         <v>5</v>
@@ -50595,29 +50595,29 @@
       </c>
       <c r="K628" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Gold Crest</t>
         </is>
       </c>
       <c r="L628" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M628" t="n">
         <v>67</v>
       </c>
       <c r="N628" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O628" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P628" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R628" t="inlineStr">
@@ -50626,10 +50626,10 @@
         </is>
       </c>
       <c r="S628" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="T628" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="629">
@@ -50647,7 +50647,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E629" t="n">
         <v>5</v>
@@ -50675,29 +50675,29 @@
       </c>
       <c r="K629" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Gold Crest</t>
         </is>
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M629" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="N629" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O629" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P629" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R629" t="inlineStr">
@@ -50706,10 +50706,10 @@
         </is>
       </c>
       <c r="S629" t="n">
-        <v>667</v>
+        <v>1200</v>
       </c>
       <c r="T629" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="630">
@@ -50727,7 +50727,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E630" t="n">
         <v>5</v>
@@ -50755,29 +50755,29 @@
       </c>
       <c r="K630" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Gold Crest</t>
         </is>
       </c>
       <c r="L630" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M630" t="n">
         <v>60</v>
       </c>
       <c r="N630" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O630" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P630" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R630" t="inlineStr">
@@ -50786,10 +50786,10 @@
         </is>
       </c>
       <c r="S630" t="n">
-        <v>1167</v>
+        <v>800</v>
       </c>
       <c r="T630" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="631">
@@ -50835,29 +50835,29 @@
       </c>
       <c r="K631" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L631" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M631" t="n">
         <v>65</v>
       </c>
       <c r="N631" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O631" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P631" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R631" t="inlineStr">
@@ -50866,10 +50866,10 @@
         </is>
       </c>
       <c r="S631" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T631" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="632">
@@ -50887,7 +50887,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E632" t="n">
         <v>5</v>
@@ -50915,41 +50915,41 @@
       </c>
       <c r="K632" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M632" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N632" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O632" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P632" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R632" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S632" t="n">
-        <v>875</v>
+        <v>800</v>
       </c>
       <c r="T632" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="633">
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E633" t="n">
         <v>5</v>
@@ -50995,41 +50995,41 @@
       </c>
       <c r="K633" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M633" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="N633" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O633" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P633" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R633" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S633" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T633" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="634">
@@ -51047,68 +51047,388 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E634" t="n">
+        <v>5</v>
+      </c>
+      <c r="F634" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G634" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H634" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I634" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J634" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>Polar King</t>
+        </is>
+      </c>
+      <c r="L634" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M634" t="n">
+        <v>60</v>
+      </c>
+      <c r="N634" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O634" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P634" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q634" t="inlineStr">
+        <is>
+          <t>$/caja 12 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R634" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S634" t="n">
+        <v>1167</v>
+      </c>
+      <c r="T634" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="n">
+        <v>3</v>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D635" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E635" t="n">
+        <v>5</v>
+      </c>
+      <c r="F635" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G635" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H635" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I635" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J635" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>Polar King</t>
+        </is>
+      </c>
+      <c r="L635" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M635" t="n">
+        <v>65</v>
+      </c>
+      <c r="N635" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O635" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P635" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q635" t="inlineStr">
+        <is>
+          <t>$/caja 12 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R635" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S635" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T635" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="n">
+        <v>3</v>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D636" s="2" t="n">
         <v>44272</v>
       </c>
-      <c r="E634" t="n">
-        <v>5</v>
-      </c>
-      <c r="F634" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G634" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I634" t="n">
-        <v>100103004</v>
-      </c>
-      <c r="J634" t="inlineStr">
-        <is>
-          <t>Durazno</t>
-        </is>
-      </c>
-      <c r="K634" t="inlineStr">
+      <c r="E636" t="n">
+        <v>5</v>
+      </c>
+      <c r="F636" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G636" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H636" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I636" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J636" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K636" t="inlineStr">
         <is>
           <t>Phillips Cling</t>
         </is>
       </c>
-      <c r="L634" t="inlineStr">
+      <c r="L636" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M636" t="n">
+        <v>70</v>
+      </c>
+      <c r="N636" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O636" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P636" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q636" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R636" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S636" t="n">
+        <v>875</v>
+      </c>
+      <c r="T636" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="n">
+        <v>3</v>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D637" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E637" t="n">
+        <v>5</v>
+      </c>
+      <c r="F637" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G637" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H637" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I637" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J637" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>Phillips Cling</t>
+        </is>
+      </c>
+      <c r="L637" t="inlineStr">
+        <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M637" t="n">
+        <v>65</v>
+      </c>
+      <c r="N637" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O637" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P637" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q637" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R637" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S637" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T637" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="n">
+        <v>3</v>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D638" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E638" t="n">
+        <v>5</v>
+      </c>
+      <c r="F638" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G638" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H638" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I638" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J638" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>Phillips Cling</t>
+        </is>
+      </c>
+      <c r="L638" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M634" t="n">
+      <c r="M638" t="n">
         <v>70</v>
       </c>
-      <c r="N634" t="n">
+      <c r="N638" t="n">
         <v>12000</v>
       </c>
-      <c r="O634" t="n">
+      <c r="O638" t="n">
         <v>12000</v>
       </c>
-      <c r="P634" t="n">
+      <c r="P638" t="n">
         <v>12000</v>
       </c>
-      <c r="Q634" t="inlineStr">
+      <c r="Q638" t="inlineStr">
         <is>
           <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
-      <c r="R634" t="inlineStr">
+      <c r="R638" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S634" t="n">
+      <c r="S638" t="n">
         <v>750</v>
       </c>
-      <c r="T634" t="n">
+      <c r="T638" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T662"/>
+  <dimension ref="A1:T669"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44279</v>
+        <v>44559</v>
       </c>
       <c r="E510" t="n">
         <v>5</v>
@@ -41155,7 +41155,7 @@
       </c>
       <c r="K510" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L510" t="inlineStr">
@@ -41167,17 +41167,17 @@
         <v>56</v>
       </c>
       <c r="N510" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O510" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P510" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R510" t="inlineStr">
@@ -41186,10 +41186,10 @@
         </is>
       </c>
       <c r="S510" t="n">
-        <v>938</v>
+        <v>867</v>
       </c>
       <c r="T510" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="511">
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44279</v>
+        <v>44559</v>
       </c>
       <c r="E511" t="n">
         <v>5</v>
@@ -41235,7 +41235,7 @@
       </c>
       <c r="K511" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L511" t="inlineStr">
@@ -41244,20 +41244,20 @@
         </is>
       </c>
       <c r="M511" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N511" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O511" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P511" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R511" t="inlineStr">
@@ -41266,10 +41266,10 @@
         </is>
       </c>
       <c r="S511" t="n">
-        <v>812</v>
+        <v>667</v>
       </c>
       <c r="T511" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="512">
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44279</v>
+        <v>44559</v>
       </c>
       <c r="E512" t="n">
         <v>5</v>
@@ -41315,7 +41315,7 @@
       </c>
       <c r="K512" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L512" t="inlineStr">
@@ -41324,20 +41324,20 @@
         </is>
       </c>
       <c r="M512" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="N512" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O512" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P512" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R512" t="inlineStr">
@@ -41346,10 +41346,10 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>688</v>
+        <v>600</v>
       </c>
       <c r="T512" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="513">
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E513" t="n">
         <v>5</v>
@@ -41395,7 +41395,7 @@
       </c>
       <c r="K513" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L513" t="inlineStr">
@@ -41404,32 +41404,32 @@
         </is>
       </c>
       <c r="M513" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N513" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O513" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P513" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R513" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S513" t="n">
-        <v>938</v>
+        <v>1067</v>
       </c>
       <c r="T513" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="514">
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E514" t="n">
         <v>5</v>
@@ -41475,7 +41475,7 @@
       </c>
       <c r="K514" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L514" t="inlineStr">
@@ -41484,32 +41484,32 @@
         </is>
       </c>
       <c r="M514" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N514" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O514" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P514" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R514" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S514" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T514" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="515">
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E515" t="n">
         <v>5</v>
@@ -41555,7 +41555,7 @@
       </c>
       <c r="K515" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L515" t="inlineStr">
@@ -41564,7 +41564,7 @@
         </is>
       </c>
       <c r="M515" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="N515" t="n">
         <v>14000</v>
@@ -41577,19 +41577,19 @@
       </c>
       <c r="Q515" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R515" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S515" t="n">
-        <v>875</v>
+        <v>933</v>
       </c>
       <c r="T515" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="516">
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E516" t="n">
         <v>5</v>
@@ -41635,7 +41635,7 @@
       </c>
       <c r="K516" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L516" t="inlineStr">
@@ -41644,7 +41644,7 @@
         </is>
       </c>
       <c r="M516" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N516" t="n">
         <v>12000</v>
@@ -41657,19 +41657,19 @@
       </c>
       <c r="Q516" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R516" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S516" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="T516" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="517">
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44208</v>
+        <v>44279</v>
       </c>
       <c r="E517" t="n">
         <v>5</v>
@@ -41715,7 +41715,7 @@
       </c>
       <c r="K517" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L517" t="inlineStr">
@@ -41724,7 +41724,7 @@
         </is>
       </c>
       <c r="M517" t="n">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N517" t="n">
         <v>15000</v>
@@ -41742,7 +41742,7 @@
       </c>
       <c r="R517" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S517" t="n">
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44208</v>
+        <v>44279</v>
       </c>
       <c r="E518" t="n">
         <v>5</v>
@@ -41795,25 +41795,25 @@
       </c>
       <c r="K518" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L518" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M518" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N518" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O518" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P518" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41822,11 +41822,11 @@
       </c>
       <c r="R518" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S518" t="n">
-        <v>1000</v>
+        <v>812</v>
       </c>
       <c r="T518" t="n">
         <v>16</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44208</v>
+        <v>44279</v>
       </c>
       <c r="E519" t="n">
         <v>5</v>
@@ -41875,25 +41875,25 @@
       </c>
       <c r="K519" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L519" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M519" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N519" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O519" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P519" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41902,11 +41902,11 @@
       </c>
       <c r="R519" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S519" t="n">
-        <v>875</v>
+        <v>688</v>
       </c>
       <c r="T519" t="n">
         <v>16</v>
@@ -41955,7 +41955,7 @@
       </c>
       <c r="K520" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L520" t="inlineStr">
@@ -41964,16 +41964,16 @@
         </is>
       </c>
       <c r="M520" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N520" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O520" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P520" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41982,11 +41982,11 @@
       </c>
       <c r="R520" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S520" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T520" t="n">
         <v>16</v>
@@ -42035,25 +42035,25 @@
       </c>
       <c r="K521" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L521" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M521" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N521" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O521" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P521" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42062,11 +42062,11 @@
       </c>
       <c r="R521" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S521" t="n">
-        <v>812</v>
+        <v>1000</v>
       </c>
       <c r="T521" t="n">
         <v>16</v>
@@ -42115,25 +42115,25 @@
       </c>
       <c r="K522" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M522" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="N522" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O522" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P522" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42142,11 +42142,11 @@
       </c>
       <c r="R522" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S522" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T522" t="n">
         <v>16</v>
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44264</v>
+        <v>44208</v>
       </c>
       <c r="E523" t="n">
         <v>5</v>
@@ -42195,25 +42195,25 @@
       </c>
       <c r="K523" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M523" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N523" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O523" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P523" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42222,11 +42222,11 @@
       </c>
       <c r="R523" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S523" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T523" t="n">
         <v>16</v>
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44264</v>
+        <v>44208</v>
       </c>
       <c r="E524" t="n">
         <v>5</v>
@@ -42275,25 +42275,25 @@
       </c>
       <c r="K524" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M524" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N524" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O524" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P524" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42302,11 +42302,11 @@
       </c>
       <c r="R524" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S524" t="n">
-        <v>750</v>
+        <v>938</v>
       </c>
       <c r="T524" t="n">
         <v>16</v>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44264</v>
+        <v>44208</v>
       </c>
       <c r="E525" t="n">
         <v>5</v>
@@ -42355,25 +42355,25 @@
       </c>
       <c r="K525" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M525" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N525" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O525" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P525" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42382,11 +42382,11 @@
       </c>
       <c r="R525" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S525" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T525" t="n">
         <v>16</v>
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44510</v>
+        <v>44208</v>
       </c>
       <c r="E526" t="n">
         <v>5</v>
@@ -42435,7 +42435,7 @@
       </c>
       <c r="K526" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L526" t="inlineStr">
@@ -42444,20 +42444,20 @@
         </is>
       </c>
       <c r="M526" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N526" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O526" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P526" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R526" t="inlineStr">
@@ -42466,10 +42466,10 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>1200</v>
+        <v>875</v>
       </c>
       <c r="T526" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="527">
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44510</v>
+        <v>44208</v>
       </c>
       <c r="E527" t="n">
         <v>5</v>
@@ -42515,41 +42515,41 @@
       </c>
       <c r="K527" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L527" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M527" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="N527" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O527" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P527" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R527" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S527" t="n">
-        <v>1133</v>
+        <v>875</v>
       </c>
       <c r="T527" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="528">
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44510</v>
+        <v>44208</v>
       </c>
       <c r="E528" t="n">
         <v>5</v>
@@ -42595,41 +42595,41 @@
       </c>
       <c r="K528" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L528" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M528" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N528" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O528" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P528" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R528" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S528" t="n">
-        <v>1000</v>
+        <v>812</v>
       </c>
       <c r="T528" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="529">
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44510</v>
+        <v>44208</v>
       </c>
       <c r="E529" t="n">
         <v>5</v>
@@ -42675,7 +42675,7 @@
       </c>
       <c r="K529" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L529" t="inlineStr">
@@ -42684,32 +42684,32 @@
         </is>
       </c>
       <c r="M529" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="N529" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O529" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P529" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R529" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S529" t="n">
-        <v>867</v>
+        <v>750</v>
       </c>
       <c r="T529" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="530">
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44232</v>
+        <v>44264</v>
       </c>
       <c r="E530" t="n">
         <v>5</v>
@@ -42755,7 +42755,7 @@
       </c>
       <c r="K530" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L530" t="inlineStr">
@@ -42764,16 +42764,16 @@
         </is>
       </c>
       <c r="M530" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N530" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O530" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P530" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42782,11 +42782,11 @@
       </c>
       <c r="R530" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S530" t="n">
-        <v>812</v>
+        <v>875</v>
       </c>
       <c r="T530" t="n">
         <v>16</v>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44232</v>
+        <v>44264</v>
       </c>
       <c r="E531" t="n">
         <v>5</v>
@@ -42835,7 +42835,7 @@
       </c>
       <c r="K531" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L531" t="inlineStr">
@@ -42844,7 +42844,7 @@
         </is>
       </c>
       <c r="M531" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N531" t="n">
         <v>12000</v>
@@ -42862,7 +42862,7 @@
       </c>
       <c r="R531" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S531" t="n">
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44232</v>
+        <v>44264</v>
       </c>
       <c r="E532" t="n">
         <v>5</v>
@@ -42915,7 +42915,7 @@
       </c>
       <c r="K532" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L532" t="inlineStr">
@@ -42942,7 +42942,7 @@
       </c>
       <c r="R532" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S532" t="n">
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44551</v>
+        <v>44510</v>
       </c>
       <c r="E533" t="n">
         <v>5</v>
@@ -42995,41 +42995,41 @@
       </c>
       <c r="K533" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M533" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N533" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O533" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P533" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R533" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S533" t="n">
-        <v>1167</v>
+        <v>1200</v>
       </c>
       <c r="T533" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="534">
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44551</v>
+        <v>44510</v>
       </c>
       <c r="E534" t="n">
         <v>5</v>
@@ -43075,38 +43075,38 @@
       </c>
       <c r="K534" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M534" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="N534" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O534" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P534" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R534" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S534" t="n">
-        <v>1000</v>
+        <v>1133</v>
       </c>
       <c r="T534" t="n">
         <v>15</v>
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44551</v>
+        <v>44510</v>
       </c>
       <c r="E535" t="n">
         <v>5</v>
@@ -43155,41 +43155,41 @@
       </c>
       <c r="K535" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M535" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="N535" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O535" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P535" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R535" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S535" t="n">
         <v>1000</v>
       </c>
       <c r="T535" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="536">
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44551</v>
+        <v>44510</v>
       </c>
       <c r="E536" t="n">
         <v>5</v>
@@ -43235,16 +43235,16 @@
       </c>
       <c r="K536" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M536" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N536" t="n">
         <v>13000</v>
@@ -43257,12 +43257,12 @@
       </c>
       <c r="Q536" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R536" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S536" t="n">
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44519</v>
+        <v>44232</v>
       </c>
       <c r="E537" t="n">
         <v>5</v>
@@ -43315,7 +43315,7 @@
       </c>
       <c r="K537" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L537" t="inlineStr">
@@ -43324,20 +43324,20 @@
         </is>
       </c>
       <c r="M537" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="N537" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O537" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P537" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R537" t="inlineStr">
@@ -43346,10 +43346,10 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>1133</v>
+        <v>812</v>
       </c>
       <c r="T537" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="538">
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44519</v>
+        <v>44232</v>
       </c>
       <c r="E538" t="n">
         <v>5</v>
@@ -43395,7 +43395,7 @@
       </c>
       <c r="K538" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L538" t="inlineStr">
@@ -43404,20 +43404,20 @@
         </is>
       </c>
       <c r="M538" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N538" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O538" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P538" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R538" t="inlineStr">
@@ -43426,10 +43426,10 @@
         </is>
       </c>
       <c r="S538" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T538" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="539">
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44519</v>
+        <v>44232</v>
       </c>
       <c r="E539" t="n">
         <v>5</v>
@@ -43475,7 +43475,7 @@
       </c>
       <c r="K539" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L539" t="inlineStr">
@@ -43484,20 +43484,20 @@
         </is>
       </c>
       <c r="M539" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N539" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O539" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P539" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R539" t="inlineStr">
@@ -43506,10 +43506,10 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>800</v>
+        <v>625</v>
       </c>
       <c r="T539" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="540">
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44543</v>
+        <v>44551</v>
       </c>
       <c r="E540" t="n">
         <v>5</v>
@@ -43555,7 +43555,7 @@
       </c>
       <c r="K540" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L540" t="inlineStr">
@@ -43567,29 +43567,29 @@
         <v>56</v>
       </c>
       <c r="N540" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O540" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P540" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R540" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S540" t="n">
-        <v>1133</v>
+        <v>1167</v>
       </c>
       <c r="T540" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="541">
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44543</v>
+        <v>44551</v>
       </c>
       <c r="E541" t="n">
         <v>5</v>
@@ -43635,16 +43635,16 @@
       </c>
       <c r="K541" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L541" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M541" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N541" t="n">
         <v>15000</v>
@@ -43662,7 +43662,7 @@
       </c>
       <c r="R541" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S541" t="n">
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44543</v>
+        <v>44551</v>
       </c>
       <c r="E542" t="n">
         <v>5</v>
@@ -43715,41 +43715,41 @@
       </c>
       <c r="K542" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L542" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M542" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N542" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O542" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P542" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R542" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S542" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T542" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="543">
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44278</v>
+        <v>44551</v>
       </c>
       <c r="E543" t="n">
         <v>5</v>
@@ -43795,29 +43795,29 @@
       </c>
       <c r="K543" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L543" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M543" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="N543" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O543" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P543" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R543" t="inlineStr">
@@ -43826,10 +43826,10 @@
         </is>
       </c>
       <c r="S543" t="n">
-        <v>938</v>
+        <v>867</v>
       </c>
       <c r="T543" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="544">
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44278</v>
+        <v>44519</v>
       </c>
       <c r="E544" t="n">
         <v>5</v>
@@ -43875,41 +43875,41 @@
       </c>
       <c r="K544" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L544" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M544" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="N544" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O544" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P544" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R544" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S544" t="n">
-        <v>812</v>
+        <v>1133</v>
       </c>
       <c r="T544" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="545">
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44281</v>
+        <v>44519</v>
       </c>
       <c r="E545" t="n">
         <v>5</v>
@@ -43955,41 +43955,41 @@
       </c>
       <c r="K545" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L545" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M545" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N545" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O545" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P545" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R545" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S545" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T545" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="546">
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44281</v>
+        <v>44519</v>
       </c>
       <c r="E546" t="n">
         <v>5</v>
@@ -44035,41 +44035,41 @@
       </c>
       <c r="K546" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L546" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M546" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N546" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O546" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P546" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R546" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S546" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T546" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="547">
@@ -44087,7 +44087,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44281</v>
+        <v>44543</v>
       </c>
       <c r="E547" t="n">
         <v>5</v>
@@ -44115,41 +44115,41 @@
       </c>
       <c r="K547" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L547" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M547" t="n">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N547" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O547" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P547" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R547" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S547" t="n">
-        <v>750</v>
+        <v>1133</v>
       </c>
       <c r="T547" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="548">
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44187</v>
+        <v>44543</v>
       </c>
       <c r="E548" t="n">
         <v>5</v>
@@ -44195,29 +44195,29 @@
       </c>
       <c r="K548" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L548" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M548" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N548" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O548" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P548" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R548" t="inlineStr">
@@ -44226,10 +44226,10 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T548" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="549">
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44187</v>
+        <v>44543</v>
       </c>
       <c r="E549" t="n">
         <v>5</v>
@@ -44275,29 +44275,29 @@
       </c>
       <c r="K549" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L549" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M549" t="n">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="N549" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O549" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P549" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R549" t="inlineStr">
@@ -44306,10 +44306,10 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>625</v>
+        <v>867</v>
       </c>
       <c r="T549" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="550">
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44187</v>
+        <v>44278</v>
       </c>
       <c r="E550" t="n">
         <v>5</v>
@@ -44355,25 +44355,25 @@
       </c>
       <c r="K550" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L550" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M550" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="N550" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O550" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P550" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44382,11 +44382,11 @@
       </c>
       <c r="R550" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S550" t="n">
-        <v>562</v>
+        <v>938</v>
       </c>
       <c r="T550" t="n">
         <v>16</v>
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44529</v>
+        <v>44278</v>
       </c>
       <c r="E551" t="n">
         <v>5</v>
@@ -44435,16 +44435,16 @@
       </c>
       <c r="K551" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M551" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N551" t="n">
         <v>13000</v>
@@ -44457,19 +44457,19 @@
       </c>
       <c r="Q551" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R551" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S551" t="n">
-        <v>1083</v>
+        <v>812</v>
       </c>
       <c r="T551" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="552">
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44529</v>
+        <v>44281</v>
       </c>
       <c r="E552" t="n">
         <v>5</v>
@@ -44515,41 +44515,41 @@
       </c>
       <c r="K552" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M552" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N552" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O552" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P552" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R552" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S552" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T552" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="553">
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44529</v>
+        <v>44281</v>
       </c>
       <c r="E553" t="n">
         <v>5</v>
@@ -44595,41 +44595,41 @@
       </c>
       <c r="K553" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M553" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="N553" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O553" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P553" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R553" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S553" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T553" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="554">
@@ -44647,7 +44647,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44529</v>
+        <v>44281</v>
       </c>
       <c r="E554" t="n">
         <v>5</v>
@@ -44675,41 +44675,41 @@
       </c>
       <c r="K554" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M554" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N554" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O554" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P554" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R554" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S554" t="n">
-        <v>933</v>
+        <v>750</v>
       </c>
       <c r="T554" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="555">
@@ -44727,7 +44727,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44529</v>
+        <v>44187</v>
       </c>
       <c r="E555" t="n">
         <v>5</v>
@@ -44755,16 +44755,16 @@
       </c>
       <c r="K555" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L555" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M555" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N555" t="n">
         <v>12000</v>
@@ -44777,7 +44777,7 @@
       </c>
       <c r="Q555" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R555" t="inlineStr">
@@ -44786,10 +44786,10 @@
         </is>
       </c>
       <c r="S555" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="T555" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="556">
@@ -44807,7 +44807,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44529</v>
+        <v>44187</v>
       </c>
       <c r="E556" t="n">
         <v>5</v>
@@ -44835,16 +44835,16 @@
       </c>
       <c r="K556" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L556" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M556" t="n">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="N556" t="n">
         <v>10000</v>
@@ -44857,7 +44857,7 @@
       </c>
       <c r="Q556" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R556" t="inlineStr">
@@ -44866,10 +44866,10 @@
         </is>
       </c>
       <c r="S556" t="n">
-        <v>667</v>
+        <v>625</v>
       </c>
       <c r="T556" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="557">
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44529</v>
+        <v>44187</v>
       </c>
       <c r="E557" t="n">
         <v>5</v>
@@ -44915,29 +44915,29 @@
       </c>
       <c r="K557" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L557" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M557" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="N557" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O557" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P557" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R557" t="inlineStr">
@@ -44946,10 +44946,10 @@
         </is>
       </c>
       <c r="S557" t="n">
-        <v>1333</v>
+        <v>562</v>
       </c>
       <c r="T557" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="558">
@@ -44995,25 +44995,25 @@
       </c>
       <c r="K558" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L558" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M558" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="N558" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O558" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P558" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         </is>
       </c>
       <c r="S558" t="n">
-        <v>1167</v>
+        <v>1083</v>
       </c>
       <c r="T558" t="n">
         <v>12</v>
@@ -45075,12 +45075,12 @@
       </c>
       <c r="K559" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L559" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M559" t="n">
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44238</v>
+        <v>44529</v>
       </c>
       <c r="E560" t="n">
         <v>5</v>
@@ -45155,29 +45155,29 @@
       </c>
       <c r="K560" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L560" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M560" t="n">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="N560" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="O560" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P560" t="n">
-        <v>12765</v>
+        <v>10000</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R560" t="inlineStr">
@@ -45186,10 +45186,10 @@
         </is>
       </c>
       <c r="S560" t="n">
-        <v>798</v>
+        <v>833</v>
       </c>
       <c r="T560" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="561">
@@ -45207,7 +45207,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44238</v>
+        <v>44529</v>
       </c>
       <c r="E561" t="n">
         <v>5</v>
@@ -45235,29 +45235,29 @@
       </c>
       <c r="K561" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L561" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M561" t="n">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="N561" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O561" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P561" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R561" t="inlineStr">
@@ -45266,10 +45266,10 @@
         </is>
       </c>
       <c r="S561" t="n">
-        <v>688</v>
+        <v>933</v>
       </c>
       <c r="T561" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="562">
@@ -45287,7 +45287,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44257</v>
+        <v>44529</v>
       </c>
       <c r="E562" t="n">
         <v>5</v>
@@ -45315,41 +45315,41 @@
       </c>
       <c r="K562" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L562" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M562" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="N562" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O562" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P562" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R562" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S562" t="n">
-        <v>875</v>
+        <v>800</v>
       </c>
       <c r="T562" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="563">
@@ -45367,7 +45367,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44257</v>
+        <v>44529</v>
       </c>
       <c r="E563" t="n">
         <v>5</v>
@@ -45395,41 +45395,41 @@
       </c>
       <c r="K563" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L563" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M563" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N563" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O563" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P563" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R563" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S563" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T563" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="564">
@@ -45447,7 +45447,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44257</v>
+        <v>44529</v>
       </c>
       <c r="E564" t="n">
         <v>5</v>
@@ -45475,41 +45475,41 @@
       </c>
       <c r="K564" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M564" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="N564" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O564" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P564" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R564" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S564" t="n">
-        <v>750</v>
+        <v>1333</v>
       </c>
       <c r="T564" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="565">
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44257</v>
+        <v>44529</v>
       </c>
       <c r="E565" t="n">
         <v>5</v>
@@ -45555,41 +45555,41 @@
       </c>
       <c r="K565" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L565" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M565" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N565" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O565" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P565" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R565" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S565" t="n">
-        <v>625</v>
+        <v>1167</v>
       </c>
       <c r="T565" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="566">
@@ -45607,7 +45607,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44257</v>
+        <v>44529</v>
       </c>
       <c r="E566" t="n">
         <v>5</v>
@@ -45635,41 +45635,41 @@
       </c>
       <c r="K566" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L566" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M566" t="n">
         <v>60</v>
       </c>
       <c r="N566" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O566" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P566" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R566" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S566" t="n">
-        <v>812</v>
+        <v>1000</v>
       </c>
       <c r="T566" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="567">
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E567" t="n">
         <v>5</v>
@@ -45715,7 +45715,7 @@
       </c>
       <c r="K567" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L567" t="inlineStr">
@@ -45724,16 +45724,16 @@
         </is>
       </c>
       <c r="M567" t="n">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="N567" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="O567" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P567" t="n">
-        <v>12000</v>
+        <v>12765</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45742,11 +45742,11 @@
       </c>
       <c r="R567" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S567" t="n">
-        <v>750</v>
+        <v>798</v>
       </c>
       <c r="T567" t="n">
         <v>16</v>
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E568" t="n">
         <v>5</v>
@@ -45795,7 +45795,7 @@
       </c>
       <c r="K568" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L568" t="inlineStr">
@@ -45804,16 +45804,16 @@
         </is>
       </c>
       <c r="M568" t="n">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="N568" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O568" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P568" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45822,11 +45822,11 @@
       </c>
       <c r="R568" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S568" t="n">
-        <v>625</v>
+        <v>688</v>
       </c>
       <c r="T568" t="n">
         <v>16</v>
@@ -45847,7 +45847,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E569" t="n">
         <v>5</v>
@@ -45875,7 +45875,7 @@
       </c>
       <c r="K569" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L569" t="inlineStr">
@@ -45884,16 +45884,16 @@
         </is>
       </c>
       <c r="M569" t="n">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="N569" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O569" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P569" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         </is>
       </c>
       <c r="S569" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T569" t="n">
         <v>16</v>
@@ -45927,7 +45927,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E570" t="n">
         <v>5</v>
@@ -45955,7 +45955,7 @@
       </c>
       <c r="K570" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L570" t="inlineStr">
@@ -45967,13 +45967,13 @@
         <v>85</v>
       </c>
       <c r="N570" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O570" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P570" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
@@ -45986,7 +45986,7 @@
         </is>
       </c>
       <c r="S570" t="n">
-        <v>1125</v>
+        <v>1000</v>
       </c>
       <c r="T570" t="n">
         <v>16</v>
@@ -46007,7 +46007,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E571" t="n">
         <v>5</v>
@@ -46035,7 +46035,7 @@
       </c>
       <c r="K571" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L571" t="inlineStr">
@@ -46044,16 +46044,16 @@
         </is>
       </c>
       <c r="M571" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N571" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O571" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P571" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         </is>
       </c>
       <c r="S571" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T571" t="n">
         <v>16</v>
@@ -46087,7 +46087,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E572" t="n">
         <v>5</v>
@@ -46115,7 +46115,7 @@
       </c>
       <c r="K572" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L572" t="inlineStr">
@@ -46124,16 +46124,16 @@
         </is>
       </c>
       <c r="M572" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="N572" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O572" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P572" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         </is>
       </c>
       <c r="S572" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T572" t="n">
         <v>16</v>
@@ -46167,7 +46167,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E573" t="n">
         <v>5</v>
@@ -46195,7 +46195,7 @@
       </c>
       <c r="K573" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L573" t="inlineStr">
@@ -46204,16 +46204,16 @@
         </is>
       </c>
       <c r="M573" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N573" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O573" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P573" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         </is>
       </c>
       <c r="S573" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T573" t="n">
         <v>16</v>
@@ -46247,7 +46247,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E574" t="n">
         <v>5</v>
@@ -46275,7 +46275,7 @@
       </c>
       <c r="K574" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L574" t="inlineStr">
@@ -46284,16 +46284,16 @@
         </is>
       </c>
       <c r="M574" t="n">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="N574" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O574" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P574" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         </is>
       </c>
       <c r="S574" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T574" t="n">
         <v>16</v>
@@ -46327,7 +46327,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E575" t="n">
         <v>5</v>
@@ -46355,7 +46355,7 @@
       </c>
       <c r="K575" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L575" t="inlineStr">
@@ -46364,16 +46364,16 @@
         </is>
       </c>
       <c r="M575" t="n">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="N575" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O575" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P575" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46386,7 +46386,7 @@
         </is>
       </c>
       <c r="S575" t="n">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="T575" t="n">
         <v>16</v>
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E576" t="n">
         <v>5</v>
@@ -46435,7 +46435,7 @@
       </c>
       <c r="K576" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L576" t="inlineStr">
@@ -46444,16 +46444,16 @@
         </is>
       </c>
       <c r="M576" t="n">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="N576" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O576" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P576" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46462,11 +46462,11 @@
       </c>
       <c r="R576" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S576" t="n">
-        <v>812</v>
+        <v>1000</v>
       </c>
       <c r="T576" t="n">
         <v>16</v>
@@ -46487,7 +46487,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E577" t="n">
         <v>5</v>
@@ -46515,25 +46515,25 @@
       </c>
       <c r="K577" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L577" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M577" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N577" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O577" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P577" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46542,11 +46542,11 @@
       </c>
       <c r="R577" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S577" t="n">
-        <v>750</v>
+        <v>1125</v>
       </c>
       <c r="T577" t="n">
         <v>16</v>
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E578" t="n">
         <v>5</v>
@@ -46595,25 +46595,25 @@
       </c>
       <c r="K578" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L578" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M578" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N578" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O578" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P578" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
@@ -46622,11 +46622,11 @@
       </c>
       <c r="R578" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S578" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T578" t="n">
         <v>16</v>
@@ -46647,7 +46647,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E579" t="n">
         <v>5</v>
@@ -46675,25 +46675,25 @@
       </c>
       <c r="K579" t="inlineStr">
         <is>
-          <t>Jrb</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L579" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M579" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N579" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O579" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P579" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46702,11 +46702,11 @@
       </c>
       <c r="R579" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S579" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T579" t="n">
         <v>16</v>
@@ -46727,7 +46727,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E580" t="n">
         <v>5</v>
@@ -46755,25 +46755,25 @@
       </c>
       <c r="K580" t="inlineStr">
         <is>
-          <t>Jrb</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L580" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M580" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N580" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O580" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P580" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
@@ -46782,11 +46782,11 @@
       </c>
       <c r="R580" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S580" t="n">
-        <v>938</v>
+        <v>750</v>
       </c>
       <c r="T580" t="n">
         <v>16</v>
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E581" t="n">
         <v>5</v>
@@ -46835,7 +46835,7 @@
       </c>
       <c r="K581" t="inlineStr">
         <is>
-          <t>Jrb</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L581" t="inlineStr">
@@ -46847,13 +46847,13 @@
         <v>87</v>
       </c>
       <c r="N581" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O581" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P581" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46862,11 +46862,11 @@
       </c>
       <c r="R581" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S581" t="n">
-        <v>812</v>
+        <v>625</v>
       </c>
       <c r="T581" t="n">
         <v>16</v>
@@ -46887,7 +46887,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E582" t="n">
         <v>5</v>
@@ -46915,7 +46915,7 @@
       </c>
       <c r="K582" t="inlineStr">
         <is>
-          <t>Jrb</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L582" t="inlineStr">
@@ -46924,16 +46924,16 @@
         </is>
       </c>
       <c r="M582" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N582" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O582" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P582" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
@@ -46942,11 +46942,11 @@
       </c>
       <c r="R582" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S582" t="n">
-        <v>750</v>
+        <v>562</v>
       </c>
       <c r="T582" t="n">
         <v>16</v>
@@ -46995,7 +46995,7 @@
       </c>
       <c r="K583" t="inlineStr">
         <is>
-          <t>Manon</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L583" t="inlineStr">
@@ -47004,16 +47004,16 @@
         </is>
       </c>
       <c r="M583" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N583" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O583" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P583" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47022,11 +47022,11 @@
       </c>
       <c r="R583" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S583" t="n">
-        <v>875</v>
+        <v>812</v>
       </c>
       <c r="T583" t="n">
         <v>16</v>
@@ -47075,7 +47075,7 @@
       </c>
       <c r="K584" t="inlineStr">
         <is>
-          <t>Manon</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L584" t="inlineStr">
@@ -47084,16 +47084,16 @@
         </is>
       </c>
       <c r="M584" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N584" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O584" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P584" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
@@ -47102,11 +47102,11 @@
       </c>
       <c r="R584" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S584" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T584" t="n">
         <v>16</v>
@@ -47155,7 +47155,7 @@
       </c>
       <c r="K585" t="inlineStr">
         <is>
-          <t>Manon</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L585" t="inlineStr">
@@ -47164,16 +47164,16 @@
         </is>
       </c>
       <c r="M585" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N585" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O585" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P585" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
@@ -47182,11 +47182,11 @@
       </c>
       <c r="R585" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S585" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T585" t="n">
         <v>16</v>
@@ -47207,7 +47207,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E586" t="n">
         <v>5</v>
@@ -47235,7 +47235,7 @@
       </c>
       <c r="K586" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Jrb</t>
         </is>
       </c>
       <c r="L586" t="inlineStr">
@@ -47244,16 +47244,16 @@
         </is>
       </c>
       <c r="M586" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N586" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O586" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P586" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
@@ -47266,7 +47266,7 @@
         </is>
       </c>
       <c r="S586" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T586" t="n">
         <v>16</v>
@@ -47287,7 +47287,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E587" t="n">
         <v>5</v>
@@ -47315,25 +47315,25 @@
       </c>
       <c r="K587" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Jrb</t>
         </is>
       </c>
       <c r="L587" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M587" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N587" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O587" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P587" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
@@ -47346,7 +47346,7 @@
         </is>
       </c>
       <c r="S587" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T587" t="n">
         <v>16</v>
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E588" t="n">
         <v>5</v>
@@ -47395,25 +47395,25 @@
       </c>
       <c r="K588" t="inlineStr">
         <is>
-          <t>American Nectar</t>
+          <t>Jrb</t>
         </is>
       </c>
       <c r="L588" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M588" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="N588" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O588" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P588" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
@@ -47426,7 +47426,7 @@
         </is>
       </c>
       <c r="S588" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T588" t="n">
         <v>16</v>
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E589" t="n">
         <v>5</v>
@@ -47475,25 +47475,25 @@
       </c>
       <c r="K589" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Jrb</t>
         </is>
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M589" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N589" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O589" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P589" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         </is>
       </c>
       <c r="S589" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T589" t="n">
         <v>16</v>
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E590" t="n">
         <v>5</v>
@@ -47555,25 +47555,25 @@
       </c>
       <c r="K590" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Manon</t>
         </is>
       </c>
       <c r="L590" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M590" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N590" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O590" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P590" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47582,11 +47582,11 @@
       </c>
       <c r="R590" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S590" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T590" t="n">
         <v>16</v>
@@ -47607,7 +47607,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E591" t="n">
         <v>5</v>
@@ -47635,25 +47635,25 @@
       </c>
       <c r="K591" t="inlineStr">
         <is>
-          <t>Rich Lady</t>
+          <t>Manon</t>
         </is>
       </c>
       <c r="L591" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M591" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="N591" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O591" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P591" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
@@ -47662,11 +47662,11 @@
       </c>
       <c r="R591" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S591" t="n">
-        <v>625</v>
+        <v>812</v>
       </c>
       <c r="T591" t="n">
         <v>16</v>
@@ -47687,7 +47687,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E592" t="n">
         <v>5</v>
@@ -47715,16 +47715,16 @@
       </c>
       <c r="K592" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Manon</t>
         </is>
       </c>
       <c r="L592" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M592" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="N592" t="n">
         <v>12000</v>
@@ -47767,7 +47767,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E593" t="n">
         <v>5</v>
@@ -47795,25 +47795,25 @@
       </c>
       <c r="K593" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L593" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M593" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="N593" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O593" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P593" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
@@ -47822,11 +47822,11 @@
       </c>
       <c r="R593" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S593" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T593" t="n">
         <v>16</v>
@@ -47847,7 +47847,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E594" t="n">
         <v>5</v>
@@ -47875,25 +47875,25 @@
       </c>
       <c r="K594" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L594" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M594" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N594" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O594" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P594" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
@@ -47902,11 +47902,11 @@
       </c>
       <c r="R594" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S594" t="n">
-        <v>500</v>
+        <v>875</v>
       </c>
       <c r="T594" t="n">
         <v>16</v>
@@ -47927,7 +47927,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E595" t="n">
         <v>5</v>
@@ -47955,25 +47955,25 @@
       </c>
       <c r="K595" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>American Nectar</t>
         </is>
       </c>
       <c r="L595" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M595" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N595" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O595" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P595" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
@@ -47986,7 +47986,7 @@
         </is>
       </c>
       <c r="S595" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T595" t="n">
         <v>16</v>
@@ -48007,7 +48007,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E596" t="n">
         <v>5</v>
@@ -48035,25 +48035,25 @@
       </c>
       <c r="K596" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L596" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M596" t="n">
         <v>70</v>
       </c>
       <c r="N596" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O596" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P596" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
@@ -48066,7 +48066,7 @@
         </is>
       </c>
       <c r="S596" t="n">
-        <v>812</v>
+        <v>875</v>
       </c>
       <c r="T596" t="n">
         <v>16</v>
@@ -48087,7 +48087,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E597" t="n">
         <v>5</v>
@@ -48115,16 +48115,16 @@
       </c>
       <c r="K597" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L597" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M597" t="n">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="N597" t="n">
         <v>12000</v>
@@ -48167,7 +48167,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44258</v>
+        <v>44200</v>
       </c>
       <c r="E598" t="n">
         <v>5</v>
@@ -48195,25 +48195,25 @@
       </c>
       <c r="K598" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Rich Lady</t>
         </is>
       </c>
       <c r="L598" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M598" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="N598" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O598" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P598" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
@@ -48222,11 +48222,11 @@
       </c>
       <c r="R598" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S598" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T598" t="n">
         <v>16</v>
@@ -48247,7 +48247,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E599" t="n">
         <v>5</v>
@@ -48275,25 +48275,25 @@
       </c>
       <c r="K599" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L599" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M599" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N599" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O599" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P599" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
@@ -48306,7 +48306,7 @@
         </is>
       </c>
       <c r="S599" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T599" t="n">
         <v>16</v>
@@ -48327,7 +48327,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E600" t="n">
         <v>5</v>
@@ -48355,7 +48355,7 @@
       </c>
       <c r="K600" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L600" t="inlineStr">
@@ -48364,16 +48364,16 @@
         </is>
       </c>
       <c r="M600" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N600" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O600" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P600" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
@@ -48386,7 +48386,7 @@
         </is>
       </c>
       <c r="S600" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T600" t="n">
         <v>16</v>
@@ -48407,7 +48407,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E601" t="n">
         <v>5</v>
@@ -48435,7 +48435,7 @@
       </c>
       <c r="K601" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L601" t="inlineStr">
@@ -48444,16 +48444,16 @@
         </is>
       </c>
       <c r="M601" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N601" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O601" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P601" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
@@ -48466,7 +48466,7 @@
         </is>
       </c>
       <c r="S601" t="n">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="T601" t="n">
         <v>16</v>
@@ -48487,7 +48487,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E602" t="n">
         <v>5</v>
@@ -48515,7 +48515,7 @@
       </c>
       <c r="K602" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L602" t="inlineStr">
@@ -48524,16 +48524,16 @@
         </is>
       </c>
       <c r="M602" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N602" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O602" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P602" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
@@ -48542,11 +48542,11 @@
       </c>
       <c r="R602" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S602" t="n">
-        <v>812</v>
+        <v>875</v>
       </c>
       <c r="T602" t="n">
         <v>16</v>
@@ -48567,7 +48567,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E603" t="n">
         <v>5</v>
@@ -48595,7 +48595,7 @@
       </c>
       <c r="K603" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L603" t="inlineStr">
@@ -48607,13 +48607,13 @@
         <v>70</v>
       </c>
       <c r="N603" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O603" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P603" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
@@ -48622,11 +48622,11 @@
       </c>
       <c r="R603" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S603" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T603" t="n">
         <v>16</v>
@@ -48647,7 +48647,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E604" t="n">
         <v>5</v>
@@ -48675,7 +48675,7 @@
       </c>
       <c r="K604" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L604" t="inlineStr">
@@ -48687,13 +48687,13 @@
         <v>58</v>
       </c>
       <c r="N604" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O604" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P604" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
@@ -48702,11 +48702,11 @@
       </c>
       <c r="R604" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S604" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T604" t="n">
         <v>16</v>
@@ -48727,7 +48727,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E605" t="n">
         <v>5</v>
@@ -48755,7 +48755,7 @@
       </c>
       <c r="K605" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L605" t="inlineStr">
@@ -48764,7 +48764,7 @@
         </is>
       </c>
       <c r="M605" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="N605" t="n">
         <v>14000</v>
@@ -48782,7 +48782,7 @@
       </c>
       <c r="R605" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S605" t="n">
@@ -48807,7 +48807,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E606" t="n">
         <v>5</v>
@@ -48835,7 +48835,7 @@
       </c>
       <c r="K606" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L606" t="inlineStr">
@@ -48844,16 +48844,16 @@
         </is>
       </c>
       <c r="M606" t="n">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="N606" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O606" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P606" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
@@ -48862,11 +48862,11 @@
       </c>
       <c r="R606" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S606" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T606" t="n">
         <v>16</v>
@@ -48887,7 +48887,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E607" t="n">
         <v>5</v>
@@ -48915,7 +48915,7 @@
       </c>
       <c r="K607" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L607" t="inlineStr">
@@ -48924,16 +48924,16 @@
         </is>
       </c>
       <c r="M607" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="N607" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O607" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P607" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
@@ -48942,11 +48942,11 @@
       </c>
       <c r="R607" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S607" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T607" t="n">
         <v>16</v>
@@ -48967,7 +48967,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E608" t="n">
         <v>5</v>
@@ -48995,7 +48995,7 @@
       </c>
       <c r="K608" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L608" t="inlineStr">
@@ -49004,16 +49004,16 @@
         </is>
       </c>
       <c r="M608" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="N608" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O608" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P608" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
@@ -49022,11 +49022,11 @@
       </c>
       <c r="R608" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S608" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T608" t="n">
         <v>16</v>
@@ -49047,7 +49047,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E609" t="n">
         <v>5</v>
@@ -49075,7 +49075,7 @@
       </c>
       <c r="K609" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L609" t="inlineStr">
@@ -49084,16 +49084,16 @@
         </is>
       </c>
       <c r="M609" t="n">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="N609" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O609" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P609" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
@@ -49102,11 +49102,11 @@
       </c>
       <c r="R609" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S609" t="n">
-        <v>875</v>
+        <v>812</v>
       </c>
       <c r="T609" t="n">
         <v>16</v>
@@ -49127,7 +49127,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E610" t="n">
         <v>5</v>
@@ -49155,7 +49155,7 @@
       </c>
       <c r="K610" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L610" t="inlineStr">
@@ -49164,16 +49164,16 @@
         </is>
       </c>
       <c r="M610" t="n">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="N610" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O610" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P610" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
@@ -49182,11 +49182,11 @@
       </c>
       <c r="R610" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S610" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T610" t="n">
         <v>16</v>
@@ -49207,7 +49207,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E611" t="n">
         <v>5</v>
@@ -49235,7 +49235,7 @@
       </c>
       <c r="K611" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L611" t="inlineStr">
@@ -49244,16 +49244,16 @@
         </is>
       </c>
       <c r="M611" t="n">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="N611" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O611" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P611" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
@@ -49262,11 +49262,11 @@
       </c>
       <c r="R611" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S611" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T611" t="n">
         <v>16</v>
@@ -49315,7 +49315,7 @@
       </c>
       <c r="K612" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L612" t="inlineStr">
@@ -49324,7 +49324,7 @@
         </is>
       </c>
       <c r="M612" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="N612" t="n">
         <v>14000</v>
@@ -49395,7 +49395,7 @@
       </c>
       <c r="K613" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L613" t="inlineStr">
@@ -49404,7 +49404,7 @@
         </is>
       </c>
       <c r="M613" t="n">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="N613" t="n">
         <v>15000</v>
@@ -49475,7 +49475,7 @@
       </c>
       <c r="K614" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L614" t="inlineStr">
@@ -49484,7 +49484,7 @@
         </is>
       </c>
       <c r="M614" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="N614" t="n">
         <v>13000</v>
@@ -49527,7 +49527,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44270</v>
+        <v>44224</v>
       </c>
       <c r="E615" t="n">
         <v>5</v>
@@ -49555,25 +49555,25 @@
       </c>
       <c r="K615" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M615" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N615" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O615" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P615" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
@@ -49582,11 +49582,11 @@
       </c>
       <c r="R615" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S615" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T615" t="n">
         <v>16</v>
@@ -49607,7 +49607,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44270</v>
+        <v>44224</v>
       </c>
       <c r="E616" t="n">
         <v>5</v>
@@ -49635,25 +49635,25 @@
       </c>
       <c r="K616" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L616" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M616" t="n">
         <v>85</v>
       </c>
       <c r="N616" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O616" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P616" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
@@ -49662,11 +49662,11 @@
       </c>
       <c r="R616" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S616" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T616" t="n">
         <v>16</v>
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44270</v>
+        <v>44224</v>
       </c>
       <c r="E617" t="n">
         <v>5</v>
@@ -49715,7 +49715,7 @@
       </c>
       <c r="K617" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L617" t="inlineStr">
@@ -49724,16 +49724,16 @@
         </is>
       </c>
       <c r="M617" t="n">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="N617" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O617" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P617" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49742,11 +49742,11 @@
       </c>
       <c r="R617" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S617" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T617" t="n">
         <v>16</v>
@@ -49767,7 +49767,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44270</v>
+        <v>44224</v>
       </c>
       <c r="E618" t="n">
         <v>5</v>
@@ -49795,7 +49795,7 @@
       </c>
       <c r="K618" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L618" t="inlineStr">
@@ -49804,16 +49804,16 @@
         </is>
       </c>
       <c r="M618" t="n">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="N618" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O618" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P618" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
@@ -49822,11 +49822,11 @@
       </c>
       <c r="R618" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S618" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T618" t="n">
         <v>16</v>
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44270</v>
+        <v>44224</v>
       </c>
       <c r="E619" t="n">
         <v>5</v>
@@ -49875,7 +49875,7 @@
       </c>
       <c r="K619" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L619" t="inlineStr">
@@ -49884,7 +49884,7 @@
         </is>
       </c>
       <c r="M619" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="N619" t="n">
         <v>14000</v>
@@ -49902,7 +49902,7 @@
       </c>
       <c r="R619" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S619" t="n">
@@ -49927,7 +49927,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44270</v>
+        <v>44224</v>
       </c>
       <c r="E620" t="n">
         <v>5</v>
@@ -49955,7 +49955,7 @@
       </c>
       <c r="K620" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L620" t="inlineStr">
@@ -49964,16 +49964,16 @@
         </is>
       </c>
       <c r="M620" t="n">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="N620" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O620" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P620" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
@@ -49982,11 +49982,11 @@
       </c>
       <c r="R620" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S620" t="n">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="T620" t="n">
         <v>16</v>
@@ -50007,7 +50007,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44270</v>
+        <v>44224</v>
       </c>
       <c r="E621" t="n">
         <v>5</v>
@@ -50035,7 +50035,7 @@
       </c>
       <c r="K621" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L621" t="inlineStr">
@@ -50044,16 +50044,16 @@
         </is>
       </c>
       <c r="M621" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N621" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O621" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P621" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
@@ -50062,11 +50062,11 @@
       </c>
       <c r="R621" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S621" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T621" t="n">
         <v>16</v>
@@ -50087,7 +50087,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E622" t="n">
         <v>5</v>
@@ -50115,7 +50115,7 @@
       </c>
       <c r="K622" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L622" t="inlineStr">
@@ -50124,16 +50124,16 @@
         </is>
       </c>
       <c r="M622" t="n">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="N622" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O622" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P622" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         </is>
       </c>
       <c r="S622" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T622" t="n">
         <v>16</v>
@@ -50167,7 +50167,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E623" t="n">
         <v>5</v>
@@ -50195,25 +50195,25 @@
       </c>
       <c r="K623" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L623" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M623" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N623" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O623" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P623" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
@@ -50226,7 +50226,7 @@
         </is>
       </c>
       <c r="S623" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T623" t="n">
         <v>16</v>
@@ -50247,7 +50247,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E624" t="n">
         <v>5</v>
@@ -50275,25 +50275,25 @@
       </c>
       <c r="K624" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L624" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M624" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N624" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O624" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P624" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
@@ -50306,7 +50306,7 @@
         </is>
       </c>
       <c r="S624" t="n">
-        <v>562</v>
+        <v>750</v>
       </c>
       <c r="T624" t="n">
         <v>16</v>
@@ -50327,7 +50327,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E625" t="n">
         <v>5</v>
@@ -50355,25 +50355,25 @@
       </c>
       <c r="K625" t="inlineStr">
         <is>
-          <t>Jrb</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L625" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M625" t="n">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="N625" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O625" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P625" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
@@ -50382,11 +50382,11 @@
       </c>
       <c r="R625" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S625" t="n">
-        <v>812</v>
+        <v>625</v>
       </c>
       <c r="T625" t="n">
         <v>16</v>
@@ -50407,7 +50407,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E626" t="n">
         <v>5</v>
@@ -50435,16 +50435,16 @@
       </c>
       <c r="K626" t="inlineStr">
         <is>
-          <t>Jrb</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L626" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M626" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N626" t="n">
         <v>14000</v>
@@ -50462,7 +50462,7 @@
       </c>
       <c r="R626" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S626" t="n">
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E627" t="n">
         <v>5</v>
@@ -50515,25 +50515,25 @@
       </c>
       <c r="K627" t="inlineStr">
         <is>
-          <t>Jrb</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L627" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M627" t="n">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="N627" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O627" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P627" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
@@ -50542,11 +50542,11 @@
       </c>
       <c r="R627" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S627" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T627" t="n">
         <v>16</v>
@@ -50567,7 +50567,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E628" t="n">
         <v>5</v>
@@ -50595,25 +50595,25 @@
       </c>
       <c r="K628" t="inlineStr">
         <is>
-          <t>Jrb</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L628" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M628" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N628" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O628" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P628" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
@@ -50622,11 +50622,11 @@
       </c>
       <c r="R628" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S628" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T628" t="n">
         <v>16</v>
@@ -50647,7 +50647,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E629" t="n">
         <v>5</v>
@@ -50675,7 +50675,7 @@
       </c>
       <c r="K629" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L629" t="inlineStr">
@@ -50684,32 +50684,32 @@
         </is>
       </c>
       <c r="M629" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="N629" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O629" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P629" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R629" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S629" t="n">
-        <v>1167</v>
+        <v>750</v>
       </c>
       <c r="T629" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="630">
@@ -50727,7 +50727,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E630" t="n">
         <v>5</v>
@@ -50755,7 +50755,7 @@
       </c>
       <c r="K630" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L630" t="inlineStr">
@@ -50764,32 +50764,32 @@
         </is>
       </c>
       <c r="M630" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="N630" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O630" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P630" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R630" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S630" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T630" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="631">
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E631" t="n">
         <v>5</v>
@@ -50835,7 +50835,7 @@
       </c>
       <c r="K631" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L631" t="inlineStr">
@@ -50844,32 +50844,32 @@
         </is>
       </c>
       <c r="M631" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N631" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O631" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P631" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R631" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S631" t="n">
-        <v>833</v>
+        <v>562</v>
       </c>
       <c r="T631" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="632">
@@ -50887,7 +50887,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44511</v>
+        <v>44195</v>
       </c>
       <c r="E632" t="n">
         <v>5</v>
@@ -50915,7 +50915,7 @@
       </c>
       <c r="K632" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Jrb</t>
         </is>
       </c>
       <c r="L632" t="inlineStr">
@@ -50924,7 +50924,7 @@
         </is>
       </c>
       <c r="M632" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="N632" t="n">
         <v>13000</v>
@@ -50937,7 +50937,7 @@
       </c>
       <c r="Q632" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R632" t="inlineStr">
@@ -50946,10 +50946,10 @@
         </is>
       </c>
       <c r="S632" t="n">
-        <v>1300</v>
+        <v>812</v>
       </c>
       <c r="T632" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="633">
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44511</v>
+        <v>44195</v>
       </c>
       <c r="E633" t="n">
         <v>5</v>
@@ -50995,29 +50995,29 @@
       </c>
       <c r="K633" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Jrb</t>
         </is>
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M633" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N633" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O633" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P633" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R633" t="inlineStr">
@@ -51026,10 +51026,10 @@
         </is>
       </c>
       <c r="S633" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T633" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="634">
@@ -51047,7 +51047,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44511</v>
+        <v>44195</v>
       </c>
       <c r="E634" t="n">
         <v>5</v>
@@ -51075,29 +51075,29 @@
       </c>
       <c r="K634" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Jrb</t>
         </is>
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M634" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="N634" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O634" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P634" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R634" t="inlineStr">
@@ -51106,10 +51106,10 @@
         </is>
       </c>
       <c r="S634" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="T634" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="635">
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44511</v>
+        <v>44195</v>
       </c>
       <c r="E635" t="n">
         <v>5</v>
@@ -51155,41 +51155,41 @@
       </c>
       <c r="K635" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Jrb</t>
         </is>
       </c>
       <c r="L635" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M635" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="N635" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O635" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P635" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R635" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S635" t="n">
-        <v>933</v>
+        <v>625</v>
       </c>
       <c r="T635" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="636">
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44511</v>
+        <v>44536</v>
       </c>
       <c r="E636" t="n">
         <v>5</v>
@@ -51235,41 +51235,41 @@
       </c>
       <c r="K636" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L636" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M636" t="n">
         <v>50</v>
       </c>
       <c r="N636" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O636" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P636" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R636" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S636" t="n">
-        <v>800</v>
+        <v>1167</v>
       </c>
       <c r="T636" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="637">
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44511</v>
+        <v>44536</v>
       </c>
       <c r="E637" t="n">
         <v>5</v>
@@ -51315,29 +51315,29 @@
       </c>
       <c r="K637" t="inlineStr">
         <is>
-          <t>Gold Crest</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L637" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M637" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="N637" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O637" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P637" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R637" t="inlineStr">
@@ -51346,10 +51346,10 @@
         </is>
       </c>
       <c r="S637" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="T637" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="638">
@@ -51367,7 +51367,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44511</v>
+        <v>44536</v>
       </c>
       <c r="E638" t="n">
         <v>5</v>
@@ -51395,16 +51395,16 @@
       </c>
       <c r="K638" t="inlineStr">
         <is>
-          <t>Gold Crest</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L638" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M638" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N638" t="n">
         <v>10000</v>
@@ -51417,7 +51417,7 @@
       </c>
       <c r="Q638" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R638" t="inlineStr">
@@ -51426,10 +51426,10 @@
         </is>
       </c>
       <c r="S638" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T638" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="639">
@@ -51475,25 +51475,25 @@
       </c>
       <c r="K639" t="inlineStr">
         <is>
-          <t>Gold Crest</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L639" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M639" t="n">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="N639" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O639" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P639" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51506,7 +51506,7 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="T639" t="n">
         <v>10</v>
@@ -51527,7 +51527,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44239</v>
+        <v>44511</v>
       </c>
       <c r="E640" t="n">
         <v>5</v>
@@ -51555,29 +51555,29 @@
       </c>
       <c r="K640" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L640" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M640" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N640" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O640" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P640" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R640" t="inlineStr">
@@ -51586,10 +51586,10 @@
         </is>
       </c>
       <c r="S640" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T640" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="641">
@@ -51607,7 +51607,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44239</v>
+        <v>44511</v>
       </c>
       <c r="E641" t="n">
         <v>5</v>
@@ -51635,29 +51635,29 @@
       </c>
       <c r="K641" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L641" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M641" t="n">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="N641" t="n">
-        <v>12500</v>
+        <v>8000</v>
       </c>
       <c r="O641" t="n">
-        <v>12500</v>
+        <v>8000</v>
       </c>
       <c r="P641" t="n">
-        <v>12500</v>
+        <v>8000</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R641" t="inlineStr">
@@ -51666,10 +51666,10 @@
         </is>
       </c>
       <c r="S641" t="n">
-        <v>781</v>
+        <v>800</v>
       </c>
       <c r="T641" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="642">
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44239</v>
+        <v>44511</v>
       </c>
       <c r="E642" t="n">
         <v>5</v>
@@ -51715,41 +51715,41 @@
       </c>
       <c r="K642" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L642" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M642" t="n">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="N642" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O642" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P642" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R642" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S642" t="n">
-        <v>625</v>
+        <v>933</v>
       </c>
       <c r="T642" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="643">
@@ -51767,7 +51767,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44194</v>
+        <v>44511</v>
       </c>
       <c r="E643" t="n">
         <v>5</v>
@@ -51795,16 +51795,16 @@
       </c>
       <c r="K643" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L643" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M643" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N643" t="n">
         <v>12000</v>
@@ -51817,19 +51817,19 @@
       </c>
       <c r="Q643" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R643" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S643" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="T643" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="644">
@@ -51847,7 +51847,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44194</v>
+        <v>44511</v>
       </c>
       <c r="E644" t="n">
         <v>5</v>
@@ -51875,29 +51875,29 @@
       </c>
       <c r="K644" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Gold Crest</t>
         </is>
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M644" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="N644" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O644" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P644" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R644" t="inlineStr">
@@ -51906,10 +51906,10 @@
         </is>
       </c>
       <c r="S644" t="n">
-        <v>625</v>
+        <v>1300</v>
       </c>
       <c r="T644" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="645">
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44194</v>
+        <v>44511</v>
       </c>
       <c r="E645" t="n">
         <v>5</v>
@@ -51955,29 +51955,29 @@
       </c>
       <c r="K645" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Gold Crest</t>
         </is>
       </c>
       <c r="L645" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M645" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N645" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O645" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P645" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R645" t="inlineStr">
@@ -51986,10 +51986,10 @@
         </is>
       </c>
       <c r="S645" t="n">
-        <v>562</v>
+        <v>1000</v>
       </c>
       <c r="T645" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="646">
@@ -52007,7 +52007,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44194</v>
+        <v>44511</v>
       </c>
       <c r="E646" t="n">
         <v>5</v>
@@ -52035,29 +52035,29 @@
       </c>
       <c r="K646" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Gold Crest</t>
         </is>
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M646" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="N646" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O646" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P646" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q646" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R646" t="inlineStr">
@@ -52066,10 +52066,10 @@
         </is>
       </c>
       <c r="S646" t="n">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="T646" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="647">
@@ -52087,7 +52087,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E647" t="n">
         <v>5</v>
@@ -52115,25 +52115,25 @@
       </c>
       <c r="K647" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M647" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N647" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O647" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P647" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
@@ -52146,7 +52146,7 @@
         </is>
       </c>
       <c r="S647" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T647" t="n">
         <v>16</v>
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E648" t="n">
         <v>5</v>
@@ -52195,25 +52195,25 @@
       </c>
       <c r="K648" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M648" t="n">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="N648" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="O648" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="P648" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         </is>
       </c>
       <c r="S648" t="n">
-        <v>625</v>
+        <v>781</v>
       </c>
       <c r="T648" t="n">
         <v>16</v>
@@ -52247,7 +52247,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44518</v>
+        <v>44239</v>
       </c>
       <c r="E649" t="n">
         <v>5</v>
@@ -52275,41 +52275,41 @@
       </c>
       <c r="K649" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M649" t="n">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="N649" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O649" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P649" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R649" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S649" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T649" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="650">
@@ -52327,7 +52327,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E650" t="n">
         <v>5</v>
@@ -52355,29 +52355,29 @@
       </c>
       <c r="K650" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M650" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="N650" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O650" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P650" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R650" t="inlineStr">
@@ -52386,10 +52386,10 @@
         </is>
       </c>
       <c r="S650" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T650" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="651">
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E651" t="n">
         <v>5</v>
@@ -52435,41 +52435,41 @@
       </c>
       <c r="K651" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M651" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N651" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O651" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P651" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R651" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S651" t="n">
-        <v>800</v>
+        <v>625</v>
       </c>
       <c r="T651" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="652">
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E652" t="n">
         <v>5</v>
@@ -52515,29 +52515,29 @@
       </c>
       <c r="K652" t="inlineStr">
         <is>
-          <t>Gold Crest</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L652" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M652" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N652" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O652" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P652" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R652" t="inlineStr">
@@ -52546,10 +52546,10 @@
         </is>
       </c>
       <c r="S652" t="n">
-        <v>1400</v>
+        <v>562</v>
       </c>
       <c r="T652" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="653">
@@ -52567,7 +52567,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E653" t="n">
         <v>5</v>
@@ -52595,29 +52595,29 @@
       </c>
       <c r="K653" t="inlineStr">
         <is>
-          <t>Gold Crest</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M653" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N653" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O653" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P653" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R653" t="inlineStr">
@@ -52626,10 +52626,10 @@
         </is>
       </c>
       <c r="S653" t="n">
-        <v>1200</v>
+        <v>812</v>
       </c>
       <c r="T653" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="654">
@@ -52647,7 +52647,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E654" t="n">
         <v>5</v>
@@ -52675,29 +52675,29 @@
       </c>
       <c r="K654" t="inlineStr">
         <is>
-          <t>Gold Crest</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M654" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N654" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O654" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P654" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R654" t="inlineStr">
@@ -52706,10 +52706,10 @@
         </is>
       </c>
       <c r="S654" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="T654" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="655">
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44540</v>
+        <v>44194</v>
       </c>
       <c r="E655" t="n">
         <v>5</v>
@@ -52755,29 +52755,29 @@
       </c>
       <c r="K655" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L655" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M655" t="n">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="N655" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O655" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P655" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R655" t="inlineStr">
@@ -52786,10 +52786,10 @@
         </is>
       </c>
       <c r="S655" t="n">
-        <v>933</v>
+        <v>625</v>
       </c>
       <c r="T655" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="656">
@@ -52807,7 +52807,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E656" t="n">
         <v>5</v>
@@ -52835,7 +52835,7 @@
       </c>
       <c r="K656" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L656" t="inlineStr">
@@ -52844,16 +52844,16 @@
         </is>
       </c>
       <c r="M656" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="N656" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O656" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P656" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
@@ -52862,11 +52862,11 @@
       </c>
       <c r="R656" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S656" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T656" t="n">
         <v>15</v>
@@ -52887,7 +52887,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E657" t="n">
         <v>5</v>
@@ -52915,29 +52915,29 @@
       </c>
       <c r="K657" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M657" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N657" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O657" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P657" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R657" t="inlineStr">
@@ -52946,7 +52946,7 @@
         </is>
       </c>
       <c r="S657" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T657" t="n">
         <v>15</v>
@@ -52967,7 +52967,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E658" t="n">
         <v>5</v>
@@ -52995,41 +52995,41 @@
       </c>
       <c r="K658" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L658" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M658" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N658" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O658" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P658" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R658" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S658" t="n">
-        <v>1167</v>
+        <v>800</v>
       </c>
       <c r="T658" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="659">
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E659" t="n">
         <v>5</v>
@@ -53075,29 +53075,29 @@
       </c>
       <c r="K659" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Gold Crest</t>
         </is>
       </c>
       <c r="L659" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M659" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N659" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O659" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P659" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R659" t="inlineStr">
@@ -53106,10 +53106,10 @@
         </is>
       </c>
       <c r="S659" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="T659" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="660">
@@ -53127,7 +53127,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44272</v>
+        <v>44518</v>
       </c>
       <c r="E660" t="n">
         <v>5</v>
@@ -53155,41 +53155,41 @@
       </c>
       <c r="K660" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Gold Crest</t>
         </is>
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M660" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N660" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O660" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P660" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R660" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S660" t="n">
-        <v>875</v>
+        <v>1200</v>
       </c>
       <c r="T660" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="661">
@@ -53207,7 +53207,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44272</v>
+        <v>44518</v>
       </c>
       <c r="E661" t="n">
         <v>5</v>
@@ -53235,41 +53235,41 @@
       </c>
       <c r="K661" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Gold Crest</t>
         </is>
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M661" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="N661" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O661" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P661" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R661" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S661" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T661" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="662">
@@ -53287,68 +53287,628 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E662" t="n">
+        <v>5</v>
+      </c>
+      <c r="F662" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G662" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H662" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I662" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J662" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>Desergold</t>
+        </is>
+      </c>
+      <c r="L662" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M662" t="n">
+        <v>65</v>
+      </c>
+      <c r="N662" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O662" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P662" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q662" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R662" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S662" t="n">
+        <v>933</v>
+      </c>
+      <c r="T662" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="n">
+        <v>3</v>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D663" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E663" t="n">
+        <v>5</v>
+      </c>
+      <c r="F663" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G663" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H663" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I663" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J663" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>Desergold</t>
+        </is>
+      </c>
+      <c r="L663" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M663" t="n">
+        <v>67</v>
+      </c>
+      <c r="N663" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O663" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P663" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q663" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R663" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S663" t="n">
+        <v>800</v>
+      </c>
+      <c r="T663" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="n">
+        <v>3</v>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D664" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E664" t="n">
+        <v>5</v>
+      </c>
+      <c r="F664" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G664" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H664" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I664" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J664" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>Desergold</t>
+        </is>
+      </c>
+      <c r="L664" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M664" t="n">
+        <v>60</v>
+      </c>
+      <c r="N664" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O664" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P664" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q664" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R664" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S664" t="n">
+        <v>667</v>
+      </c>
+      <c r="T664" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="n">
+        <v>3</v>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D665" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E665" t="n">
+        <v>5</v>
+      </c>
+      <c r="F665" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G665" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H665" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I665" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J665" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>Polar King</t>
+        </is>
+      </c>
+      <c r="L665" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M665" t="n">
+        <v>60</v>
+      </c>
+      <c r="N665" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O665" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P665" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q665" t="inlineStr">
+        <is>
+          <t>$/caja 12 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R665" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S665" t="n">
+        <v>1167</v>
+      </c>
+      <c r="T665" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="n">
+        <v>3</v>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D666" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E666" t="n">
+        <v>5</v>
+      </c>
+      <c r="F666" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G666" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H666" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I666" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J666" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>Polar King</t>
+        </is>
+      </c>
+      <c r="L666" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M666" t="n">
+        <v>65</v>
+      </c>
+      <c r="N666" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O666" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P666" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q666" t="inlineStr">
+        <is>
+          <t>$/caja 12 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R666" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S666" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T666" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="n">
+        <v>3</v>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D667" s="2" t="n">
         <v>44272</v>
       </c>
-      <c r="E662" t="n">
-        <v>5</v>
-      </c>
-      <c r="F662" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G662" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H662" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I662" t="n">
-        <v>100103004</v>
-      </c>
-      <c r="J662" t="inlineStr">
-        <is>
-          <t>Durazno</t>
-        </is>
-      </c>
-      <c r="K662" t="inlineStr">
+      <c r="E667" t="n">
+        <v>5</v>
+      </c>
+      <c r="F667" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G667" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H667" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I667" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J667" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K667" t="inlineStr">
         <is>
           <t>Phillips Cling</t>
         </is>
       </c>
-      <c r="L662" t="inlineStr">
+      <c r="L667" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M667" t="n">
+        <v>70</v>
+      </c>
+      <c r="N667" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O667" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P667" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q667" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R667" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S667" t="n">
+        <v>875</v>
+      </c>
+      <c r="T667" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="n">
+        <v>3</v>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D668" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E668" t="n">
+        <v>5</v>
+      </c>
+      <c r="F668" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G668" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H668" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I668" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J668" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>Phillips Cling</t>
+        </is>
+      </c>
+      <c r="L668" t="inlineStr">
+        <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M668" t="n">
+        <v>65</v>
+      </c>
+      <c r="N668" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O668" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P668" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q668" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R668" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S668" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T668" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="n">
+        <v>3</v>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D669" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E669" t="n">
+        <v>5</v>
+      </c>
+      <c r="F669" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G669" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H669" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I669" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J669" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>Phillips Cling</t>
+        </is>
+      </c>
+      <c r="L669" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M662" t="n">
+      <c r="M669" t="n">
         <v>70</v>
       </c>
-      <c r="N662" t="n">
+      <c r="N669" t="n">
         <v>12000</v>
       </c>
-      <c r="O662" t="n">
+      <c r="O669" t="n">
         <v>12000</v>
       </c>
-      <c r="P662" t="n">
+      <c r="P669" t="n">
         <v>12000</v>
       </c>
-      <c r="Q662" t="inlineStr">
+      <c r="Q669" t="inlineStr">
         <is>
           <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
-      <c r="R662" t="inlineStr">
+      <c r="R669" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S662" t="n">
+      <c r="S669" t="n">
         <v>750</v>
       </c>
-      <c r="T662" t="n">
+      <c r="T669" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T755"/>
+  <dimension ref="A1:T763"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57287,7 +57287,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44490</v>
+        <v>44578</v>
       </c>
       <c r="E712" t="n">
         <v>5</v>
@@ -57315,41 +57315,41 @@
       </c>
       <c r="K712" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L712" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M712" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N712" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="O712" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="P712" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="Q712" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R712" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S712" t="n">
-        <v>1333</v>
+        <v>1067</v>
       </c>
       <c r="T712" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="713">
@@ -57367,7 +57367,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44266</v>
+        <v>44578</v>
       </c>
       <c r="E713" t="n">
         <v>5</v>
@@ -57395,16 +57395,16 @@
       </c>
       <c r="K713" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L713" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M713" t="n">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="N713" t="n">
         <v>14000</v>
@@ -57417,19 +57417,19 @@
       </c>
       <c r="Q713" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R713" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S713" t="n">
-        <v>875</v>
+        <v>933</v>
       </c>
       <c r="T713" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="714">
@@ -57447,7 +57447,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44266</v>
+        <v>44578</v>
       </c>
       <c r="E714" t="n">
         <v>5</v>
@@ -57475,12 +57475,12 @@
       </c>
       <c r="K714" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L714" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M714" t="n">
@@ -57497,19 +57497,19 @@
       </c>
       <c r="Q714" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R714" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S714" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="T714" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="715">
@@ -57527,7 +57527,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44266</v>
+        <v>44578</v>
       </c>
       <c r="E715" t="n">
         <v>5</v>
@@ -57555,41 +57555,41 @@
       </c>
       <c r="K715" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L715" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M715" t="n">
         <v>80</v>
       </c>
       <c r="N715" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O715" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P715" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q715" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R715" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S715" t="n">
-        <v>688</v>
+        <v>1000</v>
       </c>
       <c r="T715" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="716">
@@ -57607,7 +57607,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44533</v>
+        <v>44578</v>
       </c>
       <c r="E716" t="n">
         <v>5</v>
@@ -57635,29 +57635,29 @@
       </c>
       <c r="K716" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L716" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M716" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="N716" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O716" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P716" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q716" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R716" t="inlineStr">
@@ -57666,10 +57666,10 @@
         </is>
       </c>
       <c r="S716" t="n">
-        <v>1167</v>
+        <v>800</v>
       </c>
       <c r="T716" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="717">
@@ -57687,7 +57687,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44533</v>
+        <v>44578</v>
       </c>
       <c r="E717" t="n">
         <v>5</v>
@@ -57715,29 +57715,29 @@
       </c>
       <c r="K717" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L717" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M717" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N717" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O717" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P717" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q717" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R717" t="inlineStr">
@@ -57746,10 +57746,10 @@
         </is>
       </c>
       <c r="S717" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T717" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="718">
@@ -57767,7 +57767,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44533</v>
+        <v>44578</v>
       </c>
       <c r="E718" t="n">
         <v>5</v>
@@ -57795,41 +57795,41 @@
       </c>
       <c r="K718" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L718" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M718" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N718" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O718" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P718" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q718" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R718" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S718" t="n">
-        <v>917</v>
+        <v>933</v>
       </c>
       <c r="T718" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="719">
@@ -57847,7 +57847,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44264</v>
+        <v>44578</v>
       </c>
       <c r="E719" t="n">
         <v>5</v>
@@ -57875,29 +57875,29 @@
       </c>
       <c r="K719" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Toscana</t>
         </is>
       </c>
       <c r="L719" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M719" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N719" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O719" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P719" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q719" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R719" t="inlineStr">
@@ -57906,10 +57906,10 @@
         </is>
       </c>
       <c r="S719" t="n">
-        <v>875</v>
+        <v>800</v>
       </c>
       <c r="T719" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="720">
@@ -57927,7 +57927,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44264</v>
+        <v>44490</v>
       </c>
       <c r="E720" t="n">
         <v>5</v>
@@ -57955,7 +57955,7 @@
       </c>
       <c r="K720" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L720" t="inlineStr">
@@ -57964,32 +57964,32 @@
         </is>
       </c>
       <c r="M720" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="N720" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="O720" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="P720" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="Q720" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R720" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S720" t="n">
-        <v>750</v>
+        <v>1333</v>
       </c>
       <c r="T720" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="721">
@@ -58007,7 +58007,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44264</v>
+        <v>44266</v>
       </c>
       <c r="E721" t="n">
         <v>5</v>
@@ -58040,20 +58040,20 @@
       </c>
       <c r="L721" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M721" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N721" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O721" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P721" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q721" t="inlineStr">
         <is>
@@ -58066,7 +58066,7 @@
         </is>
       </c>
       <c r="S721" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T721" t="n">
         <v>16</v>
@@ -58087,7 +58087,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44571</v>
+        <v>44266</v>
       </c>
       <c r="E722" t="n">
         <v>5</v>
@@ -58115,29 +58115,29 @@
       </c>
       <c r="K722" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L722" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M722" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N722" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O722" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P722" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q722" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R722" t="inlineStr">
@@ -58146,10 +58146,10 @@
         </is>
       </c>
       <c r="S722" t="n">
-        <v>933</v>
+        <v>750</v>
       </c>
       <c r="T722" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="723">
@@ -58167,7 +58167,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44571</v>
+        <v>44266</v>
       </c>
       <c r="E723" t="n">
         <v>5</v>
@@ -58195,29 +58195,29 @@
       </c>
       <c r="K723" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L723" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M723" t="n">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="N723" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O723" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P723" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q723" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R723" t="inlineStr">
@@ -58226,10 +58226,10 @@
         </is>
       </c>
       <c r="S723" t="n">
-        <v>867</v>
+        <v>688</v>
       </c>
       <c r="T723" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="724">
@@ -58247,7 +58247,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44571</v>
+        <v>44533</v>
       </c>
       <c r="E724" t="n">
         <v>5</v>
@@ -58275,41 +58275,41 @@
       </c>
       <c r="K724" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L724" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M724" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="N724" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O724" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P724" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q724" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R724" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S724" t="n">
-        <v>800</v>
+        <v>1167</v>
       </c>
       <c r="T724" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="725">
@@ -58327,7 +58327,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44571</v>
+        <v>44533</v>
       </c>
       <c r="E725" t="n">
         <v>5</v>
@@ -58355,29 +58355,29 @@
       </c>
       <c r="K725" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L725" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M725" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="N725" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O725" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P725" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q725" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R725" t="inlineStr">
@@ -58386,10 +58386,10 @@
         </is>
       </c>
       <c r="S725" t="n">
-        <v>1067</v>
+        <v>1000</v>
       </c>
       <c r="T725" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="726">
@@ -58407,7 +58407,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44571</v>
+        <v>44533</v>
       </c>
       <c r="E726" t="n">
         <v>5</v>
@@ -58435,29 +58435,29 @@
       </c>
       <c r="K726" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L726" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M726" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="N726" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O726" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P726" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="Q726" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R726" t="inlineStr">
@@ -58466,10 +58466,10 @@
         </is>
       </c>
       <c r="S726" t="n">
-        <v>1133</v>
+        <v>917</v>
       </c>
       <c r="T726" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="727">
@@ -58487,7 +58487,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44571</v>
+        <v>44264</v>
       </c>
       <c r="E727" t="n">
         <v>5</v>
@@ -58515,16 +58515,16 @@
       </c>
       <c r="K727" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L727" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M727" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N727" t="n">
         <v>14000</v>
@@ -58537,19 +58537,19 @@
       </c>
       <c r="Q727" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R727" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S727" t="n">
-        <v>933</v>
+        <v>875</v>
       </c>
       <c r="T727" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="728">
@@ -58567,7 +58567,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44571</v>
+        <v>44264</v>
       </c>
       <c r="E728" t="n">
         <v>5</v>
@@ -58595,16 +58595,16 @@
       </c>
       <c r="K728" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L728" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M728" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N728" t="n">
         <v>12000</v>
@@ -58617,19 +58617,19 @@
       </c>
       <c r="Q728" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R728" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S728" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="T728" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="729">
@@ -58647,7 +58647,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44279</v>
+        <v>44264</v>
       </c>
       <c r="E729" t="n">
         <v>5</v>
@@ -58675,25 +58675,25 @@
       </c>
       <c r="K729" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L729" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M729" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="N729" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O729" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P729" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q729" t="inlineStr">
         <is>
@@ -58706,7 +58706,7 @@
         </is>
       </c>
       <c r="S729" t="n">
-        <v>938</v>
+        <v>625</v>
       </c>
       <c r="T729" t="n">
         <v>16</v>
@@ -58727,7 +58727,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44279</v>
+        <v>44571</v>
       </c>
       <c r="E730" t="n">
         <v>5</v>
@@ -58755,29 +58755,29 @@
       </c>
       <c r="K730" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L730" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M730" t="n">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="N730" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O730" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P730" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q730" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R730" t="inlineStr">
@@ -58786,10 +58786,10 @@
         </is>
       </c>
       <c r="S730" t="n">
-        <v>812</v>
+        <v>933</v>
       </c>
       <c r="T730" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="731">
@@ -58807,7 +58807,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44279</v>
+        <v>44571</v>
       </c>
       <c r="E731" t="n">
         <v>5</v>
@@ -58835,29 +58835,29 @@
       </c>
       <c r="K731" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L731" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M731" t="n">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="N731" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O731" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P731" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q731" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R731" t="inlineStr">
@@ -58866,10 +58866,10 @@
         </is>
       </c>
       <c r="S731" t="n">
-        <v>688</v>
+        <v>867</v>
       </c>
       <c r="T731" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="732">
@@ -58887,7 +58887,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44277</v>
+        <v>44571</v>
       </c>
       <c r="E732" t="n">
         <v>5</v>
@@ -58915,29 +58915,29 @@
       </c>
       <c r="K732" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L732" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M732" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N732" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O732" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P732" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q732" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R732" t="inlineStr">
@@ -58946,10 +58946,10 @@
         </is>
       </c>
       <c r="S732" t="n">
-        <v>938</v>
+        <v>800</v>
       </c>
       <c r="T732" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="733">
@@ -58967,7 +58967,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44277</v>
+        <v>44571</v>
       </c>
       <c r="E733" t="n">
         <v>5</v>
@@ -58995,16 +58995,16 @@
       </c>
       <c r="K733" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L733" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M733" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="N733" t="n">
         <v>16000</v>
@@ -59017,19 +59017,19 @@
       </c>
       <c r="Q733" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R733" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S733" t="n">
-        <v>1000</v>
+        <v>1067</v>
       </c>
       <c r="T733" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="734">
@@ -59047,7 +59047,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44277</v>
+        <v>44571</v>
       </c>
       <c r="E734" t="n">
         <v>5</v>
@@ -59075,41 +59075,41 @@
       </c>
       <c r="K734" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L734" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M734" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N734" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O734" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P734" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="Q734" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R734" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S734" t="n">
-        <v>812</v>
+        <v>1133</v>
       </c>
       <c r="T734" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="735">
@@ -59127,7 +59127,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44525</v>
+        <v>44571</v>
       </c>
       <c r="E735" t="n">
         <v>5</v>
@@ -59155,25 +59155,25 @@
       </c>
       <c r="K735" t="inlineStr">
         <is>
-          <t>Gold Crest</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L735" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M735" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N735" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O735" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P735" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q735" t="inlineStr">
         <is>
@@ -59186,7 +59186,7 @@
         </is>
       </c>
       <c r="S735" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T735" t="n">
         <v>15</v>
@@ -59207,7 +59207,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44525</v>
+        <v>44571</v>
       </c>
       <c r="E736" t="n">
         <v>5</v>
@@ -59235,25 +59235,25 @@
       </c>
       <c r="K736" t="inlineStr">
         <is>
-          <t>Gold Crest</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L736" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M736" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N736" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O736" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P736" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q736" t="inlineStr">
         <is>
@@ -59266,7 +59266,7 @@
         </is>
       </c>
       <c r="S736" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T736" t="n">
         <v>15</v>
@@ -59287,7 +59287,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44525</v>
+        <v>44279</v>
       </c>
       <c r="E737" t="n">
         <v>5</v>
@@ -59315,41 +59315,41 @@
       </c>
       <c r="K737" t="inlineStr">
         <is>
-          <t>Gold Crest</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L737" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M737" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N737" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O737" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P737" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q737" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R737" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S737" t="n">
-        <v>533</v>
+        <v>938</v>
       </c>
       <c r="T737" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="738">
@@ -59367,7 +59367,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44525</v>
+        <v>44279</v>
       </c>
       <c r="E738" t="n">
         <v>5</v>
@@ -59395,7 +59395,7 @@
       </c>
       <c r="K738" t="inlineStr">
         <is>
-          <t>Springtime</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L738" t="inlineStr">
@@ -59404,32 +59404,32 @@
         </is>
       </c>
       <c r="M738" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="N738" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O738" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P738" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q738" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R738" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S738" t="n">
-        <v>1000</v>
+        <v>812</v>
       </c>
       <c r="T738" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="739">
@@ -59447,7 +59447,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44525</v>
+        <v>44279</v>
       </c>
       <c r="E739" t="n">
         <v>5</v>
@@ -59475,7 +59475,7 @@
       </c>
       <c r="K739" t="inlineStr">
         <is>
-          <t>Springtime</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L739" t="inlineStr">
@@ -59484,32 +59484,32 @@
         </is>
       </c>
       <c r="M739" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N739" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="O739" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="P739" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="Q739" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R739" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S739" t="n">
-        <v>750</v>
+        <v>688</v>
       </c>
       <c r="T739" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="740">
@@ -59527,7 +59527,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44503</v>
+        <v>44277</v>
       </c>
       <c r="E740" t="n">
         <v>5</v>
@@ -59555,41 +59555,41 @@
       </c>
       <c r="K740" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L740" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M740" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="N740" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O740" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P740" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q740" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R740" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S740" t="n">
-        <v>1300</v>
+        <v>938</v>
       </c>
       <c r="T740" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="741">
@@ -59607,7 +59607,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44503</v>
+        <v>44277</v>
       </c>
       <c r="E741" t="n">
         <v>5</v>
@@ -59635,41 +59635,41 @@
       </c>
       <c r="K741" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L741" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M741" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N741" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O741" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P741" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q741" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R741" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S741" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T741" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="742">
@@ -59687,7 +59687,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44503</v>
+        <v>44277</v>
       </c>
       <c r="E742" t="n">
         <v>5</v>
@@ -59715,41 +59715,41 @@
       </c>
       <c r="K742" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L742" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M742" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N742" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O742" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P742" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q742" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R742" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S742" t="n">
-        <v>1067</v>
+        <v>812</v>
       </c>
       <c r="T742" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="743">
@@ -59767,7 +59767,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44512</v>
+        <v>44525</v>
       </c>
       <c r="E743" t="n">
         <v>5</v>
@@ -59795,7 +59795,7 @@
       </c>
       <c r="K743" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Gold Crest</t>
         </is>
       </c>
       <c r="L743" t="inlineStr">
@@ -59817,7 +59817,7 @@
       </c>
       <c r="Q743" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R743" t="inlineStr">
@@ -59826,10 +59826,10 @@
         </is>
       </c>
       <c r="S743" t="n">
-        <v>1300</v>
+        <v>867</v>
       </c>
       <c r="T743" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="744">
@@ -59847,7 +59847,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44512</v>
+        <v>44525</v>
       </c>
       <c r="E744" t="n">
         <v>5</v>
@@ -59875,7 +59875,7 @@
       </c>
       <c r="K744" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Gold Crest</t>
         </is>
       </c>
       <c r="L744" t="inlineStr">
@@ -59884,7 +59884,7 @@
         </is>
       </c>
       <c r="M744" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N744" t="n">
         <v>10000</v>
@@ -59897,7 +59897,7 @@
       </c>
       <c r="Q744" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R744" t="inlineStr">
@@ -59906,10 +59906,10 @@
         </is>
       </c>
       <c r="S744" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T744" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="745">
@@ -59927,7 +59927,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44512</v>
+        <v>44525</v>
       </c>
       <c r="E745" t="n">
         <v>5</v>
@@ -59955,7 +59955,7 @@
       </c>
       <c r="K745" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Gold Crest</t>
         </is>
       </c>
       <c r="L745" t="inlineStr">
@@ -59977,7 +59977,7 @@
       </c>
       <c r="Q745" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R745" t="inlineStr">
@@ -59986,10 +59986,10 @@
         </is>
       </c>
       <c r="S745" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="T745" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="746">
@@ -60007,7 +60007,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44512</v>
+        <v>44525</v>
       </c>
       <c r="E746" t="n">
         <v>5</v>
@@ -60035,29 +60035,29 @@
       </c>
       <c r="K746" t="inlineStr">
         <is>
-          <t>Gold Crest</t>
+          <t>Springtime</t>
         </is>
       </c>
       <c r="L746" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M746" t="n">
         <v>56</v>
       </c>
       <c r="N746" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O746" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P746" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q746" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R746" t="inlineStr">
@@ -60066,10 +60066,10 @@
         </is>
       </c>
       <c r="S746" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="T746" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="747">
@@ -60087,7 +60087,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44512</v>
+        <v>44525</v>
       </c>
       <c r="E747" t="n">
         <v>5</v>
@@ -60115,29 +60115,29 @@
       </c>
       <c r="K747" t="inlineStr">
         <is>
-          <t>Gold Crest</t>
+          <t>Springtime</t>
         </is>
       </c>
       <c r="L747" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M747" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N747" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O747" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P747" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q747" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/bandeja 8 kilos empedrada</t>
         </is>
       </c>
       <c r="R747" t="inlineStr">
@@ -60146,10 +60146,10 @@
         </is>
       </c>
       <c r="S747" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T747" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="748">
@@ -60167,7 +60167,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44511</v>
+        <v>44503</v>
       </c>
       <c r="E748" t="n">
         <v>5</v>
@@ -60200,11 +60200,11 @@
       </c>
       <c r="L748" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M748" t="n">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="N748" t="n">
         <v>13000</v>
@@ -60247,7 +60247,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44511</v>
+        <v>44503</v>
       </c>
       <c r="E749" t="n">
         <v>5</v>
@@ -60275,7 +60275,7 @@
       </c>
       <c r="K749" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L749" t="inlineStr">
@@ -60284,32 +60284,32 @@
         </is>
       </c>
       <c r="M749" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N749" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O749" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P749" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q749" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R749" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S749" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T749" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="750">
@@ -60327,7 +60327,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44511</v>
+        <v>44503</v>
       </c>
       <c r="E750" t="n">
         <v>5</v>
@@ -60355,7 +60355,7 @@
       </c>
       <c r="K750" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L750" t="inlineStr">
@@ -60364,32 +60364,32 @@
         </is>
       </c>
       <c r="M750" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N750" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="O750" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P750" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="Q750" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R750" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S750" t="n">
-        <v>800</v>
+        <v>1067</v>
       </c>
       <c r="T750" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="751">
@@ -60407,7 +60407,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="E751" t="n">
         <v>5</v>
@@ -60435,41 +60435,41 @@
       </c>
       <c r="K751" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L751" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M751" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N751" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O751" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P751" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q751" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R751" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S751" t="n">
-        <v>933</v>
+        <v>1300</v>
       </c>
       <c r="T751" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="752">
@@ -60487,7 +60487,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="E752" t="n">
         <v>5</v>
@@ -60515,41 +60515,41 @@
       </c>
       <c r="K752" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L752" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M752" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="N752" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O752" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P752" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q752" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
       <c r="R752" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S752" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T752" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="753">
@@ -60567,7 +60567,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="E753" t="n">
         <v>5</v>
@@ -60595,25 +60595,25 @@
       </c>
       <c r="K753" t="inlineStr">
         <is>
-          <t>Gold Crest</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L753" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M753" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N753" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O753" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P753" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q753" t="inlineStr">
         <is>
@@ -60626,7 +60626,7 @@
         </is>
       </c>
       <c r="S753" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="T753" t="n">
         <v>10</v>
@@ -60647,7 +60647,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="E754" t="n">
         <v>5</v>
@@ -60680,20 +60680,20 @@
       </c>
       <c r="L754" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M754" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="N754" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O754" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P754" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q754" t="inlineStr">
         <is>
@@ -60706,7 +60706,7 @@
         </is>
       </c>
       <c r="S754" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="T754" t="n">
         <v>10</v>
@@ -60727,68 +60727,708 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
+        <v>44512</v>
+      </c>
+      <c r="E755" t="n">
+        <v>5</v>
+      </c>
+      <c r="F755" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G755" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H755" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I755" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J755" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>Gold Crest</t>
+        </is>
+      </c>
+      <c r="L755" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M755" t="n">
+        <v>50</v>
+      </c>
+      <c r="N755" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O755" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P755" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q755" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos granel</t>
+        </is>
+      </c>
+      <c r="R755" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S755" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T755" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="n">
+        <v>3</v>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D756" s="2" t="n">
         <v>44511</v>
       </c>
-      <c r="E755" t="n">
-        <v>5</v>
-      </c>
-      <c r="F755" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G755" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H755" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I755" t="n">
-        <v>100103004</v>
-      </c>
-      <c r="J755" t="inlineStr">
-        <is>
-          <t>Durazno</t>
-        </is>
-      </c>
-      <c r="K755" t="inlineStr">
+      <c r="E756" t="n">
+        <v>5</v>
+      </c>
+      <c r="F756" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G756" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H756" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I756" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J756" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>Early Majestic</t>
+        </is>
+      </c>
+      <c r="L756" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M756" t="n">
+        <v>65</v>
+      </c>
+      <c r="N756" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O756" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P756" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q756" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos granel</t>
+        </is>
+      </c>
+      <c r="R756" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S756" t="n">
+        <v>1300</v>
+      </c>
+      <c r="T756" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="n">
+        <v>3</v>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C757" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D757" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E757" t="n">
+        <v>5</v>
+      </c>
+      <c r="F757" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G757" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H757" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I757" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J757" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>Early Majestic</t>
+        </is>
+      </c>
+      <c r="L757" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M757" t="n">
+        <v>67</v>
+      </c>
+      <c r="N757" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O757" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P757" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q757" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos granel</t>
+        </is>
+      </c>
+      <c r="R757" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S757" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T757" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="n">
+        <v>3</v>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C758" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D758" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E758" t="n">
+        <v>5</v>
+      </c>
+      <c r="F758" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G758" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H758" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I758" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J758" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>Early Majestic</t>
+        </is>
+      </c>
+      <c r="L758" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M758" t="n">
+        <v>68</v>
+      </c>
+      <c r="N758" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O758" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P758" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q758" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos granel</t>
+        </is>
+      </c>
+      <c r="R758" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S758" t="n">
+        <v>800</v>
+      </c>
+      <c r="T758" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="n">
+        <v>3</v>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D759" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E759" t="n">
+        <v>5</v>
+      </c>
+      <c r="F759" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G759" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H759" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I759" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J759" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>Florida King</t>
+        </is>
+      </c>
+      <c r="L759" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M759" t="n">
+        <v>56</v>
+      </c>
+      <c r="N759" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O759" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P759" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q759" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R759" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S759" t="n">
+        <v>933</v>
+      </c>
+      <c r="T759" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="n">
+        <v>3</v>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C760" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D760" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E760" t="n">
+        <v>5</v>
+      </c>
+      <c r="F760" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G760" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H760" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I760" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J760" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>Florida King</t>
+        </is>
+      </c>
+      <c r="L760" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M760" t="n">
+        <v>50</v>
+      </c>
+      <c r="N760" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O760" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P760" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q760" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R760" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S760" t="n">
+        <v>800</v>
+      </c>
+      <c r="T760" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="n">
+        <v>3</v>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C761" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D761" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E761" t="n">
+        <v>5</v>
+      </c>
+      <c r="F761" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G761" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H761" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I761" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J761" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K761" t="inlineStr">
         <is>
           <t>Gold Crest</t>
         </is>
       </c>
-      <c r="L755" t="inlineStr">
+      <c r="L761" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M761" t="n">
+        <v>75</v>
+      </c>
+      <c r="N761" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O761" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P761" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q761" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos granel</t>
+        </is>
+      </c>
+      <c r="R761" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S761" t="n">
+        <v>1300</v>
+      </c>
+      <c r="T761" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="n">
+        <v>3</v>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D762" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E762" t="n">
+        <v>5</v>
+      </c>
+      <c r="F762" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G762" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H762" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I762" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J762" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>Gold Crest</t>
+        </is>
+      </c>
+      <c r="L762" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M762" t="n">
+        <v>70</v>
+      </c>
+      <c r="N762" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O762" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P762" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q762" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos granel</t>
+        </is>
+      </c>
+      <c r="R762" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S762" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T762" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="n">
+        <v>3</v>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D763" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E763" t="n">
+        <v>5</v>
+      </c>
+      <c r="F763" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G763" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H763" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I763" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J763" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>Gold Crest</t>
+        </is>
+      </c>
+      <c r="L763" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M755" t="n">
+      <c r="M763" t="n">
         <v>78</v>
       </c>
-      <c r="N755" t="n">
+      <c r="N763" t="n">
         <v>8000</v>
       </c>
-      <c r="O755" t="n">
+      <c r="O763" t="n">
         <v>8000</v>
       </c>
-      <c r="P755" t="n">
+      <c r="P763" t="n">
         <v>8000</v>
       </c>
-      <c r="Q755" t="inlineStr">
+      <c r="Q763" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos granel</t>
         </is>
       </c>
-      <c r="R755" t="inlineStr">
+      <c r="R763" t="inlineStr">
         <is>
           <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
-      <c r="S755" t="n">
+      <c r="S763" t="n">
         <v>800</v>
       </c>
-      <c r="T755" t="n">
+      <c r="T763" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T781"/>
+  <dimension ref="A1:T785"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58967,7 +58967,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E733" t="n">
         <v>5</v>
@@ -58995,7 +58995,7 @@
       </c>
       <c r="K733" t="inlineStr">
         <is>
-          <t>Jrb</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L733" t="inlineStr">
@@ -59004,16 +59004,16 @@
         </is>
       </c>
       <c r="M733" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N733" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O733" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P733" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q733" t="inlineStr">
         <is>
@@ -59022,11 +59022,11 @@
       </c>
       <c r="R733" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S733" t="n">
-        <v>1200</v>
+        <v>1067</v>
       </c>
       <c r="T733" t="n">
         <v>15</v>
@@ -59047,7 +59047,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E734" t="n">
         <v>5</v>
@@ -59075,25 +59075,25 @@
       </c>
       <c r="K734" t="inlineStr">
         <is>
-          <t>Jrb</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L734" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M734" t="n">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="N734" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O734" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P734" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q734" t="inlineStr">
         <is>
@@ -59102,11 +59102,11 @@
       </c>
       <c r="R734" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S734" t="n">
-        <v>1067</v>
+        <v>1200</v>
       </c>
       <c r="T734" t="n">
         <v>15</v>
@@ -59127,7 +59127,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E735" t="n">
         <v>5</v>
@@ -59155,25 +59155,25 @@
       </c>
       <c r="K735" t="inlineStr">
         <is>
-          <t>Jrb</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L735" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M735" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="N735" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O735" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="P735" t="n">
-        <v>15000</v>
+        <v>14267</v>
       </c>
       <c r="Q735" t="inlineStr">
         <is>
@@ -59182,11 +59182,11 @@
       </c>
       <c r="R735" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S735" t="n">
-        <v>1000</v>
+        <v>951</v>
       </c>
       <c r="T735" t="n">
         <v>15</v>
@@ -59207,7 +59207,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E736" t="n">
         <v>5</v>
@@ -59235,25 +59235,25 @@
       </c>
       <c r="K736" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L736" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M736" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N736" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O736" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P736" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q736" t="inlineStr">
         <is>
@@ -59266,7 +59266,7 @@
         </is>
       </c>
       <c r="S736" t="n">
-        <v>1067</v>
+        <v>800</v>
       </c>
       <c r="T736" t="n">
         <v>15</v>
@@ -59315,16 +59315,16 @@
       </c>
       <c r="K737" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Jrb</t>
         </is>
       </c>
       <c r="L737" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M737" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N737" t="n">
         <v>18000</v>
@@ -59342,7 +59342,7 @@
       </c>
       <c r="R737" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S737" t="n">
@@ -59395,7 +59395,7 @@
       </c>
       <c r="K738" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Jrb</t>
         </is>
       </c>
       <c r="L738" t="inlineStr">
@@ -59404,16 +59404,16 @@
         </is>
       </c>
       <c r="M738" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N738" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O738" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P738" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q738" t="inlineStr">
         <is>
@@ -59422,11 +59422,11 @@
       </c>
       <c r="R738" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S738" t="n">
-        <v>933</v>
+        <v>1067</v>
       </c>
       <c r="T738" t="n">
         <v>15</v>
@@ -59475,7 +59475,7 @@
       </c>
       <c r="K739" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Jrb</t>
         </is>
       </c>
       <c r="L739" t="inlineStr">
@@ -59484,16 +59484,16 @@
         </is>
       </c>
       <c r="M739" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="N739" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O739" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P739" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q739" t="inlineStr">
         <is>
@@ -59502,11 +59502,11 @@
       </c>
       <c r="R739" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S739" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T739" t="n">
         <v>15</v>
@@ -59527,7 +59527,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E740" t="n">
         <v>5</v>
@@ -59555,7 +59555,7 @@
       </c>
       <c r="K740" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L740" t="inlineStr">
@@ -59564,20 +59564,20 @@
         </is>
       </c>
       <c r="M740" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N740" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O740" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P740" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q740" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R740" t="inlineStr">
@@ -59586,10 +59586,10 @@
         </is>
       </c>
       <c r="S740" t="n">
-        <v>875</v>
+        <v>1067</v>
       </c>
       <c r="T740" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="741">
@@ -59607,7 +59607,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E741" t="n">
         <v>5</v>
@@ -59635,7 +59635,7 @@
       </c>
       <c r="K741" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L741" t="inlineStr">
@@ -59644,20 +59644,20 @@
         </is>
       </c>
       <c r="M741" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N741" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O741" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P741" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q741" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R741" t="inlineStr">
@@ -59666,10 +59666,10 @@
         </is>
       </c>
       <c r="S741" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T741" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="742">
@@ -59687,7 +59687,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E742" t="n">
         <v>5</v>
@@ -59715,7 +59715,7 @@
       </c>
       <c r="K742" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L742" t="inlineStr">
@@ -59724,20 +59724,20 @@
         </is>
       </c>
       <c r="M742" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N742" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O742" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P742" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q742" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R742" t="inlineStr">
@@ -59746,10 +59746,10 @@
         </is>
       </c>
       <c r="S742" t="n">
-        <v>750</v>
+        <v>933</v>
       </c>
       <c r="T742" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="743">
@@ -59767,7 +59767,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44162</v>
+        <v>44560</v>
       </c>
       <c r="E743" t="n">
         <v>5</v>
@@ -59795,16 +59795,16 @@
       </c>
       <c r="K743" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L743" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M743" t="n">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="N743" t="n">
         <v>12000</v>
@@ -59817,19 +59817,19 @@
       </c>
       <c r="Q743" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R743" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S743" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="T743" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="744">
@@ -59847,7 +59847,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44162</v>
+        <v>44272</v>
       </c>
       <c r="E744" t="n">
         <v>5</v>
@@ -59875,25 +59875,25 @@
       </c>
       <c r="K744" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L744" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M744" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N744" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O744" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P744" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q744" t="inlineStr">
         <is>
@@ -59902,11 +59902,11 @@
       </c>
       <c r="R744" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S744" t="n">
-        <v>688</v>
+        <v>875</v>
       </c>
       <c r="T744" t="n">
         <v>16</v>
@@ -59927,7 +59927,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44162</v>
+        <v>44272</v>
       </c>
       <c r="E745" t="n">
         <v>5</v>
@@ -59955,25 +59955,25 @@
       </c>
       <c r="K745" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L745" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M745" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N745" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O745" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P745" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q745" t="inlineStr">
         <is>
@@ -59982,11 +59982,11 @@
       </c>
       <c r="R745" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S745" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T745" t="n">
         <v>16</v>
@@ -60007,7 +60007,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44162</v>
+        <v>44272</v>
       </c>
       <c r="E746" t="n">
         <v>5</v>
@@ -60035,25 +60035,25 @@
       </c>
       <c r="K746" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L746" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M746" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N746" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O746" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P746" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q746" t="inlineStr">
         <is>
@@ -60066,7 +60066,7 @@
         </is>
       </c>
       <c r="S746" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T746" t="n">
         <v>16</v>
@@ -60115,25 +60115,25 @@
       </c>
       <c r="K747" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L747" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M747" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="N747" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O747" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P747" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q747" t="inlineStr">
         <is>
@@ -60142,11 +60142,11 @@
       </c>
       <c r="R747" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S747" t="n">
-        <v>938</v>
+        <v>750</v>
       </c>
       <c r="T747" t="n">
         <v>16</v>
@@ -60195,25 +60195,25 @@
       </c>
       <c r="K748" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L748" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M748" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="N748" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O748" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P748" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q748" t="inlineStr">
         <is>
@@ -60222,11 +60222,11 @@
       </c>
       <c r="R748" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S748" t="n">
-        <v>812</v>
+        <v>688</v>
       </c>
       <c r="T748" t="n">
         <v>16</v>
@@ -60247,7 +60247,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44529</v>
+        <v>44162</v>
       </c>
       <c r="E749" t="n">
         <v>5</v>
@@ -60275,29 +60275,29 @@
       </c>
       <c r="K749" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L749" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M749" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N749" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O749" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P749" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q749" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R749" t="inlineStr">
@@ -60306,10 +60306,10 @@
         </is>
       </c>
       <c r="S749" t="n">
-        <v>1083</v>
+        <v>625</v>
       </c>
       <c r="T749" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="750">
@@ -60327,7 +60327,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44529</v>
+        <v>44162</v>
       </c>
       <c r="E750" t="n">
         <v>5</v>
@@ -60355,41 +60355,41 @@
       </c>
       <c r="K750" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L750" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M750" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N750" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O750" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P750" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q750" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R750" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S750" t="n">
         <v>1000</v>
       </c>
       <c r="T750" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="751">
@@ -60407,7 +60407,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44529</v>
+        <v>44162</v>
       </c>
       <c r="E751" t="n">
         <v>5</v>
@@ -60435,41 +60435,41 @@
       </c>
       <c r="K751" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L751" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M751" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N751" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O751" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P751" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q751" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R751" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S751" t="n">
-        <v>833</v>
+        <v>938</v>
       </c>
       <c r="T751" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="752">
@@ -60487,7 +60487,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44529</v>
+        <v>44162</v>
       </c>
       <c r="E752" t="n">
         <v>5</v>
@@ -60515,41 +60515,41 @@
       </c>
       <c r="K752" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L752" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M752" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N752" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O752" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P752" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q752" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R752" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S752" t="n">
-        <v>933</v>
+        <v>812</v>
       </c>
       <c r="T752" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="753">
@@ -60595,29 +60595,29 @@
       </c>
       <c r="K753" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L753" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M753" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N753" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O753" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P753" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q753" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R753" t="inlineStr">
@@ -60626,10 +60626,10 @@
         </is>
       </c>
       <c r="S753" t="n">
-        <v>800</v>
+        <v>1083</v>
       </c>
       <c r="T753" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="754">
@@ -60675,29 +60675,29 @@
       </c>
       <c r="K754" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L754" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M754" t="n">
         <v>60</v>
       </c>
       <c r="N754" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O754" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P754" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q754" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R754" t="inlineStr">
@@ -60706,10 +60706,10 @@
         </is>
       </c>
       <c r="S754" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T754" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="755">
@@ -60755,25 +60755,25 @@
       </c>
       <c r="K755" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L755" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M755" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N755" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O755" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P755" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q755" t="inlineStr">
         <is>
@@ -60786,7 +60786,7 @@
         </is>
       </c>
       <c r="S755" t="n">
-        <v>1333</v>
+        <v>833</v>
       </c>
       <c r="T755" t="n">
         <v>12</v>
@@ -60835,16 +60835,16 @@
       </c>
       <c r="K756" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L756" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M756" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="N756" t="n">
         <v>14000</v>
@@ -60857,7 +60857,7 @@
       </c>
       <c r="Q756" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R756" t="inlineStr">
@@ -60866,10 +60866,10 @@
         </is>
       </c>
       <c r="S756" t="n">
-        <v>1167</v>
+        <v>933</v>
       </c>
       <c r="T756" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="757">
@@ -60915,12 +60915,12 @@
       </c>
       <c r="K757" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L757" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M757" t="n">
@@ -60937,7 +60937,7 @@
       </c>
       <c r="Q757" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R757" t="inlineStr">
@@ -60946,10 +60946,10 @@
         </is>
       </c>
       <c r="S757" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T757" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="758">
@@ -60967,7 +60967,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44189</v>
+        <v>44529</v>
       </c>
       <c r="E758" t="n">
         <v>5</v>
@@ -60995,41 +60995,41 @@
       </c>
       <c r="K758" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L758" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M758" t="n">
         <v>60</v>
       </c>
       <c r="N758" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O758" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P758" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q758" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R758" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S758" t="n">
-        <v>750</v>
+        <v>667</v>
       </c>
       <c r="T758" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="759">
@@ -61047,7 +61047,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44189</v>
+        <v>44529</v>
       </c>
       <c r="E759" t="n">
         <v>5</v>
@@ -61075,41 +61075,41 @@
       </c>
       <c r="K759" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L759" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M759" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N759" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O759" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P759" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q759" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R759" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S759" t="n">
-        <v>625</v>
+        <v>1333</v>
       </c>
       <c r="T759" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="760">
@@ -61127,7 +61127,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44189</v>
+        <v>44529</v>
       </c>
       <c r="E760" t="n">
         <v>5</v>
@@ -61155,41 +61155,41 @@
       </c>
       <c r="K760" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L760" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M760" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="N760" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O760" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P760" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q760" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R760" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S760" t="n">
-        <v>562</v>
+        <v>1167</v>
       </c>
       <c r="T760" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="761">
@@ -61207,7 +61207,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44189</v>
+        <v>44529</v>
       </c>
       <c r="E761" t="n">
         <v>5</v>
@@ -61235,29 +61235,29 @@
       </c>
       <c r="K761" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L761" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M761" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N761" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O761" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P761" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q761" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R761" t="inlineStr">
@@ -61266,10 +61266,10 @@
         </is>
       </c>
       <c r="S761" t="n">
-        <v>812</v>
+        <v>1000</v>
       </c>
       <c r="T761" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="762">
@@ -61315,25 +61315,25 @@
       </c>
       <c r="K762" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L762" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M762" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N762" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O762" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P762" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q762" t="inlineStr">
         <is>
@@ -61342,11 +61342,11 @@
       </c>
       <c r="R762" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S762" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T762" t="n">
         <v>16</v>
@@ -61395,7 +61395,7 @@
       </c>
       <c r="K763" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L763" t="inlineStr">
@@ -61404,16 +61404,16 @@
         </is>
       </c>
       <c r="M763" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N763" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O763" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P763" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q763" t="inlineStr">
         <is>
@@ -61422,11 +61422,11 @@
       </c>
       <c r="R763" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S763" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T763" t="n">
         <v>16</v>
@@ -61475,7 +61475,7 @@
       </c>
       <c r="K764" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L764" t="inlineStr">
@@ -61484,16 +61484,16 @@
         </is>
       </c>
       <c r="M764" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N764" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O764" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P764" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q764" t="inlineStr">
         <is>
@@ -61502,11 +61502,11 @@
       </c>
       <c r="R764" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S764" t="n">
-        <v>625</v>
+        <v>562</v>
       </c>
       <c r="T764" t="n">
         <v>16</v>
@@ -61555,7 +61555,7 @@
       </c>
       <c r="K765" t="inlineStr">
         <is>
-          <t>Manon</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L765" t="inlineStr">
@@ -61564,7 +61564,7 @@
         </is>
       </c>
       <c r="M765" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N765" t="n">
         <v>13000</v>
@@ -61635,25 +61635,25 @@
       </c>
       <c r="K766" t="inlineStr">
         <is>
-          <t>Manon</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L766" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M766" t="n">
         <v>50</v>
       </c>
       <c r="N766" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O766" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P766" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q766" t="inlineStr">
         <is>
@@ -61666,7 +61666,7 @@
         </is>
       </c>
       <c r="S766" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T766" t="n">
         <v>16</v>
@@ -61687,7 +61687,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44209</v>
+        <v>44189</v>
       </c>
       <c r="E767" t="n">
         <v>5</v>
@@ -61715,25 +61715,25 @@
       </c>
       <c r="K767" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L767" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M767" t="n">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="N767" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O767" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P767" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q767" t="inlineStr">
         <is>
@@ -61746,7 +61746,7 @@
         </is>
       </c>
       <c r="S767" t="n">
-        <v>938</v>
+        <v>750</v>
       </c>
       <c r="T767" t="n">
         <v>16</v>
@@ -61767,7 +61767,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44209</v>
+        <v>44189</v>
       </c>
       <c r="E768" t="n">
         <v>5</v>
@@ -61795,25 +61795,25 @@
       </c>
       <c r="K768" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L768" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M768" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N768" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O768" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P768" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q768" t="inlineStr">
         <is>
@@ -61826,7 +61826,7 @@
         </is>
       </c>
       <c r="S768" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T768" t="n">
         <v>16</v>
@@ -61847,7 +61847,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44209</v>
+        <v>44189</v>
       </c>
       <c r="E769" t="n">
         <v>5</v>
@@ -61875,25 +61875,25 @@
       </c>
       <c r="K769" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Manon</t>
         </is>
       </c>
       <c r="L769" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M769" t="n">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="N769" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O769" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P769" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q769" t="inlineStr">
         <is>
@@ -61906,7 +61906,7 @@
         </is>
       </c>
       <c r="S769" t="n">
-        <v>875</v>
+        <v>812</v>
       </c>
       <c r="T769" t="n">
         <v>16</v>
@@ -61927,7 +61927,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44209</v>
+        <v>44189</v>
       </c>
       <c r="E770" t="n">
         <v>5</v>
@@ -61955,16 +61955,16 @@
       </c>
       <c r="K770" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Manon</t>
         </is>
       </c>
       <c r="L770" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M770" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="N770" t="n">
         <v>12000</v>
@@ -62035,7 +62035,7 @@
       </c>
       <c r="K771" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L771" t="inlineStr">
@@ -62044,16 +62044,16 @@
         </is>
       </c>
       <c r="M771" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="N771" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O771" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P771" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q771" t="inlineStr">
         <is>
@@ -62066,7 +62066,7 @@
         </is>
       </c>
       <c r="S771" t="n">
-        <v>812</v>
+        <v>938</v>
       </c>
       <c r="T771" t="n">
         <v>16</v>
@@ -62115,25 +62115,25 @@
       </c>
       <c r="K772" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L772" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M772" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N772" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O772" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P772" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q772" t="inlineStr">
         <is>
@@ -62146,7 +62146,7 @@
         </is>
       </c>
       <c r="S772" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T772" t="n">
         <v>16</v>
@@ -62195,25 +62195,25 @@
       </c>
       <c r="K773" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L773" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M773" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="N773" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O773" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P773" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q773" t="inlineStr">
         <is>
@@ -62226,7 +62226,7 @@
         </is>
       </c>
       <c r="S773" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T773" t="n">
         <v>16</v>
@@ -62247,7 +62247,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E774" t="n">
         <v>5</v>
@@ -62275,25 +62275,25 @@
       </c>
       <c r="K774" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L774" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M774" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N774" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O774" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P774" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q774" t="inlineStr">
         <is>
@@ -62302,11 +62302,11 @@
       </c>
       <c r="R774" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S774" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T774" t="n">
         <v>16</v>
@@ -62327,7 +62327,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E775" t="n">
         <v>5</v>
@@ -62355,25 +62355,25 @@
       </c>
       <c r="K775" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L775" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M775" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="N775" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O775" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P775" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q775" t="inlineStr">
         <is>
@@ -62382,11 +62382,11 @@
       </c>
       <c r="R775" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S775" t="n">
-        <v>1000</v>
+        <v>812</v>
       </c>
       <c r="T775" t="n">
         <v>16</v>
@@ -62407,7 +62407,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44554</v>
+        <v>44209</v>
       </c>
       <c r="E776" t="n">
         <v>5</v>
@@ -62435,41 +62435,41 @@
       </c>
       <c r="K776" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L776" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M776" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N776" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O776" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P776" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q776" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R776" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S776" t="n">
-        <v>1067</v>
+        <v>750</v>
       </c>
       <c r="T776" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="777">
@@ -62487,7 +62487,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44554</v>
+        <v>44209</v>
       </c>
       <c r="E777" t="n">
         <v>5</v>
@@ -62515,41 +62515,41 @@
       </c>
       <c r="K777" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L777" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M777" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N777" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O777" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P777" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q777" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R777" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S777" t="n">
-        <v>1200</v>
+        <v>625</v>
       </c>
       <c r="T777" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="778">
@@ -62567,7 +62567,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44554</v>
+        <v>44274</v>
       </c>
       <c r="E778" t="n">
         <v>5</v>
@@ -62595,16 +62595,16 @@
       </c>
       <c r="K778" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L778" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M778" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N778" t="n">
         <v>14000</v>
@@ -62617,7 +62617,7 @@
       </c>
       <c r="Q778" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R778" t="inlineStr">
@@ -62626,10 +62626,10 @@
         </is>
       </c>
       <c r="S778" t="n">
-        <v>933</v>
+        <v>875</v>
       </c>
       <c r="T778" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="779">
@@ -62647,7 +62647,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44554</v>
+        <v>44274</v>
       </c>
       <c r="E779" t="n">
         <v>5</v>
@@ -62675,16 +62675,16 @@
       </c>
       <c r="K779" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L779" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M779" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N779" t="n">
         <v>16000</v>
@@ -62697,7 +62697,7 @@
       </c>
       <c r="Q779" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R779" t="inlineStr">
@@ -62706,10 +62706,10 @@
         </is>
       </c>
       <c r="S779" t="n">
-        <v>1067</v>
+        <v>1000</v>
       </c>
       <c r="T779" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="780">
@@ -62755,25 +62755,25 @@
       </c>
       <c r="K780" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L780" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M780" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="N780" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O780" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P780" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q780" t="inlineStr">
         <is>
@@ -62786,7 +62786,7 @@
         </is>
       </c>
       <c r="S780" t="n">
-        <v>933</v>
+        <v>1067</v>
       </c>
       <c r="T780" t="n">
         <v>15</v>
@@ -62835,40 +62835,360 @@
       </c>
       <c r="K781" t="inlineStr">
         <is>
+          <t>Kurakata</t>
+        </is>
+      </c>
+      <c r="L781" t="inlineStr">
+        <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M781" t="n">
+        <v>56</v>
+      </c>
+      <c r="N781" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O781" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P781" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q781" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R781" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S781" t="n">
+        <v>1200</v>
+      </c>
+      <c r="T781" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="n">
+        <v>3</v>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C782" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D782" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="E782" t="n">
+        <v>5</v>
+      </c>
+      <c r="F782" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G782" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H782" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I782" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J782" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>Kurakata</t>
+        </is>
+      </c>
+      <c r="L782" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M782" t="n">
+        <v>60</v>
+      </c>
+      <c r="N782" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O782" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P782" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q782" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R782" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S782" t="n">
+        <v>933</v>
+      </c>
+      <c r="T782" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="n">
+        <v>3</v>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C783" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D783" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="E783" t="n">
+        <v>5</v>
+      </c>
+      <c r="F783" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G783" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H783" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I783" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J783" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K783" t="inlineStr">
+        <is>
           <t>Toscana</t>
         </is>
       </c>
-      <c r="L781" t="inlineStr">
+      <c r="L783" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M783" t="n">
+        <v>60</v>
+      </c>
+      <c r="N783" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O783" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P783" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q783" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R783" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S783" t="n">
+        <v>1067</v>
+      </c>
+      <c r="T783" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="n">
+        <v>3</v>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C784" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D784" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="E784" t="n">
+        <v>5</v>
+      </c>
+      <c r="F784" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G784" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H784" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I784" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J784" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="L784" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M784" t="n">
+        <v>67</v>
+      </c>
+      <c r="N784" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O784" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P784" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q784" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R784" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S784" t="n">
+        <v>933</v>
+      </c>
+      <c r="T784" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="n">
+        <v>3</v>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C785" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D785" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="E785" t="n">
+        <v>5</v>
+      </c>
+      <c r="F785" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G785" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H785" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I785" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J785" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="L785" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M781" t="n">
+      <c r="M785" t="n">
         <v>60</v>
       </c>
-      <c r="N781" t="n">
+      <c r="N785" t="n">
         <v>12000</v>
       </c>
-      <c r="O781" t="n">
+      <c r="O785" t="n">
         <v>12000</v>
       </c>
-      <c r="P781" t="n">
+      <c r="P785" t="n">
         <v>12000</v>
       </c>
-      <c r="Q781" t="inlineStr">
+      <c r="Q785" t="inlineStr">
         <is>
           <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
-      <c r="R781" t="inlineStr">
+      <c r="R785" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S781" t="n">
+      <c r="S785" t="n">
         <v>800</v>
       </c>
-      <c r="T781" t="n">
+      <c r="T785" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T788"/>
+  <dimension ref="A1:T794"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52087,7 +52087,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44536</v>
+        <v>44588</v>
       </c>
       <c r="E647" t="n">
         <v>5</v>
@@ -52115,7 +52115,7 @@
       </c>
       <c r="K647" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L647" t="inlineStr">
@@ -52124,20 +52124,20 @@
         </is>
       </c>
       <c r="M647" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="N647" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O647" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P647" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R647" t="inlineStr">
@@ -52146,10 +52146,10 @@
         </is>
       </c>
       <c r="S647" t="n">
-        <v>1167</v>
+        <v>1000</v>
       </c>
       <c r="T647" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="648">
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44536</v>
+        <v>44588</v>
       </c>
       <c r="E648" t="n">
         <v>5</v>
@@ -52195,7 +52195,7 @@
       </c>
       <c r="K648" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L648" t="inlineStr">
@@ -52204,20 +52204,20 @@
         </is>
       </c>
       <c r="M648" t="n">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="N648" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O648" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P648" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R648" t="inlineStr">
@@ -52226,10 +52226,10 @@
         </is>
       </c>
       <c r="S648" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T648" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="649">
@@ -52247,7 +52247,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44536</v>
+        <v>44588</v>
       </c>
       <c r="E649" t="n">
         <v>5</v>
@@ -52275,7 +52275,7 @@
       </c>
       <c r="K649" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L649" t="inlineStr">
@@ -52284,20 +52284,20 @@
         </is>
       </c>
       <c r="M649" t="n">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="N649" t="n">
         <v>10000</v>
       </c>
       <c r="O649" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P649" t="n">
-        <v>10000</v>
+        <v>10522</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R649" t="inlineStr">
@@ -52306,10 +52306,10 @@
         </is>
       </c>
       <c r="S649" t="n">
-        <v>833</v>
+        <v>701</v>
       </c>
       <c r="T649" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="650">
@@ -52327,7 +52327,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44187</v>
+        <v>44588</v>
       </c>
       <c r="E650" t="n">
         <v>5</v>
@@ -52355,7 +52355,7 @@
       </c>
       <c r="K650" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L650" t="inlineStr">
@@ -52364,20 +52364,20 @@
         </is>
       </c>
       <c r="M650" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N650" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O650" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P650" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R650" t="inlineStr">
@@ -52386,10 +52386,10 @@
         </is>
       </c>
       <c r="S650" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T650" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="651">
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44187</v>
+        <v>44588</v>
       </c>
       <c r="E651" t="n">
         <v>5</v>
@@ -52435,7 +52435,7 @@
       </c>
       <c r="K651" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L651" t="inlineStr">
@@ -52444,20 +52444,20 @@
         </is>
       </c>
       <c r="M651" t="n">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="N651" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O651" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P651" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R651" t="inlineStr">
@@ -52466,10 +52466,10 @@
         </is>
       </c>
       <c r="S651" t="n">
-        <v>625</v>
+        <v>867</v>
       </c>
       <c r="T651" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="652">
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44187</v>
+        <v>44588</v>
       </c>
       <c r="E652" t="n">
         <v>5</v>
@@ -52515,7 +52515,7 @@
       </c>
       <c r="K652" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L652" t="inlineStr">
@@ -52524,20 +52524,20 @@
         </is>
       </c>
       <c r="M652" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N652" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O652" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P652" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R652" t="inlineStr">
@@ -52546,10 +52546,10 @@
         </is>
       </c>
       <c r="S652" t="n">
-        <v>562</v>
+        <v>733</v>
       </c>
       <c r="T652" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="653">
@@ -52567,7 +52567,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44266</v>
+        <v>44536</v>
       </c>
       <c r="E653" t="n">
         <v>5</v>
@@ -52595,7 +52595,7 @@
       </c>
       <c r="K653" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L653" t="inlineStr">
@@ -52604,7 +52604,7 @@
         </is>
       </c>
       <c r="M653" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="N653" t="n">
         <v>14000</v>
@@ -52617,19 +52617,19 @@
       </c>
       <c r="Q653" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R653" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S653" t="n">
-        <v>875</v>
+        <v>1167</v>
       </c>
       <c r="T653" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="654">
@@ -52647,7 +52647,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44266</v>
+        <v>44536</v>
       </c>
       <c r="E654" t="n">
         <v>5</v>
@@ -52675,7 +52675,7 @@
       </c>
       <c r="K654" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L654" t="inlineStr">
@@ -52684,7 +52684,7 @@
         </is>
       </c>
       <c r="M654" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="N654" t="n">
         <v>12000</v>
@@ -52697,19 +52697,19 @@
       </c>
       <c r="Q654" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R654" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S654" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T654" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="655">
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44266</v>
+        <v>44536</v>
       </c>
       <c r="E655" t="n">
         <v>5</v>
@@ -52755,7 +52755,7 @@
       </c>
       <c r="K655" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L655" t="inlineStr">
@@ -52764,32 +52764,32 @@
         </is>
       </c>
       <c r="M655" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N655" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O655" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P655" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R655" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S655" t="n">
-        <v>688</v>
+        <v>833</v>
       </c>
       <c r="T655" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="656">
@@ -52807,7 +52807,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44277</v>
+        <v>44187</v>
       </c>
       <c r="E656" t="n">
         <v>5</v>
@@ -52835,7 +52835,7 @@
       </c>
       <c r="K656" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L656" t="inlineStr">
@@ -52847,13 +52847,13 @@
         <v>70</v>
       </c>
       <c r="N656" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O656" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P656" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
@@ -52862,11 +52862,11 @@
       </c>
       <c r="R656" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S656" t="n">
-        <v>938</v>
+        <v>750</v>
       </c>
       <c r="T656" t="n">
         <v>16</v>
@@ -52887,7 +52887,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44277</v>
+        <v>44187</v>
       </c>
       <c r="E657" t="n">
         <v>5</v>
@@ -52915,25 +52915,25 @@
       </c>
       <c r="K657" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M657" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="N657" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O657" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P657" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
@@ -52942,11 +52942,11 @@
       </c>
       <c r="R657" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S657" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T657" t="n">
         <v>16</v>
@@ -52967,7 +52967,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44277</v>
+        <v>44187</v>
       </c>
       <c r="E658" t="n">
         <v>5</v>
@@ -52995,25 +52995,25 @@
       </c>
       <c r="K658" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L658" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M658" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="N658" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O658" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P658" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
@@ -53022,11 +53022,11 @@
       </c>
       <c r="R658" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S658" t="n">
-        <v>812</v>
+        <v>562</v>
       </c>
       <c r="T658" t="n">
         <v>16</v>
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44202</v>
+        <v>44266</v>
       </c>
       <c r="E659" t="n">
         <v>5</v>
@@ -53075,7 +53075,7 @@
       </c>
       <c r="K659" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L659" t="inlineStr">
@@ -53084,16 +53084,16 @@
         </is>
       </c>
       <c r="M659" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N659" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O659" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P659" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
@@ -53102,11 +53102,11 @@
       </c>
       <c r="R659" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S659" t="n">
-        <v>938</v>
+        <v>875</v>
       </c>
       <c r="T659" t="n">
         <v>16</v>
@@ -53127,7 +53127,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44202</v>
+        <v>44266</v>
       </c>
       <c r="E660" t="n">
         <v>5</v>
@@ -53155,25 +53155,25 @@
       </c>
       <c r="K660" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M660" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N660" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O660" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P660" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
@@ -53182,11 +53182,11 @@
       </c>
       <c r="R660" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S660" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T660" t="n">
         <v>16</v>
@@ -53207,7 +53207,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44202</v>
+        <v>44266</v>
       </c>
       <c r="E661" t="n">
         <v>5</v>
@@ -53235,25 +53235,25 @@
       </c>
       <c r="K661" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M661" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N661" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O661" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P661" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
@@ -53262,11 +53262,11 @@
       </c>
       <c r="R661" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S661" t="n">
-        <v>875</v>
+        <v>688</v>
       </c>
       <c r="T661" t="n">
         <v>16</v>
@@ -53287,7 +53287,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44202</v>
+        <v>44277</v>
       </c>
       <c r="E662" t="n">
         <v>5</v>
@@ -53315,25 +53315,25 @@
       </c>
       <c r="K662" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M662" t="n">
         <v>70</v>
       </c>
       <c r="N662" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O662" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P662" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
@@ -53342,11 +53342,11 @@
       </c>
       <c r="R662" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S662" t="n">
-        <v>812</v>
+        <v>938</v>
       </c>
       <c r="T662" t="n">
         <v>16</v>
@@ -53367,7 +53367,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44249</v>
+        <v>44277</v>
       </c>
       <c r="E663" t="n">
         <v>5</v>
@@ -53395,25 +53395,25 @@
       </c>
       <c r="K663" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M663" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N663" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O663" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P663" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
@@ -53426,7 +53426,7 @@
         </is>
       </c>
       <c r="S663" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T663" t="n">
         <v>16</v>
@@ -53447,7 +53447,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44249</v>
+        <v>44277</v>
       </c>
       <c r="E664" t="n">
         <v>5</v>
@@ -53475,7 +53475,7 @@
       </c>
       <c r="K664" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L664" t="inlineStr">
@@ -53484,16 +53484,16 @@
         </is>
       </c>
       <c r="M664" t="n">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="N664" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O664" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P664" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
@@ -53506,7 +53506,7 @@
         </is>
       </c>
       <c r="S664" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T664" t="n">
         <v>16</v>
@@ -53527,7 +53527,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44249</v>
+        <v>44202</v>
       </c>
       <c r="E665" t="n">
         <v>5</v>
@@ -53555,25 +53555,25 @@
       </c>
       <c r="K665" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L665" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M665" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N665" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O665" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P665" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
@@ -53582,11 +53582,11 @@
       </c>
       <c r="R665" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S665" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T665" t="n">
         <v>16</v>
@@ -53607,7 +53607,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44249</v>
+        <v>44202</v>
       </c>
       <c r="E666" t="n">
         <v>5</v>
@@ -53635,7 +53635,7 @@
       </c>
       <c r="K666" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L666" t="inlineStr">
@@ -53644,16 +53644,16 @@
         </is>
       </c>
       <c r="M666" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N666" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O666" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P666" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
@@ -53662,11 +53662,11 @@
       </c>
       <c r="R666" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S666" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T666" t="n">
         <v>16</v>
@@ -53687,7 +53687,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44249</v>
+        <v>44202</v>
       </c>
       <c r="E667" t="n">
         <v>5</v>
@@ -53715,7 +53715,7 @@
       </c>
       <c r="K667" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L667" t="inlineStr">
@@ -53724,16 +53724,16 @@
         </is>
       </c>
       <c r="M667" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N667" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O667" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P667" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
@@ -53742,11 +53742,11 @@
       </c>
       <c r="R667" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S667" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T667" t="n">
         <v>16</v>
@@ -53767,7 +53767,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44249</v>
+        <v>44202</v>
       </c>
       <c r="E668" t="n">
         <v>5</v>
@@ -53795,7 +53795,7 @@
       </c>
       <c r="K668" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L668" t="inlineStr">
@@ -53804,16 +53804,16 @@
         </is>
       </c>
       <c r="M668" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N668" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O668" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P668" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
@@ -53822,11 +53822,11 @@
       </c>
       <c r="R668" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S668" t="n">
-        <v>625</v>
+        <v>812</v>
       </c>
       <c r="T668" t="n">
         <v>16</v>
@@ -53875,7 +53875,7 @@
       </c>
       <c r="K669" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L669" t="inlineStr">
@@ -53887,13 +53887,13 @@
         <v>85</v>
       </c>
       <c r="N669" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O669" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P669" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
@@ -53906,7 +53906,7 @@
         </is>
       </c>
       <c r="S669" t="n">
-        <v>812</v>
+        <v>875</v>
       </c>
       <c r="T669" t="n">
         <v>16</v>
@@ -53955,7 +53955,7 @@
       </c>
       <c r="K670" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L670" t="inlineStr">
@@ -54035,7 +54035,7 @@
       </c>
       <c r="K671" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L671" t="inlineStr">
@@ -54044,7 +54044,7 @@
         </is>
       </c>
       <c r="M671" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N671" t="n">
         <v>10000</v>
@@ -54087,7 +54087,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44225</v>
+        <v>44249</v>
       </c>
       <c r="E672" t="n">
         <v>5</v>
@@ -54115,25 +54115,25 @@
       </c>
       <c r="K672" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L672" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M672" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N672" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O672" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P672" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
@@ -54142,11 +54142,11 @@
       </c>
       <c r="R672" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S672" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T672" t="n">
         <v>16</v>
@@ -54167,7 +54167,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44225</v>
+        <v>44249</v>
       </c>
       <c r="E673" t="n">
         <v>5</v>
@@ -54195,7 +54195,7 @@
       </c>
       <c r="K673" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L673" t="inlineStr">
@@ -54204,16 +54204,16 @@
         </is>
       </c>
       <c r="M673" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N673" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O673" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P673" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
@@ -54222,11 +54222,11 @@
       </c>
       <c r="R673" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S673" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T673" t="n">
         <v>16</v>
@@ -54247,7 +54247,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44225</v>
+        <v>44249</v>
       </c>
       <c r="E674" t="n">
         <v>5</v>
@@ -54275,7 +54275,7 @@
       </c>
       <c r="K674" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L674" t="inlineStr">
@@ -54284,16 +54284,16 @@
         </is>
       </c>
       <c r="M674" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N674" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O674" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P674" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
@@ -54302,11 +54302,11 @@
       </c>
       <c r="R674" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S674" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T674" t="n">
         <v>16</v>
@@ -54327,7 +54327,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44225</v>
+        <v>44249</v>
       </c>
       <c r="E675" t="n">
         <v>5</v>
@@ -54355,7 +54355,7 @@
       </c>
       <c r="K675" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L675" t="inlineStr">
@@ -54364,16 +54364,16 @@
         </is>
       </c>
       <c r="M675" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N675" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O675" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P675" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
@@ -54382,11 +54382,11 @@
       </c>
       <c r="R675" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S675" t="n">
-        <v>875</v>
+        <v>812</v>
       </c>
       <c r="T675" t="n">
         <v>16</v>
@@ -54407,7 +54407,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44225</v>
+        <v>44249</v>
       </c>
       <c r="E676" t="n">
         <v>5</v>
@@ -54435,7 +54435,7 @@
       </c>
       <c r="K676" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L676" t="inlineStr">
@@ -54444,16 +54444,16 @@
         </is>
       </c>
       <c r="M676" t="n">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="N676" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O676" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P676" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
@@ -54462,11 +54462,11 @@
       </c>
       <c r="R676" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S676" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T676" t="n">
         <v>16</v>
@@ -54487,7 +54487,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44225</v>
+        <v>44249</v>
       </c>
       <c r="E677" t="n">
         <v>5</v>
@@ -54515,7 +54515,7 @@
       </c>
       <c r="K677" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L677" t="inlineStr">
@@ -54524,16 +54524,16 @@
         </is>
       </c>
       <c r="M677" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="N677" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O677" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P677" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
@@ -54542,11 +54542,11 @@
       </c>
       <c r="R677" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S677" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T677" t="n">
         <v>16</v>
@@ -54595,7 +54595,7 @@
       </c>
       <c r="K678" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L678" t="inlineStr">
@@ -54607,13 +54607,13 @@
         <v>60</v>
       </c>
       <c r="N678" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O678" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P678" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q678" t="inlineStr">
         <is>
@@ -54626,7 +54626,7 @@
         </is>
       </c>
       <c r="S678" t="n">
-        <v>812</v>
+        <v>875</v>
       </c>
       <c r="T678" t="n">
         <v>16</v>
@@ -54675,7 +54675,7 @@
       </c>
       <c r="K679" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L679" t="inlineStr">
@@ -54684,16 +54684,16 @@
         </is>
       </c>
       <c r="M679" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N679" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O679" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P679" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q679" t="inlineStr">
         <is>
@@ -54706,7 +54706,7 @@
         </is>
       </c>
       <c r="S679" t="n">
-        <v>750</v>
+        <v>812</v>
       </c>
       <c r="T679" t="n">
         <v>16</v>
@@ -54755,7 +54755,7 @@
       </c>
       <c r="K680" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L680" t="inlineStr">
@@ -54764,16 +54764,16 @@
         </is>
       </c>
       <c r="M680" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N680" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O680" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P680" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q680" t="inlineStr">
         <is>
@@ -54786,7 +54786,7 @@
         </is>
       </c>
       <c r="S680" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T680" t="n">
         <v>16</v>
@@ -54807,7 +54807,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44259</v>
+        <v>44225</v>
       </c>
       <c r="E681" t="n">
         <v>5</v>
@@ -54835,7 +54835,7 @@
       </c>
       <c r="K681" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L681" t="inlineStr">
@@ -54844,7 +54844,7 @@
         </is>
       </c>
       <c r="M681" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="N681" t="n">
         <v>14000</v>
@@ -54862,7 +54862,7 @@
       </c>
       <c r="R681" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S681" t="n">
@@ -54887,7 +54887,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44259</v>
+        <v>44225</v>
       </c>
       <c r="E682" t="n">
         <v>5</v>
@@ -54915,25 +54915,25 @@
       </c>
       <c r="K682" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L682" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M682" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="N682" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O682" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P682" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q682" t="inlineStr">
         <is>
@@ -54942,11 +54942,11 @@
       </c>
       <c r="R682" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S682" t="n">
-        <v>1000</v>
+        <v>812</v>
       </c>
       <c r="T682" t="n">
         <v>16</v>
@@ -54967,7 +54967,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44259</v>
+        <v>44225</v>
       </c>
       <c r="E683" t="n">
         <v>5</v>
@@ -54995,16 +54995,16 @@
       </c>
       <c r="K683" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L683" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M683" t="n">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="N683" t="n">
         <v>12000</v>
@@ -55022,7 +55022,7 @@
       </c>
       <c r="R683" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S683" t="n">
@@ -55047,7 +55047,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44259</v>
+        <v>44225</v>
       </c>
       <c r="E684" t="n">
         <v>5</v>
@@ -55075,25 +55075,25 @@
       </c>
       <c r="K684" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L684" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M684" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N684" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O684" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P684" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q684" t="inlineStr">
         <is>
@@ -55102,11 +55102,11 @@
       </c>
       <c r="R684" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S684" t="n">
-        <v>625</v>
+        <v>812</v>
       </c>
       <c r="T684" t="n">
         <v>16</v>
@@ -55127,7 +55127,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44259</v>
+        <v>44225</v>
       </c>
       <c r="E685" t="n">
         <v>5</v>
@@ -55155,25 +55155,25 @@
       </c>
       <c r="K685" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L685" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M685" t="n">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="N685" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O685" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P685" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q685" t="inlineStr">
         <is>
@@ -55182,11 +55182,11 @@
       </c>
       <c r="R685" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S685" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T685" t="n">
         <v>16</v>
@@ -55207,7 +55207,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44259</v>
+        <v>44225</v>
       </c>
       <c r="E686" t="n">
         <v>5</v>
@@ -55235,25 +55235,25 @@
       </c>
       <c r="K686" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L686" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M686" t="n">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="N686" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O686" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P686" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q686" t="inlineStr">
         <is>
@@ -55262,11 +55262,11 @@
       </c>
       <c r="R686" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S686" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T686" t="n">
         <v>16</v>
@@ -55315,25 +55315,25 @@
       </c>
       <c r="K687" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L687" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M687" t="n">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="N687" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O687" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P687" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q687" t="inlineStr">
         <is>
@@ -55346,7 +55346,7 @@
         </is>
       </c>
       <c r="S687" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T687" t="n">
         <v>16</v>
@@ -55367,7 +55367,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44561</v>
+        <v>44259</v>
       </c>
       <c r="E688" t="n">
         <v>5</v>
@@ -55395,16 +55395,16 @@
       </c>
       <c r="K688" t="inlineStr">
         <is>
-          <t>Jrb</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L688" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M688" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="N688" t="n">
         <v>16000</v>
@@ -55417,19 +55417,19 @@
       </c>
       <c r="Q688" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R688" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S688" t="n">
-        <v>1067</v>
+        <v>1000</v>
       </c>
       <c r="T688" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="689">
@@ -55447,7 +55447,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44561</v>
+        <v>44259</v>
       </c>
       <c r="E689" t="n">
         <v>5</v>
@@ -55475,41 +55475,41 @@
       </c>
       <c r="K689" t="inlineStr">
         <is>
-          <t>Jrb</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L689" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M689" t="n">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="N689" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O689" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P689" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q689" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R689" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S689" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T689" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="690">
@@ -55527,7 +55527,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44561</v>
+        <v>44259</v>
       </c>
       <c r="E690" t="n">
         <v>5</v>
@@ -55555,29 +55555,29 @@
       </c>
       <c r="K690" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L690" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M690" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N690" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O690" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P690" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q690" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R690" t="inlineStr">
@@ -55586,10 +55586,10 @@
         </is>
       </c>
       <c r="S690" t="n">
-        <v>1067</v>
+        <v>625</v>
       </c>
       <c r="T690" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="691">
@@ -55607,7 +55607,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44561</v>
+        <v>44259</v>
       </c>
       <c r="E691" t="n">
         <v>5</v>
@@ -55635,29 +55635,29 @@
       </c>
       <c r="K691" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L691" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M691" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N691" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O691" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P691" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="Q691" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R691" t="inlineStr">
@@ -55666,10 +55666,10 @@
         </is>
       </c>
       <c r="S691" t="n">
-        <v>1200</v>
+        <v>812</v>
       </c>
       <c r="T691" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="692">
@@ -55687,7 +55687,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44561</v>
+        <v>44259</v>
       </c>
       <c r="E692" t="n">
         <v>5</v>
@@ -55715,7 +55715,7 @@
       </c>
       <c r="K692" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L692" t="inlineStr">
@@ -55724,20 +55724,20 @@
         </is>
       </c>
       <c r="M692" t="n">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="N692" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O692" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P692" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q692" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R692" t="inlineStr">
@@ -55746,10 +55746,10 @@
         </is>
       </c>
       <c r="S692" t="n">
-        <v>933</v>
+        <v>750</v>
       </c>
       <c r="T692" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="693">
@@ -55767,7 +55767,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44250</v>
+        <v>44259</v>
       </c>
       <c r="E693" t="n">
         <v>5</v>
@@ -55795,25 +55795,25 @@
       </c>
       <c r="K693" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L693" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M693" t="n">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="N693" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O693" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P693" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q693" t="inlineStr">
         <is>
@@ -55822,11 +55822,11 @@
       </c>
       <c r="R693" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S693" t="n">
-        <v>812</v>
+        <v>625</v>
       </c>
       <c r="T693" t="n">
         <v>16</v>
@@ -55847,7 +55847,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44250</v>
+        <v>44561</v>
       </c>
       <c r="E694" t="n">
         <v>5</v>
@@ -55875,7 +55875,7 @@
       </c>
       <c r="K694" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Jrb</t>
         </is>
       </c>
       <c r="L694" t="inlineStr">
@@ -55884,20 +55884,20 @@
         </is>
       </c>
       <c r="M694" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="N694" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O694" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P694" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q694" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R694" t="inlineStr">
@@ -55906,10 +55906,10 @@
         </is>
       </c>
       <c r="S694" t="n">
-        <v>750</v>
+        <v>1067</v>
       </c>
       <c r="T694" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="695">
@@ -55927,7 +55927,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44250</v>
+        <v>44561</v>
       </c>
       <c r="E695" t="n">
         <v>5</v>
@@ -55955,7 +55955,7 @@
       </c>
       <c r="K695" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Jrb</t>
         </is>
       </c>
       <c r="L695" t="inlineStr">
@@ -55964,20 +55964,20 @@
         </is>
       </c>
       <c r="M695" t="n">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="N695" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O695" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P695" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q695" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R695" t="inlineStr">
@@ -55986,10 +55986,10 @@
         </is>
       </c>
       <c r="S695" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T695" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="696">
@@ -56007,7 +56007,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44264</v>
+        <v>44561</v>
       </c>
       <c r="E696" t="n">
         <v>5</v>
@@ -56035,7 +56035,7 @@
       </c>
       <c r="K696" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L696" t="inlineStr">
@@ -56044,20 +56044,20 @@
         </is>
       </c>
       <c r="M696" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N696" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O696" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P696" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q696" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R696" t="inlineStr">
@@ -56066,10 +56066,10 @@
         </is>
       </c>
       <c r="S696" t="n">
-        <v>875</v>
+        <v>1067</v>
       </c>
       <c r="T696" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="697">
@@ -56087,7 +56087,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44264</v>
+        <v>44561</v>
       </c>
       <c r="E697" t="n">
         <v>5</v>
@@ -56115,29 +56115,29 @@
       </c>
       <c r="K697" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L697" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M697" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="N697" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O697" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P697" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q697" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R697" t="inlineStr">
@@ -56146,10 +56146,10 @@
         </is>
       </c>
       <c r="S697" t="n">
-        <v>750</v>
+        <v>1200</v>
       </c>
       <c r="T697" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="698">
@@ -56167,7 +56167,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44264</v>
+        <v>44561</v>
       </c>
       <c r="E698" t="n">
         <v>5</v>
@@ -56195,29 +56195,29 @@
       </c>
       <c r="K698" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L698" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M698" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N698" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O698" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P698" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q698" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R698" t="inlineStr">
@@ -56226,10 +56226,10 @@
         </is>
       </c>
       <c r="S698" t="n">
-        <v>625</v>
+        <v>933</v>
       </c>
       <c r="T698" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="699">
@@ -56247,7 +56247,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44533</v>
+        <v>44250</v>
       </c>
       <c r="E699" t="n">
         <v>5</v>
@@ -56275,7 +56275,7 @@
       </c>
       <c r="K699" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L699" t="inlineStr">
@@ -56284,20 +56284,20 @@
         </is>
       </c>
       <c r="M699" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N699" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O699" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P699" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q699" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R699" t="inlineStr">
@@ -56306,10 +56306,10 @@
         </is>
       </c>
       <c r="S699" t="n">
-        <v>1167</v>
+        <v>812</v>
       </c>
       <c r="T699" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="700">
@@ -56327,7 +56327,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44533</v>
+        <v>44250</v>
       </c>
       <c r="E700" t="n">
         <v>5</v>
@@ -56355,7 +56355,7 @@
       </c>
       <c r="K700" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L700" t="inlineStr">
@@ -56364,7 +56364,7 @@
         </is>
       </c>
       <c r="M700" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N700" t="n">
         <v>12000</v>
@@ -56377,7 +56377,7 @@
       </c>
       <c r="Q700" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R700" t="inlineStr">
@@ -56386,10 +56386,10 @@
         </is>
       </c>
       <c r="S700" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T700" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="701">
@@ -56407,7 +56407,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44533</v>
+        <v>44250</v>
       </c>
       <c r="E701" t="n">
         <v>5</v>
@@ -56435,7 +56435,7 @@
       </c>
       <c r="K701" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L701" t="inlineStr">
@@ -56444,20 +56444,20 @@
         </is>
       </c>
       <c r="M701" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N701" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O701" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P701" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q701" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R701" t="inlineStr">
@@ -56466,10 +56466,10 @@
         </is>
       </c>
       <c r="S701" t="n">
-        <v>917</v>
+        <v>625</v>
       </c>
       <c r="T701" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="702">
@@ -56487,7 +56487,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44221</v>
+        <v>44264</v>
       </c>
       <c r="E702" t="n">
         <v>5</v>
@@ -56515,7 +56515,7 @@
       </c>
       <c r="K702" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L702" t="inlineStr">
@@ -56524,7 +56524,7 @@
         </is>
       </c>
       <c r="M702" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N702" t="n">
         <v>14000</v>
@@ -56542,7 +56542,7 @@
       </c>
       <c r="R702" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S702" t="n">
@@ -56567,7 +56567,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44221</v>
+        <v>44264</v>
       </c>
       <c r="E703" t="n">
         <v>5</v>
@@ -56595,25 +56595,25 @@
       </c>
       <c r="K703" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L703" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M703" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="N703" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O703" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P703" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q703" t="inlineStr">
         <is>
@@ -56622,11 +56622,11 @@
       </c>
       <c r="R703" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S703" t="n">
-        <v>938</v>
+        <v>750</v>
       </c>
       <c r="T703" t="n">
         <v>16</v>
@@ -56647,7 +56647,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44221</v>
+        <v>44264</v>
       </c>
       <c r="E704" t="n">
         <v>5</v>
@@ -56675,25 +56675,25 @@
       </c>
       <c r="K704" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L704" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M704" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N704" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O704" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P704" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q704" t="inlineStr">
         <is>
@@ -56702,11 +56702,11 @@
       </c>
       <c r="R704" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S704" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T704" t="n">
         <v>16</v>
@@ -56727,7 +56727,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44221</v>
+        <v>44533</v>
       </c>
       <c r="E705" t="n">
         <v>5</v>
@@ -56755,29 +56755,29 @@
       </c>
       <c r="K705" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L705" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M705" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="N705" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O705" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P705" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q705" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R705" t="inlineStr">
@@ -56786,10 +56786,10 @@
         </is>
       </c>
       <c r="S705" t="n">
-        <v>625</v>
+        <v>1167</v>
       </c>
       <c r="T705" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="706">
@@ -56807,7 +56807,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44221</v>
+        <v>44533</v>
       </c>
       <c r="E706" t="n">
         <v>5</v>
@@ -56835,29 +56835,29 @@
       </c>
       <c r="K706" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L706" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M706" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N706" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O706" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P706" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q706" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R706" t="inlineStr">
@@ -56866,10 +56866,10 @@
         </is>
       </c>
       <c r="S706" t="n">
-        <v>812</v>
+        <v>1000</v>
       </c>
       <c r="T706" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="707">
@@ -56887,7 +56887,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44221</v>
+        <v>44533</v>
       </c>
       <c r="E707" t="n">
         <v>5</v>
@@ -56915,29 +56915,29 @@
       </c>
       <c r="K707" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L707" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M707" t="n">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="N707" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O707" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P707" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q707" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R707" t="inlineStr">
@@ -56946,10 +56946,10 @@
         </is>
       </c>
       <c r="S707" t="n">
-        <v>750</v>
+        <v>917</v>
       </c>
       <c r="T707" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="708">
@@ -56995,25 +56995,25 @@
       </c>
       <c r="K708" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L708" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M708" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N708" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O708" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P708" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q708" t="inlineStr">
         <is>
@@ -57026,7 +57026,7 @@
         </is>
       </c>
       <c r="S708" t="n">
-        <v>625</v>
+        <v>875</v>
       </c>
       <c r="T708" t="n">
         <v>16</v>
@@ -57047,7 +57047,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44523</v>
+        <v>44221</v>
       </c>
       <c r="E709" t="n">
         <v>5</v>
@@ -57075,41 +57075,41 @@
       </c>
       <c r="K709" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L709" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M709" t="n">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="N709" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O709" t="n">
         <v>15000</v>
       </c>
       <c r="P709" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="Q709" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R709" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S709" t="n">
-        <v>967</v>
+        <v>938</v>
       </c>
       <c r="T709" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="710">
@@ -57127,7 +57127,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44523</v>
+        <v>44221</v>
       </c>
       <c r="E710" t="n">
         <v>5</v>
@@ -57155,41 +57155,41 @@
       </c>
       <c r="K710" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L710" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M710" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N710" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O710" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P710" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q710" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R710" t="inlineStr">
         <is>
-          <t>Provincia de Santiago</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S710" t="n">
-        <v>733</v>
+        <v>750</v>
       </c>
       <c r="T710" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="711">
@@ -57207,7 +57207,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44167</v>
+        <v>44221</v>
       </c>
       <c r="E711" t="n">
         <v>5</v>
@@ -57235,25 +57235,25 @@
       </c>
       <c r="K711" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L711" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M711" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="N711" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O711" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P711" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q711" t="inlineStr">
         <is>
@@ -57262,11 +57262,11 @@
       </c>
       <c r="R711" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S711" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T711" t="n">
         <v>16</v>
@@ -57287,7 +57287,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44167</v>
+        <v>44221</v>
       </c>
       <c r="E712" t="n">
         <v>5</v>
@@ -57315,25 +57315,25 @@
       </c>
       <c r="K712" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L712" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M712" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="N712" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O712" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P712" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q712" t="inlineStr">
         <is>
@@ -57342,11 +57342,11 @@
       </c>
       <c r="R712" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S712" t="n">
-        <v>625</v>
+        <v>812</v>
       </c>
       <c r="T712" t="n">
         <v>16</v>
@@ -57367,7 +57367,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44167</v>
+        <v>44221</v>
       </c>
       <c r="E713" t="n">
         <v>5</v>
@@ -57395,25 +57395,25 @@
       </c>
       <c r="K713" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L713" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M713" t="n">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="N713" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O713" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P713" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q713" t="inlineStr">
         <is>
@@ -57422,11 +57422,11 @@
       </c>
       <c r="R713" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S713" t="n">
-        <v>562</v>
+        <v>750</v>
       </c>
       <c r="T713" t="n">
         <v>16</v>
@@ -57447,7 +57447,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44167</v>
+        <v>44221</v>
       </c>
       <c r="E714" t="n">
         <v>5</v>
@@ -57475,25 +57475,25 @@
       </c>
       <c r="K714" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L714" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M714" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N714" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O714" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P714" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q714" t="inlineStr">
         <is>
@@ -57502,11 +57502,11 @@
       </c>
       <c r="R714" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S714" t="n">
-        <v>812</v>
+        <v>625</v>
       </c>
       <c r="T714" t="n">
         <v>16</v>
@@ -57527,7 +57527,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44167</v>
+        <v>44523</v>
       </c>
       <c r="E715" t="n">
         <v>5</v>
@@ -57555,7 +57555,7 @@
       </c>
       <c r="K715" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L715" t="inlineStr">
@@ -57564,32 +57564,32 @@
         </is>
       </c>
       <c r="M715" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="N715" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O715" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P715" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="Q715" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R715" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="S715" t="n">
-        <v>750</v>
+        <v>967</v>
       </c>
       <c r="T715" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="716">
@@ -57607,7 +57607,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44167</v>
+        <v>44523</v>
       </c>
       <c r="E716" t="n">
         <v>5</v>
@@ -57635,41 +57635,41 @@
       </c>
       <c r="K716" t="inlineStr">
         <is>
-          <t>Springtime</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L716" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M716" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N716" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O716" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P716" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q716" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R716" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Santiago</t>
         </is>
       </c>
       <c r="S716" t="n">
-        <v>812</v>
+        <v>733</v>
       </c>
       <c r="T716" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="717">
@@ -57715,16 +57715,16 @@
       </c>
       <c r="K717" t="inlineStr">
         <is>
-          <t>Springtime</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L717" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M717" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N717" t="n">
         <v>12000</v>
@@ -57795,16 +57795,16 @@
       </c>
       <c r="K718" t="inlineStr">
         <is>
-          <t>Springtime</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L718" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M718" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N718" t="n">
         <v>10000</v>
@@ -57847,7 +57847,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44186</v>
+        <v>44167</v>
       </c>
       <c r="E719" t="n">
         <v>5</v>
@@ -57875,25 +57875,25 @@
       </c>
       <c r="K719" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L719" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M719" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="N719" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O719" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P719" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q719" t="inlineStr">
         <is>
@@ -57902,11 +57902,11 @@
       </c>
       <c r="R719" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S719" t="n">
-        <v>750</v>
+        <v>562</v>
       </c>
       <c r="T719" t="n">
         <v>16</v>
@@ -57927,7 +57927,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44186</v>
+        <v>44167</v>
       </c>
       <c r="E720" t="n">
         <v>5</v>
@@ -57955,25 +57955,25 @@
       </c>
       <c r="K720" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L720" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M720" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N720" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O720" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P720" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q720" t="inlineStr">
         <is>
@@ -57982,11 +57982,11 @@
       </c>
       <c r="R720" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S720" t="n">
-        <v>625</v>
+        <v>812</v>
       </c>
       <c r="T720" t="n">
         <v>16</v>
@@ -58007,7 +58007,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44186</v>
+        <v>44167</v>
       </c>
       <c r="E721" t="n">
         <v>5</v>
@@ -58035,25 +58035,25 @@
       </c>
       <c r="K721" t="inlineStr">
         <is>
-          <t>Flavor Crest</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L721" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M721" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N721" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O721" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P721" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q721" t="inlineStr">
         <is>
@@ -58062,11 +58062,11 @@
       </c>
       <c r="R721" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S721" t="n">
-        <v>562</v>
+        <v>750</v>
       </c>
       <c r="T721" t="n">
         <v>16</v>
@@ -58087,7 +58087,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44186</v>
+        <v>44167</v>
       </c>
       <c r="E722" t="n">
         <v>5</v>
@@ -58115,7 +58115,7 @@
       </c>
       <c r="K722" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Springtime</t>
         </is>
       </c>
       <c r="L722" t="inlineStr">
@@ -58124,16 +58124,16 @@
         </is>
       </c>
       <c r="M722" t="n">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="N722" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O722" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P722" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q722" t="inlineStr">
         <is>
@@ -58142,11 +58142,11 @@
       </c>
       <c r="R722" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S722" t="n">
-        <v>1000</v>
+        <v>812</v>
       </c>
       <c r="T722" t="n">
         <v>16</v>
@@ -58167,7 +58167,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44186</v>
+        <v>44167</v>
       </c>
       <c r="E723" t="n">
         <v>5</v>
@@ -58195,25 +58195,25 @@
       </c>
       <c r="K723" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Springtime</t>
         </is>
       </c>
       <c r="L723" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M723" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="N723" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O723" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P723" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q723" t="inlineStr">
         <is>
@@ -58222,11 +58222,11 @@
       </c>
       <c r="R723" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S723" t="n">
-        <v>1062</v>
+        <v>750</v>
       </c>
       <c r="T723" t="n">
         <v>16</v>
@@ -58247,7 +58247,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44186</v>
+        <v>44167</v>
       </c>
       <c r="E724" t="n">
         <v>5</v>
@@ -58275,25 +58275,25 @@
       </c>
       <c r="K724" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Springtime</t>
         </is>
       </c>
       <c r="L724" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M724" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N724" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O724" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P724" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q724" t="inlineStr">
         <is>
@@ -58302,11 +58302,11 @@
       </c>
       <c r="R724" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S724" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="T724" t="n">
         <v>16</v>
@@ -58355,16 +58355,16 @@
       </c>
       <c r="K725" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L725" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M725" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N725" t="n">
         <v>12000</v>
@@ -58407,7 +58407,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44176</v>
+        <v>44186</v>
       </c>
       <c r="E726" t="n">
         <v>5</v>
@@ -58435,25 +58435,25 @@
       </c>
       <c r="K726" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L726" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M726" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="N726" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O726" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P726" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q726" t="inlineStr">
         <is>
@@ -58462,11 +58462,11 @@
       </c>
       <c r="R726" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S726" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T726" t="n">
         <v>16</v>
@@ -58487,7 +58487,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44176</v>
+        <v>44186</v>
       </c>
       <c r="E727" t="n">
         <v>5</v>
@@ -58515,25 +58515,25 @@
       </c>
       <c r="K727" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Flavor Crest</t>
         </is>
       </c>
       <c r="L727" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M727" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N727" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="O727" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="P727" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="Q727" t="inlineStr">
         <is>
@@ -58542,11 +58542,11 @@
       </c>
       <c r="R727" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S727" t="n">
-        <v>1125</v>
+        <v>562</v>
       </c>
       <c r="T727" t="n">
         <v>16</v>
@@ -58567,7 +58567,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44176</v>
+        <v>44186</v>
       </c>
       <c r="E728" t="n">
         <v>5</v>
@@ -58600,20 +58600,20 @@
       </c>
       <c r="L728" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M728" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="N728" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O728" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P728" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q728" t="inlineStr">
         <is>
@@ -58622,11 +58622,11 @@
       </c>
       <c r="R728" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S728" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T728" t="n">
         <v>16</v>
@@ -58647,7 +58647,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44176</v>
+        <v>44186</v>
       </c>
       <c r="E729" t="n">
         <v>5</v>
@@ -58675,25 +58675,25 @@
       </c>
       <c r="K729" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L729" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M729" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="N729" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O729" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P729" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="Q729" t="inlineStr">
         <is>
@@ -58702,11 +58702,11 @@
       </c>
       <c r="R729" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S729" t="n">
-        <v>625</v>
+        <v>1062</v>
       </c>
       <c r="T729" t="n">
         <v>16</v>
@@ -58727,7 +58727,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44176</v>
+        <v>44186</v>
       </c>
       <c r="E730" t="n">
         <v>5</v>
@@ -58755,25 +58755,25 @@
       </c>
       <c r="K730" t="inlineStr">
         <is>
-          <t>Springcrest</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L730" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M730" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="N730" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O730" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P730" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q730" t="inlineStr">
         <is>
@@ -58782,11 +58782,11 @@
       </c>
       <c r="R730" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S730" t="n">
-        <v>562</v>
+        <v>875</v>
       </c>
       <c r="T730" t="n">
         <v>16</v>
@@ -58807,7 +58807,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44278</v>
+        <v>44186</v>
       </c>
       <c r="E731" t="n">
         <v>5</v>
@@ -58835,25 +58835,25 @@
       </c>
       <c r="K731" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L731" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M731" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="N731" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O731" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P731" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q731" t="inlineStr">
         <is>
@@ -58862,11 +58862,11 @@
       </c>
       <c r="R731" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S731" t="n">
-        <v>938</v>
+        <v>750</v>
       </c>
       <c r="T731" t="n">
         <v>16</v>
@@ -58887,7 +58887,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44278</v>
+        <v>44176</v>
       </c>
       <c r="E732" t="n">
         <v>5</v>
@@ -58915,25 +58915,25 @@
       </c>
       <c r="K732" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L732" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M732" t="n">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="N732" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O732" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P732" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q732" t="inlineStr">
         <is>
@@ -58946,7 +58946,7 @@
         </is>
       </c>
       <c r="S732" t="n">
-        <v>812</v>
+        <v>1000</v>
       </c>
       <c r="T732" t="n">
         <v>16</v>
@@ -58967,7 +58967,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44260</v>
+        <v>44176</v>
       </c>
       <c r="E733" t="n">
         <v>5</v>
@@ -58995,25 +58995,25 @@
       </c>
       <c r="K733" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L733" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M733" t="n">
         <v>75</v>
       </c>
       <c r="N733" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O733" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P733" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q733" t="inlineStr">
         <is>
@@ -59026,7 +59026,7 @@
         </is>
       </c>
       <c r="S733" t="n">
-        <v>875</v>
+        <v>1125</v>
       </c>
       <c r="T733" t="n">
         <v>16</v>
@@ -59047,7 +59047,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44260</v>
+        <v>44176</v>
       </c>
       <c r="E734" t="n">
         <v>5</v>
@@ -59075,25 +59075,25 @@
       </c>
       <c r="K734" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L734" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M734" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="N734" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O734" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P734" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q734" t="inlineStr">
         <is>
@@ -59106,7 +59106,7 @@
         </is>
       </c>
       <c r="S734" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T734" t="n">
         <v>16</v>
@@ -59127,7 +59127,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44260</v>
+        <v>44176</v>
       </c>
       <c r="E735" t="n">
         <v>5</v>
@@ -59155,7 +59155,7 @@
       </c>
       <c r="K735" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L735" t="inlineStr">
@@ -59164,16 +59164,16 @@
         </is>
       </c>
       <c r="M735" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N735" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O735" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P735" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q735" t="inlineStr">
         <is>
@@ -59186,7 +59186,7 @@
         </is>
       </c>
       <c r="S735" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T735" t="n">
         <v>16</v>
@@ -59207,7 +59207,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44585</v>
+        <v>44176</v>
       </c>
       <c r="E736" t="n">
         <v>5</v>
@@ -59235,29 +59235,29 @@
       </c>
       <c r="K736" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Springcrest</t>
         </is>
       </c>
       <c r="L736" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M736" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N736" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O736" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P736" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="Q736" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R736" t="inlineStr">
@@ -59266,10 +59266,10 @@
         </is>
       </c>
       <c r="S736" t="n">
-        <v>1067</v>
+        <v>562</v>
       </c>
       <c r="T736" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="737">
@@ -59287,7 +59287,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44585</v>
+        <v>44278</v>
       </c>
       <c r="E737" t="n">
         <v>5</v>
@@ -59315,29 +59315,29 @@
       </c>
       <c r="K737" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L737" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M737" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N737" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O737" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P737" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q737" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R737" t="inlineStr">
@@ -59346,10 +59346,10 @@
         </is>
       </c>
       <c r="S737" t="n">
-        <v>1200</v>
+        <v>938</v>
       </c>
       <c r="T737" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="738">
@@ -59367,7 +59367,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44585</v>
+        <v>44278</v>
       </c>
       <c r="E738" t="n">
         <v>5</v>
@@ -59395,7 +59395,7 @@
       </c>
       <c r="K738" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L738" t="inlineStr">
@@ -59404,20 +59404,20 @@
         </is>
       </c>
       <c r="M738" t="n">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="N738" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O738" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="P738" t="n">
-        <v>14267</v>
+        <v>13000</v>
       </c>
       <c r="Q738" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R738" t="inlineStr">
@@ -59426,10 +59426,10 @@
         </is>
       </c>
       <c r="S738" t="n">
-        <v>951</v>
+        <v>812</v>
       </c>
       <c r="T738" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="739">
@@ -59447,7 +59447,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44585</v>
+        <v>44260</v>
       </c>
       <c r="E739" t="n">
         <v>5</v>
@@ -59475,29 +59475,29 @@
       </c>
       <c r="K739" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L739" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M739" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="N739" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O739" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P739" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q739" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R739" t="inlineStr">
@@ -59506,10 +59506,10 @@
         </is>
       </c>
       <c r="S739" t="n">
-        <v>800</v>
+        <v>875</v>
       </c>
       <c r="T739" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="740">
@@ -59527,7 +59527,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44560</v>
+        <v>44260</v>
       </c>
       <c r="E740" t="n">
         <v>5</v>
@@ -59555,41 +59555,41 @@
       </c>
       <c r="K740" t="inlineStr">
         <is>
-          <t>Jrb</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L740" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M740" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N740" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O740" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P740" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q740" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R740" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S740" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T740" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="741">
@@ -59607,7 +59607,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44560</v>
+        <v>44260</v>
       </c>
       <c r="E741" t="n">
         <v>5</v>
@@ -59635,7 +59635,7 @@
       </c>
       <c r="K741" t="inlineStr">
         <is>
-          <t>Jrb</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L741" t="inlineStr">
@@ -59644,32 +59644,32 @@
         </is>
       </c>
       <c r="M741" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="N741" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O741" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P741" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q741" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R741" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S741" t="n">
-        <v>1067</v>
+        <v>750</v>
       </c>
       <c r="T741" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="742">
@@ -59687,7 +59687,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E742" t="n">
         <v>5</v>
@@ -59715,25 +59715,25 @@
       </c>
       <c r="K742" t="inlineStr">
         <is>
-          <t>Jrb</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L742" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M742" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N742" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O742" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P742" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q742" t="inlineStr">
         <is>
@@ -59742,11 +59742,11 @@
       </c>
       <c r="R742" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S742" t="n">
-        <v>1000</v>
+        <v>1067</v>
       </c>
       <c r="T742" t="n">
         <v>15</v>
@@ -59767,7 +59767,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E743" t="n">
         <v>5</v>
@@ -59795,25 +59795,25 @@
       </c>
       <c r="K743" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L743" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M743" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N743" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O743" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P743" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q743" t="inlineStr">
         <is>
@@ -59826,7 +59826,7 @@
         </is>
       </c>
       <c r="S743" t="n">
-        <v>1067</v>
+        <v>1200</v>
       </c>
       <c r="T743" t="n">
         <v>15</v>
@@ -59847,7 +59847,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E744" t="n">
         <v>5</v>
@@ -59875,25 +59875,25 @@
       </c>
       <c r="K744" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L744" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M744" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="N744" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O744" t="n">
-        <v>18000</v>
+        <v>14500</v>
       </c>
       <c r="P744" t="n">
-        <v>18000</v>
+        <v>14267</v>
       </c>
       <c r="Q744" t="inlineStr">
         <is>
@@ -59906,7 +59906,7 @@
         </is>
       </c>
       <c r="S744" t="n">
-        <v>1200</v>
+        <v>951</v>
       </c>
       <c r="T744" t="n">
         <v>15</v>
@@ -59927,7 +59927,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E745" t="n">
         <v>5</v>
@@ -59955,25 +59955,25 @@
       </c>
       <c r="K745" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L745" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M745" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="N745" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O745" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P745" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q745" t="inlineStr">
         <is>
@@ -59986,7 +59986,7 @@
         </is>
       </c>
       <c r="S745" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T745" t="n">
         <v>15</v>
@@ -60035,25 +60035,25 @@
       </c>
       <c r="K746" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Jrb</t>
         </is>
       </c>
       <c r="L746" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M746" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N746" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O746" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P746" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q746" t="inlineStr">
         <is>
@@ -60062,11 +60062,11 @@
       </c>
       <c r="R746" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S746" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T746" t="n">
         <v>15</v>
@@ -60087,7 +60087,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E747" t="n">
         <v>5</v>
@@ -60115,41 +60115,41 @@
       </c>
       <c r="K747" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Jrb</t>
         </is>
       </c>
       <c r="L747" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M747" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="N747" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O747" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P747" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q747" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R747" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S747" t="n">
-        <v>875</v>
+        <v>1067</v>
       </c>
       <c r="T747" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="748">
@@ -60167,7 +60167,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E748" t="n">
         <v>5</v>
@@ -60195,41 +60195,41 @@
       </c>
       <c r="K748" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Jrb</t>
         </is>
       </c>
       <c r="L748" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M748" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N748" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O748" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P748" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q748" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R748" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S748" t="n">
         <v>1000</v>
       </c>
       <c r="T748" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="749">
@@ -60247,7 +60247,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E749" t="n">
         <v>5</v>
@@ -60275,29 +60275,29 @@
       </c>
       <c r="K749" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L749" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M749" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N749" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O749" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P749" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q749" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R749" t="inlineStr">
@@ -60306,10 +60306,10 @@
         </is>
       </c>
       <c r="S749" t="n">
-        <v>750</v>
+        <v>1067</v>
       </c>
       <c r="T749" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="750">
@@ -60327,7 +60327,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44162</v>
+        <v>44560</v>
       </c>
       <c r="E750" t="n">
         <v>5</v>
@@ -60355,41 +60355,41 @@
       </c>
       <c r="K750" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L750" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M750" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="N750" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O750" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P750" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q750" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R750" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S750" t="n">
-        <v>750</v>
+        <v>1200</v>
       </c>
       <c r="T750" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="751">
@@ -60407,7 +60407,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44162</v>
+        <v>44560</v>
       </c>
       <c r="E751" t="n">
         <v>5</v>
@@ -60435,7 +60435,7 @@
       </c>
       <c r="K751" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L751" t="inlineStr">
@@ -60444,32 +60444,32 @@
         </is>
       </c>
       <c r="M751" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="N751" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O751" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P751" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q751" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R751" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S751" t="n">
-        <v>688</v>
+        <v>933</v>
       </c>
       <c r="T751" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="752">
@@ -60487,7 +60487,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44162</v>
+        <v>44560</v>
       </c>
       <c r="E752" t="n">
         <v>5</v>
@@ -60515,7 +60515,7 @@
       </c>
       <c r="K752" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L752" t="inlineStr">
@@ -60524,32 +60524,32 @@
         </is>
       </c>
       <c r="M752" t="n">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="N752" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O752" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P752" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q752" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R752" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S752" t="n">
-        <v>625</v>
+        <v>800</v>
       </c>
       <c r="T752" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="753">
@@ -60567,7 +60567,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44162</v>
+        <v>44272</v>
       </c>
       <c r="E753" t="n">
         <v>5</v>
@@ -60595,7 +60595,7 @@
       </c>
       <c r="K753" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L753" t="inlineStr">
@@ -60604,16 +60604,16 @@
         </is>
       </c>
       <c r="M753" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N753" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O753" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P753" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q753" t="inlineStr">
         <is>
@@ -60626,7 +60626,7 @@
         </is>
       </c>
       <c r="S753" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T753" t="n">
         <v>16</v>
@@ -60647,7 +60647,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44162</v>
+        <v>44272</v>
       </c>
       <c r="E754" t="n">
         <v>5</v>
@@ -60675,25 +60675,25 @@
       </c>
       <c r="K754" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L754" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M754" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N754" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O754" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P754" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q754" t="inlineStr">
         <is>
@@ -60706,7 +60706,7 @@
         </is>
       </c>
       <c r="S754" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T754" t="n">
         <v>16</v>
@@ -60727,7 +60727,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44162</v>
+        <v>44272</v>
       </c>
       <c r="E755" t="n">
         <v>5</v>
@@ -60755,25 +60755,25 @@
       </c>
       <c r="K755" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L755" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M755" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N755" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O755" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P755" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q755" t="inlineStr">
         <is>
@@ -60786,7 +60786,7 @@
         </is>
       </c>
       <c r="S755" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T755" t="n">
         <v>16</v>
@@ -60807,7 +60807,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44529</v>
+        <v>44162</v>
       </c>
       <c r="E756" t="n">
         <v>5</v>
@@ -60835,7 +60835,7 @@
       </c>
       <c r="K756" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L756" t="inlineStr">
@@ -60847,17 +60847,17 @@
         <v>56</v>
       </c>
       <c r="N756" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O756" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P756" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q756" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R756" t="inlineStr">
@@ -60866,10 +60866,10 @@
         </is>
       </c>
       <c r="S756" t="n">
-        <v>1083</v>
+        <v>750</v>
       </c>
       <c r="T756" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="757">
@@ -60887,7 +60887,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44529</v>
+        <v>44162</v>
       </c>
       <c r="E757" t="n">
         <v>5</v>
@@ -60915,7 +60915,7 @@
       </c>
       <c r="K757" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L757" t="inlineStr">
@@ -60924,20 +60924,20 @@
         </is>
       </c>
       <c r="M757" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="N757" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O757" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P757" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q757" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R757" t="inlineStr">
@@ -60946,10 +60946,10 @@
         </is>
       </c>
       <c r="S757" t="n">
-        <v>1000</v>
+        <v>688</v>
       </c>
       <c r="T757" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="758">
@@ -60967,7 +60967,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44529</v>
+        <v>44162</v>
       </c>
       <c r="E758" t="n">
         <v>5</v>
@@ -60995,7 +60995,7 @@
       </c>
       <c r="K758" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L758" t="inlineStr">
@@ -61017,7 +61017,7 @@
       </c>
       <c r="Q758" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R758" t="inlineStr">
@@ -61026,10 +61026,10 @@
         </is>
       </c>
       <c r="S758" t="n">
-        <v>833</v>
+        <v>625</v>
       </c>
       <c r="T758" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="759">
@@ -61047,7 +61047,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44529</v>
+        <v>44162</v>
       </c>
       <c r="E759" t="n">
         <v>5</v>
@@ -61075,7 +61075,7 @@
       </c>
       <c r="K759" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L759" t="inlineStr">
@@ -61084,32 +61084,32 @@
         </is>
       </c>
       <c r="M759" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N759" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O759" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P759" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q759" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R759" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S759" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T759" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="760">
@@ -61127,7 +61127,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44529</v>
+        <v>44162</v>
       </c>
       <c r="E760" t="n">
         <v>5</v>
@@ -61155,7 +61155,7 @@
       </c>
       <c r="K760" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L760" t="inlineStr">
@@ -61164,32 +61164,32 @@
         </is>
       </c>
       <c r="M760" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N760" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O760" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P760" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q760" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R760" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S760" t="n">
-        <v>800</v>
+        <v>938</v>
       </c>
       <c r="T760" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="761">
@@ -61207,7 +61207,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44529</v>
+        <v>44162</v>
       </c>
       <c r="E761" t="n">
         <v>5</v>
@@ -61235,7 +61235,7 @@
       </c>
       <c r="K761" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L761" t="inlineStr">
@@ -61244,32 +61244,32 @@
         </is>
       </c>
       <c r="M761" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N761" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O761" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P761" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q761" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R761" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S761" t="n">
-        <v>667</v>
+        <v>812</v>
       </c>
       <c r="T761" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="762">
@@ -61315,7 +61315,7 @@
       </c>
       <c r="K762" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L762" t="inlineStr">
@@ -61324,16 +61324,16 @@
         </is>
       </c>
       <c r="M762" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="N762" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O762" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P762" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q762" t="inlineStr">
         <is>
@@ -61346,7 +61346,7 @@
         </is>
       </c>
       <c r="S762" t="n">
-        <v>1333</v>
+        <v>1083</v>
       </c>
       <c r="T762" t="n">
         <v>12</v>
@@ -61395,7 +61395,7 @@
       </c>
       <c r="K763" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L763" t="inlineStr">
@@ -61404,16 +61404,16 @@
         </is>
       </c>
       <c r="M763" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="N763" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O763" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P763" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q763" t="inlineStr">
         <is>
@@ -61426,7 +61426,7 @@
         </is>
       </c>
       <c r="S763" t="n">
-        <v>1167</v>
+        <v>1000</v>
       </c>
       <c r="T763" t="n">
         <v>12</v>
@@ -61475,7 +61475,7 @@
       </c>
       <c r="K764" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L764" t="inlineStr">
@@ -61487,13 +61487,13 @@
         <v>60</v>
       </c>
       <c r="N764" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O764" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P764" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q764" t="inlineStr">
         <is>
@@ -61506,7 +61506,7 @@
         </is>
       </c>
       <c r="S764" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T764" t="n">
         <v>12</v>
@@ -61527,7 +61527,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44189</v>
+        <v>44529</v>
       </c>
       <c r="E765" t="n">
         <v>5</v>
@@ -61555,7 +61555,7 @@
       </c>
       <c r="K765" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L765" t="inlineStr">
@@ -61564,32 +61564,32 @@
         </is>
       </c>
       <c r="M765" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N765" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O765" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P765" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q765" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R765" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S765" t="n">
-        <v>750</v>
+        <v>933</v>
       </c>
       <c r="T765" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="766">
@@ -61607,7 +61607,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44189</v>
+        <v>44529</v>
       </c>
       <c r="E766" t="n">
         <v>5</v>
@@ -61635,7 +61635,7 @@
       </c>
       <c r="K766" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L766" t="inlineStr">
@@ -61644,32 +61644,32 @@
         </is>
       </c>
       <c r="M766" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="N766" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O766" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P766" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q766" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R766" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S766" t="n">
-        <v>625</v>
+        <v>800</v>
       </c>
       <c r="T766" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="767">
@@ -61687,7 +61687,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44189</v>
+        <v>44529</v>
       </c>
       <c r="E767" t="n">
         <v>5</v>
@@ -61715,7 +61715,7 @@
       </c>
       <c r="K767" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L767" t="inlineStr">
@@ -61724,32 +61724,32 @@
         </is>
       </c>
       <c r="M767" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N767" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O767" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P767" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q767" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R767" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S767" t="n">
-        <v>562</v>
+        <v>667</v>
       </c>
       <c r="T767" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="768">
@@ -61767,7 +61767,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44189</v>
+        <v>44529</v>
       </c>
       <c r="E768" t="n">
         <v>5</v>
@@ -61795,7 +61795,7 @@
       </c>
       <c r="K768" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L768" t="inlineStr">
@@ -61804,20 +61804,20 @@
         </is>
       </c>
       <c r="M768" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="N768" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O768" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P768" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q768" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R768" t="inlineStr">
@@ -61826,10 +61826,10 @@
         </is>
       </c>
       <c r="S768" t="n">
-        <v>812</v>
+        <v>1333</v>
       </c>
       <c r="T768" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="769">
@@ -61847,7 +61847,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44189</v>
+        <v>44529</v>
       </c>
       <c r="E769" t="n">
         <v>5</v>
@@ -61875,16 +61875,16 @@
       </c>
       <c r="K769" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L769" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M769" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="N769" t="n">
         <v>14000</v>
@@ -61897,7 +61897,7 @@
       </c>
       <c r="Q769" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R769" t="inlineStr">
@@ -61906,10 +61906,10 @@
         </is>
       </c>
       <c r="S769" t="n">
-        <v>875</v>
+        <v>1167</v>
       </c>
       <c r="T769" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="770">
@@ -61927,7 +61927,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44189</v>
+        <v>44529</v>
       </c>
       <c r="E770" t="n">
         <v>5</v>
@@ -61955,16 +61955,16 @@
       </c>
       <c r="K770" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L770" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M770" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="N770" t="n">
         <v>12000</v>
@@ -61977,7 +61977,7 @@
       </c>
       <c r="Q770" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R770" t="inlineStr">
@@ -61986,10 +61986,10 @@
         </is>
       </c>
       <c r="S770" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T770" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="771">
@@ -62035,25 +62035,25 @@
       </c>
       <c r="K771" t="inlineStr">
         <is>
-          <t>Loadel</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L771" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M771" t="n">
         <v>60</v>
       </c>
       <c r="N771" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O771" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P771" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q771" t="inlineStr">
         <is>
@@ -62062,11 +62062,11 @@
       </c>
       <c r="R771" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S771" t="n">
-        <v>625</v>
+        <v>750</v>
       </c>
       <c r="T771" t="n">
         <v>16</v>
@@ -62115,25 +62115,25 @@
       </c>
       <c r="K772" t="inlineStr">
         <is>
-          <t>Manon</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L772" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M772" t="n">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="N772" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O772" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P772" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q772" t="inlineStr">
         <is>
@@ -62142,11 +62142,11 @@
       </c>
       <c r="R772" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S772" t="n">
-        <v>812</v>
+        <v>625</v>
       </c>
       <c r="T772" t="n">
         <v>16</v>
@@ -62195,25 +62195,25 @@
       </c>
       <c r="K773" t="inlineStr">
         <is>
-          <t>Manon</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L773" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M773" t="n">
         <v>50</v>
       </c>
       <c r="N773" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O773" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P773" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q773" t="inlineStr">
         <is>
@@ -62222,11 +62222,11 @@
       </c>
       <c r="R773" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S773" t="n">
-        <v>750</v>
+        <v>562</v>
       </c>
       <c r="T773" t="n">
         <v>16</v>
@@ -62247,7 +62247,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44209</v>
+        <v>44189</v>
       </c>
       <c r="E774" t="n">
         <v>5</v>
@@ -62275,7 +62275,7 @@
       </c>
       <c r="K774" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L774" t="inlineStr">
@@ -62284,16 +62284,16 @@
         </is>
       </c>
       <c r="M774" t="n">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="N774" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O774" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P774" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q774" t="inlineStr">
         <is>
@@ -62306,7 +62306,7 @@
         </is>
       </c>
       <c r="S774" t="n">
-        <v>938</v>
+        <v>812</v>
       </c>
       <c r="T774" t="n">
         <v>16</v>
@@ -62327,7 +62327,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44209</v>
+        <v>44189</v>
       </c>
       <c r="E775" t="n">
         <v>5</v>
@@ -62355,7 +62355,7 @@
       </c>
       <c r="K775" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L775" t="inlineStr">
@@ -62364,16 +62364,16 @@
         </is>
       </c>
       <c r="M775" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N775" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O775" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P775" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q775" t="inlineStr">
         <is>
@@ -62386,7 +62386,7 @@
         </is>
       </c>
       <c r="S775" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T775" t="n">
         <v>16</v>
@@ -62407,7 +62407,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44209</v>
+        <v>44189</v>
       </c>
       <c r="E776" t="n">
         <v>5</v>
@@ -62435,7 +62435,7 @@
       </c>
       <c r="K776" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L776" t="inlineStr">
@@ -62444,16 +62444,16 @@
         </is>
       </c>
       <c r="M776" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N776" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O776" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P776" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q776" t="inlineStr">
         <is>
@@ -62466,7 +62466,7 @@
         </is>
       </c>
       <c r="S776" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T776" t="n">
         <v>16</v>
@@ -62487,7 +62487,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44209</v>
+        <v>44189</v>
       </c>
       <c r="E777" t="n">
         <v>5</v>
@@ -62515,7 +62515,7 @@
       </c>
       <c r="K777" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Loadel</t>
         </is>
       </c>
       <c r="L777" t="inlineStr">
@@ -62524,16 +62524,16 @@
         </is>
       </c>
       <c r="M777" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N777" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O777" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P777" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q777" t="inlineStr">
         <is>
@@ -62546,7 +62546,7 @@
         </is>
       </c>
       <c r="S777" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T777" t="n">
         <v>16</v>
@@ -62567,7 +62567,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44209</v>
+        <v>44189</v>
       </c>
       <c r="E778" t="n">
         <v>5</v>
@@ -62595,7 +62595,7 @@
       </c>
       <c r="K778" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Manon</t>
         </is>
       </c>
       <c r="L778" t="inlineStr">
@@ -62604,7 +62604,7 @@
         </is>
       </c>
       <c r="M778" t="n">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="N778" t="n">
         <v>13000</v>
@@ -62647,7 +62647,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44209</v>
+        <v>44189</v>
       </c>
       <c r="E779" t="n">
         <v>5</v>
@@ -62675,7 +62675,7 @@
       </c>
       <c r="K779" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Manon</t>
         </is>
       </c>
       <c r="L779" t="inlineStr">
@@ -62684,7 +62684,7 @@
         </is>
       </c>
       <c r="M779" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N779" t="n">
         <v>12000</v>
@@ -62755,25 +62755,25 @@
       </c>
       <c r="K780" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L780" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M780" t="n">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="N780" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O780" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P780" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q780" t="inlineStr">
         <is>
@@ -62786,7 +62786,7 @@
         </is>
       </c>
       <c r="S780" t="n">
-        <v>625</v>
+        <v>938</v>
       </c>
       <c r="T780" t="n">
         <v>16</v>
@@ -62807,7 +62807,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E781" t="n">
         <v>5</v>
@@ -62835,25 +62835,25 @@
       </c>
       <c r="K781" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L781" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M781" t="n">
         <v>70</v>
       </c>
       <c r="N781" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O781" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P781" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q781" t="inlineStr">
         <is>
@@ -62862,11 +62862,11 @@
       </c>
       <c r="R781" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S781" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T781" t="n">
         <v>16</v>
@@ -62887,7 +62887,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E782" t="n">
         <v>5</v>
@@ -62915,25 +62915,25 @@
       </c>
       <c r="K782" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L782" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M782" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="N782" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O782" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P782" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q782" t="inlineStr">
         <is>
@@ -62942,11 +62942,11 @@
       </c>
       <c r="R782" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S782" t="n">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="T782" t="n">
         <v>16</v>
@@ -62967,7 +62967,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44554</v>
+        <v>44209</v>
       </c>
       <c r="E783" t="n">
         <v>5</v>
@@ -62995,41 +62995,41 @@
       </c>
       <c r="K783" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L783" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M783" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="N783" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O783" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P783" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q783" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R783" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S783" t="n">
-        <v>1067</v>
+        <v>750</v>
       </c>
       <c r="T783" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="784">
@@ -63047,7 +63047,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44554</v>
+        <v>44209</v>
       </c>
       <c r="E784" t="n">
         <v>5</v>
@@ -63075,41 +63075,41 @@
       </c>
       <c r="K784" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L784" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M784" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="N784" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O784" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P784" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="Q784" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R784" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S784" t="n">
-        <v>1200</v>
+        <v>812</v>
       </c>
       <c r="T784" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="785">
@@ -63127,7 +63127,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44554</v>
+        <v>44209</v>
       </c>
       <c r="E785" t="n">
         <v>5</v>
@@ -63155,7 +63155,7 @@
       </c>
       <c r="K785" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L785" t="inlineStr">
@@ -63164,32 +63164,32 @@
         </is>
       </c>
       <c r="M785" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N785" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O785" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P785" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q785" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R785" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S785" t="n">
-        <v>933</v>
+        <v>750</v>
       </c>
       <c r="T785" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="786">
@@ -63207,7 +63207,7 @@
         </is>
       </c>
       <c r="D786" s="2" t="n">
-        <v>44554</v>
+        <v>44209</v>
       </c>
       <c r="E786" t="n">
         <v>5</v>
@@ -63235,41 +63235,41 @@
       </c>
       <c r="K786" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L786" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M786" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N786" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O786" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P786" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q786" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R786" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S786" t="n">
-        <v>1067</v>
+        <v>625</v>
       </c>
       <c r="T786" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="787">
@@ -63287,7 +63287,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44554</v>
+        <v>44274</v>
       </c>
       <c r="E787" t="n">
         <v>5</v>
@@ -63315,16 +63315,16 @@
       </c>
       <c r="K787" t="inlineStr">
         <is>
-          <t>Toscana</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L787" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M787" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N787" t="n">
         <v>14000</v>
@@ -63337,7 +63337,7 @@
       </c>
       <c r="Q787" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R787" t="inlineStr">
@@ -63346,10 +63346,10 @@
         </is>
       </c>
       <c r="S787" t="n">
-        <v>933</v>
+        <v>875</v>
       </c>
       <c r="T787" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="788">
@@ -63367,68 +63367,548 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
+        <v>44274</v>
+      </c>
+      <c r="E788" t="n">
+        <v>5</v>
+      </c>
+      <c r="F788" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G788" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H788" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I788" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J788" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>September Sweet</t>
+        </is>
+      </c>
+      <c r="L788" t="inlineStr">
+        <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M788" t="n">
+        <v>58</v>
+      </c>
+      <c r="N788" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O788" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P788" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q788" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R788" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S788" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T788" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="n">
+        <v>3</v>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C789" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D789" s="2" t="n">
         <v>44554</v>
       </c>
-      <c r="E788" t="n">
-        <v>5</v>
-      </c>
-      <c r="F788" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G788" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H788" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I788" t="n">
-        <v>100103004</v>
-      </c>
-      <c r="J788" t="inlineStr">
-        <is>
-          <t>Durazno</t>
-        </is>
-      </c>
-      <c r="K788" t="inlineStr">
+      <c r="E789" t="n">
+        <v>5</v>
+      </c>
+      <c r="F789" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G789" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H789" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I789" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J789" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>Kurakata</t>
+        </is>
+      </c>
+      <c r="L789" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M789" t="n">
+        <v>60</v>
+      </c>
+      <c r="N789" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O789" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P789" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q789" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R789" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S789" t="n">
+        <v>1067</v>
+      </c>
+      <c r="T789" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="n">
+        <v>3</v>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C790" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D790" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="E790" t="n">
+        <v>5</v>
+      </c>
+      <c r="F790" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G790" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H790" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I790" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J790" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>Kurakata</t>
+        </is>
+      </c>
+      <c r="L790" t="inlineStr">
+        <is>
+          <t>Extra (doble especial)</t>
+        </is>
+      </c>
+      <c r="M790" t="n">
+        <v>56</v>
+      </c>
+      <c r="N790" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O790" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P790" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q790" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R790" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S790" t="n">
+        <v>1200</v>
+      </c>
+      <c r="T790" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="n">
+        <v>3</v>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C791" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D791" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="E791" t="n">
+        <v>5</v>
+      </c>
+      <c r="F791" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G791" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H791" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I791" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J791" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>Kurakata</t>
+        </is>
+      </c>
+      <c r="L791" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M791" t="n">
+        <v>60</v>
+      </c>
+      <c r="N791" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O791" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P791" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q791" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R791" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S791" t="n">
+        <v>933</v>
+      </c>
+      <c r="T791" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="n">
+        <v>3</v>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C792" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D792" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="E792" t="n">
+        <v>5</v>
+      </c>
+      <c r="F792" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G792" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H792" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I792" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J792" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K792" t="inlineStr">
         <is>
           <t>Toscana</t>
         </is>
       </c>
-      <c r="L788" t="inlineStr">
+      <c r="L792" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M792" t="n">
+        <v>60</v>
+      </c>
+      <c r="N792" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O792" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P792" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q792" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R792" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S792" t="n">
+        <v>1067</v>
+      </c>
+      <c r="T792" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="n">
+        <v>3</v>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C793" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D793" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="E793" t="n">
+        <v>5</v>
+      </c>
+      <c r="F793" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G793" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H793" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I793" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J793" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="L793" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M793" t="n">
+        <v>67</v>
+      </c>
+      <c r="N793" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O793" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P793" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q793" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R793" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S793" t="n">
+        <v>933</v>
+      </c>
+      <c r="T793" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="n">
+        <v>3</v>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C794" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D794" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="E794" t="n">
+        <v>5</v>
+      </c>
+      <c r="F794" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G794" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H794" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I794" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J794" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="L794" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M788" t="n">
+      <c r="M794" t="n">
         <v>60</v>
       </c>
-      <c r="N788" t="n">
+      <c r="N794" t="n">
         <v>12000</v>
       </c>
-      <c r="O788" t="n">
+      <c r="O794" t="n">
         <v>12000</v>
       </c>
-      <c r="P788" t="n">
+      <c r="P794" t="n">
         <v>12000</v>
       </c>
-      <c r="Q788" t="inlineStr">
+      <c r="Q794" t="inlineStr">
         <is>
           <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
-      <c r="R788" t="inlineStr">
+      <c r="R794" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S788" t="n">
+      <c r="S794" t="n">
         <v>800</v>
       </c>
-      <c r="T788" t="n">
+      <c r="T794" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T820"/>
+  <dimension ref="A1:T829"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64887,7 +64887,7 @@
         </is>
       </c>
       <c r="D807" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E807" t="n">
         <v>5</v>
@@ -64915,7 +64915,7 @@
       </c>
       <c r="K807" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L807" t="inlineStr">
@@ -64924,20 +64924,20 @@
         </is>
       </c>
       <c r="M807" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="N807" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O807" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P807" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q807" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R807" t="inlineStr">
@@ -64946,10 +64946,10 @@
         </is>
       </c>
       <c r="S807" t="n">
-        <v>1167</v>
+        <v>1000</v>
       </c>
       <c r="T807" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="808">
@@ -64967,7 +64967,7 @@
         </is>
       </c>
       <c r="D808" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E808" t="n">
         <v>5</v>
@@ -64995,25 +64995,25 @@
       </c>
       <c r="K808" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L808" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M808" t="n">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="N808" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O808" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P808" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q808" t="inlineStr">
         <is>
@@ -65026,7 +65026,7 @@
         </is>
       </c>
       <c r="S808" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T808" t="n">
         <v>15</v>
@@ -65047,7 +65047,7 @@
         </is>
       </c>
       <c r="D809" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E809" t="n">
         <v>5</v>
@@ -65075,29 +65075,29 @@
       </c>
       <c r="K809" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L809" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M809" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="N809" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O809" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P809" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q809" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R809" t="inlineStr">
@@ -65106,10 +65106,10 @@
         </is>
       </c>
       <c r="S809" t="n">
-        <v>1000</v>
+        <v>733</v>
       </c>
       <c r="T809" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="810">
@@ -65127,7 +65127,7 @@
         </is>
       </c>
       <c r="D810" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E810" t="n">
         <v>5</v>
@@ -65155,25 +65155,25 @@
       </c>
       <c r="K810" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L810" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M810" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="N810" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O810" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P810" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q810" t="inlineStr">
         <is>
@@ -65186,7 +65186,7 @@
         </is>
       </c>
       <c r="S810" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T810" t="n">
         <v>15</v>
@@ -65207,7 +65207,7 @@
         </is>
       </c>
       <c r="D811" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E811" t="n">
         <v>5</v>
@@ -65235,25 +65235,25 @@
       </c>
       <c r="K811" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L811" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M811" t="n">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="N811" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O811" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P811" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q811" t="inlineStr">
         <is>
@@ -65266,7 +65266,7 @@
         </is>
       </c>
       <c r="S811" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T811" t="n">
         <v>15</v>
@@ -65287,7 +65287,7 @@
         </is>
       </c>
       <c r="D812" s="2" t="n">
-        <v>44544</v>
+        <v>44595</v>
       </c>
       <c r="E812" t="n">
         <v>5</v>
@@ -65315,25 +65315,25 @@
       </c>
       <c r="K812" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L812" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M812" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N812" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O812" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P812" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q812" t="inlineStr">
         <is>
@@ -65342,11 +65342,11 @@
       </c>
       <c r="R812" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S812" t="n">
-        <v>1000</v>
+        <v>733</v>
       </c>
       <c r="T812" t="n">
         <v>15</v>
@@ -65367,7 +65367,7 @@
         </is>
       </c>
       <c r="D813" s="2" t="n">
-        <v>44544</v>
+        <v>44595</v>
       </c>
       <c r="E813" t="n">
         <v>5</v>
@@ -65395,25 +65395,25 @@
       </c>
       <c r="K813" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L813" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M813" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N813" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O813" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P813" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q813" t="inlineStr">
         <is>
@@ -65422,11 +65422,11 @@
       </c>
       <c r="R813" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S813" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T813" t="n">
         <v>15</v>
@@ -65447,7 +65447,7 @@
         </is>
       </c>
       <c r="D814" s="2" t="n">
-        <v>44544</v>
+        <v>44595</v>
       </c>
       <c r="E814" t="n">
         <v>5</v>
@@ -65475,25 +65475,25 @@
       </c>
       <c r="K814" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L814" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M814" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N814" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O814" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P814" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q814" t="inlineStr">
         <is>
@@ -65502,11 +65502,11 @@
       </c>
       <c r="R814" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S814" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T814" t="n">
         <v>15</v>
@@ -65527,7 +65527,7 @@
         </is>
       </c>
       <c r="D815" s="2" t="n">
-        <v>44160</v>
+        <v>44595</v>
       </c>
       <c r="E815" t="n">
         <v>5</v>
@@ -65555,41 +65555,41 @@
       </c>
       <c r="K815" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L815" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M815" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N815" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O815" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P815" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q815" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R815" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S815" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T815" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="816">
@@ -65607,7 +65607,7 @@
         </is>
       </c>
       <c r="D816" s="2" t="n">
-        <v>44160</v>
+        <v>44552</v>
       </c>
       <c r="E816" t="n">
         <v>5</v>
@@ -65635,41 +65635,41 @@
       </c>
       <c r="K816" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L816" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M816" t="n">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="N816" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="O816" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="P816" t="n">
-        <v>6528</v>
+        <v>14000</v>
       </c>
       <c r="Q816" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R816" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S816" t="n">
-        <v>816</v>
+        <v>1167</v>
       </c>
       <c r="T816" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="817">
@@ -65687,7 +65687,7 @@
         </is>
       </c>
       <c r="D817" s="2" t="n">
-        <v>44160</v>
+        <v>44552</v>
       </c>
       <c r="E817" t="n">
         <v>5</v>
@@ -65715,7 +65715,7 @@
       </c>
       <c r="K817" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L817" t="inlineStr">
@@ -65724,32 +65724,32 @@
         </is>
       </c>
       <c r="M817" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N817" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O817" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P817" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q817" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R817" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S817" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T817" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="818">
@@ -65767,7 +65767,7 @@
         </is>
       </c>
       <c r="D818" s="2" t="n">
-        <v>44160</v>
+        <v>44552</v>
       </c>
       <c r="E818" t="n">
         <v>5</v>
@@ -65795,41 +65795,41 @@
       </c>
       <c r="K818" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L818" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M818" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="N818" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O818" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P818" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q818" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R818" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S818" t="n">
-        <v>812</v>
+        <v>1000</v>
       </c>
       <c r="T818" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="819">
@@ -65847,7 +65847,7 @@
         </is>
       </c>
       <c r="D819" s="2" t="n">
-        <v>44160</v>
+        <v>44552</v>
       </c>
       <c r="E819" t="n">
         <v>5</v>
@@ -65875,7 +65875,7 @@
       </c>
       <c r="K819" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L819" t="inlineStr">
@@ -65884,32 +65884,32 @@
         </is>
       </c>
       <c r="M819" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N819" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O819" t="n">
         <v>13000</v>
       </c>
       <c r="P819" t="n">
-        <v>12286</v>
+        <v>13000</v>
       </c>
       <c r="Q819" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R819" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S819" t="n">
-        <v>768</v>
+        <v>867</v>
       </c>
       <c r="T819" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="820">
@@ -65927,68 +65927,788 @@
         </is>
       </c>
       <c r="D820" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="E820" t="n">
+        <v>5</v>
+      </c>
+      <c r="F820" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G820" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H820" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I820" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J820" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>Kurakata</t>
+        </is>
+      </c>
+      <c r="L820" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M820" t="n">
+        <v>68</v>
+      </c>
+      <c r="N820" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O820" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P820" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q820" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R820" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S820" t="n">
+        <v>733</v>
+      </c>
+      <c r="T820" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="n">
+        <v>3</v>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C821" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D821" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E821" t="n">
+        <v>5</v>
+      </c>
+      <c r="F821" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G821" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H821" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I821" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J821" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>Desergold</t>
+        </is>
+      </c>
+      <c r="L821" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M821" t="n">
+        <v>65</v>
+      </c>
+      <c r="N821" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O821" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P821" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q821" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R821" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S821" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T821" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="n">
+        <v>3</v>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C822" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D822" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E822" t="n">
+        <v>5</v>
+      </c>
+      <c r="F822" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G822" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H822" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I822" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J822" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>Desergold</t>
+        </is>
+      </c>
+      <c r="L822" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M822" t="n">
+        <v>60</v>
+      </c>
+      <c r="N822" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O822" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P822" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q822" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R822" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S822" t="n">
+        <v>800</v>
+      </c>
+      <c r="T822" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="n">
+        <v>3</v>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C823" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D823" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E823" t="n">
+        <v>5</v>
+      </c>
+      <c r="F823" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G823" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H823" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I823" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J823" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>Desergold</t>
+        </is>
+      </c>
+      <c r="L823" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M823" t="n">
+        <v>60</v>
+      </c>
+      <c r="N823" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O823" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P823" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q823" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R823" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S823" t="n">
+        <v>667</v>
+      </c>
+      <c r="T823" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="n">
+        <v>3</v>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C824" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D824" s="2" t="n">
         <v>44160</v>
       </c>
-      <c r="E820" t="n">
-        <v>5</v>
-      </c>
-      <c r="F820" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G820" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H820" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I820" t="n">
-        <v>100103004</v>
-      </c>
-      <c r="J820" t="inlineStr">
-        <is>
-          <t>Durazno</t>
-        </is>
-      </c>
-      <c r="K820" t="inlineStr">
+      <c r="E824" t="n">
+        <v>5</v>
+      </c>
+      <c r="F824" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G824" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H824" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I824" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J824" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>Desergold</t>
+        </is>
+      </c>
+      <c r="L824" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M824" t="n">
+        <v>56</v>
+      </c>
+      <c r="N824" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O824" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P824" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q824" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R824" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S824" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T824" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="n">
+        <v>3</v>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C825" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D825" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E825" t="n">
+        <v>5</v>
+      </c>
+      <c r="F825" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G825" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H825" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I825" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J825" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>Desergold</t>
+        </is>
+      </c>
+      <c r="L825" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M825" t="n">
+        <v>127</v>
+      </c>
+      <c r="N825" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O825" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P825" t="n">
+        <v>6528</v>
+      </c>
+      <c r="Q825" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R825" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S825" t="n">
+        <v>816</v>
+      </c>
+      <c r="T825" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="n">
+        <v>3</v>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C826" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D826" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E826" t="n">
+        <v>5</v>
+      </c>
+      <c r="F826" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G826" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H826" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I826" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J826" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K826" t="inlineStr">
         <is>
           <t>Florida King</t>
         </is>
       </c>
-      <c r="L820" t="inlineStr">
+      <c r="L826" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M826" t="n">
+        <v>50</v>
+      </c>
+      <c r="N826" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O826" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P826" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q826" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R826" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S826" t="n">
+        <v>875</v>
+      </c>
+      <c r="T826" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="n">
+        <v>3</v>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C827" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D827" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E827" t="n">
+        <v>5</v>
+      </c>
+      <c r="F827" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G827" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H827" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I827" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J827" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>Florida King</t>
+        </is>
+      </c>
+      <c r="L827" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M827" t="n">
+        <v>60</v>
+      </c>
+      <c r="N827" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O827" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P827" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q827" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos granel</t>
+        </is>
+      </c>
+      <c r="R827" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S827" t="n">
+        <v>812</v>
+      </c>
+      <c r="T827" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="n">
+        <v>3</v>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C828" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D828" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E828" t="n">
+        <v>5</v>
+      </c>
+      <c r="F828" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G828" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H828" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I828" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J828" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>Florida King</t>
+        </is>
+      </c>
+      <c r="L828" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M820" t="n">
+      <c r="M828" t="n">
+        <v>70</v>
+      </c>
+      <c r="N828" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O828" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P828" t="n">
+        <v>12286</v>
+      </c>
+      <c r="Q828" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R828" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S828" t="n">
+        <v>768</v>
+      </c>
+      <c r="T828" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="n">
+        <v>3</v>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C829" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D829" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E829" t="n">
+        <v>5</v>
+      </c>
+      <c r="F829" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G829" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H829" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I829" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J829" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>Florida King</t>
+        </is>
+      </c>
+      <c r="L829" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M829" t="n">
         <v>58</v>
       </c>
-      <c r="N820" t="n">
+      <c r="N829" t="n">
         <v>12000</v>
       </c>
-      <c r="O820" t="n">
+      <c r="O829" t="n">
         <v>12000</v>
       </c>
-      <c r="P820" t="n">
+      <c r="P829" t="n">
         <v>12000</v>
       </c>
-      <c r="Q820" t="inlineStr">
+      <c r="Q829" t="inlineStr">
         <is>
           <t>$/caja 16 kilos granel</t>
         </is>
       </c>
-      <c r="R820" t="inlineStr">
+      <c r="R829" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="S820" t="n">
+      <c r="S829" t="n">
         <v>750</v>
       </c>
-      <c r="T820" t="n">
+      <c r="T829" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T905"/>
+  <dimension ref="A1:T910"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68647,7 +68647,7 @@
         </is>
       </c>
       <c r="D854" s="2" t="n">
-        <v>44522</v>
+        <v>44610</v>
       </c>
       <c r="E854" t="n">
         <v>5</v>
@@ -68675,7 +68675,7 @@
       </c>
       <c r="K854" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L854" t="inlineStr">
@@ -68684,16 +68684,16 @@
         </is>
       </c>
       <c r="M854" t="n">
-        <v>165</v>
+        <v>60</v>
       </c>
       <c r="N854" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O854" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P854" t="n">
-        <v>14515</v>
+        <v>13000</v>
       </c>
       <c r="Q854" t="inlineStr">
         <is>
@@ -68702,11 +68702,11 @@
       </c>
       <c r="R854" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S854" t="n">
-        <v>968</v>
+        <v>867</v>
       </c>
       <c r="T854" t="n">
         <v>15</v>
@@ -68727,7 +68727,7 @@
         </is>
       </c>
       <c r="D855" s="2" t="n">
-        <v>44522</v>
+        <v>44610</v>
       </c>
       <c r="E855" t="n">
         <v>5</v>
@@ -68755,7 +68755,7 @@
       </c>
       <c r="K855" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L855" t="inlineStr">
@@ -68764,7 +68764,7 @@
         </is>
       </c>
       <c r="M855" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N855" t="n">
         <v>11000</v>
@@ -68782,7 +68782,7 @@
       </c>
       <c r="R855" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S855" t="n">
@@ -68807,7 +68807,7 @@
         </is>
       </c>
       <c r="D856" s="2" t="n">
-        <v>44522</v>
+        <v>44610</v>
       </c>
       <c r="E856" t="n">
         <v>5</v>
@@ -68835,25 +68835,25 @@
       </c>
       <c r="K856" t="inlineStr">
         <is>
-          <t>Gold Crest</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L856" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M856" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N856" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O856" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P856" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q856" t="inlineStr">
         <is>
@@ -68862,11 +68862,11 @@
       </c>
       <c r="R856" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S856" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T856" t="n">
         <v>15</v>
@@ -68887,7 +68887,7 @@
         </is>
       </c>
       <c r="D857" s="2" t="n">
-        <v>44522</v>
+        <v>44610</v>
       </c>
       <c r="E857" t="n">
         <v>5</v>
@@ -68915,25 +68915,25 @@
       </c>
       <c r="K857" t="inlineStr">
         <is>
-          <t>Gold Crest</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L857" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M857" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N857" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O857" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P857" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q857" t="inlineStr">
         <is>
@@ -68942,11 +68942,11 @@
       </c>
       <c r="R857" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S857" t="n">
-        <v>533</v>
+        <v>933</v>
       </c>
       <c r="T857" t="n">
         <v>15</v>
@@ -68967,7 +68967,7 @@
         </is>
       </c>
       <c r="D858" s="2" t="n">
-        <v>44543</v>
+        <v>44610</v>
       </c>
       <c r="E858" t="n">
         <v>5</v>
@@ -68995,25 +68995,25 @@
       </c>
       <c r="K858" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L858" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M858" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="N858" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O858" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P858" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q858" t="inlineStr">
         <is>
@@ -69022,11 +69022,11 @@
       </c>
       <c r="R858" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S858" t="n">
-        <v>1133</v>
+        <v>800</v>
       </c>
       <c r="T858" t="n">
         <v>15</v>
@@ -69047,7 +69047,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44543</v>
+        <v>44522</v>
       </c>
       <c r="E859" t="n">
         <v>5</v>
@@ -69075,7 +69075,7 @@
       </c>
       <c r="K859" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L859" t="inlineStr">
@@ -69084,16 +69084,16 @@
         </is>
       </c>
       <c r="M859" t="n">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="N859" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O859" t="n">
         <v>15000</v>
       </c>
       <c r="P859" t="n">
-        <v>15000</v>
+        <v>14515</v>
       </c>
       <c r="Q859" t="inlineStr">
         <is>
@@ -69106,7 +69106,7 @@
         </is>
       </c>
       <c r="S859" t="n">
-        <v>1000</v>
+        <v>968</v>
       </c>
       <c r="T859" t="n">
         <v>15</v>
@@ -69127,7 +69127,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44543</v>
+        <v>44522</v>
       </c>
       <c r="E860" t="n">
         <v>5</v>
@@ -69155,7 +69155,7 @@
       </c>
       <c r="K860" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L860" t="inlineStr">
@@ -69164,16 +69164,16 @@
         </is>
       </c>
       <c r="M860" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N860" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O860" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P860" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q860" t="inlineStr">
         <is>
@@ -69186,7 +69186,7 @@
         </is>
       </c>
       <c r="S860" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T860" t="n">
         <v>15</v>
@@ -69207,7 +69207,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44167</v>
+        <v>44522</v>
       </c>
       <c r="E861" t="n">
         <v>5</v>
@@ -69235,41 +69235,41 @@
       </c>
       <c r="K861" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Gold Crest</t>
         </is>
       </c>
       <c r="L861" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M861" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="N861" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O861" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P861" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q861" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R861" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S861" t="n">
-        <v>750</v>
+        <v>867</v>
       </c>
       <c r="T861" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="862">
@@ -69287,7 +69287,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44167</v>
+        <v>44522</v>
       </c>
       <c r="E862" t="n">
         <v>5</v>
@@ -69315,41 +69315,41 @@
       </c>
       <c r="K862" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Gold Crest</t>
         </is>
       </c>
       <c r="L862" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M862" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N862" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O862" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P862" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q862" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R862" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S862" t="n">
-        <v>625</v>
+        <v>533</v>
       </c>
       <c r="T862" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="863">
@@ -69367,7 +69367,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44167</v>
+        <v>44543</v>
       </c>
       <c r="E863" t="n">
         <v>5</v>
@@ -69395,41 +69395,41 @@
       </c>
       <c r="K863" t="inlineStr">
         <is>
-          <t>Early Treat</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L863" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M863" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N863" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="O863" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="P863" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="Q863" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R863" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S863" t="n">
-        <v>562</v>
+        <v>1133</v>
       </c>
       <c r="T863" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="864">
@@ -69447,7 +69447,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44167</v>
+        <v>44543</v>
       </c>
       <c r="E864" t="n">
         <v>5</v>
@@ -69480,36 +69480,36 @@
       </c>
       <c r="L864" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M864" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N864" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O864" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P864" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q864" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R864" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S864" t="n">
-        <v>812</v>
+        <v>1000</v>
       </c>
       <c r="T864" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="865">
@@ -69527,7 +69527,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44167</v>
+        <v>44543</v>
       </c>
       <c r="E865" t="n">
         <v>5</v>
@@ -69560,36 +69560,36 @@
       </c>
       <c r="L865" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M865" t="n">
         <v>60</v>
       </c>
       <c r="N865" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O865" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P865" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q865" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R865" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S865" t="n">
-        <v>750</v>
+        <v>867</v>
       </c>
       <c r="T865" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="866">
@@ -69635,7 +69635,7 @@
       </c>
       <c r="K866" t="inlineStr">
         <is>
-          <t>Springtime</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L866" t="inlineStr">
@@ -69644,16 +69644,16 @@
         </is>
       </c>
       <c r="M866" t="n">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="N866" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O866" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P866" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q866" t="inlineStr">
         <is>
@@ -69666,7 +69666,7 @@
         </is>
       </c>
       <c r="S866" t="n">
-        <v>812</v>
+        <v>750</v>
       </c>
       <c r="T866" t="n">
         <v>16</v>
@@ -69715,7 +69715,7 @@
       </c>
       <c r="K867" t="inlineStr">
         <is>
-          <t>Springtime</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L867" t="inlineStr">
@@ -69724,16 +69724,16 @@
         </is>
       </c>
       <c r="M867" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="N867" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O867" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P867" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q867" t="inlineStr">
         <is>
@@ -69746,7 +69746,7 @@
         </is>
       </c>
       <c r="S867" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="T867" t="n">
         <v>16</v>
@@ -69795,7 +69795,7 @@
       </c>
       <c r="K868" t="inlineStr">
         <is>
-          <t>Springtime</t>
+          <t>Early Treat</t>
         </is>
       </c>
       <c r="L868" t="inlineStr">
@@ -69804,16 +69804,16 @@
         </is>
       </c>
       <c r="M868" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="N868" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O868" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P868" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q868" t="inlineStr">
         <is>
@@ -69826,7 +69826,7 @@
         </is>
       </c>
       <c r="S868" t="n">
-        <v>625</v>
+        <v>562</v>
       </c>
       <c r="T868" t="n">
         <v>16</v>
@@ -69847,7 +69847,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44277</v>
+        <v>44167</v>
       </c>
       <c r="E869" t="n">
         <v>5</v>
@@ -69875,7 +69875,7 @@
       </c>
       <c r="K869" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L869" t="inlineStr">
@@ -69884,16 +69884,16 @@
         </is>
       </c>
       <c r="M869" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N869" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O869" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P869" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q869" t="inlineStr">
         <is>
@@ -69906,7 +69906,7 @@
         </is>
       </c>
       <c r="S869" t="n">
-        <v>938</v>
+        <v>812</v>
       </c>
       <c r="T869" t="n">
         <v>16</v>
@@ -69927,7 +69927,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44277</v>
+        <v>44167</v>
       </c>
       <c r="E870" t="n">
         <v>5</v>
@@ -69955,25 +69955,25 @@
       </c>
       <c r="K870" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L870" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M870" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="N870" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O870" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P870" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q870" t="inlineStr">
         <is>
@@ -69986,7 +69986,7 @@
         </is>
       </c>
       <c r="S870" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T870" t="n">
         <v>16</v>
@@ -70007,7 +70007,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44277</v>
+        <v>44167</v>
       </c>
       <c r="E871" t="n">
         <v>5</v>
@@ -70035,16 +70035,16 @@
       </c>
       <c r="K871" t="inlineStr">
         <is>
-          <t>September Sweet</t>
+          <t>Springtime</t>
         </is>
       </c>
       <c r="L871" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M871" t="n">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="N871" t="n">
         <v>13000</v>
@@ -70087,7 +70087,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44258</v>
+        <v>44167</v>
       </c>
       <c r="E872" t="n">
         <v>5</v>
@@ -70115,25 +70115,25 @@
       </c>
       <c r="K872" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Springtime</t>
         </is>
       </c>
       <c r="L872" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M872" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N872" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O872" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P872" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q872" t="inlineStr">
         <is>
@@ -70146,7 +70146,7 @@
         </is>
       </c>
       <c r="S872" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="T872" t="n">
         <v>16</v>
@@ -70167,7 +70167,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44258</v>
+        <v>44167</v>
       </c>
       <c r="E873" t="n">
         <v>5</v>
@@ -70195,25 +70195,25 @@
       </c>
       <c r="K873" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>Springtime</t>
         </is>
       </c>
       <c r="L873" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M873" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="N873" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O873" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P873" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q873" t="inlineStr">
         <is>
@@ -70226,7 +70226,7 @@
         </is>
       </c>
       <c r="S873" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T873" t="n">
         <v>16</v>
@@ -70247,7 +70247,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E874" t="n">
         <v>5</v>
@@ -70275,25 +70275,25 @@
       </c>
       <c r="K874" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L874" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M874" t="n">
         <v>70</v>
       </c>
       <c r="N874" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O874" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P874" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q874" t="inlineStr">
         <is>
@@ -70306,7 +70306,7 @@
         </is>
       </c>
       <c r="S874" t="n">
-        <v>750</v>
+        <v>938</v>
       </c>
       <c r="T874" t="n">
         <v>16</v>
@@ -70327,7 +70327,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E875" t="n">
         <v>5</v>
@@ -70355,25 +70355,25 @@
       </c>
       <c r="K875" t="inlineStr">
         <is>
-          <t>Phillips Cling</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L875" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M875" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N875" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O875" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P875" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q875" t="inlineStr">
         <is>
@@ -70386,7 +70386,7 @@
         </is>
       </c>
       <c r="S875" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T875" t="n">
         <v>16</v>
@@ -70407,7 +70407,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E876" t="n">
         <v>5</v>
@@ -70435,12 +70435,12 @@
       </c>
       <c r="K876" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L876" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M876" t="n">
@@ -70515,25 +70515,25 @@
       </c>
       <c r="K877" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L877" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M877" t="n">
         <v>70</v>
       </c>
       <c r="N877" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O877" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P877" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q877" t="inlineStr">
         <is>
@@ -70546,7 +70546,7 @@
         </is>
       </c>
       <c r="S877" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T877" t="n">
         <v>16</v>
@@ -70595,25 +70595,25 @@
       </c>
       <c r="K878" t="inlineStr">
         <is>
-          <t>September Snow</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L878" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M878" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N878" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O878" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P878" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q878" t="inlineStr">
         <is>
@@ -70626,7 +70626,7 @@
         </is>
       </c>
       <c r="S878" t="n">
-        <v>625</v>
+        <v>1000</v>
       </c>
       <c r="T878" t="n">
         <v>16</v>
@@ -70647,7 +70647,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44179</v>
+        <v>44258</v>
       </c>
       <c r="E879" t="n">
         <v>5</v>
@@ -70675,25 +70675,25 @@
       </c>
       <c r="K879" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L879" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M879" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N879" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O879" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P879" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q879" t="inlineStr">
         <is>
@@ -70702,11 +70702,11 @@
       </c>
       <c r="R879" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S879" t="n">
-        <v>938</v>
+        <v>750</v>
       </c>
       <c r="T879" t="n">
         <v>16</v>
@@ -70727,7 +70727,7 @@
         </is>
       </c>
       <c r="D880" s="2" t="n">
-        <v>44179</v>
+        <v>44258</v>
       </c>
       <c r="E880" t="n">
         <v>5</v>
@@ -70755,25 +70755,25 @@
       </c>
       <c r="K880" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L880" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M880" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N880" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O880" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P880" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="Q880" t="inlineStr">
         <is>
@@ -70782,11 +70782,11 @@
       </c>
       <c r="R880" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S880" t="n">
-        <v>1062</v>
+        <v>625</v>
       </c>
       <c r="T880" t="n">
         <v>16</v>
@@ -70807,7 +70807,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44179</v>
+        <v>44258</v>
       </c>
       <c r="E881" t="n">
         <v>5</v>
@@ -70835,16 +70835,16 @@
       </c>
       <c r="K881" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L881" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M881" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="N881" t="n">
         <v>13000</v>
@@ -70862,7 +70862,7 @@
       </c>
       <c r="R881" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S881" t="n">
@@ -70887,7 +70887,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44179</v>
+        <v>44258</v>
       </c>
       <c r="E882" t="n">
         <v>5</v>
@@ -70915,25 +70915,25 @@
       </c>
       <c r="K882" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L882" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M882" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N882" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O882" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P882" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q882" t="inlineStr">
         <is>
@@ -70942,11 +70942,11 @@
       </c>
       <c r="R882" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S882" t="n">
-        <v>688</v>
+        <v>750</v>
       </c>
       <c r="T882" t="n">
         <v>16</v>
@@ -70967,7 +70967,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44595</v>
+        <v>44258</v>
       </c>
       <c r="E883" t="n">
         <v>5</v>
@@ -70995,29 +70995,29 @@
       </c>
       <c r="K883" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>September Snow</t>
         </is>
       </c>
       <c r="L883" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M883" t="n">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="N883" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O883" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P883" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q883" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R883" t="inlineStr">
@@ -71026,10 +71026,10 @@
         </is>
       </c>
       <c r="S883" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T883" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="884">
@@ -71047,7 +71047,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44595</v>
+        <v>44179</v>
       </c>
       <c r="E884" t="n">
         <v>5</v>
@@ -71075,41 +71075,41 @@
       </c>
       <c r="K884" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L884" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M884" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N884" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O884" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P884" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q884" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R884" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S884" t="n">
-        <v>867</v>
+        <v>938</v>
       </c>
       <c r="T884" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="885">
@@ -71127,7 +71127,7 @@
         </is>
       </c>
       <c r="D885" s="2" t="n">
-        <v>44595</v>
+        <v>44179</v>
       </c>
       <c r="E885" t="n">
         <v>5</v>
@@ -71155,41 +71155,41 @@
       </c>
       <c r="K885" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L885" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M885" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N885" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="O885" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P885" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="Q885" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R885" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S885" t="n">
-        <v>733</v>
+        <v>1062</v>
       </c>
       <c r="T885" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="886">
@@ -71207,7 +71207,7 @@
         </is>
       </c>
       <c r="D886" s="2" t="n">
-        <v>44595</v>
+        <v>44179</v>
       </c>
       <c r="E886" t="n">
         <v>5</v>
@@ -71235,41 +71235,41 @@
       </c>
       <c r="K886" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L886" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M886" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N886" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O886" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P886" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q886" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R886" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S886" t="n">
-        <v>1000</v>
+        <v>812</v>
       </c>
       <c r="T886" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="887">
@@ -71287,7 +71287,7 @@
         </is>
       </c>
       <c r="D887" s="2" t="n">
-        <v>44595</v>
+        <v>44179</v>
       </c>
       <c r="E887" t="n">
         <v>5</v>
@@ -71315,41 +71315,41 @@
       </c>
       <c r="K887" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L887" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M887" t="n">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="N887" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O887" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P887" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q887" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R887" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S887" t="n">
-        <v>867</v>
+        <v>688</v>
       </c>
       <c r="T887" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="888">
@@ -71395,25 +71395,25 @@
       </c>
       <c r="K888" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L888" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M888" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N888" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O888" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P888" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q888" t="inlineStr">
         <is>
@@ -71426,7 +71426,7 @@
         </is>
       </c>
       <c r="S888" t="n">
-        <v>733</v>
+        <v>1000</v>
       </c>
       <c r="T888" t="n">
         <v>15</v>
@@ -71475,25 +71475,25 @@
       </c>
       <c r="K889" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L889" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M889" t="n">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="N889" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O889" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P889" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q889" t="inlineStr">
         <is>
@@ -71506,7 +71506,7 @@
         </is>
       </c>
       <c r="S889" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T889" t="n">
         <v>15</v>
@@ -71555,25 +71555,25 @@
       </c>
       <c r="K890" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L890" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M890" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N890" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O890" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P890" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q890" t="inlineStr">
         <is>
@@ -71586,7 +71586,7 @@
         </is>
       </c>
       <c r="S890" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T890" t="n">
         <v>15</v>
@@ -71635,25 +71635,25 @@
       </c>
       <c r="K891" t="inlineStr">
         <is>
-          <t>Elegant Lady</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L891" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M891" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="N891" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O891" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P891" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q891" t="inlineStr">
         <is>
@@ -71666,7 +71666,7 @@
         </is>
       </c>
       <c r="S891" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T891" t="n">
         <v>15</v>
@@ -71687,7 +71687,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E892" t="n">
         <v>5</v>
@@ -71715,29 +71715,29 @@
       </c>
       <c r="K892" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L892" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M892" t="n">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="N892" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O892" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P892" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q892" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R892" t="inlineStr">
@@ -71746,10 +71746,10 @@
         </is>
       </c>
       <c r="S892" t="n">
-        <v>1167</v>
+        <v>867</v>
       </c>
       <c r="T892" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="893">
@@ -71767,7 +71767,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E893" t="n">
         <v>5</v>
@@ -71795,25 +71795,25 @@
       </c>
       <c r="K893" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L893" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M893" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="N893" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O893" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P893" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q893" t="inlineStr">
         <is>
@@ -71826,7 +71826,7 @@
         </is>
       </c>
       <c r="S893" t="n">
-        <v>1000</v>
+        <v>733</v>
       </c>
       <c r="T893" t="n">
         <v>15</v>
@@ -71847,7 +71847,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E894" t="n">
         <v>5</v>
@@ -71875,29 +71875,29 @@
       </c>
       <c r="K894" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L894" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M894" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="N894" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O894" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P894" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q894" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R894" t="inlineStr">
@@ -71906,10 +71906,10 @@
         </is>
       </c>
       <c r="S894" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T894" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="895">
@@ -71927,7 +71927,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E895" t="n">
         <v>5</v>
@@ -71955,7 +71955,7 @@
       </c>
       <c r="K895" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L895" t="inlineStr">
@@ -71964,16 +71964,16 @@
         </is>
       </c>
       <c r="M895" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="N895" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O895" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P895" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q895" t="inlineStr">
         <is>
@@ -71986,7 +71986,7 @@
         </is>
       </c>
       <c r="S895" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T895" t="n">
         <v>15</v>
@@ -72007,7 +72007,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E896" t="n">
         <v>5</v>
@@ -72035,7 +72035,7 @@
       </c>
       <c r="K896" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Elegant Lady</t>
         </is>
       </c>
       <c r="L896" t="inlineStr">
@@ -72044,16 +72044,16 @@
         </is>
       </c>
       <c r="M896" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="N896" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O896" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P896" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q896" t="inlineStr">
         <is>
@@ -72066,7 +72066,7 @@
         </is>
       </c>
       <c r="S896" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T896" t="n">
         <v>15</v>
@@ -72087,7 +72087,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E897" t="n">
         <v>5</v>
@@ -72115,7 +72115,7 @@
       </c>
       <c r="K897" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L897" t="inlineStr">
@@ -72124,32 +72124,32 @@
         </is>
       </c>
       <c r="M897" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N897" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O897" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P897" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q897" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R897" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S897" t="n">
-        <v>1000</v>
+        <v>1167</v>
       </c>
       <c r="T897" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="898">
@@ -72167,7 +72167,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E898" t="n">
         <v>5</v>
@@ -72195,25 +72195,25 @@
       </c>
       <c r="K898" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L898" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M898" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N898" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O898" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P898" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q898" t="inlineStr">
         <is>
@@ -72222,11 +72222,11 @@
       </c>
       <c r="R898" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S898" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T898" t="n">
         <v>15</v>
@@ -72247,7 +72247,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E899" t="n">
         <v>5</v>
@@ -72275,41 +72275,41 @@
       </c>
       <c r="K899" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L899" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M899" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="N899" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O899" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P899" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q899" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R899" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S899" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T899" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="900">
@@ -72327,7 +72327,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44160</v>
+        <v>44552</v>
       </c>
       <c r="E900" t="n">
         <v>5</v>
@@ -72355,41 +72355,41 @@
       </c>
       <c r="K900" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L900" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M900" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="N900" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O900" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P900" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q900" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R900" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S900" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T900" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="901">
@@ -72407,7 +72407,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44160</v>
+        <v>44552</v>
       </c>
       <c r="E901" t="n">
         <v>5</v>
@@ -72435,41 +72435,41 @@
       </c>
       <c r="K901" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L901" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M901" t="n">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="N901" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="O901" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P901" t="n">
-        <v>6528</v>
+        <v>11000</v>
       </c>
       <c r="Q901" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R901" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S901" t="n">
-        <v>816</v>
+        <v>733</v>
       </c>
       <c r="T901" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="902">
@@ -72487,7 +72487,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E902" t="n">
         <v>5</v>
@@ -72515,7 +72515,7 @@
       </c>
       <c r="K902" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L902" t="inlineStr">
@@ -72524,20 +72524,20 @@
         </is>
       </c>
       <c r="M902" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N902" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O902" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P902" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q902" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R902" t="inlineStr">
@@ -72546,10 +72546,10 @@
         </is>
       </c>
       <c r="S902" t="n">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="T902" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="903">
@@ -72567,7 +72567,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E903" t="n">
         <v>5</v>
@@ -72595,41 +72595,41 @@
       </c>
       <c r="K903" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L903" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M903" t="n">
         <v>60</v>
       </c>
       <c r="N903" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O903" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P903" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q903" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R903" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S903" t="n">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="T903" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="904">
@@ -72647,7 +72647,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E904" t="n">
         <v>5</v>
@@ -72675,29 +72675,29 @@
       </c>
       <c r="K904" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L904" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M904" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N904" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O904" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P904" t="n">
-        <v>12286</v>
+        <v>10000</v>
       </c>
       <c r="Q904" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R904" t="inlineStr">
@@ -72706,10 +72706,10 @@
         </is>
       </c>
       <c r="S904" t="n">
-        <v>768</v>
+        <v>667</v>
       </c>
       <c r="T904" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="905">
@@ -72755,40 +72755,440 @@
       </c>
       <c r="K905" t="inlineStr">
         <is>
+          <t>Desergold</t>
+        </is>
+      </c>
+      <c r="L905" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M905" t="n">
+        <v>56</v>
+      </c>
+      <c r="N905" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O905" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P905" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q905" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R905" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S905" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T905" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="n">
+        <v>3</v>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C906" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D906" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E906" t="n">
+        <v>5</v>
+      </c>
+      <c r="F906" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G906" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H906" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I906" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J906" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>Desergold</t>
+        </is>
+      </c>
+      <c r="L906" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M906" t="n">
+        <v>127</v>
+      </c>
+      <c r="N906" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O906" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P906" t="n">
+        <v>6528</v>
+      </c>
+      <c r="Q906" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R906" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S906" t="n">
+        <v>816</v>
+      </c>
+      <c r="T906" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="n">
+        <v>3</v>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C907" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D907" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E907" t="n">
+        <v>5</v>
+      </c>
+      <c r="F907" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G907" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H907" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I907" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J907" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K907" t="inlineStr">
+        <is>
           <t>Florida King</t>
         </is>
       </c>
-      <c r="L905" t="inlineStr">
+      <c r="L907" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M907" t="n">
+        <v>50</v>
+      </c>
+      <c r="N907" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O907" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P907" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q907" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R907" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S907" t="n">
+        <v>875</v>
+      </c>
+      <c r="T907" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="n">
+        <v>3</v>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C908" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D908" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E908" t="n">
+        <v>5</v>
+      </c>
+      <c r="F908" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G908" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H908" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I908" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J908" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>Florida King</t>
+        </is>
+      </c>
+      <c r="L908" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M908" t="n">
+        <v>60</v>
+      </c>
+      <c r="N908" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O908" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P908" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q908" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos granel</t>
+        </is>
+      </c>
+      <c r="R908" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S908" t="n">
+        <v>812</v>
+      </c>
+      <c r="T908" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="n">
+        <v>3</v>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C909" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D909" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E909" t="n">
+        <v>5</v>
+      </c>
+      <c r="F909" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G909" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H909" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I909" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J909" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>Florida King</t>
+        </is>
+      </c>
+      <c r="L909" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M905" t="n">
+      <c r="M909" t="n">
+        <v>70</v>
+      </c>
+      <c r="N909" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O909" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P909" t="n">
+        <v>12286</v>
+      </c>
+      <c r="Q909" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R909" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S909" t="n">
+        <v>768</v>
+      </c>
+      <c r="T909" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="n">
+        <v>3</v>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C910" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D910" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E910" t="n">
+        <v>5</v>
+      </c>
+      <c r="F910" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G910" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H910" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I910" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J910" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>Florida King</t>
+        </is>
+      </c>
+      <c r="L910" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M910" t="n">
         <v>58</v>
       </c>
-      <c r="N905" t="n">
+      <c r="N910" t="n">
         <v>12000</v>
       </c>
-      <c r="O905" t="n">
+      <c r="O910" t="n">
         <v>12000</v>
       </c>
-      <c r="P905" t="n">
+      <c r="P910" t="n">
         <v>12000</v>
       </c>
-      <c r="Q905" t="inlineStr">
+      <c r="Q910" t="inlineStr">
         <is>
           <t>$/caja 16 kilos granel</t>
         </is>
       </c>
-      <c r="R905" t="inlineStr">
+      <c r="R910" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="S905" t="n">
+      <c r="S910" t="n">
         <v>750</v>
       </c>
-      <c r="T905" t="n">
+      <c r="T910" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T978"/>
+  <dimension ref="A1:T985"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77527,7 +77527,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44552</v>
+        <v>44628</v>
       </c>
       <c r="E965" t="n">
         <v>5</v>
@@ -77555,7 +77555,7 @@
       </c>
       <c r="K965" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L965" t="inlineStr">
@@ -77567,17 +77567,17 @@
         <v>67</v>
       </c>
       <c r="N965" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O965" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P965" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q965" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R965" t="inlineStr">
@@ -77586,10 +77586,10 @@
         </is>
       </c>
       <c r="S965" t="n">
-        <v>1167</v>
+        <v>1000</v>
       </c>
       <c r="T965" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="966">
@@ -77607,7 +77607,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44552</v>
+        <v>44628</v>
       </c>
       <c r="E966" t="n">
         <v>5</v>
@@ -77635,25 +77635,25 @@
       </c>
       <c r="K966" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L966" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M966" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="N966" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O966" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P966" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q966" t="inlineStr">
         <is>
@@ -77666,7 +77666,7 @@
         </is>
       </c>
       <c r="S966" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T966" t="n">
         <v>15</v>
@@ -77687,7 +77687,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44552</v>
+        <v>44628</v>
       </c>
       <c r="E967" t="n">
         <v>5</v>
@@ -77715,29 +77715,29 @@
       </c>
       <c r="K967" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L967" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M967" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="N967" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O967" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P967" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q967" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R967" t="inlineStr">
@@ -77746,10 +77746,10 @@
         </is>
       </c>
       <c r="S967" t="n">
-        <v>1000</v>
+        <v>733</v>
       </c>
       <c r="T967" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="968">
@@ -77767,7 +77767,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44552</v>
+        <v>44628</v>
       </c>
       <c r="E968" t="n">
         <v>5</v>
@@ -77795,25 +77795,25 @@
       </c>
       <c r="K968" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L968" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M968" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N968" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O968" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P968" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q968" t="inlineStr">
         <is>
@@ -77826,7 +77826,7 @@
         </is>
       </c>
       <c r="S968" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T968" t="n">
         <v>15</v>
@@ -77847,7 +77847,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44552</v>
+        <v>44628</v>
       </c>
       <c r="E969" t="n">
         <v>5</v>
@@ -77875,25 +77875,25 @@
       </c>
       <c r="K969" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L969" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M969" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N969" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="O969" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P969" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="Q969" t="inlineStr">
         <is>
@@ -77906,7 +77906,7 @@
         </is>
       </c>
       <c r="S969" t="n">
-        <v>733</v>
+        <v>1133</v>
       </c>
       <c r="T969" t="n">
         <v>15</v>
@@ -77927,7 +77927,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44544</v>
+        <v>44628</v>
       </c>
       <c r="E970" t="n">
         <v>5</v>
@@ -77955,25 +77955,25 @@
       </c>
       <c r="K970" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L970" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M970" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N970" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O970" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P970" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q970" t="inlineStr">
         <is>
@@ -77982,11 +77982,11 @@
       </c>
       <c r="R970" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S970" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T970" t="n">
         <v>15</v>
@@ -78007,7 +78007,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44544</v>
+        <v>44628</v>
       </c>
       <c r="E971" t="n">
         <v>5</v>
@@ -78035,25 +78035,25 @@
       </c>
       <c r="K971" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L971" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M971" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N971" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O971" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P971" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q971" t="inlineStr">
         <is>
@@ -78062,11 +78062,11 @@
       </c>
       <c r="R971" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S971" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T971" t="n">
         <v>15</v>
@@ -78087,7 +78087,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E972" t="n">
         <v>5</v>
@@ -78115,41 +78115,41 @@
       </c>
       <c r="K972" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L972" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M972" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N972" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O972" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P972" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q972" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R972" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S972" t="n">
-        <v>667</v>
+        <v>1167</v>
       </c>
       <c r="T972" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="973">
@@ -78167,7 +78167,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44160</v>
+        <v>44552</v>
       </c>
       <c r="E973" t="n">
         <v>5</v>
@@ -78195,7 +78195,7 @@
       </c>
       <c r="K973" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L973" t="inlineStr">
@@ -78207,29 +78207,29 @@
         <v>56</v>
       </c>
       <c r="N973" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O973" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P973" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q973" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R973" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S973" t="n">
         <v>1000</v>
       </c>
       <c r="T973" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="974">
@@ -78247,7 +78247,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44160</v>
+        <v>44552</v>
       </c>
       <c r="E974" t="n">
         <v>5</v>
@@ -78275,7 +78275,7 @@
       </c>
       <c r="K974" t="inlineStr">
         <is>
-          <t>Desergold</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L974" t="inlineStr">
@@ -78284,32 +78284,32 @@
         </is>
       </c>
       <c r="M974" t="n">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="N974" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O974" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P974" t="n">
-        <v>6528</v>
+        <v>12000</v>
       </c>
       <c r="Q974" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R974" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S974" t="n">
-        <v>816</v>
+        <v>1000</v>
       </c>
       <c r="T974" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="975">
@@ -78327,7 +78327,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44160</v>
+        <v>44552</v>
       </c>
       <c r="E975" t="n">
         <v>5</v>
@@ -78355,41 +78355,41 @@
       </c>
       <c r="K975" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L975" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M975" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="N975" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O975" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P975" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q975" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R975" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S975" t="n">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="T975" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="976">
@@ -78407,7 +78407,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44160</v>
+        <v>44552</v>
       </c>
       <c r="E976" t="n">
         <v>5</v>
@@ -78435,41 +78435,41 @@
       </c>
       <c r="K976" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Kurakata</t>
         </is>
       </c>
       <c r="L976" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M976" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="N976" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O976" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P976" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q976" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos granel</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R976" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S976" t="n">
-        <v>812</v>
+        <v>733</v>
       </c>
       <c r="T976" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="977">
@@ -78487,7 +78487,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E977" t="n">
         <v>5</v>
@@ -78515,29 +78515,29 @@
       </c>
       <c r="K977" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L977" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M977" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N977" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O977" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P977" t="n">
-        <v>12286</v>
+        <v>15000</v>
       </c>
       <c r="Q977" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R977" t="inlineStr">
@@ -78546,10 +78546,10 @@
         </is>
       </c>
       <c r="S977" t="n">
-        <v>768</v>
+        <v>1000</v>
       </c>
       <c r="T977" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="978">
@@ -78567,7 +78567,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E978" t="n">
         <v>5</v>
@@ -78595,7 +78595,7 @@
       </c>
       <c r="K978" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Desergold</t>
         </is>
       </c>
       <c r="L978" t="inlineStr">
@@ -78604,7 +78604,7 @@
         </is>
       </c>
       <c r="M978" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N978" t="n">
         <v>12000</v>
@@ -78617,18 +78617,578 @@
       </c>
       <c r="Q978" t="inlineStr">
         <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R978" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S978" t="n">
+        <v>800</v>
+      </c>
+      <c r="T978" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="n">
+        <v>3</v>
+      </c>
+      <c r="B979" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C979" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D979" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E979" t="n">
+        <v>5</v>
+      </c>
+      <c r="F979" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G979" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H979" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I979" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J979" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K979" t="inlineStr">
+        <is>
+          <t>Desergold</t>
+        </is>
+      </c>
+      <c r="L979" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M979" t="n">
+        <v>60</v>
+      </c>
+      <c r="N979" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O979" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P979" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q979" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R979" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S979" t="n">
+        <v>667</v>
+      </c>
+      <c r="T979" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="n">
+        <v>3</v>
+      </c>
+      <c r="B980" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C980" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D980" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E980" t="n">
+        <v>5</v>
+      </c>
+      <c r="F980" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G980" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H980" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I980" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J980" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K980" t="inlineStr">
+        <is>
+          <t>Desergold</t>
+        </is>
+      </c>
+      <c r="L980" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M980" t="n">
+        <v>56</v>
+      </c>
+      <c r="N980" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O980" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P980" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q980" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R980" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S980" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T980" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="n">
+        <v>3</v>
+      </c>
+      <c r="B981" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C981" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D981" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E981" t="n">
+        <v>5</v>
+      </c>
+      <c r="F981" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G981" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H981" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I981" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J981" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K981" t="inlineStr">
+        <is>
+          <t>Desergold</t>
+        </is>
+      </c>
+      <c r="L981" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M981" t="n">
+        <v>127</v>
+      </c>
+      <c r="N981" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O981" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P981" t="n">
+        <v>6528</v>
+      </c>
+      <c r="Q981" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R981" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S981" t="n">
+        <v>816</v>
+      </c>
+      <c r="T981" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="n">
+        <v>3</v>
+      </c>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C982" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D982" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E982" t="n">
+        <v>5</v>
+      </c>
+      <c r="F982" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G982" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H982" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I982" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J982" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K982" t="inlineStr">
+        <is>
+          <t>Florida King</t>
+        </is>
+      </c>
+      <c r="L982" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M982" t="n">
+        <v>50</v>
+      </c>
+      <c r="N982" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O982" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P982" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q982" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R982" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S982" t="n">
+        <v>875</v>
+      </c>
+      <c r="T982" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="n">
+        <v>3</v>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C983" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D983" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E983" t="n">
+        <v>5</v>
+      </c>
+      <c r="F983" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G983" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H983" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I983" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J983" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K983" t="inlineStr">
+        <is>
+          <t>Florida King</t>
+        </is>
+      </c>
+      <c r="L983" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M983" t="n">
+        <v>60</v>
+      </c>
+      <c r="N983" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O983" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P983" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q983" t="inlineStr">
+        <is>
           <t>$/caja 16 kilos granel</t>
         </is>
       </c>
-      <c r="R978" t="inlineStr">
+      <c r="R983" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="S978" t="n">
+      <c r="S983" t="n">
+        <v>812</v>
+      </c>
+      <c r="T983" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="n">
+        <v>3</v>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C984" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D984" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E984" t="n">
+        <v>5</v>
+      </c>
+      <c r="F984" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G984" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H984" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I984" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J984" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>Florida King</t>
+        </is>
+      </c>
+      <c r="L984" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M984" t="n">
+        <v>70</v>
+      </c>
+      <c r="N984" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O984" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P984" t="n">
+        <v>12286</v>
+      </c>
+      <c r="Q984" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos empedrada</t>
+        </is>
+      </c>
+      <c r="R984" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S984" t="n">
+        <v>768</v>
+      </c>
+      <c r="T984" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="n">
+        <v>3</v>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C985" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D985" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E985" t="n">
+        <v>5</v>
+      </c>
+      <c r="F985" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G985" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H985" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I985" t="n">
+        <v>100103004</v>
+      </c>
+      <c r="J985" t="inlineStr">
+        <is>
+          <t>Durazno</t>
+        </is>
+      </c>
+      <c r="K985" t="inlineStr">
+        <is>
+          <t>Florida King</t>
+        </is>
+      </c>
+      <c r="L985" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M985" t="n">
+        <v>58</v>
+      </c>
+      <c r="N985" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O985" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P985" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q985" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos granel</t>
+        </is>
+      </c>
+      <c r="R985" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S985" t="n">
         <v>750</v>
       </c>
-      <c r="T978" t="n">
+      <c r="T985" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Durazno.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Durazno.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1022"/>
+  <dimension ref="A1:T1029"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69047,7 +69047,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44208</v>
+        <v>44637</v>
       </c>
       <c r="E859" t="n">
         <v>5</v>
@@ -69075,7 +69075,7 @@
       </c>
       <c r="K859" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L859" t="inlineStr">
@@ -69084,7 +69084,7 @@
         </is>
       </c>
       <c r="M859" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N859" t="n">
         <v>15000</v>
@@ -69097,19 +69097,19 @@
       </c>
       <c r="Q859" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R859" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S859" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T859" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="860">
@@ -69127,7 +69127,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44208</v>
+        <v>44637</v>
       </c>
       <c r="E860" t="n">
         <v>5</v>
@@ -69155,7 +69155,7 @@
       </c>
       <c r="K860" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L860" t="inlineStr">
@@ -69164,32 +69164,32 @@
         </is>
       </c>
       <c r="M860" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N860" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O860" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P860" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q860" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R860" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S860" t="n">
-        <v>1000</v>
+        <v>1133</v>
       </c>
       <c r="T860" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="861">
@@ -69207,7 +69207,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44208</v>
+        <v>44637</v>
       </c>
       <c r="E861" t="n">
         <v>5</v>
@@ -69235,7 +69235,7 @@
       </c>
       <c r="K861" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L861" t="inlineStr">
@@ -69244,32 +69244,32 @@
         </is>
       </c>
       <c r="M861" t="n">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="N861" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O861" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P861" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q861" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R861" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S861" t="n">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="T861" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="862">
@@ -69287,7 +69287,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44208</v>
+        <v>44637</v>
       </c>
       <c r="E862" t="n">
         <v>5</v>
@@ -69315,7 +69315,7 @@
       </c>
       <c r="K862" t="inlineStr">
         <is>
-          <t>Andross</t>
+          <t>Phillips Cling</t>
         </is>
       </c>
       <c r="L862" t="inlineStr">
@@ -69327,29 +69327,29 @@
         <v>80</v>
       </c>
       <c r="N862" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O862" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P862" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q862" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R862" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S862" t="n">
-        <v>750</v>
+        <v>733</v>
       </c>
       <c r="T862" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="863">
@@ -69367,7 +69367,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44208</v>
+        <v>44637</v>
       </c>
       <c r="E863" t="n">
         <v>5</v>
@@ -69395,7 +69395,7 @@
       </c>
       <c r="K863" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L863" t="inlineStr">
@@ -69417,19 +69417,19 @@
       </c>
       <c r="Q863" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R863" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S863" t="n">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="T863" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="864">
@@ -69447,7 +69447,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44208</v>
+        <v>44637</v>
       </c>
       <c r="E864" t="n">
         <v>5</v>
@@ -69475,41 +69475,41 @@
       </c>
       <c r="K864" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L864" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M864" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="N864" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O864" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P864" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q864" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R864" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S864" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T864" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="865">
@@ -69527,7 +69527,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44208</v>
+        <v>44637</v>
       </c>
       <c r="E865" t="n">
         <v>5</v>
@@ -69555,41 +69555,41 @@
       </c>
       <c r="K865" t="inlineStr">
         <is>
-          <t>Carson</t>
+          <t>September Sweet</t>
         </is>
       </c>
       <c r="L865" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M865" t="n">
         <v>80</v>
       </c>
       <c r="N865" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O865" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P865" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q865" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos empedrada</t>
+          <t>$/caja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R865" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S865" t="n">
-        <v>875</v>
+        <v>733</v>
       </c>
       <c r="T865" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="866">
@@ -69635,7 +69635,7 @@
       </c>
       <c r="K866" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L866" t="inlineStr">
@@ -69644,16 +69644,16 @@
         </is>
       </c>
       <c r="M866" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N866" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O866" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P866" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q866" t="inlineStr">
         <is>
@@ -69662,11 +69662,11 @@
       </c>
       <c r="R866" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S866" t="n">
-        <v>875</v>
+        <v>938</v>
       </c>
       <c r="T866" t="n">
         <v>16</v>
@@ -69715,25 +69715,25 @@
       </c>
       <c r="K867" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L867" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M867" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N867" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O867" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P867" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q867" t="inlineStr">
         <is>
@@ -69742,11 +69742,11 @@
       </c>
       <c r="R867" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S867" t="n">
-        <v>812</v>
+        <v>1000</v>
       </c>
       <c r="T867" t="n">
         <v>16</v>
@@ -69795,25 +69795,25 @@
       </c>
       <c r="K868" t="inlineStr">
         <is>
-          <t>Royal Glory</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L868" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M868" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="N868" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O868" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P868" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q868" t="inlineStr">
         <is>
@@ -69822,11 +69822,11 @@
       </c>
       <c r="R868" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S868" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="T868" t="n">
         <v>16</v>
@@ -69847,7 +69847,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44524</v>
+        <v>44208</v>
       </c>
       <c r="E869" t="n">
         <v>5</v>
@@ -69875,41 +69875,41 @@
       </c>
       <c r="K869" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Andross</t>
         </is>
       </c>
       <c r="L869" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M869" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N869" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O869" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P869" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q869" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R869" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S869" t="n">
-        <v>867</v>
+        <v>750</v>
       </c>
       <c r="T869" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="870">
@@ -69927,7 +69927,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44524</v>
+        <v>44208</v>
       </c>
       <c r="E870" t="n">
         <v>5</v>
@@ -69955,41 +69955,41 @@
       </c>
       <c r="K870" t="inlineStr">
         <is>
-          <t>Florida King</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L870" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M870" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N870" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O870" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P870" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q870" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R870" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S870" t="n">
-        <v>733</v>
+        <v>938</v>
       </c>
       <c r="T870" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="871">
@@ -70007,7 +70007,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44530</v>
+        <v>44208</v>
       </c>
       <c r="E871" t="n">
         <v>5</v>
@@ -70035,29 +70035,29 @@
       </c>
       <c r="K871" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L871" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Extra (doble especial)</t>
         </is>
       </c>
       <c r="M871" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N871" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O871" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P871" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q871" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R871" t="inlineStr">
@@ -70066,10 +70066,10 @@
         </is>
       </c>
       <c r="S871" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T871" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="872">
@@ -70087,7 +70087,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44530</v>
+        <v>44208</v>
       </c>
       <c r="E872" t="n">
         <v>5</v>
@@ -70115,7 +70115,7 @@
       </c>
       <c r="K872" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Carson</t>
         </is>
       </c>
       <c r="L872" t="inlineStr">
@@ -70124,20 +70124,20 @@
         </is>
       </c>
       <c r="M872" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N872" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O872" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P872" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q872" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R872" t="inlineStr">
@@ -70146,10 +70146,10 @@
         </is>
       </c>
       <c r="S872" t="n">
-        <v>800</v>
+        <v>875</v>
       </c>
       <c r="T872" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="873">
@@ -70167,7 +70167,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44530</v>
+        <v>44208</v>
       </c>
       <c r="E873" t="n">
         <v>5</v>
@@ -70195,41 +70195,41 @@
       </c>
       <c r="K873" t="inlineStr">
         <is>
-          <t>Early Majestic</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L873" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M873" t="n">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="N873" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O873" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P873" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q873" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R873" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S873" t="n">
-        <v>667</v>
+        <v>875</v>
       </c>
       <c r="T873" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="874">
@@ -70247,7 +70247,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44530</v>
+        <v>44208</v>
       </c>
       <c r="E874" t="n">
         <v>5</v>
@@ -70275,41 +70275,41 @@
       </c>
       <c r="K874" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L874" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M874" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N874" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O874" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P874" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q874" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R874" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S874" t="n">
-        <v>1333</v>
+        <v>812</v>
       </c>
       <c r="T874" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="875">
@@ -70327,7 +70327,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44530</v>
+        <v>44208</v>
       </c>
       <c r="E875" t="n">
         <v>5</v>
@@ -70355,41 +70355,41 @@
       </c>
       <c r="K875" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Royal Glory</t>
         </is>
       </c>
       <c r="L875" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M875" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="N875" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O875" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P875" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q875" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 16 kilos empedrada</t>
         </is>
       </c>
       <c r="R875" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S875" t="n">
-        <v>1167</v>
+        <v>750</v>
       </c>
       <c r="T875" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="876">
@@ -70407,7 +70407,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44530</v>
+        <v>44524</v>
       </c>
       <c r="E876" t="n">
         <v>5</v>
@@ -70435,41 +70435,41 @@
       </c>
       <c r="K876" t="inlineStr">
         <is>
-          <t>Polar King</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L876" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M876" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N876" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O876" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P876" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q876" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R876" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S876" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T876" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="877">
@@ -70487,7 +70487,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44617</v>
+        <v>44524</v>
       </c>
       <c r="E877" t="n">
         <v>5</v>
@@ -70515,38 +70515,38 @@
       </c>
       <c r="K877" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Florida King</t>
         </is>
       </c>
       <c r="L877" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M877" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N877" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O877" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P877" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q877" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R877" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S877" t="n">
-        <v>1067</v>
+        <v>733</v>
       </c>
       <c r="T877" t="n">
         <v>15</v>
@@ -70567,7 +70567,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44617</v>
+        <v>44530</v>
       </c>
       <c r="E878" t="n">
         <v>5</v>
@@ -70595,16 +70595,16 @@
       </c>
       <c r="K878" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L878" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M878" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="N878" t="n">
         <v>14000</v>
@@ -70622,7 +70622,7 @@
       </c>
       <c r="R878" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S878" t="n">
@@ -70647,7 +70647,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44617</v>
+        <v>44530</v>
       </c>
       <c r="E879" t="n">
         <v>5</v>
@@ -70675,16 +70675,16 @@
       </c>
       <c r="K879" t="inlineStr">
         <is>
-          <t>Doctor Davis</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L879" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M879" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N879" t="n">
         <v>12000</v>
@@ -70702,7 +70702,7 @@
       </c>
       <c r="R879" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S879" t="n">
@@ -70727,7 +70727,7 @@
         </is>
       </c>
       <c r="D880" s="2" t="n">
-        <v>44617</v>
+        <v>44530</v>
       </c>
       <c r="E880" t="n">
         <v>5</v>
@@ -70755,25 +70755,25 @@
       </c>
       <c r="K880" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Early Majestic</t>
         </is>
       </c>
       <c r="L880" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M880" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="N880" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O880" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P880" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q880" t="inlineStr">
         <is>
@@ -70782,11 +70782,11 @@
       </c>
       <c r="R880" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S880" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T880" t="n">
         <v>15</v>
@@ -70807,7 +70807,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44617</v>
+        <v>44530</v>
       </c>
       <c r="E881" t="n">
         <v>5</v>
@@ -70835,41 +70835,41 @@
       </c>
       <c r="K881" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L881" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M881" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N881" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O881" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P881" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q881" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R881" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S881" t="n">
-        <v>1200</v>
+        <v>1333</v>
       </c>
       <c r="T881" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="882">
@@ -70887,7 +70887,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44617</v>
+        <v>44530</v>
       </c>
       <c r="E882" t="n">
         <v>5</v>
@@ -70915,7 +70915,7 @@
       </c>
       <c r="K882" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L882" t="inlineStr">
@@ -70924,7 +70924,7 @@
         </is>
       </c>
       <c r="M882" t="n">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="N882" t="n">
         <v>14000</v>
@@ -70937,19 +70937,19 @@
       </c>
       <c r="Q882" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R882" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S882" t="n">
-        <v>933</v>
+        <v>1167</v>
       </c>
       <c r="T882" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="883">
@@ -70967,7 +70967,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44617</v>
+        <v>44530</v>
       </c>
       <c r="E883" t="n">
         <v>5</v>
@@ -70995,7 +70995,7 @@
       </c>
       <c r="K883" t="inlineStr">
         <is>
-          <t>Pomona</t>
+          <t>Polar King</t>
         </is>
       </c>
       <c r="L883" t="inlineStr">
@@ -71004,7 +71004,7 @@
         </is>
       </c>
       <c r="M883" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="N883" t="n">
         <v>12000</v>
@@ -71017,19 +71017,19 @@
       </c>
       <c r="Q883" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos empedrada</t>
+          <t>$/caja 12 kilos empedrada</t>
         </is>
       </c>
       <c r="R883" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S883" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T883" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="884">
@@ -71047,7 +71047,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44557</v>
+        <v>44617</v>
       </c>
       <c r="E884" t="n">
         <v>5</v>
@@ -71075,7 +71075,7 @@
       </c>
       <c r="K884" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L884" t="inlineStr">
@@ -71084,7 +71084,7 @@
         </is>
       </c>
       <c r="M884" t="n">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="N884" t="n">
         <v>16000</v>
@@ -71127,7 +71127,7 @@
         </is>
       </c>
       <c r="D885" s="2" t="n">
-        <v>44557</v>
+        <v>44617</v>
       </c>
       <c r="E885" t="n">
         <v>5</v>
@@ -71155,25 +71155,25 @@
       </c>
       <c r="K885" t="inlineStr">
         <is>
-          <t>Kurakata</t>
+          <t>Doctor Davis</t>
         </is>
       </c>
       <c r="L885" t="inlineStr">
         <is>
-          <t>Extra (doble especial)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M885" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N885" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
 